--- a/kohana/oiadsites.xlsx
+++ b/kohana/oiadsites.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="7" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
+    <workbookView activeTab="0" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="3" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2736" uniqueCount="1229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2762" uniqueCount="1235">
   <si>
     <t>Site Name</t>
   </si>
@@ -1387,6 +1387,9 @@
     <t>http://www.fractionprice.com/cust/dailydealsteal.asp</t>
   </si>
   <si>
+    <t>Xxxxxxxx Sold out</t>
+  </si>
+  <si>
     <t>http://www.fractionprice.com/cust/RSSDDS.ASP</t>
   </si>
   <si>
@@ -1408,6 +1411,9 @@
     <t>https://www.friendsandfamilycircle.com/</t>
   </si>
   <si>
+    <t>xxxxxxxx Check back</t>
+  </si>
+  <si>
     <t>Froobi</t>
   </si>
   <si>
@@ -1501,6 +1507,9 @@
     <t>http://www.geeks.com/one-day-deal/</t>
   </si>
   <si>
+    <t>Done Server error</t>
+  </si>
+  <si>
     <t>http://feeds.feedburner.com/GeekscomPromotionsBlog?format=xml</t>
   </si>
   <si>
@@ -1531,6 +1540,9 @@
     <t>http://getarock.com/</t>
   </si>
   <si>
+    <t>No products available!</t>
+  </si>
+  <si>
     <t>getzs</t>
   </si>
   <si>
@@ -1555,6 +1567,9 @@
     <t>http://www.givemejewels.com/</t>
   </si>
   <si>
+    <t>Cannot parse site</t>
+  </si>
+  <si>
     <t>Giveaway of the Day</t>
   </si>
   <si>
@@ -1592,6 +1607,9 @@
   </si>
   <si>
     <t>http://www.golfballs.com/DealADay.aspx</t>
+  </si>
+  <si>
+    <t>Server Error in '/' Application.</t>
   </si>
   <si>
     <t>Golfsmith</t>
@@ -3713,7 +3731,7 @@
   <numFmts count="1">
     <numFmt formatCode="GENERAL" numFmtId="164"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <name val="Calibri"/>
       <charset val="1"/>
@@ -3743,12 +3761,6 @@
       <color rgb="000000FF"/>
       <sz val="11"/>
       <u val="single"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <color rgb="00000000"/>
-      <sz val="11"/>
     </font>
   </fonts>
   <fills count="3">
@@ -3799,7 +3811,7 @@
     <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="42"/>
     <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="9"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
     <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="true" borderId="0" fillId="2" fontId="0" numFmtId="164" xfId="0">
       <protection hidden="false" locked="false"/>
@@ -3809,7 +3821,6 @@
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="5" numFmtId="164" xfId="0"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle builtinId="0" customBuiltin="false" name="Normal" xfId="0"/>
@@ -3889,18 +3900,18 @@
   </sheetPr>
   <dimension ref="A1:I444"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A111" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="C157" activeCellId="0" pane="topLeft" sqref="C157"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A150" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="C184" activeCellId="0" pane="topLeft" sqref="C184"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="48.4745098039216"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="95.2235294117647"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="48.4745098039216"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="15.5176470588235"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="48.4745098039216"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="13.1647058823529"/>
-    <col collapsed="false" hidden="false" max="257" min="8" style="0" width="48.4745098039216"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="48.6745098039216"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="95.6156862745098"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="48.6745098039216"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="15.5803921568627"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="48.6745098039216"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="13.2235294117647"/>
+    <col collapsed="false" hidden="false" max="257" min="8" style="0" width="48.6745098039216"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="1" s="1">
@@ -6160,7 +6171,7 @@
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="102">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="102">
       <c r="A102" s="0" t="s">
         <v>303</v>
       </c>
@@ -6180,7 +6191,7 @@
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="103">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="103">
       <c r="A103" s="0" t="s">
         <v>305</v>
       </c>
@@ -6203,7 +6214,7 @@
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="104">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="104">
       <c r="A104" s="0" t="s">
         <v>308</v>
       </c>
@@ -6226,7 +6237,7 @@
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="105">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="105">
       <c r="A105" s="0" t="s">
         <v>311</v>
       </c>
@@ -6249,7 +6260,7 @@
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="106">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="106">
       <c r="A106" s="0" t="s">
         <v>314</v>
       </c>
@@ -6272,7 +6283,7 @@
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="107">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="107">
       <c r="A107" s="0" t="s">
         <v>317</v>
       </c>
@@ -6292,7 +6303,7 @@
         <v>319</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="108">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="108">
       <c r="A108" s="0" t="s">
         <v>320</v>
       </c>
@@ -6315,7 +6326,7 @@
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="109">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="109">
       <c r="A109" s="0" t="s">
         <v>323</v>
       </c>
@@ -6335,7 +6346,7 @@
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="110">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="110">
       <c r="A110" s="0" t="s">
         <v>325</v>
       </c>
@@ -6355,7 +6366,7 @@
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="111">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="111">
       <c r="A111" s="0" t="s">
         <v>327</v>
       </c>
@@ -6378,7 +6389,7 @@
         <v>329</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="112">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="112">
       <c r="A112" s="0" t="s">
         <v>330</v>
       </c>
@@ -6401,7 +6412,7 @@
         <v>329</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="113">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="113">
       <c r="A113" s="0" t="s">
         <v>332</v>
       </c>
@@ -6424,7 +6435,7 @@
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="114">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="114">
       <c r="A114" s="0" t="s">
         <v>335</v>
       </c>
@@ -6444,7 +6455,7 @@
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="115">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="115">
       <c r="A115" s="0" t="s">
         <v>337</v>
       </c>
@@ -6470,7 +6481,7 @@
         <v>340</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="116">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="116">
       <c r="A116" s="0" t="s">
         <v>341</v>
       </c>
@@ -6499,7 +6510,7 @@
         <v>345</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="117">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="117">
       <c r="A117" s="0" t="s">
         <v>346</v>
       </c>
@@ -6519,7 +6530,7 @@
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="118">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="118">
       <c r="A118" s="0" t="s">
         <v>349</v>
       </c>
@@ -6545,7 +6556,7 @@
         <v>352</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="119">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="119">
       <c r="A119" s="0" t="s">
         <v>353</v>
       </c>
@@ -6565,7 +6576,7 @@
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="120">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="120">
       <c r="A120" s="0" t="s">
         <v>355</v>
       </c>
@@ -6585,7 +6596,7 @@
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="121">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="121">
       <c r="A121" s="0" t="s">
         <v>357</v>
       </c>
@@ -6605,7 +6616,7 @@
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="122">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="122">
       <c r="A122" s="0" t="s">
         <v>359</v>
       </c>
@@ -6628,14 +6639,14 @@
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="123">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="123">
       <c r="A123" s="0" t="s">
         <v>362</v>
       </c>
       <c r="B123" s="0" t="s">
         <v>363</v>
       </c>
-      <c r="C123" s="4" t="s">
+      <c r="C123" s="2" t="s">
         <v>54</v>
       </c>
       <c r="D123" s="0" t="s">
@@ -6648,14 +6659,14 @@
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="124">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="124">
       <c r="A124" s="0" t="s">
         <v>364</v>
       </c>
       <c r="B124" s="0" t="s">
         <v>365</v>
       </c>
-      <c r="C124" s="4" t="s">
+      <c r="C124" s="2" t="s">
         <v>54</v>
       </c>
       <c r="D124" s="0" t="s">
@@ -6671,14 +6682,14 @@
         <v>366</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="125">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="125">
       <c r="A125" s="0" t="s">
         <v>367</v>
       </c>
       <c r="B125" s="0" t="s">
         <v>368</v>
       </c>
-      <c r="C125" s="4" t="s">
+      <c r="C125" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D125" s="0" t="s">
@@ -6694,14 +6705,14 @@
         <v>369</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="126">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="126">
       <c r="A126" s="0" t="s">
         <v>370</v>
       </c>
       <c r="B126" s="0" t="s">
         <v>371</v>
       </c>
-      <c r="C126" s="4" t="s">
+      <c r="C126" s="2" t="s">
         <v>54</v>
       </c>
       <c r="D126" s="0" t="s">
@@ -6717,7 +6728,7 @@
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="127">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="127">
       <c r="A127" s="0" t="s">
         <v>373</v>
       </c>
@@ -6737,7 +6748,7 @@
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="128">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="128">
       <c r="A128" s="0" t="s">
         <v>375</v>
       </c>
@@ -6760,7 +6771,7 @@
         <v>19</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="129">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="129">
       <c r="A129" s="0" t="s">
         <v>379</v>
       </c>
@@ -6783,7 +6794,7 @@
         <v>381</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="130">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="130">
       <c r="A130" s="0" t="s">
         <v>382</v>
       </c>
@@ -6806,7 +6817,7 @@
         <v>384</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="131">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="131">
       <c r="A131" s="0" t="s">
         <v>385</v>
       </c>
@@ -6826,7 +6837,7 @@
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="132">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="132">
       <c r="A132" s="0" t="s">
         <v>388</v>
       </c>
@@ -6849,7 +6860,7 @@
         <v>390</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="133">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="133">
       <c r="A133" s="0" t="s">
         <v>391</v>
       </c>
@@ -6869,7 +6880,7 @@
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="134">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="134">
       <c r="A134" s="0" t="s">
         <v>393</v>
       </c>
@@ -6909,7 +6920,7 @@
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="136">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="136">
       <c r="A136" s="0" t="s">
         <v>397</v>
       </c>
@@ -6932,7 +6943,7 @@
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="137">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="137">
       <c r="A137" s="0" t="s">
         <v>400</v>
       </c>
@@ -6952,7 +6963,7 @@
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="138">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="138">
       <c r="A138" s="0" t="s">
         <v>402</v>
       </c>
@@ -6972,14 +6983,14 @@
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="139">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="139">
       <c r="A139" s="0" t="s">
         <v>404</v>
       </c>
       <c r="B139" s="0" t="s">
         <v>405</v>
       </c>
-      <c r="C139" s="4" t="s">
+      <c r="C139" s="2" t="s">
         <v>54</v>
       </c>
       <c r="D139" s="0" t="s">
@@ -6998,7 +7009,7 @@
         <v>329</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="140">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="140">
       <c r="A140" s="0" t="s">
         <v>407</v>
       </c>
@@ -7024,14 +7035,14 @@
         <v>33</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="141">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="141">
       <c r="A141" s="0" t="s">
         <v>410</v>
       </c>
       <c r="B141" s="0" t="s">
         <v>411</v>
       </c>
-      <c r="C141" s="4" t="s">
+      <c r="C141" s="2" t="s">
         <v>54</v>
       </c>
       <c r="D141" s="0" t="s">
@@ -7044,7 +7055,7 @@
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="142">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="142">
       <c r="A142" s="0" t="s">
         <v>412</v>
       </c>
@@ -7070,7 +7081,7 @@
         <v>33</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="143">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="143">
       <c r="A143" s="0" t="s">
         <v>415</v>
       </c>
@@ -7093,7 +7104,7 @@
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="144">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="144">
       <c r="A144" s="0" t="s">
         <v>418</v>
       </c>
@@ -7122,7 +7133,7 @@
         <v>33</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="145">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="145">
       <c r="A145" s="0" t="s">
         <v>422</v>
       </c>
@@ -7145,7 +7156,7 @@
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="146">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="146">
       <c r="A146" s="0" t="s">
         <v>426</v>
       </c>
@@ -7168,7 +7179,7 @@
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="147">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="147">
       <c r="A147" s="0" t="s">
         <v>429</v>
       </c>
@@ -7188,7 +7199,7 @@
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="148">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="148">
       <c r="A148" s="0" t="s">
         <v>431</v>
       </c>
@@ -7208,7 +7219,7 @@
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="149">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="149">
       <c r="A149" s="0" t="s">
         <v>433</v>
       </c>
@@ -7231,7 +7242,7 @@
         <v>435</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="150">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="150">
       <c r="A150" s="0" t="s">
         <v>436</v>
       </c>
@@ -7254,7 +7265,7 @@
         <v>435</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="151">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="151">
       <c r="A151" s="0" t="s">
         <v>438</v>
       </c>
@@ -7277,7 +7288,7 @@
         <v>33</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="152">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="152">
       <c r="A152" s="0" t="s">
         <v>441</v>
       </c>
@@ -7300,7 +7311,7 @@
         <v>443</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="153">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="153">
       <c r="A153" s="0" t="s">
         <v>444</v>
       </c>
@@ -7320,7 +7331,7 @@
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="154">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="154">
       <c r="A154" s="0" t="s">
         <v>446</v>
       </c>
@@ -7343,7 +7354,7 @@
         <v>448</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="155">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="155">
       <c r="A155" s="0" t="s">
         <v>449</v>
       </c>
@@ -7363,7 +7374,7 @@
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="156">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="156">
       <c r="A156" s="0" t="s">
         <v>451</v>
       </c>
@@ -7386,13 +7397,16 @@
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="157">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="157">
       <c r="A157" s="0" t="s">
         <v>454</v>
       </c>
       <c r="B157" s="0" t="s">
         <v>455</v>
       </c>
+      <c r="C157" s="0" t="s">
+        <v>456</v>
+      </c>
       <c r="D157" s="0" t="s">
         <v>25</v>
       </c>
@@ -7400,21 +7414,24 @@
         <v>19</v>
       </c>
       <c r="F157" s="0" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="G157" s="0" t="s">
         <v>19</v>
       </c>
       <c r="H157" s="0" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="158">
+        <v>458</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="158">
       <c r="A158" s="0" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="B158" s="0" t="s">
-        <v>459</v>
+        <v>460</v>
+      </c>
+      <c r="C158" s="2" t="s">
+        <v>54</v>
       </c>
       <c r="D158" s="0" t="s">
         <v>36</v>
@@ -7423,18 +7440,21 @@
         <v>19</v>
       </c>
       <c r="F158" s="0" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="G158" s="0" t="s">
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="159">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="159">
       <c r="A159" s="0" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="B159" s="0" t="s">
-        <v>462</v>
+        <v>463</v>
+      </c>
+      <c r="C159" s="2" t="s">
+        <v>464</v>
       </c>
       <c r="D159" s="0" t="s">
         <v>11</v>
@@ -7446,12 +7466,15 @@
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="160">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="160">
       <c r="A160" s="0" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="B160" s="0" t="s">
-        <v>464</v>
+        <v>466</v>
+      </c>
+      <c r="C160" s="0" t="s">
+        <v>15</v>
       </c>
       <c r="D160" s="0" t="s">
         <v>11</v>
@@ -7463,12 +7486,15 @@
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="161">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="161">
       <c r="A161" s="0" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="B161" s="0" t="s">
-        <v>466</v>
+        <v>468</v>
+      </c>
+      <c r="C161" s="0" t="s">
+        <v>15</v>
       </c>
       <c r="D161" s="0" t="s">
         <v>25</v>
@@ -7480,12 +7506,15 @@
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="162">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="162">
       <c r="A162" s="0" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="B162" s="0" t="s">
-        <v>468</v>
+        <v>470</v>
+      </c>
+      <c r="C162" s="0" t="s">
+        <v>15</v>
       </c>
       <c r="D162" s="0" t="s">
         <v>11</v>
@@ -7497,12 +7526,15 @@
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="163">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="163">
       <c r="A163" s="0" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="B163" s="0" t="s">
-        <v>470</v>
+        <v>472</v>
+      </c>
+      <c r="C163" s="0" t="s">
+        <v>15</v>
       </c>
       <c r="D163" s="0" t="s">
         <v>11</v>
@@ -7514,12 +7546,15 @@
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="164">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="164">
       <c r="A164" s="0" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="B164" s="0" t="s">
-        <v>472</v>
+        <v>474</v>
+      </c>
+      <c r="C164" s="0" t="s">
+        <v>15</v>
       </c>
       <c r="D164" s="0" t="s">
         <v>30</v>
@@ -7531,15 +7566,18 @@
         <v>19</v>
       </c>
       <c r="H164" s="0" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="165">
+        <v>475</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="165">
       <c r="A165" s="0" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="B165" s="0" t="s">
-        <v>475</v>
+        <v>477</v>
+      </c>
+      <c r="C165" s="0" t="s">
+        <v>15</v>
       </c>
       <c r="D165" s="0" t="s">
         <v>30</v>
@@ -7548,18 +7586,21 @@
         <v>19</v>
       </c>
       <c r="F165" s="0" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="G165" s="0" t="s">
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="166">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="166">
       <c r="A166" s="0" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="B166" s="0" t="s">
-        <v>478</v>
+        <v>480</v>
+      </c>
+      <c r="C166" s="0" t="s">
+        <v>15</v>
       </c>
       <c r="D166" s="0" t="s">
         <v>30</v>
@@ -7568,18 +7609,21 @@
         <v>19</v>
       </c>
       <c r="F166" s="0" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="G166" s="0" t="s">
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="167">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="167">
       <c r="A167" s="0" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="B167" s="0" t="s">
-        <v>481</v>
+        <v>483</v>
+      </c>
+      <c r="C167" s="0" t="s">
+        <v>74</v>
       </c>
       <c r="D167" s="0" t="s">
         <v>30</v>
@@ -7588,18 +7632,21 @@
         <v>19</v>
       </c>
       <c r="F167" s="0" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="G167" s="0" t="s">
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="168">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="168">
       <c r="A168" s="0" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="B168" s="0" t="s">
-        <v>484</v>
+        <v>486</v>
+      </c>
+      <c r="C168" s="0" t="s">
+        <v>15</v>
       </c>
       <c r="D168" s="0" t="s">
         <v>36</v>
@@ -7611,15 +7658,18 @@
         <v>19</v>
       </c>
       <c r="H168" s="0" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="169">
+        <v>487</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="169">
       <c r="A169" s="0" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="B169" s="0" t="s">
-        <v>487</v>
+        <v>489</v>
+      </c>
+      <c r="C169" s="0" t="s">
+        <v>15</v>
       </c>
       <c r="D169" s="0" t="s">
         <v>16</v>
@@ -7631,15 +7681,18 @@
         <v>19</v>
       </c>
       <c r="H169" s="0" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="170">
+        <v>490</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="170">
       <c r="A170" s="0" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="B170" s="0" t="s">
-        <v>490</v>
+        <v>492</v>
+      </c>
+      <c r="C170" s="2" t="s">
+        <v>54</v>
       </c>
       <c r="D170" s="0" t="s">
         <v>30</v>
@@ -7648,7 +7701,7 @@
         <v>19</v>
       </c>
       <c r="F170" s="0" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="G170" s="0" t="s">
         <v>12</v>
@@ -7657,12 +7710,15 @@
         <v>33</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="171">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="171">
       <c r="A171" s="0" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="B171" s="0" t="s">
-        <v>493</v>
+        <v>495</v>
+      </c>
+      <c r="C171" s="0" t="s">
+        <v>496</v>
       </c>
       <c r="D171" s="0" t="s">
         <v>30</v>
@@ -7671,21 +7727,24 @@
         <v>19</v>
       </c>
       <c r="F171" s="0" t="s">
-        <v>494</v>
+        <v>497</v>
       </c>
       <c r="G171" s="0" t="s">
         <v>19</v>
       </c>
       <c r="H171" s="0" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="172">
+        <v>498</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="172">
       <c r="A172" s="0" t="s">
-        <v>496</v>
+        <v>499</v>
       </c>
       <c r="B172" s="0" t="s">
-        <v>497</v>
+        <v>500</v>
+      </c>
+      <c r="C172" s="0" t="s">
+        <v>15</v>
       </c>
       <c r="D172" s="0" t="s">
         <v>25</v>
@@ -7694,18 +7753,21 @@
         <v>19</v>
       </c>
       <c r="F172" s="0" t="s">
-        <v>498</v>
+        <v>501</v>
       </c>
       <c r="G172" s="0" t="s">
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="173">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="173">
       <c r="A173" s="0" t="s">
-        <v>499</v>
+        <v>502</v>
       </c>
       <c r="B173" s="0" t="s">
-        <v>500</v>
+        <v>503</v>
+      </c>
+      <c r="C173" s="0" t="s">
+        <v>15</v>
       </c>
       <c r="D173" s="0" t="s">
         <v>25</v>
@@ -7714,18 +7776,21 @@
         <v>19</v>
       </c>
       <c r="F173" s="0" t="s">
-        <v>501</v>
+        <v>504</v>
       </c>
       <c r="G173" s="0" t="s">
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="174">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="174">
       <c r="A174" s="0" t="s">
-        <v>502</v>
+        <v>505</v>
       </c>
       <c r="B174" s="0" t="s">
-        <v>503</v>
+        <v>506</v>
+      </c>
+      <c r="C174" s="2" t="s">
+        <v>507</v>
       </c>
       <c r="D174" s="0" t="s">
         <v>25</v>
@@ -7737,12 +7802,15 @@
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="175">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="175">
       <c r="A175" s="0" t="s">
-        <v>504</v>
+        <v>508</v>
       </c>
       <c r="B175" s="0" t="s">
-        <v>505</v>
+        <v>509</v>
+      </c>
+      <c r="C175" s="0" t="s">
+        <v>109</v>
       </c>
       <c r="D175" s="0" t="s">
         <v>25</v>
@@ -7754,15 +7822,18 @@
         <v>19</v>
       </c>
       <c r="H175" s="0" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="176">
+        <v>510</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="176">
       <c r="A176" s="0" t="s">
-        <v>507</v>
+        <v>511</v>
       </c>
       <c r="B176" s="0" t="s">
-        <v>508</v>
+        <v>512</v>
+      </c>
+      <c r="C176" s="0" t="s">
+        <v>285</v>
       </c>
       <c r="D176" s="0" t="s">
         <v>36</v>
@@ -7774,15 +7845,18 @@
         <v>19</v>
       </c>
       <c r="H176" s="0" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="177">
+        <v>513</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="177">
       <c r="A177" s="0" t="s">
-        <v>510</v>
+        <v>514</v>
       </c>
       <c r="B177" s="0" t="s">
-        <v>511</v>
+        <v>515</v>
+      </c>
+      <c r="C177" s="0" t="s">
+        <v>516</v>
       </c>
       <c r="D177" s="0" t="s">
         <v>25</v>
@@ -7794,12 +7868,15 @@
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="178">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="178">
       <c r="A178" s="0" t="s">
-        <v>512</v>
+        <v>517</v>
       </c>
       <c r="B178" s="0" t="s">
-        <v>513</v>
+        <v>518</v>
+      </c>
+      <c r="C178" s="0" t="s">
+        <v>15</v>
       </c>
       <c r="D178" s="0" t="s">
         <v>30</v>
@@ -7808,7 +7885,7 @@
         <v>19</v>
       </c>
       <c r="F178" s="0" t="s">
-        <v>514</v>
+        <v>519</v>
       </c>
       <c r="G178" s="0" t="s">
         <v>12</v>
@@ -7816,18 +7893,21 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="179">
       <c r="A179" s="0" t="s">
-        <v>515</v>
+        <v>520</v>
       </c>
       <c r="B179" s="0" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="180">
+        <v>521</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="180">
       <c r="A180" s="0" t="s">
-        <v>517</v>
+        <v>522</v>
       </c>
       <c r="B180" s="0" t="s">
-        <v>518</v>
+        <v>523</v>
+      </c>
+      <c r="C180" s="0" t="s">
+        <v>15</v>
       </c>
       <c r="D180" s="0" t="s">
         <v>11</v>
@@ -7836,18 +7916,21 @@
         <v>19</v>
       </c>
       <c r="F180" s="0" t="s">
-        <v>519</v>
+        <v>524</v>
       </c>
       <c r="G180" s="0" t="s">
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="181">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="181">
       <c r="A181" s="0" t="s">
-        <v>520</v>
+        <v>525</v>
       </c>
       <c r="B181" s="0" t="s">
-        <v>521</v>
+        <v>526</v>
+      </c>
+      <c r="C181" s="0" t="s">
+        <v>109</v>
       </c>
       <c r="D181" s="0" t="s">
         <v>16</v>
@@ -7859,15 +7942,18 @@
         <v>19</v>
       </c>
       <c r="H181" s="0" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="182">
+        <v>527</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="182">
       <c r="A182" s="0" t="s">
-        <v>523</v>
+        <v>528</v>
       </c>
       <c r="B182" s="0" t="s">
-        <v>524</v>
+        <v>529</v>
+      </c>
+      <c r="C182" s="2" t="s">
+        <v>530</v>
       </c>
       <c r="D182" s="0" t="s">
         <v>16</v>
@@ -7879,12 +7965,15 @@
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="183">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="183">
       <c r="A183" s="0" t="s">
-        <v>525</v>
+        <v>531</v>
       </c>
       <c r="B183" s="0" t="s">
-        <v>526</v>
+        <v>532</v>
+      </c>
+      <c r="C183" s="0" t="s">
+        <v>15</v>
       </c>
       <c r="D183" s="0" t="s">
         <v>16</v>
@@ -7896,15 +7985,15 @@
         <v>19</v>
       </c>
       <c r="H183" s="0" t="s">
-        <v>527</v>
+        <v>533</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="184">
       <c r="A184" s="0" t="s">
-        <v>528</v>
+        <v>534</v>
       </c>
       <c r="B184" s="0" t="s">
-        <v>529</v>
+        <v>535</v>
       </c>
       <c r="D184" s="0" t="s">
         <v>30</v>
@@ -7918,10 +8007,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="185">
       <c r="A185" s="0" t="s">
-        <v>530</v>
+        <v>536</v>
       </c>
       <c r="B185" s="0" t="s">
-        <v>531</v>
+        <v>537</v>
       </c>
       <c r="D185" s="0" t="s">
         <v>11</v>
@@ -7935,10 +8024,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="186">
       <c r="A186" s="0" t="s">
-        <v>532</v>
+        <v>538</v>
       </c>
       <c r="B186" s="0" t="s">
-        <v>533</v>
+        <v>539</v>
       </c>
       <c r="D186" s="0" t="s">
         <v>11</v>
@@ -7947,7 +8036,7 @@
         <v>19</v>
       </c>
       <c r="F186" s="0" t="s">
-        <v>534</v>
+        <v>540</v>
       </c>
       <c r="G186" s="0" t="s">
         <v>12</v>
@@ -7955,10 +8044,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="187">
       <c r="A187" s="0" t="s">
-        <v>535</v>
+        <v>541</v>
       </c>
       <c r="B187" s="0" t="s">
-        <v>536</v>
+        <v>542</v>
       </c>
       <c r="D187" s="0" t="s">
         <v>25</v>
@@ -7972,10 +8061,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="188">
       <c r="A188" s="0" t="s">
-        <v>537</v>
+        <v>543</v>
       </c>
       <c r="B188" s="0" t="s">
-        <v>538</v>
+        <v>544</v>
       </c>
       <c r="D188" s="0" t="s">
         <v>36</v>
@@ -7984,7 +8073,7 @@
         <v>19</v>
       </c>
       <c r="F188" s="0" t="s">
-        <v>539</v>
+        <v>545</v>
       </c>
       <c r="G188" s="0" t="s">
         <v>12</v>
@@ -7992,10 +8081,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="189">
       <c r="A189" s="0" t="s">
-        <v>540</v>
+        <v>546</v>
       </c>
       <c r="B189" s="0" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
       <c r="D189" s="0" t="s">
         <v>25</v>
@@ -8004,7 +8093,7 @@
         <v>19</v>
       </c>
       <c r="F189" s="0" t="s">
-        <v>542</v>
+        <v>548</v>
       </c>
       <c r="G189" s="0" t="s">
         <v>12</v>
@@ -8012,10 +8101,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="190">
       <c r="A190" s="0" t="s">
-        <v>543</v>
+        <v>549</v>
       </c>
       <c r="B190" s="0" t="s">
-        <v>544</v>
+        <v>550</v>
       </c>
       <c r="D190" s="0" t="s">
         <v>36</v>
@@ -8029,10 +8118,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="191">
       <c r="A191" s="0" t="s">
-        <v>545</v>
+        <v>551</v>
       </c>
       <c r="B191" s="0" t="s">
-        <v>546</v>
+        <v>552</v>
       </c>
       <c r="D191" s="0" t="s">
         <v>36</v>
@@ -8046,10 +8135,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="192">
       <c r="A192" s="0" t="s">
-        <v>547</v>
+        <v>553</v>
       </c>
       <c r="B192" s="0" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
       <c r="D192" s="0" t="s">
         <v>25</v>
@@ -8061,15 +8150,15 @@
         <v>12</v>
       </c>
       <c r="I192" s="0" t="s">
-        <v>549</v>
+        <v>555</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="193">
       <c r="A193" s="0" t="s">
-        <v>550</v>
+        <v>556</v>
       </c>
       <c r="B193" s="0" t="s">
-        <v>551</v>
+        <v>557</v>
       </c>
       <c r="C193" s="0" t="s">
         <v>15</v>
@@ -8081,7 +8170,7 @@
         <v>19</v>
       </c>
       <c r="F193" s="0" t="s">
-        <v>552</v>
+        <v>558</v>
       </c>
       <c r="G193" s="0" t="s">
         <v>12</v>
@@ -8089,10 +8178,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="194">
       <c r="A194" s="0" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
       <c r="B194" s="0" t="s">
-        <v>554</v>
+        <v>560</v>
       </c>
       <c r="D194" s="0" t="s">
         <v>11</v>
@@ -8101,7 +8190,7 @@
         <v>19</v>
       </c>
       <c r="F194" s="0" t="s">
-        <v>555</v>
+        <v>561</v>
       </c>
       <c r="G194" s="0" t="s">
         <v>12</v>
@@ -8109,10 +8198,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="195">
       <c r="A195" s="0" t="s">
-        <v>556</v>
+        <v>562</v>
       </c>
       <c r="B195" s="0" t="s">
-        <v>557</v>
+        <v>563</v>
       </c>
       <c r="D195" s="0" t="s">
         <v>25</v>
@@ -8124,15 +8213,15 @@
         <v>19</v>
       </c>
       <c r="H195" s="0" t="s">
-        <v>558</v>
+        <v>564</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="196">
       <c r="A196" s="0" t="s">
-        <v>556</v>
+        <v>562</v>
       </c>
       <c r="B196" s="0" t="s">
-        <v>559</v>
+        <v>565</v>
       </c>
       <c r="D196" s="0" t="s">
         <v>25</v>
@@ -8144,15 +8233,15 @@
         <v>19</v>
       </c>
       <c r="H196" s="0" t="s">
-        <v>558</v>
+        <v>564</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="197">
       <c r="A197" s="0" t="s">
-        <v>560</v>
+        <v>566</v>
       </c>
       <c r="B197" s="0" t="s">
-        <v>561</v>
+        <v>567</v>
       </c>
       <c r="D197" s="0" t="s">
         <v>25</v>
@@ -8161,7 +8250,7 @@
         <v>19</v>
       </c>
       <c r="F197" s="0" t="s">
-        <v>562</v>
+        <v>568</v>
       </c>
       <c r="G197" s="0" t="s">
         <v>12</v>
@@ -8169,10 +8258,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="198">
       <c r="A198" s="0" t="s">
-        <v>563</v>
+        <v>569</v>
       </c>
       <c r="B198" s="0" t="s">
-        <v>564</v>
+        <v>570</v>
       </c>
       <c r="D198" s="0" t="s">
         <v>11</v>
@@ -8181,21 +8270,21 @@
         <v>19</v>
       </c>
       <c r="F198" s="0" t="s">
-        <v>565</v>
+        <v>571</v>
       </c>
       <c r="G198" s="0" t="s">
         <v>19</v>
       </c>
       <c r="H198" s="0" t="s">
-        <v>566</v>
+        <v>572</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="199">
       <c r="A199" s="0" t="s">
-        <v>567</v>
+        <v>573</v>
       </c>
       <c r="B199" s="0" t="s">
-        <v>568</v>
+        <v>574</v>
       </c>
       <c r="D199" s="0" t="s">
         <v>11</v>
@@ -8209,10 +8298,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="200">
       <c r="A200" s="0" t="s">
-        <v>569</v>
+        <v>575</v>
       </c>
       <c r="B200" s="0" t="s">
-        <v>570</v>
+        <v>576</v>
       </c>
       <c r="D200" s="0" t="s">
         <v>36</v>
@@ -8221,21 +8310,21 @@
         <v>19</v>
       </c>
       <c r="F200" s="0" t="s">
-        <v>571</v>
+        <v>577</v>
       </c>
       <c r="G200" s="0" t="s">
         <v>12</v>
       </c>
       <c r="H200" s="0" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="201">
       <c r="A201" s="0" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
       <c r="B201" s="0" t="s">
-        <v>574</v>
+        <v>580</v>
       </c>
       <c r="D201" s="0" t="s">
         <v>11</v>
@@ -8244,21 +8333,21 @@
         <v>19</v>
       </c>
       <c r="F201" s="0" t="s">
-        <v>575</v>
+        <v>581</v>
       </c>
       <c r="G201" s="0" t="s">
         <v>19</v>
       </c>
       <c r="H201" s="0" t="s">
-        <v>576</v>
+        <v>582</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="202">
       <c r="A202" s="0" t="s">
-        <v>577</v>
+        <v>583</v>
       </c>
       <c r="B202" s="0" t="s">
-        <v>578</v>
+        <v>584</v>
       </c>
       <c r="D202" s="0" t="s">
         <v>11</v>
@@ -8272,10 +8361,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="203">
       <c r="A203" s="0" t="s">
-        <v>579</v>
+        <v>585</v>
       </c>
       <c r="B203" s="0" t="s">
-        <v>580</v>
+        <v>586</v>
       </c>
       <c r="D203" s="0" t="s">
         <v>16</v>
@@ -8289,10 +8378,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="204">
       <c r="A204" s="0" t="s">
-        <v>581</v>
+        <v>587</v>
       </c>
       <c r="B204" s="0" t="s">
-        <v>582</v>
+        <v>588</v>
       </c>
       <c r="D204" s="0" t="s">
         <v>25</v>
@@ -8301,7 +8390,7 @@
         <v>19</v>
       </c>
       <c r="F204" s="0" t="s">
-        <v>583</v>
+        <v>589</v>
       </c>
       <c r="G204" s="0" t="s">
         <v>12</v>
@@ -8309,10 +8398,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="205">
       <c r="A205" s="0" t="s">
-        <v>584</v>
+        <v>590</v>
       </c>
       <c r="B205" s="0" t="s">
-        <v>585</v>
+        <v>591</v>
       </c>
       <c r="D205" s="0" t="s">
         <v>25</v>
@@ -8324,15 +8413,15 @@
         <v>19</v>
       </c>
       <c r="H205" s="0" t="s">
-        <v>586</v>
+        <v>592</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="206">
       <c r="A206" s="0" t="s">
-        <v>587</v>
+        <v>593</v>
       </c>
       <c r="B206" s="0" t="s">
-        <v>588</v>
+        <v>594</v>
       </c>
       <c r="D206" s="0" t="s">
         <v>25</v>
@@ -8341,7 +8430,7 @@
         <v>19</v>
       </c>
       <c r="F206" s="0" t="s">
-        <v>589</v>
+        <v>595</v>
       </c>
       <c r="G206" s="0" t="s">
         <v>19</v>
@@ -8349,10 +8438,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="207">
       <c r="A207" s="0" t="s">
-        <v>590</v>
+        <v>596</v>
       </c>
       <c r="B207" s="0" t="s">
-        <v>591</v>
+        <v>597</v>
       </c>
       <c r="D207" s="0" t="s">
         <v>30</v>
@@ -8364,15 +8453,15 @@
         <v>19</v>
       </c>
       <c r="H207" s="0" t="s">
-        <v>592</v>
+        <v>598</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="208">
       <c r="A208" s="0" t="s">
-        <v>593</v>
+        <v>599</v>
       </c>
       <c r="B208" s="0" t="s">
-        <v>594</v>
+        <v>600</v>
       </c>
       <c r="D208" s="0" t="s">
         <v>30</v>
@@ -8384,15 +8473,15 @@
         <v>19</v>
       </c>
       <c r="H208" s="0" t="s">
-        <v>595</v>
+        <v>601</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="209">
       <c r="A209" s="0" t="s">
-        <v>596</v>
+        <v>602</v>
       </c>
       <c r="B209" s="0" t="s">
-        <v>597</v>
+        <v>603</v>
       </c>
       <c r="D209" s="0" t="s">
         <v>11</v>
@@ -8406,10 +8495,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="210">
       <c r="A210" s="0" t="s">
-        <v>598</v>
+        <v>604</v>
       </c>
       <c r="B210" s="0" t="s">
-        <v>599</v>
+        <v>605</v>
       </c>
       <c r="D210" s="0" t="s">
         <v>25</v>
@@ -8421,15 +8510,15 @@
         <v>19</v>
       </c>
       <c r="H210" s="0" t="s">
-        <v>600</v>
+        <v>606</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="211">
       <c r="A211" s="0" t="s">
-        <v>601</v>
+        <v>607</v>
       </c>
       <c r="B211" s="0" t="s">
-        <v>602</v>
+        <v>608</v>
       </c>
       <c r="D211" s="0" t="s">
         <v>25</v>
@@ -8443,10 +8532,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="212">
       <c r="A212" s="0" t="s">
-        <v>603</v>
+        <v>609</v>
       </c>
       <c r="B212" s="0" t="s">
-        <v>604</v>
+        <v>610</v>
       </c>
       <c r="D212" s="0" t="s">
         <v>30</v>
@@ -8460,10 +8549,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="213">
       <c r="A213" s="0" t="s">
-        <v>605</v>
+        <v>611</v>
       </c>
       <c r="B213" s="0" t="s">
-        <v>606</v>
+        <v>612</v>
       </c>
       <c r="D213" s="0" t="s">
         <v>11</v>
@@ -8477,10 +8566,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="214">
       <c r="A214" s="0" t="s">
-        <v>607</v>
+        <v>613</v>
       </c>
       <c r="B214" s="0" t="s">
-        <v>608</v>
+        <v>614</v>
       </c>
       <c r="D214" s="0" t="s">
         <v>25</v>
@@ -8494,10 +8583,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="215">
       <c r="A215" s="0" t="s">
-        <v>609</v>
+        <v>615</v>
       </c>
       <c r="B215" s="0" t="s">
-        <v>610</v>
+        <v>616</v>
       </c>
       <c r="D215" s="0" t="s">
         <v>11</v>
@@ -8511,10 +8600,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="216">
       <c r="A216" s="0" t="s">
-        <v>611</v>
+        <v>617</v>
       </c>
       <c r="B216" s="0" t="s">
-        <v>612</v>
+        <v>618</v>
       </c>
       <c r="D216" s="0" t="s">
         <v>36</v>
@@ -8528,10 +8617,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="217">
       <c r="A217" s="0" t="s">
-        <v>613</v>
+        <v>619</v>
       </c>
       <c r="B217" s="0" t="s">
-        <v>614</v>
+        <v>620</v>
       </c>
       <c r="D217" s="0" t="s">
         <v>25</v>
@@ -8545,10 +8634,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="218">
       <c r="A218" s="0" t="s">
-        <v>615</v>
+        <v>621</v>
       </c>
       <c r="B218" s="0" t="s">
-        <v>616</v>
+        <v>622</v>
       </c>
       <c r="D218" s="0" t="s">
         <v>11</v>
@@ -8557,7 +8646,7 @@
         <v>19</v>
       </c>
       <c r="F218" s="0" t="s">
-        <v>617</v>
+        <v>623</v>
       </c>
       <c r="G218" s="0" t="s">
         <v>12</v>
@@ -8565,10 +8654,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="219">
       <c r="A219" s="0" t="s">
-        <v>618</v>
+        <v>624</v>
       </c>
       <c r="B219" s="0" t="s">
-        <v>619</v>
+        <v>625</v>
       </c>
       <c r="D219" s="0" t="s">
         <v>25</v>
@@ -8577,21 +8666,21 @@
         <v>19</v>
       </c>
       <c r="F219" s="0" t="s">
-        <v>620</v>
+        <v>626</v>
       </c>
       <c r="G219" s="0" t="s">
         <v>19</v>
       </c>
       <c r="H219" s="0" t="s">
-        <v>621</v>
+        <v>627</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="220">
       <c r="A220" s="0" t="s">
-        <v>622</v>
+        <v>628</v>
       </c>
       <c r="B220" s="0" t="s">
-        <v>623</v>
+        <v>629</v>
       </c>
       <c r="D220" s="0" t="s">
         <v>36</v>
@@ -8600,21 +8689,21 @@
         <v>19</v>
       </c>
       <c r="F220" s="0" t="s">
-        <v>624</v>
+        <v>630</v>
       </c>
       <c r="G220" s="0" t="s">
         <v>19</v>
       </c>
       <c r="H220" s="0" t="s">
-        <v>625</v>
+        <v>631</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="221">
       <c r="A221" s="0" t="s">
-        <v>626</v>
+        <v>632</v>
       </c>
       <c r="B221" s="0" t="s">
-        <v>627</v>
+        <v>633</v>
       </c>
       <c r="D221" s="0" t="s">
         <v>25</v>
@@ -8623,21 +8712,21 @@
         <v>19</v>
       </c>
       <c r="F221" s="0" t="s">
-        <v>628</v>
+        <v>634</v>
       </c>
       <c r="G221" s="0" t="s">
         <v>19</v>
       </c>
       <c r="H221" s="0" t="s">
-        <v>625</v>
+        <v>631</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="222">
       <c r="A222" s="0" t="s">
-        <v>629</v>
+        <v>635</v>
       </c>
       <c r="B222" s="0" t="s">
-        <v>630</v>
+        <v>636</v>
       </c>
       <c r="D222" s="0" t="s">
         <v>25</v>
@@ -8646,21 +8735,21 @@
         <v>19</v>
       </c>
       <c r="F222" s="0" t="s">
+        <v>637</v>
+      </c>
+      <c r="G222" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="H222" s="0" t="s">
         <v>631</v>
-      </c>
-      <c r="G222" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="H222" s="0" t="s">
-        <v>625</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="223">
       <c r="A223" s="0" t="s">
-        <v>632</v>
+        <v>638</v>
       </c>
       <c r="B223" s="0" t="s">
-        <v>633</v>
+        <v>639</v>
       </c>
       <c r="D223" s="0" t="s">
         <v>25</v>
@@ -8669,21 +8758,21 @@
         <v>19</v>
       </c>
       <c r="F223" s="0" t="s">
-        <v>634</v>
+        <v>640</v>
       </c>
       <c r="G223" s="0" t="s">
         <v>19</v>
       </c>
       <c r="H223" s="0" t="s">
-        <v>635</v>
+        <v>641</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="224">
       <c r="A224" s="0" t="s">
-        <v>636</v>
+        <v>642</v>
       </c>
       <c r="B224" s="0" t="s">
-        <v>637</v>
+        <v>643</v>
       </c>
       <c r="D224" s="0" t="s">
         <v>25</v>
@@ -8692,7 +8781,7 @@
         <v>19</v>
       </c>
       <c r="F224" s="0" t="s">
-        <v>638</v>
+        <v>644</v>
       </c>
       <c r="G224" s="0" t="s">
         <v>12</v>
@@ -8700,10 +8789,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="225">
       <c r="A225" s="0" t="s">
-        <v>639</v>
+        <v>645</v>
       </c>
       <c r="B225" s="0" t="s">
-        <v>640</v>
+        <v>646</v>
       </c>
       <c r="D225" s="0" t="s">
         <v>11</v>
@@ -8712,21 +8801,21 @@
         <v>19</v>
       </c>
       <c r="F225" s="0" t="s">
-        <v>641</v>
+        <v>647</v>
       </c>
       <c r="G225" s="0" t="s">
         <v>19</v>
       </c>
       <c r="H225" s="0" t="s">
-        <v>642</v>
+        <v>648</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="226">
       <c r="A226" s="0" t="s">
-        <v>643</v>
+        <v>649</v>
       </c>
       <c r="B226" s="0" t="s">
-        <v>644</v>
+        <v>650</v>
       </c>
       <c r="D226" s="0" t="s">
         <v>25</v>
@@ -8735,7 +8824,7 @@
         <v>19</v>
       </c>
       <c r="F226" s="0" t="s">
-        <v>645</v>
+        <v>651</v>
       </c>
       <c r="G226" s="0" t="s">
         <v>12</v>
@@ -8743,10 +8832,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="227">
       <c r="A227" s="0" t="s">
-        <v>646</v>
+        <v>652</v>
       </c>
       <c r="B227" s="0" t="s">
-        <v>647</v>
+        <v>653</v>
       </c>
       <c r="D227" s="0" t="s">
         <v>11</v>
@@ -8755,15 +8844,15 @@
         <v>19</v>
       </c>
       <c r="F227" s="0" t="s">
-        <v>648</v>
+        <v>654</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="228">
       <c r="A228" s="0" t="s">
-        <v>649</v>
+        <v>655</v>
       </c>
       <c r="B228" s="0" t="s">
-        <v>650</v>
+        <v>656</v>
       </c>
       <c r="D228" s="0" t="s">
         <v>11</v>
@@ -8775,15 +8864,15 @@
         <v>12</v>
       </c>
       <c r="I228" s="0" t="s">
-        <v>651</v>
+        <v>657</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="229">
       <c r="A229" s="0" t="s">
-        <v>652</v>
+        <v>658</v>
       </c>
       <c r="B229" s="0" t="s">
-        <v>653</v>
+        <v>659</v>
       </c>
       <c r="D229" s="0" t="s">
         <v>25</v>
@@ -8792,7 +8881,7 @@
         <v>19</v>
       </c>
       <c r="F229" s="0" t="s">
-        <v>654</v>
+        <v>660</v>
       </c>
       <c r="G229" s="0" t="s">
         <v>12</v>
@@ -8800,10 +8889,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="230">
       <c r="A230" s="0" t="s">
-        <v>655</v>
+        <v>661</v>
       </c>
       <c r="B230" s="0" t="s">
-        <v>656</v>
+        <v>662</v>
       </c>
       <c r="D230" s="0" t="s">
         <v>11</v>
@@ -8812,7 +8901,7 @@
         <v>19</v>
       </c>
       <c r="F230" s="0" t="s">
-        <v>657</v>
+        <v>663</v>
       </c>
       <c r="G230" s="0" t="s">
         <v>12</v>
@@ -8820,10 +8909,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="231">
       <c r="A231" s="0" t="s">
-        <v>658</v>
+        <v>664</v>
       </c>
       <c r="B231" s="0" t="s">
-        <v>659</v>
+        <v>665</v>
       </c>
       <c r="D231" s="0" t="s">
         <v>36</v>
@@ -8832,7 +8921,7 @@
         <v>19</v>
       </c>
       <c r="F231" s="0" t="s">
-        <v>660</v>
+        <v>666</v>
       </c>
       <c r="G231" s="0" t="s">
         <v>12</v>
@@ -8840,10 +8929,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="232">
       <c r="A232" s="0" t="s">
-        <v>661</v>
+        <v>667</v>
       </c>
       <c r="B232" s="0" t="s">
-        <v>662</v>
+        <v>668</v>
       </c>
       <c r="D232" s="0" t="s">
         <v>16</v>
@@ -8857,10 +8946,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="233">
       <c r="A233" s="0" t="s">
-        <v>663</v>
+        <v>669</v>
       </c>
       <c r="B233" s="0" t="s">
-        <v>664</v>
+        <v>670</v>
       </c>
       <c r="D233" s="0" t="s">
         <v>16</v>
@@ -8872,15 +8961,15 @@
         <v>19</v>
       </c>
       <c r="H233" s="0" t="s">
-        <v>665</v>
+        <v>671</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="234">
       <c r="A234" s="0" t="s">
-        <v>666</v>
+        <v>672</v>
       </c>
       <c r="B234" s="0" t="s">
-        <v>667</v>
+        <v>673</v>
       </c>
       <c r="D234" s="0" t="s">
         <v>25</v>
@@ -8889,21 +8978,21 @@
         <v>19</v>
       </c>
       <c r="F234" s="0" t="s">
-        <v>668</v>
+        <v>674</v>
       </c>
       <c r="G234" s="0" t="s">
         <v>19</v>
       </c>
       <c r="H234" s="0" t="s">
-        <v>669</v>
+        <v>675</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="235">
       <c r="A235" s="0" t="s">
-        <v>670</v>
+        <v>676</v>
       </c>
       <c r="B235" s="0" t="s">
-        <v>671</v>
+        <v>677</v>
       </c>
       <c r="D235" s="0" t="s">
         <v>25</v>
@@ -8912,7 +9001,7 @@
         <v>19</v>
       </c>
       <c r="F235" s="0" t="s">
-        <v>672</v>
+        <v>678</v>
       </c>
       <c r="G235" s="0" t="s">
         <v>12</v>
@@ -8920,10 +9009,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="236">
       <c r="A236" s="0" t="s">
-        <v>673</v>
+        <v>679</v>
       </c>
       <c r="B236" s="0" t="s">
-        <v>674</v>
+        <v>680</v>
       </c>
       <c r="D236" s="0" t="s">
         <v>25</v>
@@ -8937,10 +9026,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="237">
       <c r="A237" s="0" t="s">
-        <v>675</v>
+        <v>681</v>
       </c>
       <c r="B237" s="0" t="s">
-        <v>676</v>
+        <v>682</v>
       </c>
       <c r="D237" s="0" t="s">
         <v>25</v>
@@ -8954,10 +9043,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="238">
       <c r="A238" s="0" t="s">
-        <v>677</v>
+        <v>683</v>
       </c>
       <c r="B238" s="0" t="s">
-        <v>678</v>
+        <v>684</v>
       </c>
       <c r="D238" s="0" t="s">
         <v>11</v>
@@ -8971,10 +9060,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="239">
       <c r="A239" s="0" t="s">
-        <v>679</v>
+        <v>685</v>
       </c>
       <c r="B239" s="0" t="s">
-        <v>680</v>
+        <v>686</v>
       </c>
       <c r="D239" s="0" t="s">
         <v>11</v>
@@ -8988,10 +9077,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="240">
       <c r="A240" s="0" t="s">
-        <v>681</v>
+        <v>687</v>
       </c>
       <c r="B240" s="0" t="s">
-        <v>682</v>
+        <v>688</v>
       </c>
       <c r="D240" s="0" t="s">
         <v>11</v>
@@ -9005,10 +9094,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="241">
       <c r="A241" s="0" t="s">
-        <v>683</v>
+        <v>689</v>
       </c>
       <c r="B241" s="0" t="s">
-        <v>684</v>
+        <v>690</v>
       </c>
       <c r="D241" s="0" t="s">
         <v>30</v>
@@ -9022,10 +9111,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="242">
       <c r="A242" s="0" t="s">
-        <v>685</v>
+        <v>691</v>
       </c>
       <c r="B242" s="0" t="s">
-        <v>686</v>
+        <v>692</v>
       </c>
       <c r="D242" s="0" t="s">
         <v>36</v>
@@ -9037,15 +9126,15 @@
         <v>19</v>
       </c>
       <c r="H242" s="0" t="s">
-        <v>687</v>
+        <v>693</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="243">
       <c r="A243" s="0" t="s">
-        <v>688</v>
+        <v>694</v>
       </c>
       <c r="B243" s="0" t="s">
-        <v>689</v>
+        <v>695</v>
       </c>
       <c r="D243" s="0" t="s">
         <v>30</v>
@@ -9057,15 +9146,15 @@
         <v>19</v>
       </c>
       <c r="H243" s="0" t="s">
-        <v>690</v>
+        <v>696</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="244">
       <c r="A244" s="0" t="s">
-        <v>691</v>
+        <v>697</v>
       </c>
       <c r="B244" s="0" t="s">
-        <v>692</v>
+        <v>698</v>
       </c>
       <c r="D244" s="0" t="s">
         <v>30</v>
@@ -9074,21 +9163,21 @@
         <v>19</v>
       </c>
       <c r="F244" s="0" t="s">
-        <v>693</v>
+        <v>699</v>
       </c>
       <c r="G244" s="0" t="s">
         <v>19</v>
       </c>
       <c r="H244" s="0" t="s">
-        <v>694</v>
+        <v>700</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="245">
       <c r="A245" s="0" t="s">
-        <v>695</v>
+        <v>701</v>
       </c>
       <c r="B245" s="0" t="s">
-        <v>696</v>
+        <v>702</v>
       </c>
       <c r="D245" s="0" t="s">
         <v>30</v>
@@ -9102,10 +9191,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="246">
       <c r="A246" s="0" t="s">
-        <v>697</v>
+        <v>703</v>
       </c>
       <c r="B246" s="0" t="s">
-        <v>698</v>
+        <v>704</v>
       </c>
       <c r="D246" s="0" t="s">
         <v>25</v>
@@ -9114,7 +9203,7 @@
         <v>19</v>
       </c>
       <c r="F246" s="0" t="s">
-        <v>699</v>
+        <v>705</v>
       </c>
       <c r="G246" s="0" t="s">
         <v>12</v>
@@ -9122,10 +9211,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="247">
       <c r="A247" s="0" t="s">
-        <v>700</v>
+        <v>706</v>
       </c>
       <c r="B247" s="0" t="s">
-        <v>701</v>
+        <v>707</v>
       </c>
       <c r="D247" s="0" t="s">
         <v>16</v>
@@ -9134,21 +9223,21 @@
         <v>19</v>
       </c>
       <c r="F247" s="0" t="s">
-        <v>702</v>
+        <v>708</v>
       </c>
       <c r="G247" s="0" t="s">
         <v>19</v>
       </c>
       <c r="H247" s="0" t="s">
-        <v>625</v>
+        <v>631</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="248">
       <c r="A248" s="0" t="s">
-        <v>703</v>
+        <v>709</v>
       </c>
       <c r="B248" s="0" t="s">
-        <v>704</v>
+        <v>710</v>
       </c>
       <c r="D248" s="0" t="s">
         <v>30</v>
@@ -9160,15 +9249,15 @@
         <v>19</v>
       </c>
       <c r="H248" s="0" t="s">
-        <v>705</v>
+        <v>711</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="249">
       <c r="A249" s="0" t="s">
-        <v>706</v>
+        <v>712</v>
       </c>
       <c r="B249" s="0" t="s">
-        <v>707</v>
+        <v>713</v>
       </c>
       <c r="D249" s="0" t="s">
         <v>30</v>
@@ -9177,7 +9266,7 @@
         <v>19</v>
       </c>
       <c r="F249" s="0" t="s">
-        <v>708</v>
+        <v>714</v>
       </c>
       <c r="G249" s="0" t="s">
         <v>12</v>
@@ -9185,10 +9274,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="250">
       <c r="A250" s="0" t="s">
-        <v>709</v>
+        <v>715</v>
       </c>
       <c r="B250" s="0" t="s">
-        <v>710</v>
+        <v>716</v>
       </c>
       <c r="D250" s="0" t="s">
         <v>11</v>
@@ -9197,7 +9286,7 @@
         <v>19</v>
       </c>
       <c r="F250" s="0" t="s">
-        <v>711</v>
+        <v>717</v>
       </c>
       <c r="G250" s="0" t="s">
         <v>12</v>
@@ -9205,10 +9294,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="251">
       <c r="A251" s="0" t="s">
-        <v>712</v>
+        <v>718</v>
       </c>
       <c r="B251" s="0" t="s">
-        <v>710</v>
+        <v>716</v>
       </c>
       <c r="D251" s="0" t="s">
         <v>11</v>
@@ -9217,7 +9306,7 @@
         <v>19</v>
       </c>
       <c r="F251" s="0" t="s">
-        <v>711</v>
+        <v>717</v>
       </c>
       <c r="G251" s="0" t="s">
         <v>12</v>
@@ -9225,10 +9314,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="252">
       <c r="A252" s="0" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
       <c r="B252" s="0" t="s">
-        <v>710</v>
+        <v>716</v>
       </c>
       <c r="D252" s="0" t="s">
         <v>11</v>
@@ -9237,7 +9326,7 @@
         <v>19</v>
       </c>
       <c r="F252" s="0" t="s">
-        <v>711</v>
+        <v>717</v>
       </c>
       <c r="G252" s="0" t="s">
         <v>12</v>
@@ -9245,10 +9334,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="253">
       <c r="A253" s="0" t="s">
-        <v>714</v>
+        <v>720</v>
       </c>
       <c r="B253" s="0" t="s">
-        <v>715</v>
+        <v>721</v>
       </c>
       <c r="D253" s="0" t="s">
         <v>11</v>
@@ -9257,7 +9346,7 @@
         <v>19</v>
       </c>
       <c r="F253" s="0" t="s">
-        <v>716</v>
+        <v>722</v>
       </c>
       <c r="G253" s="0" t="s">
         <v>12</v>
@@ -9265,10 +9354,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="254">
       <c r="A254" s="0" t="s">
-        <v>717</v>
+        <v>723</v>
       </c>
       <c r="B254" s="0" t="s">
-        <v>718</v>
+        <v>724</v>
       </c>
       <c r="D254" s="0" t="s">
         <v>36</v>
@@ -9280,15 +9369,15 @@
         <v>19</v>
       </c>
       <c r="H254" s="0" t="s">
-        <v>719</v>
+        <v>725</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="255">
       <c r="A255" s="0" t="s">
-        <v>720</v>
+        <v>726</v>
       </c>
       <c r="B255" s="0" t="s">
-        <v>721</v>
+        <v>727</v>
       </c>
       <c r="D255" s="0" t="s">
         <v>30</v>
@@ -9302,10 +9391,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="256">
       <c r="A256" s="0" t="s">
-        <v>722</v>
+        <v>728</v>
       </c>
       <c r="B256" s="0" t="s">
-        <v>723</v>
+        <v>729</v>
       </c>
       <c r="D256" s="0" t="s">
         <v>25</v>
@@ -9314,21 +9403,21 @@
         <v>19</v>
       </c>
       <c r="F256" s="0" t="s">
-        <v>724</v>
+        <v>730</v>
       </c>
       <c r="G256" s="0" t="s">
         <v>19</v>
       </c>
       <c r="H256" s="0" t="s">
-        <v>725</v>
+        <v>731</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="257">
       <c r="A257" s="0" t="s">
-        <v>726</v>
+        <v>732</v>
       </c>
       <c r="B257" s="0" t="s">
-        <v>727</v>
+        <v>733</v>
       </c>
       <c r="D257" s="0" t="s">
         <v>11</v>
@@ -9337,7 +9426,7 @@
         <v>19</v>
       </c>
       <c r="F257" s="0" t="s">
-        <v>728</v>
+        <v>734</v>
       </c>
       <c r="G257" s="0" t="s">
         <v>12</v>
@@ -9345,10 +9434,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="258">
       <c r="A258" s="0" t="s">
-        <v>729</v>
+        <v>735</v>
       </c>
       <c r="B258" s="0" t="s">
-        <v>730</v>
+        <v>736</v>
       </c>
       <c r="D258" s="0" t="s">
         <v>236</v>
@@ -9357,21 +9446,21 @@
         <v>19</v>
       </c>
       <c r="F258" s="0" t="s">
-        <v>731</v>
+        <v>737</v>
       </c>
       <c r="G258" s="0" t="s">
         <v>19</v>
       </c>
       <c r="H258" s="0" t="s">
-        <v>732</v>
+        <v>738</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="259">
       <c r="A259" s="0" t="s">
-        <v>733</v>
+        <v>739</v>
       </c>
       <c r="B259" s="0" t="s">
-        <v>734</v>
+        <v>740</v>
       </c>
       <c r="D259" s="0" t="s">
         <v>36</v>
@@ -9385,10 +9474,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="260">
       <c r="A260" s="0" t="s">
-        <v>735</v>
+        <v>741</v>
       </c>
       <c r="B260" s="0" t="s">
-        <v>736</v>
+        <v>742</v>
       </c>
       <c r="D260" s="0" t="s">
         <v>16</v>
@@ -9397,7 +9486,7 @@
         <v>19</v>
       </c>
       <c r="F260" s="0" t="s">
-        <v>737</v>
+        <v>743</v>
       </c>
       <c r="G260" s="0" t="s">
         <v>12</v>
@@ -9405,10 +9494,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="261">
       <c r="A261" s="0" t="s">
-        <v>738</v>
+        <v>744</v>
       </c>
       <c r="B261" s="0" t="s">
-        <v>739</v>
+        <v>745</v>
       </c>
       <c r="D261" s="0" t="s">
         <v>25</v>
@@ -9417,44 +9506,44 @@
         <v>19</v>
       </c>
       <c r="F261" s="0" t="s">
-        <v>740</v>
+        <v>746</v>
       </c>
       <c r="G261" s="0" t="s">
         <v>19</v>
       </c>
       <c r="H261" s="0" t="s">
-        <v>741</v>
+        <v>747</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="262">
       <c r="A262" s="0" t="s">
-        <v>742</v>
+        <v>748</v>
       </c>
       <c r="B262" s="0" t="s">
-        <v>743</v>
+        <v>749</v>
       </c>
       <c r="D262" s="0" t="s">
-        <v>744</v>
+        <v>750</v>
       </c>
       <c r="E262" s="0" t="s">
         <v>19</v>
       </c>
       <c r="F262" s="0" t="s">
-        <v>745</v>
+        <v>751</v>
       </c>
       <c r="G262" s="0" t="s">
         <v>19</v>
       </c>
       <c r="H262" s="0" t="s">
-        <v>746</v>
+        <v>752</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="263">
       <c r="A263" s="0" t="s">
-        <v>747</v>
+        <v>753</v>
       </c>
       <c r="B263" s="0" t="s">
-        <v>748</v>
+        <v>754</v>
       </c>
       <c r="D263" s="0" t="s">
         <v>30</v>
@@ -9463,21 +9552,21 @@
         <v>19</v>
       </c>
       <c r="F263" s="0" t="s">
-        <v>749</v>
+        <v>755</v>
       </c>
       <c r="G263" s="0" t="s">
         <v>19</v>
       </c>
       <c r="H263" s="0" t="s">
-        <v>750</v>
+        <v>756</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="264">
       <c r="A264" s="0" t="s">
-        <v>751</v>
+        <v>757</v>
       </c>
       <c r="B264" s="0" t="s">
-        <v>752</v>
+        <v>758</v>
       </c>
       <c r="D264" s="0" t="s">
         <v>25</v>
@@ -9491,10 +9580,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="265">
       <c r="A265" s="0" t="s">
-        <v>753</v>
+        <v>759</v>
       </c>
       <c r="B265" s="0" t="s">
-        <v>754</v>
+        <v>760</v>
       </c>
       <c r="D265" s="0" t="s">
         <v>25</v>
@@ -9503,21 +9592,21 @@
         <v>19</v>
       </c>
       <c r="F265" s="0" t="s">
-        <v>755</v>
+        <v>761</v>
       </c>
       <c r="G265" s="0" t="s">
         <v>19</v>
       </c>
       <c r="H265" s="0" t="s">
-        <v>756</v>
+        <v>762</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="266">
       <c r="A266" s="0" t="s">
-        <v>757</v>
+        <v>763</v>
       </c>
       <c r="B266" s="0" t="s">
-        <v>758</v>
+        <v>764</v>
       </c>
       <c r="D266" s="0" t="s">
         <v>11</v>
@@ -9526,7 +9615,7 @@
         <v>19</v>
       </c>
       <c r="F266" s="0" t="s">
-        <v>759</v>
+        <v>765</v>
       </c>
       <c r="G266" s="0" t="s">
         <v>12</v>
@@ -9534,10 +9623,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="267">
       <c r="A267" s="0" t="s">
-        <v>760</v>
+        <v>766</v>
       </c>
       <c r="B267" s="0" t="s">
-        <v>761</v>
+        <v>767</v>
       </c>
       <c r="D267" s="0" t="s">
         <v>25</v>
@@ -9546,21 +9635,21 @@
         <v>19</v>
       </c>
       <c r="F267" s="0" t="s">
-        <v>762</v>
+        <v>768</v>
       </c>
       <c r="G267" s="0" t="s">
         <v>19</v>
       </c>
       <c r="H267" s="0" t="s">
-        <v>763</v>
+        <v>769</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="268">
       <c r="A268" s="0" t="s">
-        <v>764</v>
+        <v>770</v>
       </c>
       <c r="B268" s="0" t="s">
-        <v>765</v>
+        <v>771</v>
       </c>
       <c r="D268" s="0" t="s">
         <v>25</v>
@@ -9572,23 +9661,23 @@
         <v>19</v>
       </c>
       <c r="H268" s="0" t="s">
-        <v>766</v>
+        <v>772</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="269">
       <c r="A269" s="0" t="s">
-        <v>767</v>
+        <v>773</v>
       </c>
       <c r="B269" s="0" t="s">
-        <v>768</v>
+        <v>774</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="270">
       <c r="A270" s="0" t="s">
-        <v>769</v>
+        <v>775</v>
       </c>
       <c r="B270" s="0" t="s">
-        <v>770</v>
+        <v>776</v>
       </c>
       <c r="D270" s="0" t="s">
         <v>11</v>
@@ -9602,10 +9691,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="271">
       <c r="A271" s="0" t="s">
-        <v>771</v>
+        <v>777</v>
       </c>
       <c r="B271" s="0" t="s">
-        <v>770</v>
+        <v>776</v>
       </c>
       <c r="D271" s="0" t="s">
         <v>11</v>
@@ -9619,10 +9708,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="272">
       <c r="A272" s="0" t="s">
-        <v>772</v>
+        <v>778</v>
       </c>
       <c r="B272" s="0" t="s">
-        <v>773</v>
+        <v>779</v>
       </c>
       <c r="D272" s="0" t="s">
         <v>30</v>
@@ -9631,21 +9720,21 @@
         <v>19</v>
       </c>
       <c r="F272" s="0" t="s">
-        <v>774</v>
+        <v>780</v>
       </c>
       <c r="G272" s="0" t="s">
         <v>19</v>
       </c>
       <c r="H272" s="0" t="s">
-        <v>775</v>
+        <v>781</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="273">
       <c r="A273" s="0" t="s">
-        <v>776</v>
+        <v>782</v>
       </c>
       <c r="B273" s="0" t="s">
-        <v>777</v>
+        <v>783</v>
       </c>
       <c r="D273" s="0" t="s">
         <v>30</v>
@@ -9654,44 +9743,44 @@
         <v>19</v>
       </c>
       <c r="F273" s="0" t="s">
-        <v>778</v>
+        <v>784</v>
       </c>
       <c r="G273" s="0" t="s">
         <v>19</v>
       </c>
       <c r="H273" s="0" t="s">
-        <v>775</v>
+        <v>781</v>
       </c>
       <c r="I273" s="0" t="s">
-        <v>779</v>
+        <v>785</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="274">
       <c r="A274" s="0" t="s">
-        <v>780</v>
+        <v>786</v>
       </c>
       <c r="B274" s="0" t="s">
+        <v>787</v>
+      </c>
+      <c r="D274" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="E274" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="G274" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="H274" s="0" t="s">
         <v>781</v>
-      </c>
-      <c r="D274" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="E274" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="G274" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="H274" s="0" t="s">
-        <v>775</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="275">
       <c r="A275" s="0" t="s">
-        <v>782</v>
+        <v>788</v>
       </c>
       <c r="B275" s="0" t="s">
-        <v>783</v>
+        <v>789</v>
       </c>
       <c r="D275" s="0" t="s">
         <v>25</v>
@@ -9705,10 +9794,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="276">
       <c r="A276" s="0" t="s">
-        <v>784</v>
+        <v>790</v>
       </c>
       <c r="B276" s="0" t="s">
-        <v>785</v>
+        <v>791</v>
       </c>
       <c r="D276" s="0" t="s">
         <v>11</v>
@@ -9717,7 +9806,7 @@
         <v>19</v>
       </c>
       <c r="F276" s="0" t="s">
-        <v>786</v>
+        <v>792</v>
       </c>
       <c r="G276" s="0" t="s">
         <v>12</v>
@@ -9725,10 +9814,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="277">
       <c r="A277" s="0" t="s">
-        <v>787</v>
+        <v>793</v>
       </c>
       <c r="B277" s="0" t="s">
-        <v>788</v>
+        <v>794</v>
       </c>
       <c r="D277" s="0" t="s">
         <v>30</v>
@@ -9742,10 +9831,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="278">
       <c r="A278" s="0" t="s">
-        <v>789</v>
+        <v>795</v>
       </c>
       <c r="B278" s="0" t="s">
-        <v>790</v>
+        <v>796</v>
       </c>
       <c r="D278" s="0" t="s">
         <v>11</v>
@@ -9759,10 +9848,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="279">
       <c r="A279" s="0" t="s">
-        <v>791</v>
+        <v>797</v>
       </c>
       <c r="B279" s="0" t="s">
-        <v>792</v>
+        <v>798</v>
       </c>
       <c r="D279" s="0" t="s">
         <v>11</v>
@@ -9776,10 +9865,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="280">
       <c r="A280" s="0" t="s">
-        <v>793</v>
+        <v>799</v>
       </c>
       <c r="B280" s="0" t="s">
-        <v>794</v>
+        <v>800</v>
       </c>
       <c r="D280" s="0" t="s">
         <v>25</v>
@@ -9788,21 +9877,21 @@
         <v>19</v>
       </c>
       <c r="F280" s="0" t="s">
-        <v>795</v>
+        <v>801</v>
       </c>
       <c r="G280" s="0" t="s">
         <v>12</v>
       </c>
       <c r="I280" s="0" t="s">
-        <v>796</v>
+        <v>802</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="281">
       <c r="A281" s="0" t="s">
-        <v>797</v>
+        <v>803</v>
       </c>
       <c r="B281" s="0" t="s">
-        <v>798</v>
+        <v>804</v>
       </c>
       <c r="D281" s="0" t="s">
         <v>25</v>
@@ -9811,7 +9900,7 @@
         <v>19</v>
       </c>
       <c r="F281" s="0" t="s">
-        <v>795</v>
+        <v>801</v>
       </c>
       <c r="G281" s="0" t="s">
         <v>12</v>
@@ -9819,10 +9908,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="282">
       <c r="A282" s="0" t="s">
-        <v>799</v>
+        <v>805</v>
       </c>
       <c r="B282" s="0" t="s">
-        <v>800</v>
+        <v>806</v>
       </c>
       <c r="D282" s="0" t="s">
         <v>36</v>
@@ -9834,15 +9923,15 @@
         <v>19</v>
       </c>
       <c r="H282" s="0" t="s">
-        <v>800</v>
+        <v>806</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="283">
       <c r="A283" s="0" t="s">
-        <v>801</v>
+        <v>807</v>
       </c>
       <c r="B283" s="0" t="s">
-        <v>802</v>
+        <v>808</v>
       </c>
       <c r="D283" s="0" t="s">
         <v>25</v>
@@ -9851,7 +9940,7 @@
         <v>19</v>
       </c>
       <c r="F283" s="0" t="s">
-        <v>803</v>
+        <v>809</v>
       </c>
       <c r="G283" s="0" t="s">
         <v>12</v>
@@ -9859,10 +9948,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="284">
       <c r="A284" s="0" t="s">
-        <v>804</v>
+        <v>810</v>
       </c>
       <c r="B284" s="0" t="s">
-        <v>805</v>
+        <v>811</v>
       </c>
       <c r="D284" s="0" t="s">
         <v>11</v>
@@ -9871,7 +9960,7 @@
         <v>19</v>
       </c>
       <c r="F284" s="0" t="s">
-        <v>806</v>
+        <v>812</v>
       </c>
       <c r="G284" s="0" t="s">
         <v>12</v>
@@ -9879,10 +9968,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="285">
       <c r="A285" s="0" t="s">
-        <v>807</v>
+        <v>813</v>
       </c>
       <c r="B285" s="0" t="s">
-        <v>808</v>
+        <v>814</v>
       </c>
       <c r="D285" s="0" t="s">
         <v>30</v>
@@ -9894,15 +9983,15 @@
         <v>19</v>
       </c>
       <c r="H285" s="0" t="s">
-        <v>809</v>
+        <v>815</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="286">
       <c r="A286" s="0" t="s">
-        <v>810</v>
+        <v>816</v>
       </c>
       <c r="B286" s="0" t="s">
-        <v>811</v>
+        <v>817</v>
       </c>
       <c r="D286" s="0" t="s">
         <v>30</v>
@@ -9916,10 +10005,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="287">
       <c r="A287" s="0" t="s">
-        <v>812</v>
+        <v>818</v>
       </c>
       <c r="B287" s="0" t="s">
-        <v>813</v>
+        <v>819</v>
       </c>
       <c r="D287" s="0" t="s">
         <v>11</v>
@@ -9933,10 +10022,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="288">
       <c r="A288" s="0" t="s">
-        <v>814</v>
+        <v>820</v>
       </c>
       <c r="B288" s="0" t="s">
-        <v>815</v>
+        <v>821</v>
       </c>
       <c r="D288" s="0" t="s">
         <v>36</v>
@@ -9945,7 +10034,7 @@
         <v>19</v>
       </c>
       <c r="F288" s="0" t="s">
-        <v>816</v>
+        <v>822</v>
       </c>
       <c r="G288" s="0" t="s">
         <v>12</v>
@@ -9953,10 +10042,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="289">
       <c r="A289" s="0" t="s">
-        <v>817</v>
+        <v>823</v>
       </c>
       <c r="B289" s="0" t="s">
-        <v>818</v>
+        <v>824</v>
       </c>
       <c r="D289" s="0" t="s">
         <v>36</v>
@@ -9968,15 +10057,15 @@
         <v>19</v>
       </c>
       <c r="H289" s="0" t="s">
-        <v>819</v>
+        <v>825</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="290">
       <c r="A290" s="0" t="s">
-        <v>820</v>
+        <v>826</v>
       </c>
       <c r="B290" s="0" t="s">
-        <v>821</v>
+        <v>827</v>
       </c>
       <c r="D290" s="0" t="s">
         <v>16</v>
@@ -9988,15 +10077,15 @@
         <v>19</v>
       </c>
       <c r="H290" s="0" t="s">
-        <v>822</v>
+        <v>828</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="291">
       <c r="A291" s="0" t="s">
-        <v>823</v>
+        <v>829</v>
       </c>
       <c r="B291" s="0" t="s">
-        <v>824</v>
+        <v>830</v>
       </c>
       <c r="D291" s="0" t="s">
         <v>16</v>
@@ -10010,10 +10099,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="292">
       <c r="A292" s="0" t="s">
-        <v>825</v>
+        <v>831</v>
       </c>
       <c r="B292" s="0" t="s">
-        <v>826</v>
+        <v>832</v>
       </c>
       <c r="D292" s="0" t="s">
         <v>16</v>
@@ -10025,15 +10114,15 @@
         <v>19</v>
       </c>
       <c r="H292" s="0" t="s">
-        <v>827</v>
+        <v>833</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="293">
       <c r="A293" s="0" t="s">
-        <v>828</v>
+        <v>834</v>
       </c>
       <c r="B293" s="0" t="s">
-        <v>829</v>
+        <v>835</v>
       </c>
       <c r="D293" s="0" t="s">
         <v>16</v>
@@ -10042,7 +10131,7 @@
         <v>19</v>
       </c>
       <c r="F293" s="0" t="s">
-        <v>830</v>
+        <v>836</v>
       </c>
       <c r="G293" s="0" t="s">
         <v>12</v>
@@ -10050,7 +10139,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="294">
       <c r="A294" s="0" t="s">
-        <v>831</v>
+        <v>837</v>
       </c>
       <c r="B294" s="0" t="s">
         <v>11</v>
@@ -10070,10 +10159,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="295">
       <c r="A295" s="0" t="s">
-        <v>832</v>
+        <v>838</v>
       </c>
       <c r="B295" s="0" t="s">
-        <v>833</v>
+        <v>839</v>
       </c>
       <c r="D295" s="0" t="s">
         <v>36</v>
@@ -10087,10 +10176,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="296">
       <c r="A296" s="0" t="s">
-        <v>834</v>
+        <v>840</v>
       </c>
       <c r="B296" s="0" t="s">
-        <v>835</v>
+        <v>841</v>
       </c>
       <c r="D296" s="0" t="s">
         <v>30</v>
@@ -10099,21 +10188,21 @@
         <v>19</v>
       </c>
       <c r="F296" s="0" t="s">
-        <v>836</v>
+        <v>842</v>
       </c>
       <c r="G296" s="0" t="s">
         <v>19</v>
       </c>
       <c r="H296" s="0" t="s">
-        <v>837</v>
+        <v>843</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="297">
       <c r="A297" s="0" t="s">
-        <v>838</v>
+        <v>844</v>
       </c>
       <c r="B297" s="0" t="s">
-        <v>839</v>
+        <v>845</v>
       </c>
       <c r="D297" s="0" t="s">
         <v>25</v>
@@ -10122,21 +10211,21 @@
         <v>19</v>
       </c>
       <c r="F297" s="0" t="s">
-        <v>840</v>
+        <v>846</v>
       </c>
       <c r="G297" s="0" t="s">
         <v>19</v>
       </c>
       <c r="H297" s="0" t="s">
-        <v>841</v>
+        <v>847</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="298">
       <c r="A298" s="0" t="s">
-        <v>842</v>
+        <v>848</v>
       </c>
       <c r="B298" s="0" t="s">
-        <v>839</v>
+        <v>845</v>
       </c>
       <c r="D298" s="0" t="s">
         <v>25</v>
@@ -10145,21 +10234,21 @@
         <v>19</v>
       </c>
       <c r="F298" s="0" t="s">
-        <v>840</v>
+        <v>846</v>
       </c>
       <c r="G298" s="0" t="s">
         <v>19</v>
       </c>
       <c r="H298" s="0" t="s">
-        <v>841</v>
+        <v>847</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="299">
       <c r="A299" s="0" t="s">
-        <v>843</v>
+        <v>849</v>
       </c>
       <c r="B299" s="0" t="s">
-        <v>844</v>
+        <v>850</v>
       </c>
       <c r="D299" s="0" t="s">
         <v>36</v>
@@ -10168,21 +10257,21 @@
         <v>19</v>
       </c>
       <c r="F299" s="0" t="s">
-        <v>845</v>
+        <v>851</v>
       </c>
       <c r="G299" s="0" t="s">
         <v>19</v>
       </c>
       <c r="H299" s="0" t="s">
-        <v>846</v>
+        <v>852</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="300">
       <c r="A300" s="0" t="s">
-        <v>847</v>
+        <v>853</v>
       </c>
       <c r="B300" s="0" t="s">
-        <v>848</v>
+        <v>854</v>
       </c>
       <c r="D300" s="0" t="s">
         <v>36</v>
@@ -10194,15 +10283,15 @@
         <v>19</v>
       </c>
       <c r="H300" s="0" t="s">
-        <v>849</v>
+        <v>855</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="301">
       <c r="A301" s="0" t="s">
-        <v>850</v>
+        <v>856</v>
       </c>
       <c r="B301" s="0" t="s">
-        <v>851</v>
+        <v>857</v>
       </c>
       <c r="D301" s="0" t="s">
         <v>11</v>
@@ -10211,7 +10300,7 @@
         <v>19</v>
       </c>
       <c r="F301" s="0" t="s">
-        <v>852</v>
+        <v>858</v>
       </c>
       <c r="G301" s="0" t="s">
         <v>12</v>
@@ -10219,10 +10308,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="302">
       <c r="A302" s="0" t="s">
-        <v>853</v>
+        <v>859</v>
       </c>
       <c r="B302" s="0" t="s">
-        <v>854</v>
+        <v>860</v>
       </c>
       <c r="D302" s="0" t="s">
         <v>11</v>
@@ -10231,7 +10320,7 @@
         <v>19</v>
       </c>
       <c r="F302" s="0" t="s">
-        <v>855</v>
+        <v>861</v>
       </c>
       <c r="G302" s="0" t="s">
         <v>12</v>
@@ -10239,10 +10328,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="303">
       <c r="A303" s="0" t="s">
-        <v>856</v>
+        <v>862</v>
       </c>
       <c r="B303" s="0" t="s">
-        <v>857</v>
+        <v>863</v>
       </c>
       <c r="D303" s="0" t="s">
         <v>16</v>
@@ -10254,15 +10343,15 @@
         <v>19</v>
       </c>
       <c r="H303" s="0" t="s">
-        <v>858</v>
+        <v>864</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="304">
       <c r="A304" s="0" t="s">
-        <v>859</v>
+        <v>865</v>
       </c>
       <c r="B304" s="0" t="s">
-        <v>860</v>
+        <v>866</v>
       </c>
       <c r="D304" s="0" t="s">
         <v>36</v>
@@ -10271,15 +10360,15 @@
         <v>19</v>
       </c>
       <c r="F304" s="0" t="s">
-        <v>861</v>
+        <v>867</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="305">
       <c r="A305" s="0" t="s">
-        <v>862</v>
+        <v>868</v>
       </c>
       <c r="B305" s="0" t="s">
-        <v>863</v>
+        <v>869</v>
       </c>
       <c r="D305" s="0" t="s">
         <v>11</v>
@@ -10291,15 +10380,15 @@
         <v>19</v>
       </c>
       <c r="H305" s="0" t="s">
-        <v>864</v>
+        <v>870</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="306">
       <c r="A306" s="0" t="s">
-        <v>865</v>
+        <v>871</v>
       </c>
       <c r="B306" s="0" t="s">
-        <v>866</v>
+        <v>872</v>
       </c>
       <c r="D306" s="0" t="s">
         <v>36</v>
@@ -10311,15 +10400,15 @@
         <v>19</v>
       </c>
       <c r="H306" s="0" t="s">
-        <v>867</v>
+        <v>873</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="307">
       <c r="A307" s="0" t="s">
-        <v>868</v>
+        <v>874</v>
       </c>
       <c r="B307" s="0" t="s">
-        <v>869</v>
+        <v>875</v>
       </c>
       <c r="D307" s="0" t="s">
         <v>11</v>
@@ -10328,21 +10417,21 @@
         <v>19</v>
       </c>
       <c r="F307" s="0" t="s">
-        <v>870</v>
+        <v>876</v>
       </c>
       <c r="G307" s="0" t="s">
         <v>19</v>
       </c>
       <c r="H307" s="0" t="s">
-        <v>871</v>
+        <v>877</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="308">
       <c r="A308" s="0" t="s">
-        <v>872</v>
+        <v>878</v>
       </c>
       <c r="B308" s="0" t="s">
-        <v>873</v>
+        <v>879</v>
       </c>
       <c r="D308" s="0" t="s">
         <v>36</v>
@@ -10351,21 +10440,21 @@
         <v>19</v>
       </c>
       <c r="F308" s="0" t="s">
-        <v>874</v>
+        <v>880</v>
       </c>
       <c r="G308" s="0" t="s">
         <v>19</v>
       </c>
       <c r="H308" s="0" t="s">
-        <v>875</v>
+        <v>881</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="309">
       <c r="A309" s="0" t="s">
-        <v>876</v>
+        <v>882</v>
       </c>
       <c r="B309" s="0" t="s">
-        <v>877</v>
+        <v>883</v>
       </c>
       <c r="D309" s="0" t="s">
         <v>30</v>
@@ -10374,7 +10463,7 @@
         <v>19</v>
       </c>
       <c r="F309" s="0" t="s">
-        <v>878</v>
+        <v>884</v>
       </c>
       <c r="G309" s="0" t="s">
         <v>12</v>
@@ -10382,10 +10471,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="310">
       <c r="A310" s="0" t="s">
-        <v>879</v>
+        <v>885</v>
       </c>
       <c r="B310" s="0" t="s">
-        <v>880</v>
+        <v>886</v>
       </c>
       <c r="D310" s="0" t="s">
         <v>11</v>
@@ -10399,10 +10488,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="311">
       <c r="A311" s="0" t="s">
-        <v>881</v>
+        <v>887</v>
       </c>
       <c r="B311" s="0" t="s">
-        <v>882</v>
+        <v>888</v>
       </c>
       <c r="D311" s="0" t="s">
         <v>11</v>
@@ -10414,15 +10503,15 @@
         <v>19</v>
       </c>
       <c r="H311" s="0" t="s">
-        <v>883</v>
+        <v>889</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="312">
       <c r="A312" s="0" t="s">
-        <v>884</v>
+        <v>890</v>
       </c>
       <c r="B312" s="0" t="s">
-        <v>885</v>
+        <v>891</v>
       </c>
       <c r="D312" s="0" t="s">
         <v>11</v>
@@ -10434,15 +10523,15 @@
         <v>19</v>
       </c>
       <c r="H312" s="0" t="s">
-        <v>883</v>
+        <v>889</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="313">
       <c r="A313" s="0" t="s">
-        <v>886</v>
+        <v>892</v>
       </c>
       <c r="B313" s="0" t="s">
-        <v>887</v>
+        <v>893</v>
       </c>
       <c r="D313" s="0" t="s">
         <v>11</v>
@@ -10459,10 +10548,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="314">
       <c r="A314" s="0" t="s">
-        <v>888</v>
+        <v>894</v>
       </c>
       <c r="B314" s="0" t="s">
-        <v>889</v>
+        <v>895</v>
       </c>
       <c r="D314" s="0" t="s">
         <v>11</v>
@@ -10476,10 +10565,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="315">
       <c r="A315" s="0" t="s">
-        <v>890</v>
+        <v>896</v>
       </c>
       <c r="B315" s="0" t="s">
-        <v>891</v>
+        <v>897</v>
       </c>
       <c r="D315" s="0" t="s">
         <v>36</v>
@@ -10488,21 +10577,21 @@
         <v>19</v>
       </c>
       <c r="F315" s="0" t="s">
-        <v>892</v>
+        <v>898</v>
       </c>
       <c r="G315" s="0" t="s">
         <v>19</v>
       </c>
       <c r="H315" s="0" t="s">
-        <v>893</v>
+        <v>899</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="316">
       <c r="A316" s="0" t="s">
-        <v>894</v>
+        <v>900</v>
       </c>
       <c r="B316" s="0" t="s">
-        <v>895</v>
+        <v>901</v>
       </c>
       <c r="D316" s="0" t="s">
         <v>30</v>
@@ -10519,10 +10608,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="317">
       <c r="A317" s="0" t="s">
-        <v>896</v>
+        <v>902</v>
       </c>
       <c r="B317" s="0" t="s">
-        <v>897</v>
+        <v>903</v>
       </c>
       <c r="D317" s="0" t="s">
         <v>25</v>
@@ -10531,21 +10620,21 @@
         <v>19</v>
       </c>
       <c r="F317" s="0" t="s">
-        <v>898</v>
+        <v>904</v>
       </c>
       <c r="G317" s="0" t="s">
         <v>19</v>
       </c>
       <c r="H317" s="0" t="s">
-        <v>899</v>
+        <v>905</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="318">
       <c r="A318" s="0" t="s">
-        <v>900</v>
+        <v>906</v>
       </c>
       <c r="B318" s="0" t="s">
-        <v>901</v>
+        <v>907</v>
       </c>
       <c r="D318" s="0" t="s">
         <v>16</v>
@@ -10554,7 +10643,7 @@
         <v>19</v>
       </c>
       <c r="F318" s="0" t="s">
-        <v>902</v>
+        <v>908</v>
       </c>
       <c r="G318" s="0" t="s">
         <v>19</v>
@@ -10565,10 +10654,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="319">
       <c r="A319" s="0" t="s">
-        <v>903</v>
+        <v>909</v>
       </c>
       <c r="B319" s="0" t="s">
-        <v>904</v>
+        <v>910</v>
       </c>
       <c r="D319" s="0" t="s">
         <v>16</v>
@@ -10582,10 +10671,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="320">
       <c r="A320" s="0" t="s">
-        <v>905</v>
+        <v>911</v>
       </c>
       <c r="B320" s="0" t="s">
-        <v>906</v>
+        <v>912</v>
       </c>
       <c r="D320" s="0" t="s">
         <v>16</v>
@@ -10594,21 +10683,21 @@
         <v>19</v>
       </c>
       <c r="F320" s="0" t="s">
-        <v>907</v>
+        <v>913</v>
       </c>
       <c r="G320" s="0" t="s">
         <v>19</v>
       </c>
       <c r="H320" s="0" t="s">
-        <v>908</v>
+        <v>914</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="321">
       <c r="A321" s="0" t="s">
-        <v>909</v>
+        <v>915</v>
       </c>
       <c r="B321" s="0" t="s">
-        <v>910</v>
+        <v>916</v>
       </c>
       <c r="D321" s="0" t="s">
         <v>25</v>
@@ -10617,21 +10706,21 @@
         <v>19</v>
       </c>
       <c r="F321" s="0" t="s">
-        <v>911</v>
+        <v>917</v>
       </c>
       <c r="G321" s="0" t="s">
         <v>19</v>
       </c>
       <c r="H321" s="0" t="s">
-        <v>912</v>
+        <v>918</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="322">
       <c r="A322" s="0" t="s">
-        <v>913</v>
+        <v>919</v>
       </c>
       <c r="B322" s="0" t="s">
-        <v>914</v>
+        <v>920</v>
       </c>
       <c r="D322" s="0" t="s">
         <v>11</v>
@@ -10640,7 +10729,7 @@
         <v>19</v>
       </c>
       <c r="F322" s="0" t="s">
-        <v>915</v>
+        <v>921</v>
       </c>
       <c r="G322" s="0" t="s">
         <v>12</v>
@@ -10648,10 +10737,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="323">
       <c r="A323" s="0" t="s">
-        <v>916</v>
+        <v>922</v>
       </c>
       <c r="B323" s="0" t="s">
-        <v>917</v>
+        <v>923</v>
       </c>
       <c r="D323" s="0" t="s">
         <v>16</v>
@@ -10663,15 +10752,15 @@
         <v>19</v>
       </c>
       <c r="H323" s="0" t="s">
-        <v>918</v>
+        <v>924</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="324">
       <c r="A324" s="0" t="s">
-        <v>919</v>
+        <v>925</v>
       </c>
       <c r="B324" s="0" t="s">
-        <v>920</v>
+        <v>926</v>
       </c>
       <c r="D324" s="0" t="s">
         <v>11</v>
@@ -10683,15 +10772,15 @@
         <v>19</v>
       </c>
       <c r="H324" s="0" t="s">
-        <v>921</v>
+        <v>927</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="325">
       <c r="A325" s="0" t="s">
-        <v>922</v>
+        <v>928</v>
       </c>
       <c r="B325" s="0" t="s">
-        <v>923</v>
+        <v>929</v>
       </c>
       <c r="D325" s="0" t="s">
         <v>25</v>
@@ -10705,10 +10794,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="326">
       <c r="A326" s="0" t="s">
-        <v>924</v>
+        <v>930</v>
       </c>
       <c r="B326" s="0" t="s">
-        <v>925</v>
+        <v>931</v>
       </c>
       <c r="D326" s="0" t="s">
         <v>36</v>
@@ -10722,10 +10811,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="327">
       <c r="A327" s="0" t="s">
-        <v>926</v>
+        <v>932</v>
       </c>
       <c r="B327" s="0" t="s">
-        <v>927</v>
+        <v>933</v>
       </c>
       <c r="D327" s="0" t="s">
         <v>30</v>
@@ -10734,7 +10823,7 @@
         <v>19</v>
       </c>
       <c r="F327" s="0" t="s">
-        <v>928</v>
+        <v>934</v>
       </c>
       <c r="G327" s="0" t="s">
         <v>12</v>
@@ -10742,10 +10831,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="328">
       <c r="A328" s="0" t="s">
-        <v>929</v>
+        <v>935</v>
       </c>
       <c r="B328" s="0" t="s">
-        <v>930</v>
+        <v>936</v>
       </c>
       <c r="D328" s="0" t="s">
         <v>16</v>
@@ -10754,15 +10843,15 @@
         <v>19</v>
       </c>
       <c r="F328" s="0" t="s">
-        <v>931</v>
+        <v>937</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="329">
       <c r="A329" s="0" t="s">
-        <v>932</v>
+        <v>938</v>
       </c>
       <c r="B329" s="0" t="s">
-        <v>933</v>
+        <v>939</v>
       </c>
       <c r="D329" s="0" t="s">
         <v>36</v>
@@ -10771,7 +10860,7 @@
         <v>19</v>
       </c>
       <c r="F329" s="0" t="s">
-        <v>934</v>
+        <v>940</v>
       </c>
       <c r="G329" s="0" t="s">
         <v>12</v>
@@ -10779,10 +10868,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="330">
       <c r="A330" s="0" t="s">
-        <v>935</v>
+        <v>941</v>
       </c>
       <c r="B330" s="0" t="s">
-        <v>936</v>
+        <v>942</v>
       </c>
       <c r="D330" s="0" t="s">
         <v>11</v>
@@ -10796,10 +10885,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="331">
       <c r="A331" s="0" t="s">
-        <v>937</v>
+        <v>943</v>
       </c>
       <c r="B331" s="0" t="s">
-        <v>938</v>
+        <v>944</v>
       </c>
       <c r="D331" s="0" t="s">
         <v>36</v>
@@ -10813,10 +10902,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="332">
       <c r="A332" s="0" t="s">
-        <v>939</v>
+        <v>945</v>
       </c>
       <c r="B332" s="0" t="s">
-        <v>940</v>
+        <v>946</v>
       </c>
       <c r="D332" s="0" t="s">
         <v>36</v>
@@ -10830,10 +10919,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="333">
       <c r="A333" s="0" t="s">
-        <v>941</v>
+        <v>947</v>
       </c>
       <c r="B333" s="0" t="s">
-        <v>942</v>
+        <v>948</v>
       </c>
       <c r="D333" s="0" t="s">
         <v>30</v>
@@ -10847,10 +10936,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="334">
       <c r="A334" s="0" t="s">
-        <v>943</v>
+        <v>949</v>
       </c>
       <c r="B334" s="0" t="s">
-        <v>944</v>
+        <v>950</v>
       </c>
       <c r="D334" s="0" t="s">
         <v>11</v>
@@ -10859,7 +10948,7 @@
         <v>19</v>
       </c>
       <c r="F334" s="0" t="s">
-        <v>945</v>
+        <v>951</v>
       </c>
       <c r="G334" s="0" t="s">
         <v>12</v>
@@ -10867,10 +10956,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="335">
       <c r="A335" s="0" t="s">
-        <v>946</v>
+        <v>952</v>
       </c>
       <c r="B335" s="0" t="s">
-        <v>947</v>
+        <v>953</v>
       </c>
       <c r="D335" s="0" t="s">
         <v>25</v>
@@ -10879,7 +10968,7 @@
         <v>19</v>
       </c>
       <c r="F335" s="0" t="s">
-        <v>948</v>
+        <v>954</v>
       </c>
       <c r="G335" s="0" t="s">
         <v>12</v>
@@ -10887,10 +10976,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="336">
       <c r="A336" s="0" t="s">
-        <v>949</v>
+        <v>955</v>
       </c>
       <c r="B336" s="0" t="s">
-        <v>950</v>
+        <v>956</v>
       </c>
       <c r="D336" s="0" t="s">
         <v>30</v>
@@ -10904,10 +10993,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="337">
       <c r="A337" s="0" t="s">
-        <v>951</v>
+        <v>957</v>
       </c>
       <c r="B337" s="0" t="s">
-        <v>952</v>
+        <v>958</v>
       </c>
       <c r="D337" s="0" t="s">
         <v>25</v>
@@ -10916,7 +11005,7 @@
         <v>19</v>
       </c>
       <c r="F337" s="0" t="s">
-        <v>953</v>
+        <v>959</v>
       </c>
       <c r="G337" s="0" t="s">
         <v>19</v>
@@ -10924,10 +11013,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="338">
       <c r="A338" s="0" t="s">
-        <v>954</v>
+        <v>960</v>
       </c>
       <c r="B338" s="0" t="s">
-        <v>955</v>
+        <v>961</v>
       </c>
       <c r="D338" s="0" t="s">
         <v>36</v>
@@ -10941,10 +11030,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="339">
       <c r="A339" s="0" t="s">
-        <v>956</v>
+        <v>962</v>
       </c>
       <c r="B339" s="0" t="s">
-        <v>957</v>
+        <v>963</v>
       </c>
       <c r="D339" s="0" t="s">
         <v>25</v>
@@ -10953,7 +11042,7 @@
         <v>19</v>
       </c>
       <c r="F339" s="0" t="s">
-        <v>958</v>
+        <v>964</v>
       </c>
       <c r="G339" s="0" t="s">
         <v>12</v>
@@ -10961,10 +11050,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="340">
       <c r="A340" s="0" t="s">
-        <v>959</v>
+        <v>965</v>
       </c>
       <c r="B340" s="0" t="s">
-        <v>960</v>
+        <v>966</v>
       </c>
       <c r="D340" s="0" t="s">
         <v>25</v>
@@ -10973,7 +11062,7 @@
         <v>19</v>
       </c>
       <c r="F340" s="0" t="s">
-        <v>961</v>
+        <v>967</v>
       </c>
       <c r="G340" s="0" t="s">
         <v>12</v>
@@ -10981,10 +11070,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="341">
       <c r="A341" s="0" t="s">
-        <v>962</v>
+        <v>968</v>
       </c>
       <c r="B341" s="0" t="s">
-        <v>963</v>
+        <v>969</v>
       </c>
       <c r="D341" s="0" t="s">
         <v>11</v>
@@ -10993,7 +11082,7 @@
         <v>19</v>
       </c>
       <c r="F341" s="0" t="s">
-        <v>964</v>
+        <v>970</v>
       </c>
       <c r="G341" s="0" t="s">
         <v>12</v>
@@ -11001,10 +11090,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="342">
       <c r="A342" s="0" t="s">
-        <v>965</v>
+        <v>971</v>
       </c>
       <c r="B342" s="0" t="s">
-        <v>966</v>
+        <v>972</v>
       </c>
       <c r="D342" s="0" t="s">
         <v>36</v>
@@ -11018,10 +11107,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="343">
       <c r="A343" s="0" t="s">
-        <v>967</v>
+        <v>973</v>
       </c>
       <c r="B343" s="0" t="s">
-        <v>968</v>
+        <v>974</v>
       </c>
       <c r="D343" s="0" t="s">
         <v>11</v>
@@ -11030,24 +11119,24 @@
         <v>19</v>
       </c>
       <c r="F343" s="0" t="s">
-        <v>969</v>
+        <v>975</v>
       </c>
       <c r="G343" s="0" t="s">
         <v>19</v>
       </c>
       <c r="H343" s="0" t="s">
-        <v>970</v>
+        <v>976</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="344">
       <c r="A344" s="0" t="s">
-        <v>971</v>
+        <v>977</v>
       </c>
       <c r="B344" s="0" t="s">
-        <v>972</v>
+        <v>978</v>
       </c>
       <c r="D344" s="0" t="s">
-        <v>744</v>
+        <v>750</v>
       </c>
       <c r="E344" s="0" t="s">
         <v>12</v>
@@ -11056,15 +11145,15 @@
         <v>19</v>
       </c>
       <c r="H344" s="0" t="s">
-        <v>973</v>
+        <v>979</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="345">
       <c r="A345" s="0" t="s">
-        <v>974</v>
+        <v>980</v>
       </c>
       <c r="B345" s="0" t="s">
-        <v>975</v>
+        <v>981</v>
       </c>
       <c r="D345" s="0" t="s">
         <v>11</v>
@@ -11073,7 +11162,7 @@
         <v>19</v>
       </c>
       <c r="F345" s="0" t="s">
-        <v>976</v>
+        <v>982</v>
       </c>
       <c r="G345" s="0" t="s">
         <v>12</v>
@@ -11081,10 +11170,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="346">
       <c r="A346" s="0" t="s">
-        <v>977</v>
+        <v>983</v>
       </c>
       <c r="B346" s="0" t="s">
-        <v>978</v>
+        <v>984</v>
       </c>
       <c r="D346" s="0" t="s">
         <v>36</v>
@@ -11098,10 +11187,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="347">
       <c r="A347" s="0" t="s">
-        <v>979</v>
+        <v>985</v>
       </c>
       <c r="B347" s="0" t="s">
-        <v>980</v>
+        <v>986</v>
       </c>
       <c r="D347" s="0" t="s">
         <v>30</v>
@@ -11113,15 +11202,15 @@
         <v>19</v>
       </c>
       <c r="H347" s="0" t="s">
-        <v>981</v>
+        <v>987</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="348">
       <c r="A348" s="0" t="s">
-        <v>982</v>
+        <v>988</v>
       </c>
       <c r="B348" s="0" t="s">
-        <v>983</v>
+        <v>989</v>
       </c>
       <c r="D348" s="0" t="s">
         <v>16</v>
@@ -11130,7 +11219,7 @@
         <v>19</v>
       </c>
       <c r="F348" s="0" t="s">
-        <v>984</v>
+        <v>990</v>
       </c>
       <c r="G348" s="0" t="s">
         <v>12</v>
@@ -11138,10 +11227,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="349">
       <c r="A349" s="0" t="s">
-        <v>985</v>
+        <v>991</v>
       </c>
       <c r="B349" s="0" t="s">
-        <v>986</v>
+        <v>992</v>
       </c>
       <c r="D349" s="0" t="s">
         <v>11</v>
@@ -11153,15 +11242,15 @@
         <v>19</v>
       </c>
       <c r="H349" s="0" t="s">
-        <v>987</v>
+        <v>993</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="350">
       <c r="A350" s="0" t="s">
-        <v>985</v>
+        <v>991</v>
       </c>
       <c r="B350" s="0" t="s">
-        <v>986</v>
+        <v>992</v>
       </c>
       <c r="D350" s="0" t="s">
         <v>11</v>
@@ -11173,15 +11262,15 @@
         <v>19</v>
       </c>
       <c r="H350" s="0" t="s">
-        <v>987</v>
+        <v>993</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="351">
       <c r="A351" s="0" t="s">
-        <v>988</v>
+        <v>994</v>
       </c>
       <c r="B351" s="0" t="s">
-        <v>989</v>
+        <v>995</v>
       </c>
       <c r="D351" s="0" t="s">
         <v>16</v>
@@ -11193,15 +11282,15 @@
         <v>19</v>
       </c>
       <c r="H351" s="0" t="s">
-        <v>990</v>
+        <v>996</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="352">
       <c r="A352" s="0" t="s">
-        <v>991</v>
+        <v>997</v>
       </c>
       <c r="B352" s="0" t="s">
-        <v>992</v>
+        <v>998</v>
       </c>
       <c r="D352" s="0" t="s">
         <v>25</v>
@@ -11215,10 +11304,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="353">
       <c r="A353" s="0" t="s">
-        <v>993</v>
+        <v>999</v>
       </c>
       <c r="B353" s="0" t="s">
-        <v>994</v>
+        <v>1000</v>
       </c>
       <c r="D353" s="0" t="s">
         <v>25</v>
@@ -11227,21 +11316,21 @@
         <v>19</v>
       </c>
       <c r="F353" s="0" t="s">
-        <v>995</v>
+        <v>1001</v>
       </c>
       <c r="G353" s="0" t="s">
         <v>19</v>
       </c>
       <c r="H353" s="0" t="s">
-        <v>996</v>
+        <v>1002</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="354">
       <c r="A354" s="0" t="s">
-        <v>997</v>
+        <v>1003</v>
       </c>
       <c r="B354" s="0" t="s">
-        <v>998</v>
+        <v>1004</v>
       </c>
       <c r="D354" s="0" t="s">
         <v>25</v>
@@ -11255,10 +11344,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="355">
       <c r="A355" s="0" t="s">
-        <v>999</v>
+        <v>1005</v>
       </c>
       <c r="B355" s="0" t="s">
-        <v>1000</v>
+        <v>1006</v>
       </c>
       <c r="D355" s="0" t="s">
         <v>11</v>
@@ -11270,15 +11359,15 @@
         <v>19</v>
       </c>
       <c r="H355" s="0" t="s">
-        <v>1001</v>
+        <v>1007</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="356">
       <c r="A356" s="0" t="s">
-        <v>1002</v>
+        <v>1008</v>
       </c>
       <c r="B356" s="0" t="s">
-        <v>1003</v>
+        <v>1009</v>
       </c>
       <c r="D356" s="0" t="s">
         <v>16</v>
@@ -11292,10 +11381,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="357">
       <c r="A357" s="0" t="s">
-        <v>1004</v>
+        <v>1010</v>
       </c>
       <c r="B357" s="0" t="s">
-        <v>1005</v>
+        <v>1011</v>
       </c>
       <c r="D357" s="0" t="s">
         <v>16</v>
@@ -11309,10 +11398,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="358">
       <c r="A358" s="0" t="s">
-        <v>1006</v>
+        <v>1012</v>
       </c>
       <c r="B358" s="0" t="s">
-        <v>1007</v>
+        <v>1013</v>
       </c>
       <c r="D358" s="0" t="s">
         <v>11</v>
@@ -11326,10 +11415,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="359">
       <c r="A359" s="0" t="s">
-        <v>1008</v>
+        <v>1014</v>
       </c>
       <c r="B359" s="0" t="s">
-        <v>1009</v>
+        <v>1015</v>
       </c>
       <c r="D359" s="0" t="s">
         <v>11</v>
@@ -11343,10 +11432,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="360">
       <c r="A360" s="0" t="s">
-        <v>1010</v>
+        <v>1016</v>
       </c>
       <c r="B360" s="0" t="s">
-        <v>1011</v>
+        <v>1017</v>
       </c>
       <c r="D360" s="0" t="s">
         <v>16</v>
@@ -11355,7 +11444,7 @@
         <v>19</v>
       </c>
       <c r="F360" s="0" t="s">
-        <v>1012</v>
+        <v>1018</v>
       </c>
       <c r="G360" s="0" t="s">
         <v>19</v>
@@ -11366,10 +11455,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="361">
       <c r="A361" s="0" t="s">
-        <v>1013</v>
+        <v>1019</v>
       </c>
       <c r="B361" s="0" t="s">
-        <v>1014</v>
+        <v>1020</v>
       </c>
       <c r="D361" s="0" t="s">
         <v>16</v>
@@ -11381,15 +11470,15 @@
         <v>19</v>
       </c>
       <c r="H361" s="0" t="s">
-        <v>1015</v>
+        <v>1021</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="362">
       <c r="A362" s="0" t="s">
-        <v>1016</v>
+        <v>1022</v>
       </c>
       <c r="B362" s="0" t="s">
-        <v>1017</v>
+        <v>1023</v>
       </c>
       <c r="D362" s="0" t="s">
         <v>11</v>
@@ -11403,10 +11492,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="363">
       <c r="A363" s="0" t="s">
-        <v>1018</v>
+        <v>1024</v>
       </c>
       <c r="B363" s="0" t="s">
-        <v>1019</v>
+        <v>1025</v>
       </c>
       <c r="D363" s="0" t="s">
         <v>25</v>
@@ -11418,15 +11507,15 @@
         <v>19</v>
       </c>
       <c r="H363" s="0" t="s">
-        <v>1020</v>
+        <v>1026</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="364">
       <c r="A364" s="0" t="s">
-        <v>1021</v>
+        <v>1027</v>
       </c>
       <c r="B364" s="0" t="s">
-        <v>1022</v>
+        <v>1028</v>
       </c>
       <c r="D364" s="0" t="s">
         <v>30</v>
@@ -11438,7 +11527,7 @@
         <v>19</v>
       </c>
       <c r="H364" s="0" t="s">
-        <v>1023</v>
+        <v>1029</v>
       </c>
       <c r="I364" s="0" t="s">
         <v>33</v>
@@ -11446,10 +11535,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="365">
       <c r="A365" s="0" t="s">
-        <v>1024</v>
+        <v>1030</v>
       </c>
       <c r="B365" s="0" t="s">
-        <v>1025</v>
+        <v>1031</v>
       </c>
       <c r="D365" s="0" t="s">
         <v>25</v>
@@ -11461,15 +11550,15 @@
         <v>19</v>
       </c>
       <c r="H365" s="0" t="s">
-        <v>1026</v>
+        <v>1032</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="366">
       <c r="A366" s="0" t="s">
-        <v>1027</v>
+        <v>1033</v>
       </c>
       <c r="B366" s="0" t="s">
-        <v>1028</v>
+        <v>1034</v>
       </c>
       <c r="D366" s="0" t="s">
         <v>11</v>
@@ -11483,10 +11572,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="367">
       <c r="A367" s="0" t="s">
-        <v>1029</v>
+        <v>1035</v>
       </c>
       <c r="B367" s="0" t="s">
-        <v>1030</v>
+        <v>1036</v>
       </c>
       <c r="D367" s="0" t="s">
         <v>16</v>
@@ -11500,10 +11589,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="368">
       <c r="A368" s="0" t="s">
-        <v>1031</v>
+        <v>1037</v>
       </c>
       <c r="B368" s="2" t="s">
-        <v>1032</v>
+        <v>1038</v>
       </c>
       <c r="C368" s="2"/>
       <c r="D368" s="0" t="s">
@@ -11518,10 +11607,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="369">
       <c r="A369" s="0" t="s">
-        <v>1033</v>
+        <v>1039</v>
       </c>
       <c r="B369" s="0" t="s">
-        <v>1034</v>
+        <v>1040</v>
       </c>
       <c r="D369" s="0" t="s">
         <v>16</v>
@@ -11533,15 +11622,15 @@
         <v>19</v>
       </c>
       <c r="H369" s="0" t="s">
-        <v>1035</v>
+        <v>1041</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="370">
       <c r="A370" s="0" t="s">
-        <v>1036</v>
+        <v>1042</v>
       </c>
       <c r="B370" s="0" t="s">
-        <v>1037</v>
+        <v>1043</v>
       </c>
       <c r="D370" s="0" t="s">
         <v>11</v>
@@ -11553,15 +11642,15 @@
         <v>19</v>
       </c>
       <c r="H370" s="0" t="s">
-        <v>1038</v>
+        <v>1044</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="371">
       <c r="A371" s="0" t="s">
-        <v>1039</v>
+        <v>1045</v>
       </c>
       <c r="B371" s="2" t="s">
-        <v>1040</v>
+        <v>1046</v>
       </c>
       <c r="C371" s="2"/>
       <c r="D371" s="0" t="s">
@@ -11571,21 +11660,21 @@
         <v>19</v>
       </c>
       <c r="F371" s="0" t="s">
-        <v>1041</v>
+        <v>1047</v>
       </c>
       <c r="G371" s="0" t="s">
         <v>19</v>
       </c>
       <c r="H371" s="0" t="s">
-        <v>1042</v>
+        <v>1048</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="372">
       <c r="A372" s="0" t="s">
-        <v>1043</v>
+        <v>1049</v>
       </c>
       <c r="B372" s="0" t="s">
-        <v>1040</v>
+        <v>1046</v>
       </c>
       <c r="D372" s="0" t="s">
         <v>11</v>
@@ -11594,22 +11683,22 @@
         <v>19</v>
       </c>
       <c r="F372" s="0" t="s">
-        <v>1041</v>
+        <v>1047</v>
       </c>
       <c r="G372" s="0" t="s">
         <v>19</v>
       </c>
       <c r="H372" s="0" t="s">
-        <v>1042</v>
+        <v>1048</v>
       </c>
       <c r="I372" s="2"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="373">
       <c r="A373" s="0" t="s">
-        <v>1044</v>
+        <v>1050</v>
       </c>
       <c r="B373" s="0" t="s">
-        <v>1040</v>
+        <v>1046</v>
       </c>
       <c r="D373" s="0" t="s">
         <v>36</v>
@@ -11618,21 +11707,21 @@
         <v>19</v>
       </c>
       <c r="F373" s="0" t="s">
-        <v>1041</v>
+        <v>1047</v>
       </c>
       <c r="G373" s="0" t="s">
         <v>19</v>
       </c>
       <c r="H373" s="0" t="s">
-        <v>1042</v>
+        <v>1048</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="374">
       <c r="A374" s="0" t="s">
-        <v>1045</v>
+        <v>1051</v>
       </c>
       <c r="B374" s="0" t="s">
-        <v>1040</v>
+        <v>1046</v>
       </c>
       <c r="D374" s="0" t="s">
         <v>11</v>
@@ -11641,21 +11730,21 @@
         <v>19</v>
       </c>
       <c r="F374" s="0" t="s">
-        <v>1041</v>
+        <v>1047</v>
       </c>
       <c r="G374" s="0" t="s">
         <v>19</v>
       </c>
       <c r="H374" s="0" t="s">
-        <v>1042</v>
+        <v>1048</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="375">
       <c r="A375" s="0" t="s">
+        <v>1052</v>
+      </c>
+      <c r="B375" s="2" t="s">
         <v>1046</v>
-      </c>
-      <c r="B375" s="2" t="s">
-        <v>1040</v>
       </c>
       <c r="C375" s="2"/>
       <c r="D375" s="0" t="s">
@@ -11665,21 +11754,21 @@
         <v>19</v>
       </c>
       <c r="F375" s="0" t="s">
-        <v>1041</v>
+        <v>1047</v>
       </c>
       <c r="G375" s="0" t="s">
         <v>19</v>
       </c>
       <c r="H375" s="0" t="s">
-        <v>1042</v>
+        <v>1048</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="376">
       <c r="A376" s="0" t="s">
-        <v>1047</v>
+        <v>1053</v>
       </c>
       <c r="B376" s="0" t="s">
-        <v>1040</v>
+        <v>1046</v>
       </c>
       <c r="D376" s="0" t="s">
         <v>25</v>
@@ -11688,21 +11777,21 @@
         <v>19</v>
       </c>
       <c r="F376" s="0" t="s">
-        <v>1041</v>
+        <v>1047</v>
       </c>
       <c r="G376" s="0" t="s">
         <v>19</v>
       </c>
       <c r="H376" s="0" t="s">
-        <v>1042</v>
+        <v>1048</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="377">
       <c r="A377" s="0" t="s">
-        <v>1048</v>
+        <v>1054</v>
       </c>
       <c r="B377" s="0" t="s">
-        <v>1049</v>
+        <v>1055</v>
       </c>
       <c r="D377" s="0" t="s">
         <v>25</v>
@@ -11716,10 +11805,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="378">
       <c r="A378" s="0" t="s">
-        <v>1050</v>
+        <v>1056</v>
       </c>
       <c r="B378" s="0" t="s">
-        <v>1051</v>
+        <v>1057</v>
       </c>
       <c r="D378" s="0" t="s">
         <v>11</v>
@@ -11731,15 +11820,15 @@
         <v>19</v>
       </c>
       <c r="H378" s="0" t="s">
-        <v>1052</v>
+        <v>1058</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="379">
       <c r="A379" s="0" t="s">
-        <v>1053</v>
+        <v>1059</v>
       </c>
       <c r="B379" s="2" t="s">
-        <v>1054</v>
+        <v>1060</v>
       </c>
       <c r="C379" s="2"/>
       <c r="D379" s="0" t="s">
@@ -11749,21 +11838,21 @@
         <v>19</v>
       </c>
       <c r="F379" s="0" t="s">
-        <v>1055</v>
+        <v>1061</v>
       </c>
       <c r="G379" s="0" t="s">
         <v>19</v>
       </c>
       <c r="H379" s="0" t="s">
-        <v>1056</v>
+        <v>1062</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="380">
       <c r="A380" s="0" t="s">
-        <v>1057</v>
+        <v>1063</v>
       </c>
       <c r="B380" s="0" t="s">
-        <v>1058</v>
+        <v>1064</v>
       </c>
       <c r="D380" s="2" t="s">
         <v>25</v>
@@ -11777,10 +11866,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="381">
       <c r="A381" s="0" t="s">
-        <v>1059</v>
+        <v>1065</v>
       </c>
       <c r="B381" s="0" t="s">
-        <v>1060</v>
+        <v>1066</v>
       </c>
       <c r="D381" s="2" t="s">
         <v>25</v>
@@ -11789,7 +11878,7 @@
         <v>19</v>
       </c>
       <c r="F381" s="0" t="s">
-        <v>1061</v>
+        <v>1067</v>
       </c>
       <c r="G381" s="2" t="s">
         <v>12</v>
@@ -11798,10 +11887,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="382">
       <c r="A382" s="0" t="s">
-        <v>1062</v>
+        <v>1068</v>
       </c>
       <c r="B382" s="0" t="s">
-        <v>1063</v>
+        <v>1069</v>
       </c>
       <c r="D382" s="0" t="s">
         <v>11</v>
@@ -11815,10 +11904,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="383">
       <c r="A383" s="0" t="s">
-        <v>1064</v>
+        <v>1070</v>
       </c>
       <c r="B383" s="0" t="s">
-        <v>1065</v>
+        <v>1071</v>
       </c>
       <c r="D383" s="0" t="s">
         <v>16</v>
@@ -11832,10 +11921,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="384">
       <c r="A384" s="0" t="s">
-        <v>1066</v>
+        <v>1072</v>
       </c>
       <c r="B384" s="0" t="s">
-        <v>1067</v>
+        <v>1073</v>
       </c>
       <c r="D384" s="0" t="s">
         <v>16</v>
@@ -11847,7 +11936,7 @@
         <v>19</v>
       </c>
       <c r="H384" s="0" t="s">
-        <v>1068</v>
+        <v>1074</v>
       </c>
       <c r="I384" s="2" t="s">
         <v>33</v>
@@ -11855,10 +11944,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="385">
       <c r="A385" s="0" t="s">
-        <v>1069</v>
+        <v>1075</v>
       </c>
       <c r="B385" s="0" t="s">
-        <v>1070</v>
+        <v>1076</v>
       </c>
       <c r="D385" s="0" t="s">
         <v>11</v>
@@ -11872,10 +11961,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="386">
       <c r="A386" s="0" t="s">
-        <v>1071</v>
+        <v>1077</v>
       </c>
       <c r="B386" s="0" t="s">
-        <v>1072</v>
+        <v>1078</v>
       </c>
       <c r="D386" s="0" t="s">
         <v>25</v>
@@ -11887,15 +11976,15 @@
         <v>19</v>
       </c>
       <c r="H386" s="0" t="s">
-        <v>1073</v>
+        <v>1079</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="387">
       <c r="A387" s="0" t="s">
-        <v>1074</v>
+        <v>1080</v>
       </c>
       <c r="B387" s="0" t="s">
-        <v>1075</v>
+        <v>1081</v>
       </c>
       <c r="D387" s="0" t="s">
         <v>11</v>
@@ -11904,7 +11993,7 @@
         <v>19</v>
       </c>
       <c r="F387" s="0" t="s">
-        <v>1076</v>
+        <v>1082</v>
       </c>
       <c r="G387" s="0" t="s">
         <v>12</v>
@@ -11912,10 +12001,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="388">
       <c r="A388" s="0" t="s">
-        <v>1077</v>
+        <v>1083</v>
       </c>
       <c r="B388" s="0" t="s">
-        <v>1078</v>
+        <v>1084</v>
       </c>
       <c r="D388" s="0" t="s">
         <v>30</v>
@@ -11929,13 +12018,13 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="389">
       <c r="A389" s="0" t="s">
-        <v>1079</v>
+        <v>1085</v>
       </c>
       <c r="B389" s="0" t="s">
-        <v>1080</v>
+        <v>1086</v>
       </c>
       <c r="D389" s="0" t="s">
-        <v>744</v>
+        <v>750</v>
       </c>
       <c r="E389" s="0" t="s">
         <v>12</v>
@@ -11944,15 +12033,15 @@
         <v>19</v>
       </c>
       <c r="H389" s="0" t="s">
-        <v>1081</v>
+        <v>1087</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="390">
       <c r="A390" s="0" t="s">
-        <v>1082</v>
+        <v>1088</v>
       </c>
       <c r="B390" s="0" t="s">
-        <v>1083</v>
+        <v>1089</v>
       </c>
       <c r="D390" s="0" t="s">
         <v>11</v>
@@ -11961,7 +12050,7 @@
         <v>19</v>
       </c>
       <c r="F390" s="0" t="s">
-        <v>1084</v>
+        <v>1090</v>
       </c>
       <c r="G390" s="0" t="s">
         <v>12</v>
@@ -11969,10 +12058,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="391">
       <c r="A391" s="0" t="s">
-        <v>1085</v>
+        <v>1091</v>
       </c>
       <c r="B391" s="0" t="s">
-        <v>1086</v>
+        <v>1092</v>
       </c>
       <c r="D391" s="0" t="s">
         <v>11</v>
@@ -11986,10 +12075,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="392">
       <c r="A392" s="0" t="s">
-        <v>1087</v>
+        <v>1093</v>
       </c>
       <c r="B392" s="0" t="s">
-        <v>1088</v>
+        <v>1094</v>
       </c>
       <c r="D392" s="0" t="s">
         <v>36</v>
@@ -11998,7 +12087,7 @@
         <v>19</v>
       </c>
       <c r="F392" s="0" t="s">
-        <v>1089</v>
+        <v>1095</v>
       </c>
       <c r="G392" s="0" t="s">
         <v>12</v>
@@ -12006,10 +12095,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="393">
       <c r="A393" s="0" t="s">
-        <v>1090</v>
+        <v>1096</v>
       </c>
       <c r="B393" s="0" t="s">
-        <v>1091</v>
+        <v>1097</v>
       </c>
       <c r="D393" s="0" t="s">
         <v>25</v>
@@ -12018,7 +12107,7 @@
         <v>19</v>
       </c>
       <c r="F393" s="0" t="s">
-        <v>1092</v>
+        <v>1098</v>
       </c>
       <c r="G393" s="0" t="s">
         <v>12</v>
@@ -12026,10 +12115,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="394">
       <c r="A394" s="0" t="s">
-        <v>1093</v>
+        <v>1099</v>
       </c>
       <c r="B394" s="0" t="s">
-        <v>1094</v>
+        <v>1100</v>
       </c>
       <c r="D394" s="0" t="s">
         <v>36</v>
@@ -12038,21 +12127,21 @@
         <v>19</v>
       </c>
       <c r="F394" s="0" t="s">
-        <v>1095</v>
+        <v>1101</v>
       </c>
       <c r="G394" s="2" t="s">
         <v>19</v>
       </c>
       <c r="H394" s="0" t="s">
-        <v>1096</v>
+        <v>1102</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="395">
       <c r="A395" s="0" t="s">
-        <v>1097</v>
+        <v>1103</v>
       </c>
       <c r="B395" s="0" t="s">
-        <v>1098</v>
+        <v>1104</v>
       </c>
       <c r="D395" s="0" t="s">
         <v>25</v>
@@ -12061,7 +12150,7 @@
         <v>19</v>
       </c>
       <c r="F395" s="0" t="s">
-        <v>1099</v>
+        <v>1105</v>
       </c>
       <c r="G395" s="0" t="s">
         <v>12</v>
@@ -12069,10 +12158,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="396">
       <c r="A396" s="0" t="s">
-        <v>1100</v>
+        <v>1106</v>
       </c>
       <c r="B396" s="0" t="s">
-        <v>1101</v>
+        <v>1107</v>
       </c>
       <c r="D396" s="0" t="s">
         <v>11</v>
@@ -12086,10 +12175,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="397">
       <c r="A397" s="0" t="s">
-        <v>1102</v>
+        <v>1108</v>
       </c>
       <c r="B397" s="2" t="s">
-        <v>1103</v>
+        <v>1109</v>
       </c>
       <c r="C397" s="2"/>
       <c r="D397" s="0" t="s">
@@ -12099,7 +12188,7 @@
         <v>19</v>
       </c>
       <c r="F397" s="0" t="s">
-        <v>1104</v>
+        <v>1110</v>
       </c>
       <c r="G397" s="2" t="s">
         <v>12</v>
@@ -12107,10 +12196,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="398">
       <c r="A398" s="0" t="s">
-        <v>1105</v>
+        <v>1111</v>
       </c>
       <c r="B398" s="0" t="s">
-        <v>1106</v>
+        <v>1112</v>
       </c>
       <c r="D398" s="0" t="s">
         <v>11</v>
@@ -12122,15 +12211,15 @@
         <v>19</v>
       </c>
       <c r="H398" s="0" t="s">
-        <v>1107</v>
+        <v>1113</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="399">
       <c r="A399" s="0" t="s">
-        <v>1108</v>
+        <v>1114</v>
       </c>
       <c r="B399" s="0" t="s">
-        <v>1109</v>
+        <v>1115</v>
       </c>
       <c r="D399" s="0" t="s">
         <v>11</v>
@@ -12144,10 +12233,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="400">
       <c r="A400" s="0" t="s">
-        <v>1110</v>
+        <v>1116</v>
       </c>
       <c r="B400" s="0" t="s">
-        <v>1111</v>
+        <v>1117</v>
       </c>
       <c r="D400" s="0" t="s">
         <v>11</v>
@@ -12156,7 +12245,7 @@
         <v>19</v>
       </c>
       <c r="F400" s="0" t="s">
-        <v>1112</v>
+        <v>1118</v>
       </c>
       <c r="G400" s="0" t="s">
         <v>12</v>
@@ -12165,10 +12254,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="401">
       <c r="A401" s="2" t="s">
-        <v>1113</v>
+        <v>1119</v>
       </c>
       <c r="B401" s="0" t="s">
-        <v>1114</v>
+        <v>1120</v>
       </c>
       <c r="D401" s="2" t="s">
         <v>11</v>
@@ -12183,10 +12272,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="402">
       <c r="A402" s="0" t="s">
-        <v>1115</v>
+        <v>1121</v>
       </c>
       <c r="B402" s="0" t="s">
-        <v>1116</v>
+        <v>1122</v>
       </c>
       <c r="D402" s="0" t="s">
         <v>11</v>
@@ -12200,10 +12289,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="403">
       <c r="A403" s="0" t="s">
-        <v>1117</v>
+        <v>1123</v>
       </c>
       <c r="B403" s="0" t="s">
-        <v>1118</v>
+        <v>1124</v>
       </c>
       <c r="D403" s="0" t="s">
         <v>11</v>
@@ -12217,10 +12306,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="404">
       <c r="A404" s="0" t="s">
-        <v>1119</v>
+        <v>1125</v>
       </c>
       <c r="B404" s="0" t="s">
-        <v>1120</v>
+        <v>1126</v>
       </c>
       <c r="D404" s="0" t="s">
         <v>11</v>
@@ -12234,10 +12323,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="405">
       <c r="A405" s="0" t="s">
-        <v>1121</v>
+        <v>1127</v>
       </c>
       <c r="B405" s="0" t="s">
-        <v>1122</v>
+        <v>1128</v>
       </c>
       <c r="D405" s="0" t="s">
         <v>11</v>
@@ -12251,10 +12340,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="406">
       <c r="A406" s="0" t="s">
-        <v>1123</v>
+        <v>1129</v>
       </c>
       <c r="B406" s="0" t="s">
-        <v>1124</v>
+        <v>1130</v>
       </c>
       <c r="D406" s="0" t="s">
         <v>16</v>
@@ -12266,15 +12355,15 @@
         <v>19</v>
       </c>
       <c r="H406" s="0" t="s">
-        <v>1125</v>
+        <v>1131</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="407">
       <c r="A407" s="0" t="s">
-        <v>1126</v>
+        <v>1132</v>
       </c>
       <c r="B407" s="0" t="s">
-        <v>1127</v>
+        <v>1133</v>
       </c>
       <c r="D407" s="0" t="s">
         <v>11</v>
@@ -12288,10 +12377,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="408">
       <c r="A408" s="0" t="s">
-        <v>1128</v>
+        <v>1134</v>
       </c>
       <c r="B408" s="0" t="s">
-        <v>1129</v>
+        <v>1135</v>
       </c>
       <c r="D408" s="0" t="s">
         <v>11</v>
@@ -12300,7 +12389,7 @@
         <v>19</v>
       </c>
       <c r="F408" s="0" t="s">
-        <v>1130</v>
+        <v>1136</v>
       </c>
       <c r="G408" s="2" t="s">
         <v>12</v>
@@ -12308,10 +12397,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="409">
       <c r="A409" s="0" t="s">
-        <v>1131</v>
+        <v>1137</v>
       </c>
       <c r="B409" s="0" t="s">
-        <v>1132</v>
+        <v>1138</v>
       </c>
       <c r="D409" s="0" t="s">
         <v>25</v>
@@ -12325,10 +12414,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="410">
       <c r="A410" s="0" t="s">
-        <v>1133</v>
+        <v>1139</v>
       </c>
       <c r="B410" s="2" t="s">
-        <v>1134</v>
+        <v>1140</v>
       </c>
       <c r="C410" s="2"/>
       <c r="D410" s="2" t="s">
@@ -12343,10 +12432,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="411">
       <c r="A411" s="0" t="s">
-        <v>1135</v>
+        <v>1141</v>
       </c>
       <c r="B411" s="0" t="s">
-        <v>1136</v>
+        <v>1142</v>
       </c>
       <c r="D411" s="0" t="s">
         <v>25</v>
@@ -12355,7 +12444,7 @@
         <v>19</v>
       </c>
       <c r="F411" s="0" t="s">
-        <v>1137</v>
+        <v>1143</v>
       </c>
       <c r="G411" s="0" t="s">
         <v>12</v>
@@ -12363,10 +12452,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="412">
       <c r="A412" s="0" t="s">
-        <v>1138</v>
+        <v>1144</v>
       </c>
       <c r="B412" s="0" t="s">
-        <v>1139</v>
+        <v>1145</v>
       </c>
       <c r="D412" s="0" t="s">
         <v>25</v>
@@ -12380,10 +12469,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="413">
       <c r="A413" s="0" t="s">
-        <v>1140</v>
+        <v>1146</v>
       </c>
       <c r="B413" s="0" t="s">
-        <v>1141</v>
+        <v>1147</v>
       </c>
       <c r="D413" s="0" t="s">
         <v>30</v>
@@ -12395,18 +12484,18 @@
         <v>19</v>
       </c>
       <c r="H413" s="0" t="s">
-        <v>1142</v>
+        <v>1148</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="414">
       <c r="A414" s="0" t="s">
-        <v>1143</v>
+        <v>1149</v>
       </c>
       <c r="B414" s="0" t="s">
-        <v>1144</v>
+        <v>1150</v>
       </c>
       <c r="D414" s="0" t="s">
-        <v>744</v>
+        <v>750</v>
       </c>
       <c r="E414" s="0" t="s">
         <v>12</v>
@@ -12415,15 +12504,15 @@
         <v>19</v>
       </c>
       <c r="H414" s="0" t="s">
-        <v>1145</v>
+        <v>1151</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="415">
       <c r="A415" s="0" t="s">
-        <v>1146</v>
+        <v>1152</v>
       </c>
       <c r="B415" s="0" t="s">
-        <v>1147</v>
+        <v>1153</v>
       </c>
       <c r="D415" s="0" t="s">
         <v>11</v>
@@ -12437,10 +12526,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="416">
       <c r="A416" s="0" t="s">
-        <v>1148</v>
+        <v>1154</v>
       </c>
       <c r="B416" s="0" t="s">
-        <v>1149</v>
+        <v>1155</v>
       </c>
       <c r="D416" s="0" t="s">
         <v>11</v>
@@ -12454,10 +12543,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="417">
       <c r="A417" s="0" t="s">
-        <v>1150</v>
+        <v>1156</v>
       </c>
       <c r="B417" s="0" t="s">
-        <v>1151</v>
+        <v>1157</v>
       </c>
       <c r="D417" s="0" t="s">
         <v>36</v>
@@ -12469,15 +12558,15 @@
         <v>19</v>
       </c>
       <c r="H417" s="0" t="s">
-        <v>1152</v>
+        <v>1158</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="418">
       <c r="A418" s="0" t="s">
-        <v>1153</v>
+        <v>1159</v>
       </c>
       <c r="B418" s="0" t="s">
-        <v>1154</v>
+        <v>1160</v>
       </c>
       <c r="D418" s="2" t="s">
         <v>25</v>
@@ -12486,7 +12575,7 @@
         <v>19</v>
       </c>
       <c r="F418" s="0" t="s">
-        <v>1155</v>
+        <v>1161</v>
       </c>
       <c r="G418" s="0" t="s">
         <v>12</v>
@@ -12494,10 +12583,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="419">
       <c r="A419" s="0" t="s">
-        <v>1156</v>
+        <v>1162</v>
       </c>
       <c r="B419" s="0" t="s">
-        <v>1157</v>
+        <v>1163</v>
       </c>
       <c r="D419" s="2" t="s">
         <v>25</v>
@@ -12511,10 +12600,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="420">
       <c r="A420" s="0" t="s">
-        <v>1158</v>
+        <v>1164</v>
       </c>
       <c r="B420" s="0" t="s">
-        <v>1159</v>
+        <v>1165</v>
       </c>
       <c r="D420" s="0" t="s">
         <v>25</v>
@@ -12528,10 +12617,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="421">
       <c r="A421" s="0" t="s">
-        <v>1160</v>
+        <v>1166</v>
       </c>
       <c r="B421" s="0" t="s">
-        <v>1161</v>
+        <v>1167</v>
       </c>
       <c r="D421" s="0" t="s">
         <v>30</v>
@@ -12540,7 +12629,7 @@
         <v>19</v>
       </c>
       <c r="F421" s="0" t="s">
-        <v>1162</v>
+        <v>1168</v>
       </c>
       <c r="G421" s="0" t="s">
         <v>12</v>
@@ -12548,10 +12637,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="422">
       <c r="A422" s="0" t="s">
-        <v>1163</v>
+        <v>1169</v>
       </c>
       <c r="B422" s="0" t="s">
-        <v>1164</v>
+        <v>1170</v>
       </c>
       <c r="D422" s="0" t="s">
         <v>25</v>
@@ -12560,7 +12649,7 @@
         <v>19</v>
       </c>
       <c r="F422" s="0" t="s">
-        <v>1165</v>
+        <v>1171</v>
       </c>
       <c r="G422" s="0" t="s">
         <v>12</v>
@@ -12568,19 +12657,19 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="423">
       <c r="A423" s="0" t="s">
-        <v>1166</v>
+        <v>1172</v>
       </c>
       <c r="B423" s="0" t="s">
-        <v>1167</v>
+        <v>1173</v>
       </c>
       <c r="D423" s="0" t="s">
-        <v>744</v>
+        <v>750</v>
       </c>
       <c r="E423" s="0" t="s">
         <v>19</v>
       </c>
       <c r="F423" s="0" t="s">
-        <v>1168</v>
+        <v>1174</v>
       </c>
       <c r="G423" s="0" t="s">
         <v>12</v>
@@ -12588,20 +12677,20 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="424">
       <c r="A424" s="0" t="s">
-        <v>1169</v>
+        <v>1175</v>
       </c>
       <c r="B424" s="2" t="s">
-        <v>1170</v>
+        <v>1176</v>
       </c>
       <c r="C424" s="2"/>
       <c r="D424" s="0" t="s">
-        <v>744</v>
+        <v>750</v>
       </c>
       <c r="E424" s="0" t="s">
         <v>19</v>
       </c>
       <c r="F424" s="0" t="s">
-        <v>1171</v>
+        <v>1177</v>
       </c>
       <c r="G424" s="0" t="s">
         <v>12</v>
@@ -12609,10 +12698,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="425">
       <c r="A425" s="0" t="s">
-        <v>1172</v>
+        <v>1178</v>
       </c>
       <c r="B425" s="0" t="s">
-        <v>1173</v>
+        <v>1179</v>
       </c>
       <c r="D425" s="0" t="s">
         <v>16</v>
@@ -12621,7 +12710,7 @@
         <v>19</v>
       </c>
       <c r="F425" s="0" t="s">
-        <v>1174</v>
+        <v>1180</v>
       </c>
       <c r="G425" s="0" t="s">
         <v>19</v>
@@ -12632,10 +12721,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="426">
       <c r="A426" s="0" t="s">
-        <v>1175</v>
+        <v>1181</v>
       </c>
       <c r="B426" s="0" t="s">
-        <v>1176</v>
+        <v>1182</v>
       </c>
       <c r="D426" s="0" t="s">
         <v>25</v>
@@ -12649,10 +12738,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="427">
       <c r="A427" s="0" t="s">
-        <v>1177</v>
+        <v>1183</v>
       </c>
       <c r="B427" s="0" t="s">
-        <v>1178</v>
+        <v>1184</v>
       </c>
       <c r="D427" s="0" t="s">
         <v>236</v>
@@ -12666,10 +12755,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="428">
       <c r="A428" s="0" t="s">
-        <v>1179</v>
+        <v>1185</v>
       </c>
       <c r="B428" s="0" t="s">
-        <v>1180</v>
+        <v>1186</v>
       </c>
       <c r="D428" s="0" t="s">
         <v>236</v>
@@ -12681,15 +12770,15 @@
         <v>19</v>
       </c>
       <c r="H428" s="0" t="s">
-        <v>1181</v>
+        <v>1187</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="429">
       <c r="A429" s="0" t="s">
-        <v>1182</v>
+        <v>1188</v>
       </c>
       <c r="B429" s="2" t="s">
-        <v>1183</v>
+        <v>1189</v>
       </c>
       <c r="C429" s="2"/>
       <c r="D429" s="0" t="s">
@@ -12699,7 +12788,7 @@
         <v>19</v>
       </c>
       <c r="F429" s="0" t="s">
-        <v>1184</v>
+        <v>1190</v>
       </c>
       <c r="G429" s="0" t="s">
         <v>12</v>
@@ -12707,10 +12796,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="430">
       <c r="A430" s="0" t="s">
-        <v>1185</v>
+        <v>1191</v>
       </c>
       <c r="B430" s="0" t="s">
-        <v>1186</v>
+        <v>1192</v>
       </c>
       <c r="D430" s="0" t="s">
         <v>236</v>
@@ -12722,15 +12811,15 @@
         <v>19</v>
       </c>
       <c r="H430" s="0" t="s">
-        <v>1187</v>
+        <v>1193</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="431">
       <c r="A431" s="0" t="s">
-        <v>1188</v>
+        <v>1194</v>
       </c>
       <c r="B431" s="0" t="s">
-        <v>1189</v>
+        <v>1195</v>
       </c>
       <c r="D431" s="0" t="s">
         <v>25</v>
@@ -12742,15 +12831,15 @@
         <v>19</v>
       </c>
       <c r="H431" s="0" t="s">
-        <v>1190</v>
+        <v>1196</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="432">
       <c r="A432" s="0" t="s">
-        <v>1191</v>
+        <v>1197</v>
       </c>
       <c r="B432" s="0" t="s">
-        <v>1192</v>
+        <v>1198</v>
       </c>
       <c r="D432" s="0" t="s">
         <v>30</v>
@@ -12759,7 +12848,7 @@
         <v>19</v>
       </c>
       <c r="F432" s="0" t="s">
-        <v>1193</v>
+        <v>1199</v>
       </c>
       <c r="G432" s="0" t="s">
         <v>12</v>
@@ -12767,10 +12856,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="433">
       <c r="A433" s="0" t="s">
-        <v>1194</v>
+        <v>1200</v>
       </c>
       <c r="B433" s="0" t="s">
-        <v>1195</v>
+        <v>1201</v>
       </c>
       <c r="D433" s="0" t="s">
         <v>11</v>
@@ -12784,10 +12873,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="434">
       <c r="A434" s="0" t="s">
-        <v>1196</v>
+        <v>1202</v>
       </c>
       <c r="B434" s="0" t="s">
-        <v>1197</v>
+        <v>1203</v>
       </c>
       <c r="D434" s="0" t="s">
         <v>25</v>
@@ -12799,15 +12888,15 @@
         <v>19</v>
       </c>
       <c r="H434" s="0" t="s">
-        <v>1198</v>
+        <v>1204</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="435">
       <c r="A435" s="0" t="s">
-        <v>1199</v>
+        <v>1205</v>
       </c>
       <c r="B435" s="0" t="s">
-        <v>1200</v>
+        <v>1206</v>
       </c>
       <c r="D435" s="2" t="s">
         <v>25</v>
@@ -12819,15 +12908,15 @@
         <v>19</v>
       </c>
       <c r="H435" s="0" t="s">
-        <v>1198</v>
+        <v>1204</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="436">
       <c r="A436" s="0" t="s">
-        <v>1201</v>
+        <v>1207</v>
       </c>
       <c r="B436" s="0" t="s">
-        <v>1202</v>
+        <v>1208</v>
       </c>
       <c r="D436" s="0" t="s">
         <v>11</v>
@@ -12836,7 +12925,7 @@
         <v>19</v>
       </c>
       <c r="F436" s="0" t="s">
-        <v>1203</v>
+        <v>1209</v>
       </c>
       <c r="G436" s="2" t="s">
         <v>12</v>
@@ -12844,10 +12933,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="437">
       <c r="A437" s="0" t="s">
-        <v>1204</v>
+        <v>1210</v>
       </c>
       <c r="B437" s="0" t="s">
-        <v>1205</v>
+        <v>1211</v>
       </c>
       <c r="D437" s="0" t="s">
         <v>11</v>
@@ -12859,15 +12948,15 @@
         <v>19</v>
       </c>
       <c r="H437" s="0" t="s">
-        <v>1206</v>
+        <v>1212</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="438">
       <c r="A438" s="0" t="s">
-        <v>1207</v>
+        <v>1213</v>
       </c>
       <c r="B438" s="0" t="s">
-        <v>1208</v>
+        <v>1214</v>
       </c>
       <c r="D438" s="0" t="s">
         <v>36</v>
@@ -12876,7 +12965,7 @@
         <v>19</v>
       </c>
       <c r="F438" s="0" t="s">
-        <v>1209</v>
+        <v>1215</v>
       </c>
       <c r="G438" s="2" t="s">
         <v>12</v>
@@ -12884,10 +12973,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="439">
       <c r="A439" s="0" t="s">
-        <v>1210</v>
+        <v>1216</v>
       </c>
       <c r="B439" s="0" t="s">
-        <v>1211</v>
+        <v>1217</v>
       </c>
       <c r="D439" s="0" t="s">
         <v>11</v>
@@ -12899,15 +12988,15 @@
         <v>19</v>
       </c>
       <c r="H439" s="0" t="s">
-        <v>1212</v>
+        <v>1218</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="440">
       <c r="A440" s="0" t="s">
-        <v>1213</v>
+        <v>1219</v>
       </c>
       <c r="B440" s="0" t="s">
-        <v>1214</v>
+        <v>1220</v>
       </c>
       <c r="D440" s="0" t="s">
         <v>25</v>
@@ -12916,21 +13005,21 @@
         <v>19</v>
       </c>
       <c r="F440" s="0" t="s">
-        <v>1215</v>
+        <v>1221</v>
       </c>
       <c r="G440" s="0" t="s">
         <v>19</v>
       </c>
       <c r="H440" s="0" t="s">
-        <v>1212</v>
+        <v>1218</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="441">
       <c r="A441" s="0" t="s">
-        <v>1216</v>
+        <v>1222</v>
       </c>
       <c r="B441" s="0" t="s">
-        <v>1217</v>
+        <v>1223</v>
       </c>
       <c r="D441" s="0" t="s">
         <v>11</v>
@@ -12939,21 +13028,21 @@
         <v>19</v>
       </c>
       <c r="F441" s="0" t="s">
+        <v>1224</v>
+      </c>
+      <c r="G441" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="H441" s="0" t="s">
         <v>1218</v>
-      </c>
-      <c r="G441" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="H441" s="0" t="s">
-        <v>1212</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="442">
       <c r="A442" s="0" t="s">
-        <v>1219</v>
+        <v>1225</v>
       </c>
       <c r="B442" s="0" t="s">
-        <v>1220</v>
+        <v>1226</v>
       </c>
       <c r="D442" s="0" t="s">
         <v>11</v>
@@ -12965,15 +13054,15 @@
         <v>19</v>
       </c>
       <c r="H442" s="0" t="s">
-        <v>1221</v>
+        <v>1227</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="443">
       <c r="A443" s="0" t="s">
-        <v>1222</v>
+        <v>1228</v>
       </c>
       <c r="B443" s="0" t="s">
-        <v>1223</v>
+        <v>1229</v>
       </c>
       <c r="D443" s="0" t="s">
         <v>30</v>
@@ -12982,21 +13071,21 @@
         <v>19</v>
       </c>
       <c r="F443" s="0" t="s">
-        <v>1224</v>
+        <v>1230</v>
       </c>
       <c r="G443" s="0" t="s">
         <v>19</v>
       </c>
       <c r="H443" s="0" t="s">
-        <v>1225</v>
+        <v>1231</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="444">
       <c r="A444" s="0" t="s">
-        <v>1226</v>
+        <v>1232</v>
       </c>
       <c r="B444" s="0" t="s">
-        <v>1227</v>
+        <v>1233</v>
       </c>
       <c r="D444" s="0" t="s">
         <v>11</v>
@@ -13005,7 +13094,7 @@
         <v>19</v>
       </c>
       <c r="F444" s="0" t="s">
-        <v>1228</v>
+        <v>1234</v>
       </c>
       <c r="G444" s="0" t="s">
         <v>12</v>
@@ -13052,7 +13141,7 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="257" min="1" style="0" width="8.74901960784314"/>
+    <col collapsed="false" hidden="false" max="257" min="1" style="0" width="8.7843137254902"/>
   </cols>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -13077,7 +13166,7 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="257" min="1" style="0" width="8.74901960784314"/>
+    <col collapsed="false" hidden="false" max="257" min="1" style="0" width="8.7843137254902"/>
   </cols>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/kohana/oiadsites.xlsx
+++ b/kohana/oiadsites.xlsx
@@ -3901,7 +3901,7 @@
   <dimension ref="A1:I444"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A150" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="C184" activeCellId="0" pane="topLeft" sqref="C184"/>
+      <selection activeCell="A184" activeCellId="0" pane="topLeft" sqref="A184"/>
     </sheetView>
   </sheetViews>
   <cols>

--- a/kohana/oiadsites.xlsx
+++ b/kohana/oiadsites.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2762" uniqueCount="1235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2780" uniqueCount="1238">
   <si>
     <t>Site Name</t>
   </si>
@@ -1627,6 +1627,9 @@
     <t>http://www.gooddeals18.com/category/deal_of_the_day/</t>
   </si>
   <si>
+    <t>Flash, data</t>
+  </si>
+  <si>
     <t>Grab My Deal</t>
   </si>
   <si>
@@ -1672,10 +1675,16 @@
     <t>http://www.ehappyhome.info/</t>
   </si>
   <si>
+    <t>Could not parse</t>
+  </si>
+  <si>
     <t>Harbor Freight Tools</t>
   </si>
   <si>
     <t>http://www.harborfreight.com/deal-of-the-day.html</t>
+  </si>
+  <si>
+    <t>Harbor Freight has revamped Deal of the Day. Multiple items</t>
   </si>
   <si>
     <t>Hartford York</t>
@@ -3900,18 +3909,18 @@
   </sheetPr>
   <dimension ref="A1:I444"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A150" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="A184" activeCellId="0" pane="topLeft" sqref="A184"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A162" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="C203" activeCellId="0" pane="topLeft" sqref="C203"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="48.6745098039216"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="95.6156862745098"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="48.6745098039216"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="15.5803921568627"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="48.6745098039216"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="13.2235294117647"/>
-    <col collapsed="false" hidden="false" max="257" min="8" style="0" width="48.6745098039216"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="48.878431372549"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="96.0117647058824"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="48.878431372549"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="15.6470588235294"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="48.878431372549"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="13.2823529411765"/>
+    <col collapsed="false" hidden="false" max="257" min="8" style="0" width="48.878431372549"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="1" s="1">
@@ -7397,7 +7406,7 @@
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="157">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="157">
       <c r="A157" s="0" t="s">
         <v>454</v>
       </c>
@@ -7423,7 +7432,7 @@
         <v>458</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="158">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="158">
       <c r="A158" s="0" t="s">
         <v>459</v>
       </c>
@@ -7446,7 +7455,7 @@
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="159">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="159">
       <c r="A159" s="0" t="s">
         <v>462</v>
       </c>
@@ -7466,7 +7475,7 @@
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="160">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="160">
       <c r="A160" s="0" t="s">
         <v>465</v>
       </c>
@@ -7486,7 +7495,7 @@
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="161">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="161">
       <c r="A161" s="0" t="s">
         <v>467</v>
       </c>
@@ -7506,7 +7515,7 @@
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="162">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="162">
       <c r="A162" s="0" t="s">
         <v>469</v>
       </c>
@@ -7526,7 +7535,7 @@
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="163">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="163">
       <c r="A163" s="0" t="s">
         <v>471</v>
       </c>
@@ -7546,7 +7555,7 @@
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="164">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="164">
       <c r="A164" s="0" t="s">
         <v>473</v>
       </c>
@@ -7569,7 +7578,7 @@
         <v>475</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="165">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="165">
       <c r="A165" s="0" t="s">
         <v>476</v>
       </c>
@@ -7592,7 +7601,7 @@
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="166">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="166">
       <c r="A166" s="0" t="s">
         <v>479</v>
       </c>
@@ -7615,7 +7624,7 @@
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="167">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="167">
       <c r="A167" s="0" t="s">
         <v>482</v>
       </c>
@@ -7638,7 +7647,7 @@
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="168">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="168">
       <c r="A168" s="0" t="s">
         <v>485</v>
       </c>
@@ -7661,7 +7670,7 @@
         <v>487</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="169">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="169">
       <c r="A169" s="0" t="s">
         <v>488</v>
       </c>
@@ -7684,7 +7693,7 @@
         <v>490</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="170">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="170">
       <c r="A170" s="0" t="s">
         <v>491</v>
       </c>
@@ -7710,7 +7719,7 @@
         <v>33</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="171">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="171">
       <c r="A171" s="0" t="s">
         <v>494</v>
       </c>
@@ -7736,7 +7745,7 @@
         <v>498</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="172">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="172">
       <c r="A172" s="0" t="s">
         <v>499</v>
       </c>
@@ -7759,7 +7768,7 @@
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="173">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="173">
       <c r="A173" s="0" t="s">
         <v>502</v>
       </c>
@@ -7782,7 +7791,7 @@
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="174">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="174">
       <c r="A174" s="0" t="s">
         <v>505</v>
       </c>
@@ -7802,7 +7811,7 @@
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="175">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="175">
       <c r="A175" s="0" t="s">
         <v>508</v>
       </c>
@@ -7825,7 +7834,7 @@
         <v>510</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="176">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="176">
       <c r="A176" s="0" t="s">
         <v>511</v>
       </c>
@@ -7848,7 +7857,7 @@
         <v>513</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="177">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="177">
       <c r="A177" s="0" t="s">
         <v>514</v>
       </c>
@@ -7868,7 +7877,7 @@
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="178">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="178">
       <c r="A178" s="0" t="s">
         <v>517</v>
       </c>
@@ -7899,7 +7908,7 @@
         <v>521</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="180">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="180">
       <c r="A180" s="0" t="s">
         <v>522</v>
       </c>
@@ -7922,7 +7931,7 @@
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="181">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="181">
       <c r="A181" s="0" t="s">
         <v>525</v>
       </c>
@@ -7945,7 +7954,7 @@
         <v>527</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="182">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="182">
       <c r="A182" s="0" t="s">
         <v>528</v>
       </c>
@@ -7965,7 +7974,7 @@
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="183">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="183">
       <c r="A183" s="0" t="s">
         <v>531</v>
       </c>
@@ -7988,13 +7997,16 @@
         <v>533</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="184">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="184">
       <c r="A184" s="0" t="s">
         <v>534</v>
       </c>
       <c r="B184" s="0" t="s">
         <v>535</v>
       </c>
+      <c r="C184" s="0" t="s">
+        <v>536</v>
+      </c>
       <c r="D184" s="0" t="s">
         <v>30</v>
       </c>
@@ -8005,12 +8017,15 @@
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="185">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="185">
       <c r="A185" s="0" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="B185" s="0" t="s">
-        <v>537</v>
+        <v>538</v>
+      </c>
+      <c r="C185" s="0" t="s">
+        <v>15</v>
       </c>
       <c r="D185" s="0" t="s">
         <v>11</v>
@@ -8022,12 +8037,15 @@
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="186">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="186">
       <c r="A186" s="0" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="B186" s="0" t="s">
-        <v>539</v>
+        <v>540</v>
+      </c>
+      <c r="C186" s="0" t="s">
+        <v>285</v>
       </c>
       <c r="D186" s="0" t="s">
         <v>11</v>
@@ -8036,18 +8054,21 @@
         <v>19</v>
       </c>
       <c r="F186" s="0" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="G186" s="0" t="s">
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="187">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="187">
       <c r="A187" s="0" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="B187" s="0" t="s">
-        <v>542</v>
+        <v>543</v>
+      </c>
+      <c r="C187" s="0" t="s">
+        <v>15</v>
       </c>
       <c r="D187" s="0" t="s">
         <v>25</v>
@@ -8059,12 +8080,15 @@
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="188">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="188">
       <c r="A188" s="0" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="B188" s="0" t="s">
-        <v>544</v>
+        <v>545</v>
+      </c>
+      <c r="C188" s="0" t="s">
+        <v>15</v>
       </c>
       <c r="D188" s="0" t="s">
         <v>36</v>
@@ -8073,18 +8097,21 @@
         <v>19</v>
       </c>
       <c r="F188" s="0" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="G188" s="0" t="s">
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="189">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="189">
       <c r="A189" s="0" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="B189" s="0" t="s">
-        <v>547</v>
+        <v>548</v>
+      </c>
+      <c r="C189" s="0" t="s">
+        <v>15</v>
       </c>
       <c r="D189" s="0" t="s">
         <v>25</v>
@@ -8093,18 +8120,21 @@
         <v>19</v>
       </c>
       <c r="F189" s="0" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="G189" s="0" t="s">
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="190">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="190">
       <c r="A190" s="0" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="B190" s="0" t="s">
-        <v>550</v>
+        <v>551</v>
+      </c>
+      <c r="C190" s="0" t="s">
+        <v>552</v>
       </c>
       <c r="D190" s="0" t="s">
         <v>36</v>
@@ -8116,12 +8146,15 @@
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="191">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="191">
       <c r="A191" s="0" t="s">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="B191" s="0" t="s">
-        <v>552</v>
+        <v>554</v>
+      </c>
+      <c r="C191" s="2" t="s">
+        <v>555</v>
       </c>
       <c r="D191" s="0" t="s">
         <v>36</v>
@@ -8133,12 +8166,15 @@
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="192">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="192">
       <c r="A192" s="0" t="s">
-        <v>553</v>
+        <v>556</v>
       </c>
       <c r="B192" s="0" t="s">
-        <v>554</v>
+        <v>557</v>
+      </c>
+      <c r="C192" s="0" t="s">
+        <v>285</v>
       </c>
       <c r="D192" s="0" t="s">
         <v>25</v>
@@ -8150,15 +8186,15 @@
         <v>12</v>
       </c>
       <c r="I192" s="0" t="s">
-        <v>555</v>
+        <v>558</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="193">
       <c r="A193" s="0" t="s">
-        <v>556</v>
+        <v>559</v>
       </c>
       <c r="B193" s="0" t="s">
-        <v>557</v>
+        <v>560</v>
       </c>
       <c r="C193" s="0" t="s">
         <v>15</v>
@@ -8170,18 +8206,21 @@
         <v>19</v>
       </c>
       <c r="F193" s="0" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
       <c r="G193" s="0" t="s">
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="194">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="194">
       <c r="A194" s="0" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
       <c r="B194" s="0" t="s">
-        <v>560</v>
+        <v>563</v>
+      </c>
+      <c r="C194" s="0" t="s">
+        <v>15</v>
       </c>
       <c r="D194" s="0" t="s">
         <v>11</v>
@@ -8190,18 +8229,21 @@
         <v>19</v>
       </c>
       <c r="F194" s="0" t="s">
-        <v>561</v>
+        <v>564</v>
       </c>
       <c r="G194" s="0" t="s">
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="195">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="195">
       <c r="A195" s="0" t="s">
-        <v>562</v>
+        <v>565</v>
       </c>
       <c r="B195" s="0" t="s">
-        <v>563</v>
+        <v>566</v>
+      </c>
+      <c r="C195" s="2" t="s">
+        <v>54</v>
       </c>
       <c r="D195" s="0" t="s">
         <v>25</v>
@@ -8213,15 +8255,18 @@
         <v>19</v>
       </c>
       <c r="H195" s="0" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="196">
+        <v>567</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="196">
       <c r="A196" s="0" t="s">
-        <v>562</v>
+        <v>565</v>
       </c>
       <c r="B196" s="0" t="s">
-        <v>565</v>
+        <v>568</v>
+      </c>
+      <c r="C196" s="2" t="s">
+        <v>54</v>
       </c>
       <c r="D196" s="0" t="s">
         <v>25</v>
@@ -8233,15 +8278,18 @@
         <v>19</v>
       </c>
       <c r="H196" s="0" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="197">
+        <v>567</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="197">
       <c r="A197" s="0" t="s">
-        <v>566</v>
+        <v>569</v>
       </c>
       <c r="B197" s="0" t="s">
-        <v>567</v>
+        <v>570</v>
+      </c>
+      <c r="C197" s="0" t="s">
+        <v>15</v>
       </c>
       <c r="D197" s="0" t="s">
         <v>25</v>
@@ -8250,18 +8298,21 @@
         <v>19</v>
       </c>
       <c r="F197" s="0" t="s">
-        <v>568</v>
+        <v>571</v>
       </c>
       <c r="G197" s="0" t="s">
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="198">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="198">
       <c r="A198" s="0" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="B198" s="0" t="s">
-        <v>570</v>
+        <v>573</v>
+      </c>
+      <c r="C198" s="0" t="s">
+        <v>15</v>
       </c>
       <c r="D198" s="0" t="s">
         <v>11</v>
@@ -8270,21 +8321,24 @@
         <v>19</v>
       </c>
       <c r="F198" s="0" t="s">
-        <v>571</v>
+        <v>574</v>
       </c>
       <c r="G198" s="0" t="s">
         <v>19</v>
       </c>
       <c r="H198" s="0" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="199">
+        <v>575</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="199">
       <c r="A199" s="0" t="s">
-        <v>573</v>
+        <v>576</v>
       </c>
       <c r="B199" s="0" t="s">
-        <v>574</v>
+        <v>577</v>
+      </c>
+      <c r="C199" s="0" t="s">
+        <v>285</v>
       </c>
       <c r="D199" s="0" t="s">
         <v>11</v>
@@ -8296,12 +8350,15 @@
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="200">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="200">
       <c r="A200" s="0" t="s">
-        <v>575</v>
+        <v>578</v>
       </c>
       <c r="B200" s="0" t="s">
-        <v>576</v>
+        <v>579</v>
+      </c>
+      <c r="C200" s="0" t="s">
+        <v>15</v>
       </c>
       <c r="D200" s="0" t="s">
         <v>36</v>
@@ -8310,21 +8367,24 @@
         <v>19</v>
       </c>
       <c r="F200" s="0" t="s">
-        <v>577</v>
+        <v>580</v>
       </c>
       <c r="G200" s="0" t="s">
         <v>12</v>
       </c>
       <c r="H200" s="0" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="201">
+        <v>581</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="201">
       <c r="A201" s="0" t="s">
-        <v>579</v>
+        <v>582</v>
       </c>
       <c r="B201" s="0" t="s">
-        <v>580</v>
+        <v>583</v>
+      </c>
+      <c r="C201" s="0" t="s">
+        <v>15</v>
       </c>
       <c r="D201" s="0" t="s">
         <v>11</v>
@@ -8333,21 +8393,24 @@
         <v>19</v>
       </c>
       <c r="F201" s="0" t="s">
-        <v>581</v>
+        <v>584</v>
       </c>
       <c r="G201" s="0" t="s">
         <v>19</v>
       </c>
       <c r="H201" s="0" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="202">
+        <v>585</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="202">
       <c r="A202" s="0" t="s">
-        <v>583</v>
+        <v>586</v>
       </c>
       <c r="B202" s="0" t="s">
-        <v>584</v>
+        <v>587</v>
+      </c>
+      <c r="C202" s="0" t="s">
+        <v>15</v>
       </c>
       <c r="D202" s="0" t="s">
         <v>11</v>
@@ -8361,10 +8424,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="203">
       <c r="A203" s="0" t="s">
-        <v>585</v>
+        <v>588</v>
       </c>
       <c r="B203" s="0" t="s">
-        <v>586</v>
+        <v>589</v>
       </c>
       <c r="D203" s="0" t="s">
         <v>16</v>
@@ -8378,10 +8441,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="204">
       <c r="A204" s="0" t="s">
-        <v>587</v>
+        <v>590</v>
       </c>
       <c r="B204" s="0" t="s">
-        <v>588</v>
+        <v>591</v>
       </c>
       <c r="D204" s="0" t="s">
         <v>25</v>
@@ -8390,7 +8453,7 @@
         <v>19</v>
       </c>
       <c r="F204" s="0" t="s">
-        <v>589</v>
+        <v>592</v>
       </c>
       <c r="G204" s="0" t="s">
         <v>12</v>
@@ -8398,10 +8461,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="205">
       <c r="A205" s="0" t="s">
-        <v>590</v>
+        <v>593</v>
       </c>
       <c r="B205" s="0" t="s">
-        <v>591</v>
+        <v>594</v>
       </c>
       <c r="D205" s="0" t="s">
         <v>25</v>
@@ -8413,15 +8476,15 @@
         <v>19</v>
       </c>
       <c r="H205" s="0" t="s">
-        <v>592</v>
+        <v>595</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="206">
       <c r="A206" s="0" t="s">
-        <v>593</v>
+        <v>596</v>
       </c>
       <c r="B206" s="0" t="s">
-        <v>594</v>
+        <v>597</v>
       </c>
       <c r="D206" s="0" t="s">
         <v>25</v>
@@ -8430,7 +8493,7 @@
         <v>19</v>
       </c>
       <c r="F206" s="0" t="s">
-        <v>595</v>
+        <v>598</v>
       </c>
       <c r="G206" s="0" t="s">
         <v>19</v>
@@ -8438,10 +8501,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="207">
       <c r="A207" s="0" t="s">
-        <v>596</v>
+        <v>599</v>
       </c>
       <c r="B207" s="0" t="s">
-        <v>597</v>
+        <v>600</v>
       </c>
       <c r="D207" s="0" t="s">
         <v>30</v>
@@ -8453,15 +8516,15 @@
         <v>19</v>
       </c>
       <c r="H207" s="0" t="s">
-        <v>598</v>
+        <v>601</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="208">
       <c r="A208" s="0" t="s">
-        <v>599</v>
+        <v>602</v>
       </c>
       <c r="B208" s="0" t="s">
-        <v>600</v>
+        <v>603</v>
       </c>
       <c r="D208" s="0" t="s">
         <v>30</v>
@@ -8473,15 +8536,15 @@
         <v>19</v>
       </c>
       <c r="H208" s="0" t="s">
-        <v>601</v>
+        <v>604</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="209">
       <c r="A209" s="0" t="s">
-        <v>602</v>
+        <v>605</v>
       </c>
       <c r="B209" s="0" t="s">
-        <v>603</v>
+        <v>606</v>
       </c>
       <c r="D209" s="0" t="s">
         <v>11</v>
@@ -8495,10 +8558,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="210">
       <c r="A210" s="0" t="s">
-        <v>604</v>
+        <v>607</v>
       </c>
       <c r="B210" s="0" t="s">
-        <v>605</v>
+        <v>608</v>
       </c>
       <c r="D210" s="0" t="s">
         <v>25</v>
@@ -8510,15 +8573,15 @@
         <v>19</v>
       </c>
       <c r="H210" s="0" t="s">
-        <v>606</v>
+        <v>609</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="211">
       <c r="A211" s="0" t="s">
-        <v>607</v>
+        <v>610</v>
       </c>
       <c r="B211" s="0" t="s">
-        <v>608</v>
+        <v>611</v>
       </c>
       <c r="D211" s="0" t="s">
         <v>25</v>
@@ -8532,10 +8595,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="212">
       <c r="A212" s="0" t="s">
-        <v>609</v>
+        <v>612</v>
       </c>
       <c r="B212" s="0" t="s">
-        <v>610</v>
+        <v>613</v>
       </c>
       <c r="D212" s="0" t="s">
         <v>30</v>
@@ -8549,10 +8612,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="213">
       <c r="A213" s="0" t="s">
-        <v>611</v>
+        <v>614</v>
       </c>
       <c r="B213" s="0" t="s">
-        <v>612</v>
+        <v>615</v>
       </c>
       <c r="D213" s="0" t="s">
         <v>11</v>
@@ -8566,10 +8629,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="214">
       <c r="A214" s="0" t="s">
-        <v>613</v>
+        <v>616</v>
       </c>
       <c r="B214" s="0" t="s">
-        <v>614</v>
+        <v>617</v>
       </c>
       <c r="D214" s="0" t="s">
         <v>25</v>
@@ -8583,10 +8646,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="215">
       <c r="A215" s="0" t="s">
-        <v>615</v>
+        <v>618</v>
       </c>
       <c r="B215" s="0" t="s">
-        <v>616</v>
+        <v>619</v>
       </c>
       <c r="D215" s="0" t="s">
         <v>11</v>
@@ -8600,10 +8663,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="216">
       <c r="A216" s="0" t="s">
-        <v>617</v>
+        <v>620</v>
       </c>
       <c r="B216" s="0" t="s">
-        <v>618</v>
+        <v>621</v>
       </c>
       <c r="D216" s="0" t="s">
         <v>36</v>
@@ -8617,10 +8680,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="217">
       <c r="A217" s="0" t="s">
-        <v>619</v>
+        <v>622</v>
       </c>
       <c r="B217" s="0" t="s">
-        <v>620</v>
+        <v>623</v>
       </c>
       <c r="D217" s="0" t="s">
         <v>25</v>
@@ -8634,10 +8697,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="218">
       <c r="A218" s="0" t="s">
-        <v>621</v>
+        <v>624</v>
       </c>
       <c r="B218" s="0" t="s">
-        <v>622</v>
+        <v>625</v>
       </c>
       <c r="D218" s="0" t="s">
         <v>11</v>
@@ -8646,7 +8709,7 @@
         <v>19</v>
       </c>
       <c r="F218" s="0" t="s">
-        <v>623</v>
+        <v>626</v>
       </c>
       <c r="G218" s="0" t="s">
         <v>12</v>
@@ -8654,10 +8717,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="219">
       <c r="A219" s="0" t="s">
-        <v>624</v>
+        <v>627</v>
       </c>
       <c r="B219" s="0" t="s">
-        <v>625</v>
+        <v>628</v>
       </c>
       <c r="D219" s="0" t="s">
         <v>25</v>
@@ -8666,21 +8729,21 @@
         <v>19</v>
       </c>
       <c r="F219" s="0" t="s">
-        <v>626</v>
+        <v>629</v>
       </c>
       <c r="G219" s="0" t="s">
         <v>19</v>
       </c>
       <c r="H219" s="0" t="s">
-        <v>627</v>
+        <v>630</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="220">
       <c r="A220" s="0" t="s">
-        <v>628</v>
+        <v>631</v>
       </c>
       <c r="B220" s="0" t="s">
-        <v>629</v>
+        <v>632</v>
       </c>
       <c r="D220" s="0" t="s">
         <v>36</v>
@@ -8689,21 +8752,21 @@
         <v>19</v>
       </c>
       <c r="F220" s="0" t="s">
-        <v>630</v>
+        <v>633</v>
       </c>
       <c r="G220" s="0" t="s">
         <v>19</v>
       </c>
       <c r="H220" s="0" t="s">
-        <v>631</v>
+        <v>634</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="221">
       <c r="A221" s="0" t="s">
-        <v>632</v>
+        <v>635</v>
       </c>
       <c r="B221" s="0" t="s">
-        <v>633</v>
+        <v>636</v>
       </c>
       <c r="D221" s="0" t="s">
         <v>25</v>
@@ -8712,21 +8775,21 @@
         <v>19</v>
       </c>
       <c r="F221" s="0" t="s">
+        <v>637</v>
+      </c>
+      <c r="G221" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="H221" s="0" t="s">
         <v>634</v>
-      </c>
-      <c r="G221" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="H221" s="0" t="s">
-        <v>631</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="222">
       <c r="A222" s="0" t="s">
-        <v>635</v>
+        <v>638</v>
       </c>
       <c r="B222" s="0" t="s">
-        <v>636</v>
+        <v>639</v>
       </c>
       <c r="D222" s="0" t="s">
         <v>25</v>
@@ -8735,21 +8798,21 @@
         <v>19</v>
       </c>
       <c r="F222" s="0" t="s">
-        <v>637</v>
+        <v>640</v>
       </c>
       <c r="G222" s="0" t="s">
         <v>19</v>
       </c>
       <c r="H222" s="0" t="s">
-        <v>631</v>
+        <v>634</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="223">
       <c r="A223" s="0" t="s">
-        <v>638</v>
+        <v>641</v>
       </c>
       <c r="B223" s="0" t="s">
-        <v>639</v>
+        <v>642</v>
       </c>
       <c r="D223" s="0" t="s">
         <v>25</v>
@@ -8758,21 +8821,21 @@
         <v>19</v>
       </c>
       <c r="F223" s="0" t="s">
-        <v>640</v>
+        <v>643</v>
       </c>
       <c r="G223" s="0" t="s">
         <v>19</v>
       </c>
       <c r="H223" s="0" t="s">
-        <v>641</v>
+        <v>644</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="224">
       <c r="A224" s="0" t="s">
-        <v>642</v>
+        <v>645</v>
       </c>
       <c r="B224" s="0" t="s">
-        <v>643</v>
+        <v>646</v>
       </c>
       <c r="D224" s="0" t="s">
         <v>25</v>
@@ -8781,7 +8844,7 @@
         <v>19</v>
       </c>
       <c r="F224" s="0" t="s">
-        <v>644</v>
+        <v>647</v>
       </c>
       <c r="G224" s="0" t="s">
         <v>12</v>
@@ -8789,10 +8852,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="225">
       <c r="A225" s="0" t="s">
-        <v>645</v>
+        <v>648</v>
       </c>
       <c r="B225" s="0" t="s">
-        <v>646</v>
+        <v>649</v>
       </c>
       <c r="D225" s="0" t="s">
         <v>11</v>
@@ -8801,21 +8864,21 @@
         <v>19</v>
       </c>
       <c r="F225" s="0" t="s">
-        <v>647</v>
+        <v>650</v>
       </c>
       <c r="G225" s="0" t="s">
         <v>19</v>
       </c>
       <c r="H225" s="0" t="s">
-        <v>648</v>
+        <v>651</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="226">
       <c r="A226" s="0" t="s">
-        <v>649</v>
+        <v>652</v>
       </c>
       <c r="B226" s="0" t="s">
-        <v>650</v>
+        <v>653</v>
       </c>
       <c r="D226" s="0" t="s">
         <v>25</v>
@@ -8824,7 +8887,7 @@
         <v>19</v>
       </c>
       <c r="F226" s="0" t="s">
-        <v>651</v>
+        <v>654</v>
       </c>
       <c r="G226" s="0" t="s">
         <v>12</v>
@@ -8832,10 +8895,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="227">
       <c r="A227" s="0" t="s">
-        <v>652</v>
+        <v>655</v>
       </c>
       <c r="B227" s="0" t="s">
-        <v>653</v>
+        <v>656</v>
       </c>
       <c r="D227" s="0" t="s">
         <v>11</v>
@@ -8844,15 +8907,15 @@
         <v>19</v>
       </c>
       <c r="F227" s="0" t="s">
-        <v>654</v>
+        <v>657</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="228">
       <c r="A228" s="0" t="s">
-        <v>655</v>
+        <v>658</v>
       </c>
       <c r="B228" s="0" t="s">
-        <v>656</v>
+        <v>659</v>
       </c>
       <c r="D228" s="0" t="s">
         <v>11</v>
@@ -8864,15 +8927,15 @@
         <v>12</v>
       </c>
       <c r="I228" s="0" t="s">
-        <v>657</v>
+        <v>660</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="229">
       <c r="A229" s="0" t="s">
-        <v>658</v>
+        <v>661</v>
       </c>
       <c r="B229" s="0" t="s">
-        <v>659</v>
+        <v>662</v>
       </c>
       <c r="D229" s="0" t="s">
         <v>25</v>
@@ -8881,7 +8944,7 @@
         <v>19</v>
       </c>
       <c r="F229" s="0" t="s">
-        <v>660</v>
+        <v>663</v>
       </c>
       <c r="G229" s="0" t="s">
         <v>12</v>
@@ -8889,10 +8952,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="230">
       <c r="A230" s="0" t="s">
-        <v>661</v>
+        <v>664</v>
       </c>
       <c r="B230" s="0" t="s">
-        <v>662</v>
+        <v>665</v>
       </c>
       <c r="D230" s="0" t="s">
         <v>11</v>
@@ -8901,7 +8964,7 @@
         <v>19</v>
       </c>
       <c r="F230" s="0" t="s">
-        <v>663</v>
+        <v>666</v>
       </c>
       <c r="G230" s="0" t="s">
         <v>12</v>
@@ -8909,10 +8972,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="231">
       <c r="A231" s="0" t="s">
-        <v>664</v>
+        <v>667</v>
       </c>
       <c r="B231" s="0" t="s">
-        <v>665</v>
+        <v>668</v>
       </c>
       <c r="D231" s="0" t="s">
         <v>36</v>
@@ -8921,7 +8984,7 @@
         <v>19</v>
       </c>
       <c r="F231" s="0" t="s">
-        <v>666</v>
+        <v>669</v>
       </c>
       <c r="G231" s="0" t="s">
         <v>12</v>
@@ -8929,10 +8992,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="232">
       <c r="A232" s="0" t="s">
-        <v>667</v>
+        <v>670</v>
       </c>
       <c r="B232" s="0" t="s">
-        <v>668</v>
+        <v>671</v>
       </c>
       <c r="D232" s="0" t="s">
         <v>16</v>
@@ -8946,10 +9009,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="233">
       <c r="A233" s="0" t="s">
-        <v>669</v>
+        <v>672</v>
       </c>
       <c r="B233" s="0" t="s">
-        <v>670</v>
+        <v>673</v>
       </c>
       <c r="D233" s="0" t="s">
         <v>16</v>
@@ -8961,15 +9024,15 @@
         <v>19</v>
       </c>
       <c r="H233" s="0" t="s">
-        <v>671</v>
+        <v>674</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="234">
       <c r="A234" s="0" t="s">
-        <v>672</v>
+        <v>675</v>
       </c>
       <c r="B234" s="0" t="s">
-        <v>673</v>
+        <v>676</v>
       </c>
       <c r="D234" s="0" t="s">
         <v>25</v>
@@ -8978,21 +9041,21 @@
         <v>19</v>
       </c>
       <c r="F234" s="0" t="s">
-        <v>674</v>
+        <v>677</v>
       </c>
       <c r="G234" s="0" t="s">
         <v>19</v>
       </c>
       <c r="H234" s="0" t="s">
-        <v>675</v>
+        <v>678</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="235">
       <c r="A235" s="0" t="s">
-        <v>676</v>
+        <v>679</v>
       </c>
       <c r="B235" s="0" t="s">
-        <v>677</v>
+        <v>680</v>
       </c>
       <c r="D235" s="0" t="s">
         <v>25</v>
@@ -9001,7 +9064,7 @@
         <v>19</v>
       </c>
       <c r="F235" s="0" t="s">
-        <v>678</v>
+        <v>681</v>
       </c>
       <c r="G235" s="0" t="s">
         <v>12</v>
@@ -9009,10 +9072,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="236">
       <c r="A236" s="0" t="s">
-        <v>679</v>
+        <v>682</v>
       </c>
       <c r="B236" s="0" t="s">
-        <v>680</v>
+        <v>683</v>
       </c>
       <c r="D236" s="0" t="s">
         <v>25</v>
@@ -9026,10 +9089,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="237">
       <c r="A237" s="0" t="s">
-        <v>681</v>
+        <v>684</v>
       </c>
       <c r="B237" s="0" t="s">
-        <v>682</v>
+        <v>685</v>
       </c>
       <c r="D237" s="0" t="s">
         <v>25</v>
@@ -9043,10 +9106,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="238">
       <c r="A238" s="0" t="s">
-        <v>683</v>
+        <v>686</v>
       </c>
       <c r="B238" s="0" t="s">
-        <v>684</v>
+        <v>687</v>
       </c>
       <c r="D238" s="0" t="s">
         <v>11</v>
@@ -9060,10 +9123,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="239">
       <c r="A239" s="0" t="s">
-        <v>685</v>
+        <v>688</v>
       </c>
       <c r="B239" s="0" t="s">
-        <v>686</v>
+        <v>689</v>
       </c>
       <c r="D239" s="0" t="s">
         <v>11</v>
@@ -9077,10 +9140,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="240">
       <c r="A240" s="0" t="s">
-        <v>687</v>
+        <v>690</v>
       </c>
       <c r="B240" s="0" t="s">
-        <v>688</v>
+        <v>691</v>
       </c>
       <c r="D240" s="0" t="s">
         <v>11</v>
@@ -9094,10 +9157,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="241">
       <c r="A241" s="0" t="s">
-        <v>689</v>
+        <v>692</v>
       </c>
       <c r="B241" s="0" t="s">
-        <v>690</v>
+        <v>693</v>
       </c>
       <c r="D241" s="0" t="s">
         <v>30</v>
@@ -9111,10 +9174,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="242">
       <c r="A242" s="0" t="s">
-        <v>691</v>
+        <v>694</v>
       </c>
       <c r="B242" s="0" t="s">
-        <v>692</v>
+        <v>695</v>
       </c>
       <c r="D242" s="0" t="s">
         <v>36</v>
@@ -9126,15 +9189,15 @@
         <v>19</v>
       </c>
       <c r="H242" s="0" t="s">
-        <v>693</v>
+        <v>696</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="243">
       <c r="A243" s="0" t="s">
-        <v>694</v>
+        <v>697</v>
       </c>
       <c r="B243" s="0" t="s">
-        <v>695</v>
+        <v>698</v>
       </c>
       <c r="D243" s="0" t="s">
         <v>30</v>
@@ -9146,15 +9209,15 @@
         <v>19</v>
       </c>
       <c r="H243" s="0" t="s">
-        <v>696</v>
+        <v>699</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="244">
       <c r="A244" s="0" t="s">
-        <v>697</v>
+        <v>700</v>
       </c>
       <c r="B244" s="0" t="s">
-        <v>698</v>
+        <v>701</v>
       </c>
       <c r="D244" s="0" t="s">
         <v>30</v>
@@ -9163,21 +9226,21 @@
         <v>19</v>
       </c>
       <c r="F244" s="0" t="s">
-        <v>699</v>
+        <v>702</v>
       </c>
       <c r="G244" s="0" t="s">
         <v>19</v>
       </c>
       <c r="H244" s="0" t="s">
-        <v>700</v>
+        <v>703</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="245">
       <c r="A245" s="0" t="s">
-        <v>701</v>
+        <v>704</v>
       </c>
       <c r="B245" s="0" t="s">
-        <v>702</v>
+        <v>705</v>
       </c>
       <c r="D245" s="0" t="s">
         <v>30</v>
@@ -9191,10 +9254,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="246">
       <c r="A246" s="0" t="s">
-        <v>703</v>
+        <v>706</v>
       </c>
       <c r="B246" s="0" t="s">
-        <v>704</v>
+        <v>707</v>
       </c>
       <c r="D246" s="0" t="s">
         <v>25</v>
@@ -9203,7 +9266,7 @@
         <v>19</v>
       </c>
       <c r="F246" s="0" t="s">
-        <v>705</v>
+        <v>708</v>
       </c>
       <c r="G246" s="0" t="s">
         <v>12</v>
@@ -9211,10 +9274,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="247">
       <c r="A247" s="0" t="s">
-        <v>706</v>
+        <v>709</v>
       </c>
       <c r="B247" s="0" t="s">
-        <v>707</v>
+        <v>710</v>
       </c>
       <c r="D247" s="0" t="s">
         <v>16</v>
@@ -9223,21 +9286,21 @@
         <v>19</v>
       </c>
       <c r="F247" s="0" t="s">
-        <v>708</v>
+        <v>711</v>
       </c>
       <c r="G247" s="0" t="s">
         <v>19</v>
       </c>
       <c r="H247" s="0" t="s">
-        <v>631</v>
+        <v>634</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="248">
       <c r="A248" s="0" t="s">
-        <v>709</v>
+        <v>712</v>
       </c>
       <c r="B248" s="0" t="s">
-        <v>710</v>
+        <v>713</v>
       </c>
       <c r="D248" s="0" t="s">
         <v>30</v>
@@ -9249,15 +9312,15 @@
         <v>19</v>
       </c>
       <c r="H248" s="0" t="s">
-        <v>711</v>
+        <v>714</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="249">
       <c r="A249" s="0" t="s">
-        <v>712</v>
+        <v>715</v>
       </c>
       <c r="B249" s="0" t="s">
-        <v>713</v>
+        <v>716</v>
       </c>
       <c r="D249" s="0" t="s">
         <v>30</v>
@@ -9266,7 +9329,7 @@
         <v>19</v>
       </c>
       <c r="F249" s="0" t="s">
-        <v>714</v>
+        <v>717</v>
       </c>
       <c r="G249" s="0" t="s">
         <v>12</v>
@@ -9274,10 +9337,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="250">
       <c r="A250" s="0" t="s">
-        <v>715</v>
+        <v>718</v>
       </c>
       <c r="B250" s="0" t="s">
-        <v>716</v>
+        <v>719</v>
       </c>
       <c r="D250" s="0" t="s">
         <v>11</v>
@@ -9286,7 +9349,7 @@
         <v>19</v>
       </c>
       <c r="F250" s="0" t="s">
-        <v>717</v>
+        <v>720</v>
       </c>
       <c r="G250" s="0" t="s">
         <v>12</v>
@@ -9294,10 +9357,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="251">
       <c r="A251" s="0" t="s">
-        <v>718</v>
+        <v>721</v>
       </c>
       <c r="B251" s="0" t="s">
-        <v>716</v>
+        <v>719</v>
       </c>
       <c r="D251" s="0" t="s">
         <v>11</v>
@@ -9306,7 +9369,7 @@
         <v>19</v>
       </c>
       <c r="F251" s="0" t="s">
-        <v>717</v>
+        <v>720</v>
       </c>
       <c r="G251" s="0" t="s">
         <v>12</v>
@@ -9314,11 +9377,11 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="252">
       <c r="A252" s="0" t="s">
+        <v>722</v>
+      </c>
+      <c r="B252" s="0" t="s">
         <v>719</v>
       </c>
-      <c r="B252" s="0" t="s">
-        <v>716</v>
-      </c>
       <c r="D252" s="0" t="s">
         <v>11</v>
       </c>
@@ -9326,7 +9389,7 @@
         <v>19</v>
       </c>
       <c r="F252" s="0" t="s">
-        <v>717</v>
+        <v>720</v>
       </c>
       <c r="G252" s="0" t="s">
         <v>12</v>
@@ -9334,10 +9397,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="253">
       <c r="A253" s="0" t="s">
-        <v>720</v>
+        <v>723</v>
       </c>
       <c r="B253" s="0" t="s">
-        <v>721</v>
+        <v>724</v>
       </c>
       <c r="D253" s="0" t="s">
         <v>11</v>
@@ -9346,7 +9409,7 @@
         <v>19</v>
       </c>
       <c r="F253" s="0" t="s">
-        <v>722</v>
+        <v>725</v>
       </c>
       <c r="G253" s="0" t="s">
         <v>12</v>
@@ -9354,10 +9417,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="254">
       <c r="A254" s="0" t="s">
-        <v>723</v>
+        <v>726</v>
       </c>
       <c r="B254" s="0" t="s">
-        <v>724</v>
+        <v>727</v>
       </c>
       <c r="D254" s="0" t="s">
         <v>36</v>
@@ -9369,15 +9432,15 @@
         <v>19</v>
       </c>
       <c r="H254" s="0" t="s">
-        <v>725</v>
+        <v>728</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="255">
       <c r="A255" s="0" t="s">
-        <v>726</v>
+        <v>729</v>
       </c>
       <c r="B255" s="0" t="s">
-        <v>727</v>
+        <v>730</v>
       </c>
       <c r="D255" s="0" t="s">
         <v>30</v>
@@ -9391,10 +9454,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="256">
       <c r="A256" s="0" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="B256" s="0" t="s">
-        <v>729</v>
+        <v>732</v>
       </c>
       <c r="D256" s="0" t="s">
         <v>25</v>
@@ -9403,21 +9466,21 @@
         <v>19</v>
       </c>
       <c r="F256" s="0" t="s">
-        <v>730</v>
+        <v>733</v>
       </c>
       <c r="G256" s="0" t="s">
         <v>19</v>
       </c>
       <c r="H256" s="0" t="s">
-        <v>731</v>
+        <v>734</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="257">
       <c r="A257" s="0" t="s">
-        <v>732</v>
+        <v>735</v>
       </c>
       <c r="B257" s="0" t="s">
-        <v>733</v>
+        <v>736</v>
       </c>
       <c r="D257" s="0" t="s">
         <v>11</v>
@@ -9426,7 +9489,7 @@
         <v>19</v>
       </c>
       <c r="F257" s="0" t="s">
-        <v>734</v>
+        <v>737</v>
       </c>
       <c r="G257" s="0" t="s">
         <v>12</v>
@@ -9434,10 +9497,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="258">
       <c r="A258" s="0" t="s">
-        <v>735</v>
+        <v>738</v>
       </c>
       <c r="B258" s="0" t="s">
-        <v>736</v>
+        <v>739</v>
       </c>
       <c r="D258" s="0" t="s">
         <v>236</v>
@@ -9446,21 +9509,21 @@
         <v>19</v>
       </c>
       <c r="F258" s="0" t="s">
-        <v>737</v>
+        <v>740</v>
       </c>
       <c r="G258" s="0" t="s">
         <v>19</v>
       </c>
       <c r="H258" s="0" t="s">
-        <v>738</v>
+        <v>741</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="259">
       <c r="A259" s="0" t="s">
-        <v>739</v>
+        <v>742</v>
       </c>
       <c r="B259" s="0" t="s">
-        <v>740</v>
+        <v>743</v>
       </c>
       <c r="D259" s="0" t="s">
         <v>36</v>
@@ -9474,10 +9537,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="260">
       <c r="A260" s="0" t="s">
-        <v>741</v>
+        <v>744</v>
       </c>
       <c r="B260" s="0" t="s">
-        <v>742</v>
+        <v>745</v>
       </c>
       <c r="D260" s="0" t="s">
         <v>16</v>
@@ -9486,7 +9549,7 @@
         <v>19</v>
       </c>
       <c r="F260" s="0" t="s">
-        <v>743</v>
+        <v>746</v>
       </c>
       <c r="G260" s="0" t="s">
         <v>12</v>
@@ -9494,10 +9557,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="261">
       <c r="A261" s="0" t="s">
-        <v>744</v>
+        <v>747</v>
       </c>
       <c r="B261" s="0" t="s">
-        <v>745</v>
+        <v>748</v>
       </c>
       <c r="D261" s="0" t="s">
         <v>25</v>
@@ -9506,44 +9569,44 @@
         <v>19</v>
       </c>
       <c r="F261" s="0" t="s">
-        <v>746</v>
+        <v>749</v>
       </c>
       <c r="G261" s="0" t="s">
         <v>19</v>
       </c>
       <c r="H261" s="0" t="s">
-        <v>747</v>
+        <v>750</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="262">
       <c r="A262" s="0" t="s">
-        <v>748</v>
+        <v>751</v>
       </c>
       <c r="B262" s="0" t="s">
-        <v>749</v>
+        <v>752</v>
       </c>
       <c r="D262" s="0" t="s">
-        <v>750</v>
+        <v>753</v>
       </c>
       <c r="E262" s="0" t="s">
         <v>19</v>
       </c>
       <c r="F262" s="0" t="s">
-        <v>751</v>
+        <v>754</v>
       </c>
       <c r="G262" s="0" t="s">
         <v>19</v>
       </c>
       <c r="H262" s="0" t="s">
-        <v>752</v>
+        <v>755</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="263">
       <c r="A263" s="0" t="s">
-        <v>753</v>
+        <v>756</v>
       </c>
       <c r="B263" s="0" t="s">
-        <v>754</v>
+        <v>757</v>
       </c>
       <c r="D263" s="0" t="s">
         <v>30</v>
@@ -9552,21 +9615,21 @@
         <v>19</v>
       </c>
       <c r="F263" s="0" t="s">
-        <v>755</v>
+        <v>758</v>
       </c>
       <c r="G263" s="0" t="s">
         <v>19</v>
       </c>
       <c r="H263" s="0" t="s">
-        <v>756</v>
+        <v>759</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="264">
       <c r="A264" s="0" t="s">
-        <v>757</v>
+        <v>760</v>
       </c>
       <c r="B264" s="0" t="s">
-        <v>758</v>
+        <v>761</v>
       </c>
       <c r="D264" s="0" t="s">
         <v>25</v>
@@ -9580,10 +9643,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="265">
       <c r="A265" s="0" t="s">
-        <v>759</v>
+        <v>762</v>
       </c>
       <c r="B265" s="0" t="s">
-        <v>760</v>
+        <v>763</v>
       </c>
       <c r="D265" s="0" t="s">
         <v>25</v>
@@ -9592,21 +9655,21 @@
         <v>19</v>
       </c>
       <c r="F265" s="0" t="s">
-        <v>761</v>
+        <v>764</v>
       </c>
       <c r="G265" s="0" t="s">
         <v>19</v>
       </c>
       <c r="H265" s="0" t="s">
-        <v>762</v>
+        <v>765</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="266">
       <c r="A266" s="0" t="s">
-        <v>763</v>
+        <v>766</v>
       </c>
       <c r="B266" s="0" t="s">
-        <v>764</v>
+        <v>767</v>
       </c>
       <c r="D266" s="0" t="s">
         <v>11</v>
@@ -9615,7 +9678,7 @@
         <v>19</v>
       </c>
       <c r="F266" s="0" t="s">
-        <v>765</v>
+        <v>768</v>
       </c>
       <c r="G266" s="0" t="s">
         <v>12</v>
@@ -9623,10 +9686,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="267">
       <c r="A267" s="0" t="s">
-        <v>766</v>
+        <v>769</v>
       </c>
       <c r="B267" s="0" t="s">
-        <v>767</v>
+        <v>770</v>
       </c>
       <c r="D267" s="0" t="s">
         <v>25</v>
@@ -9635,21 +9698,21 @@
         <v>19</v>
       </c>
       <c r="F267" s="0" t="s">
-        <v>768</v>
+        <v>771</v>
       </c>
       <c r="G267" s="0" t="s">
         <v>19</v>
       </c>
       <c r="H267" s="0" t="s">
-        <v>769</v>
+        <v>772</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="268">
       <c r="A268" s="0" t="s">
-        <v>770</v>
+        <v>773</v>
       </c>
       <c r="B268" s="0" t="s">
-        <v>771</v>
+        <v>774</v>
       </c>
       <c r="D268" s="0" t="s">
         <v>25</v>
@@ -9661,23 +9724,23 @@
         <v>19</v>
       </c>
       <c r="H268" s="0" t="s">
-        <v>772</v>
+        <v>775</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="269">
       <c r="A269" s="0" t="s">
-        <v>773</v>
+        <v>776</v>
       </c>
       <c r="B269" s="0" t="s">
-        <v>774</v>
+        <v>777</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="270">
       <c r="A270" s="0" t="s">
-        <v>775</v>
+        <v>778</v>
       </c>
       <c r="B270" s="0" t="s">
-        <v>776</v>
+        <v>779</v>
       </c>
       <c r="D270" s="0" t="s">
         <v>11</v>
@@ -9691,10 +9754,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="271">
       <c r="A271" s="0" t="s">
-        <v>777</v>
+        <v>780</v>
       </c>
       <c r="B271" s="0" t="s">
-        <v>776</v>
+        <v>779</v>
       </c>
       <c r="D271" s="0" t="s">
         <v>11</v>
@@ -9708,10 +9771,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="272">
       <c r="A272" s="0" t="s">
-        <v>778</v>
+        <v>781</v>
       </c>
       <c r="B272" s="0" t="s">
-        <v>779</v>
+        <v>782</v>
       </c>
       <c r="D272" s="0" t="s">
         <v>30</v>
@@ -9720,21 +9783,21 @@
         <v>19</v>
       </c>
       <c r="F272" s="0" t="s">
-        <v>780</v>
+        <v>783</v>
       </c>
       <c r="G272" s="0" t="s">
         <v>19</v>
       </c>
       <c r="H272" s="0" t="s">
-        <v>781</v>
+        <v>784</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="273">
       <c r="A273" s="0" t="s">
-        <v>782</v>
+        <v>785</v>
       </c>
       <c r="B273" s="0" t="s">
-        <v>783</v>
+        <v>786</v>
       </c>
       <c r="D273" s="0" t="s">
         <v>30</v>
@@ -9743,24 +9806,24 @@
         <v>19</v>
       </c>
       <c r="F273" s="0" t="s">
+        <v>787</v>
+      </c>
+      <c r="G273" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="H273" s="0" t="s">
         <v>784</v>
       </c>
-      <c r="G273" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="H273" s="0" t="s">
-        <v>781</v>
-      </c>
       <c r="I273" s="0" t="s">
-        <v>785</v>
+        <v>788</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="274">
       <c r="A274" s="0" t="s">
-        <v>786</v>
+        <v>789</v>
       </c>
       <c r="B274" s="0" t="s">
-        <v>787</v>
+        <v>790</v>
       </c>
       <c r="D274" s="0" t="s">
         <v>11</v>
@@ -9772,15 +9835,15 @@
         <v>19</v>
       </c>
       <c r="H274" s="0" t="s">
-        <v>781</v>
+        <v>784</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="275">
       <c r="A275" s="0" t="s">
-        <v>788</v>
+        <v>791</v>
       </c>
       <c r="B275" s="0" t="s">
-        <v>789</v>
+        <v>792</v>
       </c>
       <c r="D275" s="0" t="s">
         <v>25</v>
@@ -9794,10 +9857,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="276">
       <c r="A276" s="0" t="s">
-        <v>790</v>
+        <v>793</v>
       </c>
       <c r="B276" s="0" t="s">
-        <v>791</v>
+        <v>794</v>
       </c>
       <c r="D276" s="0" t="s">
         <v>11</v>
@@ -9806,7 +9869,7 @@
         <v>19</v>
       </c>
       <c r="F276" s="0" t="s">
-        <v>792</v>
+        <v>795</v>
       </c>
       <c r="G276" s="0" t="s">
         <v>12</v>
@@ -9814,10 +9877,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="277">
       <c r="A277" s="0" t="s">
-        <v>793</v>
+        <v>796</v>
       </c>
       <c r="B277" s="0" t="s">
-        <v>794</v>
+        <v>797</v>
       </c>
       <c r="D277" s="0" t="s">
         <v>30</v>
@@ -9831,10 +9894,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="278">
       <c r="A278" s="0" t="s">
-        <v>795</v>
+        <v>798</v>
       </c>
       <c r="B278" s="0" t="s">
-        <v>796</v>
+        <v>799</v>
       </c>
       <c r="D278" s="0" t="s">
         <v>11</v>
@@ -9848,10 +9911,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="279">
       <c r="A279" s="0" t="s">
-        <v>797</v>
+        <v>800</v>
       </c>
       <c r="B279" s="0" t="s">
-        <v>798</v>
+        <v>801</v>
       </c>
       <c r="D279" s="0" t="s">
         <v>11</v>
@@ -9865,10 +9928,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="280">
       <c r="A280" s="0" t="s">
-        <v>799</v>
+        <v>802</v>
       </c>
       <c r="B280" s="0" t="s">
-        <v>800</v>
+        <v>803</v>
       </c>
       <c r="D280" s="0" t="s">
         <v>25</v>
@@ -9877,21 +9940,21 @@
         <v>19</v>
       </c>
       <c r="F280" s="0" t="s">
-        <v>801</v>
+        <v>804</v>
       </c>
       <c r="G280" s="0" t="s">
         <v>12</v>
       </c>
       <c r="I280" s="0" t="s">
-        <v>802</v>
+        <v>805</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="281">
       <c r="A281" s="0" t="s">
-        <v>803</v>
+        <v>806</v>
       </c>
       <c r="B281" s="0" t="s">
-        <v>804</v>
+        <v>807</v>
       </c>
       <c r="D281" s="0" t="s">
         <v>25</v>
@@ -9900,7 +9963,7 @@
         <v>19</v>
       </c>
       <c r="F281" s="0" t="s">
-        <v>801</v>
+        <v>804</v>
       </c>
       <c r="G281" s="0" t="s">
         <v>12</v>
@@ -9908,10 +9971,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="282">
       <c r="A282" s="0" t="s">
-        <v>805</v>
+        <v>808</v>
       </c>
       <c r="B282" s="0" t="s">
-        <v>806</v>
+        <v>809</v>
       </c>
       <c r="D282" s="0" t="s">
         <v>36</v>
@@ -9923,15 +9986,15 @@
         <v>19</v>
       </c>
       <c r="H282" s="0" t="s">
-        <v>806</v>
+        <v>809</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="283">
       <c r="A283" s="0" t="s">
-        <v>807</v>
+        <v>810</v>
       </c>
       <c r="B283" s="0" t="s">
-        <v>808</v>
+        <v>811</v>
       </c>
       <c r="D283" s="0" t="s">
         <v>25</v>
@@ -9940,7 +10003,7 @@
         <v>19</v>
       </c>
       <c r="F283" s="0" t="s">
-        <v>809</v>
+        <v>812</v>
       </c>
       <c r="G283" s="0" t="s">
         <v>12</v>
@@ -9948,10 +10011,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="284">
       <c r="A284" s="0" t="s">
-        <v>810</v>
+        <v>813</v>
       </c>
       <c r="B284" s="0" t="s">
-        <v>811</v>
+        <v>814</v>
       </c>
       <c r="D284" s="0" t="s">
         <v>11</v>
@@ -9960,7 +10023,7 @@
         <v>19</v>
       </c>
       <c r="F284" s="0" t="s">
-        <v>812</v>
+        <v>815</v>
       </c>
       <c r="G284" s="0" t="s">
         <v>12</v>
@@ -9968,10 +10031,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="285">
       <c r="A285" s="0" t="s">
-        <v>813</v>
+        <v>816</v>
       </c>
       <c r="B285" s="0" t="s">
-        <v>814</v>
+        <v>817</v>
       </c>
       <c r="D285" s="0" t="s">
         <v>30</v>
@@ -9983,15 +10046,15 @@
         <v>19</v>
       </c>
       <c r="H285" s="0" t="s">
-        <v>815</v>
+        <v>818</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="286">
       <c r="A286" s="0" t="s">
-        <v>816</v>
+        <v>819</v>
       </c>
       <c r="B286" s="0" t="s">
-        <v>817</v>
+        <v>820</v>
       </c>
       <c r="D286" s="0" t="s">
         <v>30</v>
@@ -10005,10 +10068,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="287">
       <c r="A287" s="0" t="s">
-        <v>818</v>
+        <v>821</v>
       </c>
       <c r="B287" s="0" t="s">
-        <v>819</v>
+        <v>822</v>
       </c>
       <c r="D287" s="0" t="s">
         <v>11</v>
@@ -10022,10 +10085,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="288">
       <c r="A288" s="0" t="s">
-        <v>820</v>
+        <v>823</v>
       </c>
       <c r="B288" s="0" t="s">
-        <v>821</v>
+        <v>824</v>
       </c>
       <c r="D288" s="0" t="s">
         <v>36</v>
@@ -10034,7 +10097,7 @@
         <v>19</v>
       </c>
       <c r="F288" s="0" t="s">
-        <v>822</v>
+        <v>825</v>
       </c>
       <c r="G288" s="0" t="s">
         <v>12</v>
@@ -10042,10 +10105,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="289">
       <c r="A289" s="0" t="s">
-        <v>823</v>
+        <v>826</v>
       </c>
       <c r="B289" s="0" t="s">
-        <v>824</v>
+        <v>827</v>
       </c>
       <c r="D289" s="0" t="s">
         <v>36</v>
@@ -10057,15 +10120,15 @@
         <v>19</v>
       </c>
       <c r="H289" s="0" t="s">
-        <v>825</v>
+        <v>828</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="290">
       <c r="A290" s="0" t="s">
-        <v>826</v>
+        <v>829</v>
       </c>
       <c r="B290" s="0" t="s">
-        <v>827</v>
+        <v>830</v>
       </c>
       <c r="D290" s="0" t="s">
         <v>16</v>
@@ -10077,15 +10140,15 @@
         <v>19</v>
       </c>
       <c r="H290" s="0" t="s">
-        <v>828</v>
+        <v>831</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="291">
       <c r="A291" s="0" t="s">
-        <v>829</v>
+        <v>832</v>
       </c>
       <c r="B291" s="0" t="s">
-        <v>830</v>
+        <v>833</v>
       </c>
       <c r="D291" s="0" t="s">
         <v>16</v>
@@ -10099,10 +10162,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="292">
       <c r="A292" s="0" t="s">
-        <v>831</v>
+        <v>834</v>
       </c>
       <c r="B292" s="0" t="s">
-        <v>832</v>
+        <v>835</v>
       </c>
       <c r="D292" s="0" t="s">
         <v>16</v>
@@ -10114,15 +10177,15 @@
         <v>19</v>
       </c>
       <c r="H292" s="0" t="s">
-        <v>833</v>
+        <v>836</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="293">
       <c r="A293" s="0" t="s">
-        <v>834</v>
+        <v>837</v>
       </c>
       <c r="B293" s="0" t="s">
-        <v>835</v>
+        <v>838</v>
       </c>
       <c r="D293" s="0" t="s">
         <v>16</v>
@@ -10131,7 +10194,7 @@
         <v>19</v>
       </c>
       <c r="F293" s="0" t="s">
-        <v>836</v>
+        <v>839</v>
       </c>
       <c r="G293" s="0" t="s">
         <v>12</v>
@@ -10139,7 +10202,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="294">
       <c r="A294" s="0" t="s">
-        <v>837</v>
+        <v>840</v>
       </c>
       <c r="B294" s="0" t="s">
         <v>11</v>
@@ -10159,10 +10222,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="295">
       <c r="A295" s="0" t="s">
-        <v>838</v>
+        <v>841</v>
       </c>
       <c r="B295" s="0" t="s">
-        <v>839</v>
+        <v>842</v>
       </c>
       <c r="D295" s="0" t="s">
         <v>36</v>
@@ -10176,10 +10239,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="296">
       <c r="A296" s="0" t="s">
-        <v>840</v>
+        <v>843</v>
       </c>
       <c r="B296" s="0" t="s">
-        <v>841</v>
+        <v>844</v>
       </c>
       <c r="D296" s="0" t="s">
         <v>30</v>
@@ -10188,21 +10251,21 @@
         <v>19</v>
       </c>
       <c r="F296" s="0" t="s">
-        <v>842</v>
+        <v>845</v>
       </c>
       <c r="G296" s="0" t="s">
         <v>19</v>
       </c>
       <c r="H296" s="0" t="s">
-        <v>843</v>
+        <v>846</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="297">
       <c r="A297" s="0" t="s">
-        <v>844</v>
+        <v>847</v>
       </c>
       <c r="B297" s="0" t="s">
-        <v>845</v>
+        <v>848</v>
       </c>
       <c r="D297" s="0" t="s">
         <v>25</v>
@@ -10211,21 +10274,21 @@
         <v>19</v>
       </c>
       <c r="F297" s="0" t="s">
-        <v>846</v>
+        <v>849</v>
       </c>
       <c r="G297" s="0" t="s">
         <v>19</v>
       </c>
       <c r="H297" s="0" t="s">
-        <v>847</v>
+        <v>850</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="298">
       <c r="A298" s="0" t="s">
+        <v>851</v>
+      </c>
+      <c r="B298" s="0" t="s">
         <v>848</v>
-      </c>
-      <c r="B298" s="0" t="s">
-        <v>845</v>
       </c>
       <c r="D298" s="0" t="s">
         <v>25</v>
@@ -10234,21 +10297,21 @@
         <v>19</v>
       </c>
       <c r="F298" s="0" t="s">
-        <v>846</v>
+        <v>849</v>
       </c>
       <c r="G298" s="0" t="s">
         <v>19</v>
       </c>
       <c r="H298" s="0" t="s">
-        <v>847</v>
+        <v>850</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="299">
       <c r="A299" s="0" t="s">
-        <v>849</v>
+        <v>852</v>
       </c>
       <c r="B299" s="0" t="s">
-        <v>850</v>
+        <v>853</v>
       </c>
       <c r="D299" s="0" t="s">
         <v>36</v>
@@ -10257,21 +10320,21 @@
         <v>19</v>
       </c>
       <c r="F299" s="0" t="s">
-        <v>851</v>
+        <v>854</v>
       </c>
       <c r="G299" s="0" t="s">
         <v>19</v>
       </c>
       <c r="H299" s="0" t="s">
-        <v>852</v>
+        <v>855</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="300">
       <c r="A300" s="0" t="s">
-        <v>853</v>
+        <v>856</v>
       </c>
       <c r="B300" s="0" t="s">
-        <v>854</v>
+        <v>857</v>
       </c>
       <c r="D300" s="0" t="s">
         <v>36</v>
@@ -10283,15 +10346,15 @@
         <v>19</v>
       </c>
       <c r="H300" s="0" t="s">
-        <v>855</v>
+        <v>858</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="301">
       <c r="A301" s="0" t="s">
-        <v>856</v>
+        <v>859</v>
       </c>
       <c r="B301" s="0" t="s">
-        <v>857</v>
+        <v>860</v>
       </c>
       <c r="D301" s="0" t="s">
         <v>11</v>
@@ -10300,7 +10363,7 @@
         <v>19</v>
       </c>
       <c r="F301" s="0" t="s">
-        <v>858</v>
+        <v>861</v>
       </c>
       <c r="G301" s="0" t="s">
         <v>12</v>
@@ -10308,10 +10371,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="302">
       <c r="A302" s="0" t="s">
-        <v>859</v>
+        <v>862</v>
       </c>
       <c r="B302" s="0" t="s">
-        <v>860</v>
+        <v>863</v>
       </c>
       <c r="D302" s="0" t="s">
         <v>11</v>
@@ -10320,7 +10383,7 @@
         <v>19</v>
       </c>
       <c r="F302" s="0" t="s">
-        <v>861</v>
+        <v>864</v>
       </c>
       <c r="G302" s="0" t="s">
         <v>12</v>
@@ -10328,10 +10391,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="303">
       <c r="A303" s="0" t="s">
-        <v>862</v>
+        <v>865</v>
       </c>
       <c r="B303" s="0" t="s">
-        <v>863</v>
+        <v>866</v>
       </c>
       <c r="D303" s="0" t="s">
         <v>16</v>
@@ -10343,15 +10406,15 @@
         <v>19</v>
       </c>
       <c r="H303" s="0" t="s">
-        <v>864</v>
+        <v>867</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="304">
       <c r="A304" s="0" t="s">
-        <v>865</v>
+        <v>868</v>
       </c>
       <c r="B304" s="0" t="s">
-        <v>866</v>
+        <v>869</v>
       </c>
       <c r="D304" s="0" t="s">
         <v>36</v>
@@ -10360,15 +10423,15 @@
         <v>19</v>
       </c>
       <c r="F304" s="0" t="s">
-        <v>867</v>
+        <v>870</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="305">
       <c r="A305" s="0" t="s">
-        <v>868</v>
+        <v>871</v>
       </c>
       <c r="B305" s="0" t="s">
-        <v>869</v>
+        <v>872</v>
       </c>
       <c r="D305" s="0" t="s">
         <v>11</v>
@@ -10380,15 +10443,15 @@
         <v>19</v>
       </c>
       <c r="H305" s="0" t="s">
-        <v>870</v>
+        <v>873</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="306">
       <c r="A306" s="0" t="s">
-        <v>871</v>
+        <v>874</v>
       </c>
       <c r="B306" s="0" t="s">
-        <v>872</v>
+        <v>875</v>
       </c>
       <c r="D306" s="0" t="s">
         <v>36</v>
@@ -10400,15 +10463,15 @@
         <v>19</v>
       </c>
       <c r="H306" s="0" t="s">
-        <v>873</v>
+        <v>876</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="307">
       <c r="A307" s="0" t="s">
-        <v>874</v>
+        <v>877</v>
       </c>
       <c r="B307" s="0" t="s">
-        <v>875</v>
+        <v>878</v>
       </c>
       <c r="D307" s="0" t="s">
         <v>11</v>
@@ -10417,21 +10480,21 @@
         <v>19</v>
       </c>
       <c r="F307" s="0" t="s">
-        <v>876</v>
+        <v>879</v>
       </c>
       <c r="G307" s="0" t="s">
         <v>19</v>
       </c>
       <c r="H307" s="0" t="s">
-        <v>877</v>
+        <v>880</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="308">
       <c r="A308" s="0" t="s">
-        <v>878</v>
+        <v>881</v>
       </c>
       <c r="B308" s="0" t="s">
-        <v>879</v>
+        <v>882</v>
       </c>
       <c r="D308" s="0" t="s">
         <v>36</v>
@@ -10440,21 +10503,21 @@
         <v>19</v>
       </c>
       <c r="F308" s="0" t="s">
-        <v>880</v>
+        <v>883</v>
       </c>
       <c r="G308" s="0" t="s">
         <v>19</v>
       </c>
       <c r="H308" s="0" t="s">
-        <v>881</v>
+        <v>884</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="309">
       <c r="A309" s="0" t="s">
-        <v>882</v>
+        <v>885</v>
       </c>
       <c r="B309" s="0" t="s">
-        <v>883</v>
+        <v>886</v>
       </c>
       <c r="D309" s="0" t="s">
         <v>30</v>
@@ -10463,7 +10526,7 @@
         <v>19</v>
       </c>
       <c r="F309" s="0" t="s">
-        <v>884</v>
+        <v>887</v>
       </c>
       <c r="G309" s="0" t="s">
         <v>12</v>
@@ -10471,10 +10534,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="310">
       <c r="A310" s="0" t="s">
-        <v>885</v>
+        <v>888</v>
       </c>
       <c r="B310" s="0" t="s">
-        <v>886</v>
+        <v>889</v>
       </c>
       <c r="D310" s="0" t="s">
         <v>11</v>
@@ -10488,10 +10551,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="311">
       <c r="A311" s="0" t="s">
-        <v>887</v>
+        <v>890</v>
       </c>
       <c r="B311" s="0" t="s">
-        <v>888</v>
+        <v>891</v>
       </c>
       <c r="D311" s="0" t="s">
         <v>11</v>
@@ -10503,15 +10566,15 @@
         <v>19</v>
       </c>
       <c r="H311" s="0" t="s">
-        <v>889</v>
+        <v>892</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="312">
       <c r="A312" s="0" t="s">
-        <v>890</v>
+        <v>893</v>
       </c>
       <c r="B312" s="0" t="s">
-        <v>891</v>
+        <v>894</v>
       </c>
       <c r="D312" s="0" t="s">
         <v>11</v>
@@ -10523,15 +10586,15 @@
         <v>19</v>
       </c>
       <c r="H312" s="0" t="s">
-        <v>889</v>
+        <v>892</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="313">
       <c r="A313" s="0" t="s">
-        <v>892</v>
+        <v>895</v>
       </c>
       <c r="B313" s="0" t="s">
-        <v>893</v>
+        <v>896</v>
       </c>
       <c r="D313" s="0" t="s">
         <v>11</v>
@@ -10548,10 +10611,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="314">
       <c r="A314" s="0" t="s">
-        <v>894</v>
+        <v>897</v>
       </c>
       <c r="B314" s="0" t="s">
-        <v>895</v>
+        <v>898</v>
       </c>
       <c r="D314" s="0" t="s">
         <v>11</v>
@@ -10565,10 +10628,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="315">
       <c r="A315" s="0" t="s">
-        <v>896</v>
+        <v>899</v>
       </c>
       <c r="B315" s="0" t="s">
-        <v>897</v>
+        <v>900</v>
       </c>
       <c r="D315" s="0" t="s">
         <v>36</v>
@@ -10577,21 +10640,21 @@
         <v>19</v>
       </c>
       <c r="F315" s="0" t="s">
-        <v>898</v>
+        <v>901</v>
       </c>
       <c r="G315" s="0" t="s">
         <v>19</v>
       </c>
       <c r="H315" s="0" t="s">
-        <v>899</v>
+        <v>902</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="316">
       <c r="A316" s="0" t="s">
-        <v>900</v>
+        <v>903</v>
       </c>
       <c r="B316" s="0" t="s">
-        <v>901</v>
+        <v>904</v>
       </c>
       <c r="D316" s="0" t="s">
         <v>30</v>
@@ -10608,10 +10671,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="317">
       <c r="A317" s="0" t="s">
-        <v>902</v>
+        <v>905</v>
       </c>
       <c r="B317" s="0" t="s">
-        <v>903</v>
+        <v>906</v>
       </c>
       <c r="D317" s="0" t="s">
         <v>25</v>
@@ -10620,21 +10683,21 @@
         <v>19</v>
       </c>
       <c r="F317" s="0" t="s">
-        <v>904</v>
+        <v>907</v>
       </c>
       <c r="G317" s="0" t="s">
         <v>19</v>
       </c>
       <c r="H317" s="0" t="s">
-        <v>905</v>
+        <v>908</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="318">
       <c r="A318" s="0" t="s">
-        <v>906</v>
+        <v>909</v>
       </c>
       <c r="B318" s="0" t="s">
-        <v>907</v>
+        <v>910</v>
       </c>
       <c r="D318" s="0" t="s">
         <v>16</v>
@@ -10643,7 +10706,7 @@
         <v>19</v>
       </c>
       <c r="F318" s="0" t="s">
-        <v>908</v>
+        <v>911</v>
       </c>
       <c r="G318" s="0" t="s">
         <v>19</v>
@@ -10654,10 +10717,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="319">
       <c r="A319" s="0" t="s">
-        <v>909</v>
+        <v>912</v>
       </c>
       <c r="B319" s="0" t="s">
-        <v>910</v>
+        <v>913</v>
       </c>
       <c r="D319" s="0" t="s">
         <v>16</v>
@@ -10671,10 +10734,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="320">
       <c r="A320" s="0" t="s">
-        <v>911</v>
+        <v>914</v>
       </c>
       <c r="B320" s="0" t="s">
-        <v>912</v>
+        <v>915</v>
       </c>
       <c r="D320" s="0" t="s">
         <v>16</v>
@@ -10683,21 +10746,21 @@
         <v>19</v>
       </c>
       <c r="F320" s="0" t="s">
-        <v>913</v>
+        <v>916</v>
       </c>
       <c r="G320" s="0" t="s">
         <v>19</v>
       </c>
       <c r="H320" s="0" t="s">
-        <v>914</v>
+        <v>917</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="321">
       <c r="A321" s="0" t="s">
-        <v>915</v>
+        <v>918</v>
       </c>
       <c r="B321" s="0" t="s">
-        <v>916</v>
+        <v>919</v>
       </c>
       <c r="D321" s="0" t="s">
         <v>25</v>
@@ -10706,21 +10769,21 @@
         <v>19</v>
       </c>
       <c r="F321" s="0" t="s">
-        <v>917</v>
+        <v>920</v>
       </c>
       <c r="G321" s="0" t="s">
         <v>19</v>
       </c>
       <c r="H321" s="0" t="s">
-        <v>918</v>
+        <v>921</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="322">
       <c r="A322" s="0" t="s">
-        <v>919</v>
+        <v>922</v>
       </c>
       <c r="B322" s="0" t="s">
-        <v>920</v>
+        <v>923</v>
       </c>
       <c r="D322" s="0" t="s">
         <v>11</v>
@@ -10729,7 +10792,7 @@
         <v>19</v>
       </c>
       <c r="F322" s="0" t="s">
-        <v>921</v>
+        <v>924</v>
       </c>
       <c r="G322" s="0" t="s">
         <v>12</v>
@@ -10737,10 +10800,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="323">
       <c r="A323" s="0" t="s">
-        <v>922</v>
+        <v>925</v>
       </c>
       <c r="B323" s="0" t="s">
-        <v>923</v>
+        <v>926</v>
       </c>
       <c r="D323" s="0" t="s">
         <v>16</v>
@@ -10752,15 +10815,15 @@
         <v>19</v>
       </c>
       <c r="H323" s="0" t="s">
-        <v>924</v>
+        <v>927</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="324">
       <c r="A324" s="0" t="s">
-        <v>925</v>
+        <v>928</v>
       </c>
       <c r="B324" s="0" t="s">
-        <v>926</v>
+        <v>929</v>
       </c>
       <c r="D324" s="0" t="s">
         <v>11</v>
@@ -10772,15 +10835,15 @@
         <v>19</v>
       </c>
       <c r="H324" s="0" t="s">
-        <v>927</v>
+        <v>930</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="325">
       <c r="A325" s="0" t="s">
-        <v>928</v>
+        <v>931</v>
       </c>
       <c r="B325" s="0" t="s">
-        <v>929</v>
+        <v>932</v>
       </c>
       <c r="D325" s="0" t="s">
         <v>25</v>
@@ -10794,10 +10857,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="326">
       <c r="A326" s="0" t="s">
-        <v>930</v>
+        <v>933</v>
       </c>
       <c r="B326" s="0" t="s">
-        <v>931</v>
+        <v>934</v>
       </c>
       <c r="D326" s="0" t="s">
         <v>36</v>
@@ -10811,10 +10874,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="327">
       <c r="A327" s="0" t="s">
-        <v>932</v>
+        <v>935</v>
       </c>
       <c r="B327" s="0" t="s">
-        <v>933</v>
+        <v>936</v>
       </c>
       <c r="D327" s="0" t="s">
         <v>30</v>
@@ -10823,7 +10886,7 @@
         <v>19</v>
       </c>
       <c r="F327" s="0" t="s">
-        <v>934</v>
+        <v>937</v>
       </c>
       <c r="G327" s="0" t="s">
         <v>12</v>
@@ -10831,10 +10894,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="328">
       <c r="A328" s="0" t="s">
-        <v>935</v>
+        <v>938</v>
       </c>
       <c r="B328" s="0" t="s">
-        <v>936</v>
+        <v>939</v>
       </c>
       <c r="D328" s="0" t="s">
         <v>16</v>
@@ -10843,15 +10906,15 @@
         <v>19</v>
       </c>
       <c r="F328" s="0" t="s">
-        <v>937</v>
+        <v>940</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="329">
       <c r="A329" s="0" t="s">
-        <v>938</v>
+        <v>941</v>
       </c>
       <c r="B329" s="0" t="s">
-        <v>939</v>
+        <v>942</v>
       </c>
       <c r="D329" s="0" t="s">
         <v>36</v>
@@ -10860,7 +10923,7 @@
         <v>19</v>
       </c>
       <c r="F329" s="0" t="s">
-        <v>940</v>
+        <v>943</v>
       </c>
       <c r="G329" s="0" t="s">
         <v>12</v>
@@ -10868,10 +10931,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="330">
       <c r="A330" s="0" t="s">
-        <v>941</v>
+        <v>944</v>
       </c>
       <c r="B330" s="0" t="s">
-        <v>942</v>
+        <v>945</v>
       </c>
       <c r="D330" s="0" t="s">
         <v>11</v>
@@ -10885,10 +10948,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="331">
       <c r="A331" s="0" t="s">
-        <v>943</v>
+        <v>946</v>
       </c>
       <c r="B331" s="0" t="s">
-        <v>944</v>
+        <v>947</v>
       </c>
       <c r="D331" s="0" t="s">
         <v>36</v>
@@ -10902,10 +10965,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="332">
       <c r="A332" s="0" t="s">
-        <v>945</v>
+        <v>948</v>
       </c>
       <c r="B332" s="0" t="s">
-        <v>946</v>
+        <v>949</v>
       </c>
       <c r="D332" s="0" t="s">
         <v>36</v>
@@ -10919,10 +10982,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="333">
       <c r="A333" s="0" t="s">
-        <v>947</v>
+        <v>950</v>
       </c>
       <c r="B333" s="0" t="s">
-        <v>948</v>
+        <v>951</v>
       </c>
       <c r="D333" s="0" t="s">
         <v>30</v>
@@ -10936,10 +10999,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="334">
       <c r="A334" s="0" t="s">
-        <v>949</v>
+        <v>952</v>
       </c>
       <c r="B334" s="0" t="s">
-        <v>950</v>
+        <v>953</v>
       </c>
       <c r="D334" s="0" t="s">
         <v>11</v>
@@ -10948,7 +11011,7 @@
         <v>19</v>
       </c>
       <c r="F334" s="0" t="s">
-        <v>951</v>
+        <v>954</v>
       </c>
       <c r="G334" s="0" t="s">
         <v>12</v>
@@ -10956,10 +11019,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="335">
       <c r="A335" s="0" t="s">
-        <v>952</v>
+        <v>955</v>
       </c>
       <c r="B335" s="0" t="s">
-        <v>953</v>
+        <v>956</v>
       </c>
       <c r="D335" s="0" t="s">
         <v>25</v>
@@ -10968,7 +11031,7 @@
         <v>19</v>
       </c>
       <c r="F335" s="0" t="s">
-        <v>954</v>
+        <v>957</v>
       </c>
       <c r="G335" s="0" t="s">
         <v>12</v>
@@ -10976,10 +11039,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="336">
       <c r="A336" s="0" t="s">
-        <v>955</v>
+        <v>958</v>
       </c>
       <c r="B336" s="0" t="s">
-        <v>956</v>
+        <v>959</v>
       </c>
       <c r="D336" s="0" t="s">
         <v>30</v>
@@ -10993,10 +11056,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="337">
       <c r="A337" s="0" t="s">
-        <v>957</v>
+        <v>960</v>
       </c>
       <c r="B337" s="0" t="s">
-        <v>958</v>
+        <v>961</v>
       </c>
       <c r="D337" s="0" t="s">
         <v>25</v>
@@ -11005,7 +11068,7 @@
         <v>19</v>
       </c>
       <c r="F337" s="0" t="s">
-        <v>959</v>
+        <v>962</v>
       </c>
       <c r="G337" s="0" t="s">
         <v>19</v>
@@ -11013,10 +11076,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="338">
       <c r="A338" s="0" t="s">
-        <v>960</v>
+        <v>963</v>
       </c>
       <c r="B338" s="0" t="s">
-        <v>961</v>
+        <v>964</v>
       </c>
       <c r="D338" s="0" t="s">
         <v>36</v>
@@ -11030,10 +11093,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="339">
       <c r="A339" s="0" t="s">
-        <v>962</v>
+        <v>965</v>
       </c>
       <c r="B339" s="0" t="s">
-        <v>963</v>
+        <v>966</v>
       </c>
       <c r="D339" s="0" t="s">
         <v>25</v>
@@ -11042,7 +11105,7 @@
         <v>19</v>
       </c>
       <c r="F339" s="0" t="s">
-        <v>964</v>
+        <v>967</v>
       </c>
       <c r="G339" s="0" t="s">
         <v>12</v>
@@ -11050,10 +11113,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="340">
       <c r="A340" s="0" t="s">
-        <v>965</v>
+        <v>968</v>
       </c>
       <c r="B340" s="0" t="s">
-        <v>966</v>
+        <v>969</v>
       </c>
       <c r="D340" s="0" t="s">
         <v>25</v>
@@ -11062,7 +11125,7 @@
         <v>19</v>
       </c>
       <c r="F340" s="0" t="s">
-        <v>967</v>
+        <v>970</v>
       </c>
       <c r="G340" s="0" t="s">
         <v>12</v>
@@ -11070,10 +11133,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="341">
       <c r="A341" s="0" t="s">
-        <v>968</v>
+        <v>971</v>
       </c>
       <c r="B341" s="0" t="s">
-        <v>969</v>
+        <v>972</v>
       </c>
       <c r="D341" s="0" t="s">
         <v>11</v>
@@ -11082,7 +11145,7 @@
         <v>19</v>
       </c>
       <c r="F341" s="0" t="s">
-        <v>970</v>
+        <v>973</v>
       </c>
       <c r="G341" s="0" t="s">
         <v>12</v>
@@ -11090,10 +11153,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="342">
       <c r="A342" s="0" t="s">
-        <v>971</v>
+        <v>974</v>
       </c>
       <c r="B342" s="0" t="s">
-        <v>972</v>
+        <v>975</v>
       </c>
       <c r="D342" s="0" t="s">
         <v>36</v>
@@ -11107,10 +11170,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="343">
       <c r="A343" s="0" t="s">
-        <v>973</v>
+        <v>976</v>
       </c>
       <c r="B343" s="0" t="s">
-        <v>974</v>
+        <v>977</v>
       </c>
       <c r="D343" s="0" t="s">
         <v>11</v>
@@ -11119,24 +11182,24 @@
         <v>19</v>
       </c>
       <c r="F343" s="0" t="s">
-        <v>975</v>
+        <v>978</v>
       </c>
       <c r="G343" s="0" t="s">
         <v>19</v>
       </c>
       <c r="H343" s="0" t="s">
-        <v>976</v>
+        <v>979</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="344">
       <c r="A344" s="0" t="s">
-        <v>977</v>
+        <v>980</v>
       </c>
       <c r="B344" s="0" t="s">
-        <v>978</v>
+        <v>981</v>
       </c>
       <c r="D344" s="0" t="s">
-        <v>750</v>
+        <v>753</v>
       </c>
       <c r="E344" s="0" t="s">
         <v>12</v>
@@ -11145,15 +11208,15 @@
         <v>19</v>
       </c>
       <c r="H344" s="0" t="s">
-        <v>979</v>
+        <v>982</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="345">
       <c r="A345" s="0" t="s">
-        <v>980</v>
+        <v>983</v>
       </c>
       <c r="B345" s="0" t="s">
-        <v>981</v>
+        <v>984</v>
       </c>
       <c r="D345" s="0" t="s">
         <v>11</v>
@@ -11162,7 +11225,7 @@
         <v>19</v>
       </c>
       <c r="F345" s="0" t="s">
-        <v>982</v>
+        <v>985</v>
       </c>
       <c r="G345" s="0" t="s">
         <v>12</v>
@@ -11170,10 +11233,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="346">
       <c r="A346" s="0" t="s">
-        <v>983</v>
+        <v>986</v>
       </c>
       <c r="B346" s="0" t="s">
-        <v>984</v>
+        <v>987</v>
       </c>
       <c r="D346" s="0" t="s">
         <v>36</v>
@@ -11187,10 +11250,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="347">
       <c r="A347" s="0" t="s">
-        <v>985</v>
+        <v>988</v>
       </c>
       <c r="B347" s="0" t="s">
-        <v>986</v>
+        <v>989</v>
       </c>
       <c r="D347" s="0" t="s">
         <v>30</v>
@@ -11202,15 +11265,15 @@
         <v>19</v>
       </c>
       <c r="H347" s="0" t="s">
-        <v>987</v>
+        <v>990</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="348">
       <c r="A348" s="0" t="s">
-        <v>988</v>
+        <v>991</v>
       </c>
       <c r="B348" s="0" t="s">
-        <v>989</v>
+        <v>992</v>
       </c>
       <c r="D348" s="0" t="s">
         <v>16</v>
@@ -11219,7 +11282,7 @@
         <v>19</v>
       </c>
       <c r="F348" s="0" t="s">
-        <v>990</v>
+        <v>993</v>
       </c>
       <c r="G348" s="0" t="s">
         <v>12</v>
@@ -11227,10 +11290,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="349">
       <c r="A349" s="0" t="s">
-        <v>991</v>
+        <v>994</v>
       </c>
       <c r="B349" s="0" t="s">
-        <v>992</v>
+        <v>995</v>
       </c>
       <c r="D349" s="0" t="s">
         <v>11</v>
@@ -11242,15 +11305,15 @@
         <v>19</v>
       </c>
       <c r="H349" s="0" t="s">
-        <v>993</v>
+        <v>996</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="350">
       <c r="A350" s="0" t="s">
-        <v>991</v>
+        <v>994</v>
       </c>
       <c r="B350" s="0" t="s">
-        <v>992</v>
+        <v>995</v>
       </c>
       <c r="D350" s="0" t="s">
         <v>11</v>
@@ -11262,15 +11325,15 @@
         <v>19</v>
       </c>
       <c r="H350" s="0" t="s">
-        <v>993</v>
+        <v>996</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="351">
       <c r="A351" s="0" t="s">
-        <v>994</v>
+        <v>997</v>
       </c>
       <c r="B351" s="0" t="s">
-        <v>995</v>
+        <v>998</v>
       </c>
       <c r="D351" s="0" t="s">
         <v>16</v>
@@ -11282,15 +11345,15 @@
         <v>19</v>
       </c>
       <c r="H351" s="0" t="s">
-        <v>996</v>
+        <v>999</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="352">
       <c r="A352" s="0" t="s">
-        <v>997</v>
+        <v>1000</v>
       </c>
       <c r="B352" s="0" t="s">
-        <v>998</v>
+        <v>1001</v>
       </c>
       <c r="D352" s="0" t="s">
         <v>25</v>
@@ -11304,10 +11367,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="353">
       <c r="A353" s="0" t="s">
-        <v>999</v>
+        <v>1002</v>
       </c>
       <c r="B353" s="0" t="s">
-        <v>1000</v>
+        <v>1003</v>
       </c>
       <c r="D353" s="0" t="s">
         <v>25</v>
@@ -11316,21 +11379,21 @@
         <v>19</v>
       </c>
       <c r="F353" s="0" t="s">
-        <v>1001</v>
+        <v>1004</v>
       </c>
       <c r="G353" s="0" t="s">
         <v>19</v>
       </c>
       <c r="H353" s="0" t="s">
-        <v>1002</v>
+        <v>1005</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="354">
       <c r="A354" s="0" t="s">
-        <v>1003</v>
+        <v>1006</v>
       </c>
       <c r="B354" s="0" t="s">
-        <v>1004</v>
+        <v>1007</v>
       </c>
       <c r="D354" s="0" t="s">
         <v>25</v>
@@ -11344,10 +11407,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="355">
       <c r="A355" s="0" t="s">
-        <v>1005</v>
+        <v>1008</v>
       </c>
       <c r="B355" s="0" t="s">
-        <v>1006</v>
+        <v>1009</v>
       </c>
       <c r="D355" s="0" t="s">
         <v>11</v>
@@ -11359,15 +11422,15 @@
         <v>19</v>
       </c>
       <c r="H355" s="0" t="s">
-        <v>1007</v>
+        <v>1010</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="356">
       <c r="A356" s="0" t="s">
-        <v>1008</v>
+        <v>1011</v>
       </c>
       <c r="B356" s="0" t="s">
-        <v>1009</v>
+        <v>1012</v>
       </c>
       <c r="D356" s="0" t="s">
         <v>16</v>
@@ -11381,10 +11444,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="357">
       <c r="A357" s="0" t="s">
-        <v>1010</v>
+        <v>1013</v>
       </c>
       <c r="B357" s="0" t="s">
-        <v>1011</v>
+        <v>1014</v>
       </c>
       <c r="D357" s="0" t="s">
         <v>16</v>
@@ -11398,10 +11461,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="358">
       <c r="A358" s="0" t="s">
-        <v>1012</v>
+        <v>1015</v>
       </c>
       <c r="B358" s="0" t="s">
-        <v>1013</v>
+        <v>1016</v>
       </c>
       <c r="D358" s="0" t="s">
         <v>11</v>
@@ -11415,10 +11478,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="359">
       <c r="A359" s="0" t="s">
-        <v>1014</v>
+        <v>1017</v>
       </c>
       <c r="B359" s="0" t="s">
-        <v>1015</v>
+        <v>1018</v>
       </c>
       <c r="D359" s="0" t="s">
         <v>11</v>
@@ -11432,10 +11495,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="360">
       <c r="A360" s="0" t="s">
-        <v>1016</v>
+        <v>1019</v>
       </c>
       <c r="B360" s="0" t="s">
-        <v>1017</v>
+        <v>1020</v>
       </c>
       <c r="D360" s="0" t="s">
         <v>16</v>
@@ -11444,7 +11507,7 @@
         <v>19</v>
       </c>
       <c r="F360" s="0" t="s">
-        <v>1018</v>
+        <v>1021</v>
       </c>
       <c r="G360" s="0" t="s">
         <v>19</v>
@@ -11455,10 +11518,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="361">
       <c r="A361" s="0" t="s">
-        <v>1019</v>
+        <v>1022</v>
       </c>
       <c r="B361" s="0" t="s">
-        <v>1020</v>
+        <v>1023</v>
       </c>
       <c r="D361" s="0" t="s">
         <v>16</v>
@@ -11470,15 +11533,15 @@
         <v>19</v>
       </c>
       <c r="H361" s="0" t="s">
-        <v>1021</v>
+        <v>1024</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="362">
       <c r="A362" s="0" t="s">
-        <v>1022</v>
+        <v>1025</v>
       </c>
       <c r="B362" s="0" t="s">
-        <v>1023</v>
+        <v>1026</v>
       </c>
       <c r="D362" s="0" t="s">
         <v>11</v>
@@ -11492,10 +11555,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="363">
       <c r="A363" s="0" t="s">
-        <v>1024</v>
+        <v>1027</v>
       </c>
       <c r="B363" s="0" t="s">
-        <v>1025</v>
+        <v>1028</v>
       </c>
       <c r="D363" s="0" t="s">
         <v>25</v>
@@ -11507,15 +11570,15 @@
         <v>19</v>
       </c>
       <c r="H363" s="0" t="s">
-        <v>1026</v>
+        <v>1029</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="364">
       <c r="A364" s="0" t="s">
-        <v>1027</v>
+        <v>1030</v>
       </c>
       <c r="B364" s="0" t="s">
-        <v>1028</v>
+        <v>1031</v>
       </c>
       <c r="D364" s="0" t="s">
         <v>30</v>
@@ -11527,7 +11590,7 @@
         <v>19</v>
       </c>
       <c r="H364" s="0" t="s">
-        <v>1029</v>
+        <v>1032</v>
       </c>
       <c r="I364" s="0" t="s">
         <v>33</v>
@@ -11535,10 +11598,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="365">
       <c r="A365" s="0" t="s">
-        <v>1030</v>
+        <v>1033</v>
       </c>
       <c r="B365" s="0" t="s">
-        <v>1031</v>
+        <v>1034</v>
       </c>
       <c r="D365" s="0" t="s">
         <v>25</v>
@@ -11550,15 +11613,15 @@
         <v>19</v>
       </c>
       <c r="H365" s="0" t="s">
-        <v>1032</v>
+        <v>1035</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="366">
       <c r="A366" s="0" t="s">
-        <v>1033</v>
+        <v>1036</v>
       </c>
       <c r="B366" s="0" t="s">
-        <v>1034</v>
+        <v>1037</v>
       </c>
       <c r="D366" s="0" t="s">
         <v>11</v>
@@ -11572,10 +11635,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="367">
       <c r="A367" s="0" t="s">
-        <v>1035</v>
+        <v>1038</v>
       </c>
       <c r="B367" s="0" t="s">
-        <v>1036</v>
+        <v>1039</v>
       </c>
       <c r="D367" s="0" t="s">
         <v>16</v>
@@ -11589,10 +11652,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="368">
       <c r="A368" s="0" t="s">
-        <v>1037</v>
+        <v>1040</v>
       </c>
       <c r="B368" s="2" t="s">
-        <v>1038</v>
+        <v>1041</v>
       </c>
       <c r="C368" s="2"/>
       <c r="D368" s="0" t="s">
@@ -11607,10 +11670,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="369">
       <c r="A369" s="0" t="s">
-        <v>1039</v>
+        <v>1042</v>
       </c>
       <c r="B369" s="0" t="s">
-        <v>1040</v>
+        <v>1043</v>
       </c>
       <c r="D369" s="0" t="s">
         <v>16</v>
@@ -11622,15 +11685,15 @@
         <v>19</v>
       </c>
       <c r="H369" s="0" t="s">
-        <v>1041</v>
+        <v>1044</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="370">
       <c r="A370" s="0" t="s">
-        <v>1042</v>
+        <v>1045</v>
       </c>
       <c r="B370" s="0" t="s">
-        <v>1043</v>
+        <v>1046</v>
       </c>
       <c r="D370" s="0" t="s">
         <v>11</v>
@@ -11642,15 +11705,15 @@
         <v>19</v>
       </c>
       <c r="H370" s="0" t="s">
-        <v>1044</v>
+        <v>1047</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="371">
       <c r="A371" s="0" t="s">
-        <v>1045</v>
+        <v>1048</v>
       </c>
       <c r="B371" s="2" t="s">
-        <v>1046</v>
+        <v>1049</v>
       </c>
       <c r="C371" s="2"/>
       <c r="D371" s="0" t="s">
@@ -11660,22 +11723,22 @@
         <v>19</v>
       </c>
       <c r="F371" s="0" t="s">
-        <v>1047</v>
+        <v>1050</v>
       </c>
       <c r="G371" s="0" t="s">
         <v>19</v>
       </c>
       <c r="H371" s="0" t="s">
-        <v>1048</v>
+        <v>1051</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="372">
       <c r="A372" s="0" t="s">
+        <v>1052</v>
+      </c>
+      <c r="B372" s="0" t="s">
         <v>1049</v>
       </c>
-      <c r="B372" s="0" t="s">
-        <v>1046</v>
-      </c>
       <c r="D372" s="0" t="s">
         <v>11</v>
       </c>
@@ -11683,22 +11746,22 @@
         <v>19</v>
       </c>
       <c r="F372" s="0" t="s">
-        <v>1047</v>
+        <v>1050</v>
       </c>
       <c r="G372" s="0" t="s">
         <v>19</v>
       </c>
       <c r="H372" s="0" t="s">
-        <v>1048</v>
+        <v>1051</v>
       </c>
       <c r="I372" s="2"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="373">
       <c r="A373" s="0" t="s">
-        <v>1050</v>
+        <v>1053</v>
       </c>
       <c r="B373" s="0" t="s">
-        <v>1046</v>
+        <v>1049</v>
       </c>
       <c r="D373" s="0" t="s">
         <v>36</v>
@@ -11707,44 +11770,44 @@
         <v>19</v>
       </c>
       <c r="F373" s="0" t="s">
-        <v>1047</v>
+        <v>1050</v>
       </c>
       <c r="G373" s="0" t="s">
         <v>19</v>
       </c>
       <c r="H373" s="0" t="s">
-        <v>1048</v>
+        <v>1051</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="374">
       <c r="A374" s="0" t="s">
+        <v>1054</v>
+      </c>
+      <c r="B374" s="0" t="s">
+        <v>1049</v>
+      </c>
+      <c r="D374" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="E374" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="F374" s="0" t="s">
+        <v>1050</v>
+      </c>
+      <c r="G374" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="H374" s="0" t="s">
         <v>1051</v>
-      </c>
-      <c r="B374" s="0" t="s">
-        <v>1046</v>
-      </c>
-      <c r="D374" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="E374" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="F374" s="0" t="s">
-        <v>1047</v>
-      </c>
-      <c r="G374" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="H374" s="0" t="s">
-        <v>1048</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="375">
       <c r="A375" s="0" t="s">
-        <v>1052</v>
+        <v>1055</v>
       </c>
       <c r="B375" s="2" t="s">
-        <v>1046</v>
+        <v>1049</v>
       </c>
       <c r="C375" s="2"/>
       <c r="D375" s="0" t="s">
@@ -11754,21 +11817,21 @@
         <v>19</v>
       </c>
       <c r="F375" s="0" t="s">
-        <v>1047</v>
+        <v>1050</v>
       </c>
       <c r="G375" s="0" t="s">
         <v>19</v>
       </c>
       <c r="H375" s="0" t="s">
-        <v>1048</v>
+        <v>1051</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="376">
       <c r="A376" s="0" t="s">
-        <v>1053</v>
+        <v>1056</v>
       </c>
       <c r="B376" s="0" t="s">
-        <v>1046</v>
+        <v>1049</v>
       </c>
       <c r="D376" s="0" t="s">
         <v>25</v>
@@ -11777,21 +11840,21 @@
         <v>19</v>
       </c>
       <c r="F376" s="0" t="s">
-        <v>1047</v>
+        <v>1050</v>
       </c>
       <c r="G376" s="0" t="s">
         <v>19</v>
       </c>
       <c r="H376" s="0" t="s">
-        <v>1048</v>
+        <v>1051</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="377">
       <c r="A377" s="0" t="s">
-        <v>1054</v>
+        <v>1057</v>
       </c>
       <c r="B377" s="0" t="s">
-        <v>1055</v>
+        <v>1058</v>
       </c>
       <c r="D377" s="0" t="s">
         <v>25</v>
@@ -11805,10 +11868,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="378">
       <c r="A378" s="0" t="s">
-        <v>1056</v>
+        <v>1059</v>
       </c>
       <c r="B378" s="0" t="s">
-        <v>1057</v>
+        <v>1060</v>
       </c>
       <c r="D378" s="0" t="s">
         <v>11</v>
@@ -11820,15 +11883,15 @@
         <v>19</v>
       </c>
       <c r="H378" s="0" t="s">
-        <v>1058</v>
+        <v>1061</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="379">
       <c r="A379" s="0" t="s">
-        <v>1059</v>
+        <v>1062</v>
       </c>
       <c r="B379" s="2" t="s">
-        <v>1060</v>
+        <v>1063</v>
       </c>
       <c r="C379" s="2"/>
       <c r="D379" s="0" t="s">
@@ -11838,21 +11901,21 @@
         <v>19</v>
       </c>
       <c r="F379" s="0" t="s">
-        <v>1061</v>
+        <v>1064</v>
       </c>
       <c r="G379" s="0" t="s">
         <v>19</v>
       </c>
       <c r="H379" s="0" t="s">
-        <v>1062</v>
+        <v>1065</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="380">
       <c r="A380" s="0" t="s">
-        <v>1063</v>
+        <v>1066</v>
       </c>
       <c r="B380" s="0" t="s">
-        <v>1064</v>
+        <v>1067</v>
       </c>
       <c r="D380" s="2" t="s">
         <v>25</v>
@@ -11866,10 +11929,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="381">
       <c r="A381" s="0" t="s">
-        <v>1065</v>
+        <v>1068</v>
       </c>
       <c r="B381" s="0" t="s">
-        <v>1066</v>
+        <v>1069</v>
       </c>
       <c r="D381" s="2" t="s">
         <v>25</v>
@@ -11878,7 +11941,7 @@
         <v>19</v>
       </c>
       <c r="F381" s="0" t="s">
-        <v>1067</v>
+        <v>1070</v>
       </c>
       <c r="G381" s="2" t="s">
         <v>12</v>
@@ -11887,10 +11950,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="382">
       <c r="A382" s="0" t="s">
-        <v>1068</v>
+        <v>1071</v>
       </c>
       <c r="B382" s="0" t="s">
-        <v>1069</v>
+        <v>1072</v>
       </c>
       <c r="D382" s="0" t="s">
         <v>11</v>
@@ -11904,10 +11967,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="383">
       <c r="A383" s="0" t="s">
-        <v>1070</v>
+        <v>1073</v>
       </c>
       <c r="B383" s="0" t="s">
-        <v>1071</v>
+        <v>1074</v>
       </c>
       <c r="D383" s="0" t="s">
         <v>16</v>
@@ -11921,10 +11984,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="384">
       <c r="A384" s="0" t="s">
-        <v>1072</v>
+        <v>1075</v>
       </c>
       <c r="B384" s="0" t="s">
-        <v>1073</v>
+        <v>1076</v>
       </c>
       <c r="D384" s="0" t="s">
         <v>16</v>
@@ -11936,7 +11999,7 @@
         <v>19</v>
       </c>
       <c r="H384" s="0" t="s">
-        <v>1074</v>
+        <v>1077</v>
       </c>
       <c r="I384" s="2" t="s">
         <v>33</v>
@@ -11944,10 +12007,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="385">
       <c r="A385" s="0" t="s">
-        <v>1075</v>
+        <v>1078</v>
       </c>
       <c r="B385" s="0" t="s">
-        <v>1076</v>
+        <v>1079</v>
       </c>
       <c r="D385" s="0" t="s">
         <v>11</v>
@@ -11961,10 +12024,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="386">
       <c r="A386" s="0" t="s">
-        <v>1077</v>
+        <v>1080</v>
       </c>
       <c r="B386" s="0" t="s">
-        <v>1078</v>
+        <v>1081</v>
       </c>
       <c r="D386" s="0" t="s">
         <v>25</v>
@@ -11976,15 +12039,15 @@
         <v>19</v>
       </c>
       <c r="H386" s="0" t="s">
-        <v>1079</v>
+        <v>1082</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="387">
       <c r="A387" s="0" t="s">
-        <v>1080</v>
+        <v>1083</v>
       </c>
       <c r="B387" s="0" t="s">
-        <v>1081</v>
+        <v>1084</v>
       </c>
       <c r="D387" s="0" t="s">
         <v>11</v>
@@ -11993,7 +12056,7 @@
         <v>19</v>
       </c>
       <c r="F387" s="0" t="s">
-        <v>1082</v>
+        <v>1085</v>
       </c>
       <c r="G387" s="0" t="s">
         <v>12</v>
@@ -12001,10 +12064,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="388">
       <c r="A388" s="0" t="s">
-        <v>1083</v>
+        <v>1086</v>
       </c>
       <c r="B388" s="0" t="s">
-        <v>1084</v>
+        <v>1087</v>
       </c>
       <c r="D388" s="0" t="s">
         <v>30</v>
@@ -12018,13 +12081,13 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="389">
       <c r="A389" s="0" t="s">
-        <v>1085</v>
+        <v>1088</v>
       </c>
       <c r="B389" s="0" t="s">
-        <v>1086</v>
+        <v>1089</v>
       </c>
       <c r="D389" s="0" t="s">
-        <v>750</v>
+        <v>753</v>
       </c>
       <c r="E389" s="0" t="s">
         <v>12</v>
@@ -12033,15 +12096,15 @@
         <v>19</v>
       </c>
       <c r="H389" s="0" t="s">
-        <v>1087</v>
+        <v>1090</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="390">
       <c r="A390" s="0" t="s">
-        <v>1088</v>
+        <v>1091</v>
       </c>
       <c r="B390" s="0" t="s">
-        <v>1089</v>
+        <v>1092</v>
       </c>
       <c r="D390" s="0" t="s">
         <v>11</v>
@@ -12050,7 +12113,7 @@
         <v>19</v>
       </c>
       <c r="F390" s="0" t="s">
-        <v>1090</v>
+        <v>1093</v>
       </c>
       <c r="G390" s="0" t="s">
         <v>12</v>
@@ -12058,10 +12121,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="391">
       <c r="A391" s="0" t="s">
-        <v>1091</v>
+        <v>1094</v>
       </c>
       <c r="B391" s="0" t="s">
-        <v>1092</v>
+        <v>1095</v>
       </c>
       <c r="D391" s="0" t="s">
         <v>11</v>
@@ -12075,10 +12138,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="392">
       <c r="A392" s="0" t="s">
-        <v>1093</v>
+        <v>1096</v>
       </c>
       <c r="B392" s="0" t="s">
-        <v>1094</v>
+        <v>1097</v>
       </c>
       <c r="D392" s="0" t="s">
         <v>36</v>
@@ -12087,7 +12150,7 @@
         <v>19</v>
       </c>
       <c r="F392" s="0" t="s">
-        <v>1095</v>
+        <v>1098</v>
       </c>
       <c r="G392" s="0" t="s">
         <v>12</v>
@@ -12095,10 +12158,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="393">
       <c r="A393" s="0" t="s">
-        <v>1096</v>
+        <v>1099</v>
       </c>
       <c r="B393" s="0" t="s">
-        <v>1097</v>
+        <v>1100</v>
       </c>
       <c r="D393" s="0" t="s">
         <v>25</v>
@@ -12107,7 +12170,7 @@
         <v>19</v>
       </c>
       <c r="F393" s="0" t="s">
-        <v>1098</v>
+        <v>1101</v>
       </c>
       <c r="G393" s="0" t="s">
         <v>12</v>
@@ -12115,10 +12178,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="394">
       <c r="A394" s="0" t="s">
-        <v>1099</v>
+        <v>1102</v>
       </c>
       <c r="B394" s="0" t="s">
-        <v>1100</v>
+        <v>1103</v>
       </c>
       <c r="D394" s="0" t="s">
         <v>36</v>
@@ -12127,21 +12190,21 @@
         <v>19</v>
       </c>
       <c r="F394" s="0" t="s">
-        <v>1101</v>
+        <v>1104</v>
       </c>
       <c r="G394" s="2" t="s">
         <v>19</v>
       </c>
       <c r="H394" s="0" t="s">
-        <v>1102</v>
+        <v>1105</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="395">
       <c r="A395" s="0" t="s">
-        <v>1103</v>
+        <v>1106</v>
       </c>
       <c r="B395" s="0" t="s">
-        <v>1104</v>
+        <v>1107</v>
       </c>
       <c r="D395" s="0" t="s">
         <v>25</v>
@@ -12150,7 +12213,7 @@
         <v>19</v>
       </c>
       <c r="F395" s="0" t="s">
-        <v>1105</v>
+        <v>1108</v>
       </c>
       <c r="G395" s="0" t="s">
         <v>12</v>
@@ -12158,10 +12221,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="396">
       <c r="A396" s="0" t="s">
-        <v>1106</v>
+        <v>1109</v>
       </c>
       <c r="B396" s="0" t="s">
-        <v>1107</v>
+        <v>1110</v>
       </c>
       <c r="D396" s="0" t="s">
         <v>11</v>
@@ -12175,10 +12238,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="397">
       <c r="A397" s="0" t="s">
-        <v>1108</v>
+        <v>1111</v>
       </c>
       <c r="B397" s="2" t="s">
-        <v>1109</v>
+        <v>1112</v>
       </c>
       <c r="C397" s="2"/>
       <c r="D397" s="0" t="s">
@@ -12188,7 +12251,7 @@
         <v>19</v>
       </c>
       <c r="F397" s="0" t="s">
-        <v>1110</v>
+        <v>1113</v>
       </c>
       <c r="G397" s="2" t="s">
         <v>12</v>
@@ -12196,10 +12259,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="398">
       <c r="A398" s="0" t="s">
-        <v>1111</v>
+        <v>1114</v>
       </c>
       <c r="B398" s="0" t="s">
-        <v>1112</v>
+        <v>1115</v>
       </c>
       <c r="D398" s="0" t="s">
         <v>11</v>
@@ -12211,15 +12274,15 @@
         <v>19</v>
       </c>
       <c r="H398" s="0" t="s">
-        <v>1113</v>
+        <v>1116</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="399">
       <c r="A399" s="0" t="s">
-        <v>1114</v>
+        <v>1117</v>
       </c>
       <c r="B399" s="0" t="s">
-        <v>1115</v>
+        <v>1118</v>
       </c>
       <c r="D399" s="0" t="s">
         <v>11</v>
@@ -12233,10 +12296,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="400">
       <c r="A400" s="0" t="s">
-        <v>1116</v>
+        <v>1119</v>
       </c>
       <c r="B400" s="0" t="s">
-        <v>1117</v>
+        <v>1120</v>
       </c>
       <c r="D400" s="0" t="s">
         <v>11</v>
@@ -12245,7 +12308,7 @@
         <v>19</v>
       </c>
       <c r="F400" s="0" t="s">
-        <v>1118</v>
+        <v>1121</v>
       </c>
       <c r="G400" s="0" t="s">
         <v>12</v>
@@ -12254,10 +12317,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="401">
       <c r="A401" s="2" t="s">
-        <v>1119</v>
+        <v>1122</v>
       </c>
       <c r="B401" s="0" t="s">
-        <v>1120</v>
+        <v>1123</v>
       </c>
       <c r="D401" s="2" t="s">
         <v>11</v>
@@ -12272,10 +12335,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="402">
       <c r="A402" s="0" t="s">
-        <v>1121</v>
+        <v>1124</v>
       </c>
       <c r="B402" s="0" t="s">
-        <v>1122</v>
+        <v>1125</v>
       </c>
       <c r="D402" s="0" t="s">
         <v>11</v>
@@ -12289,10 +12352,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="403">
       <c r="A403" s="0" t="s">
-        <v>1123</v>
+        <v>1126</v>
       </c>
       <c r="B403" s="0" t="s">
-        <v>1124</v>
+        <v>1127</v>
       </c>
       <c r="D403" s="0" t="s">
         <v>11</v>
@@ -12306,10 +12369,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="404">
       <c r="A404" s="0" t="s">
-        <v>1125</v>
+        <v>1128</v>
       </c>
       <c r="B404" s="0" t="s">
-        <v>1126</v>
+        <v>1129</v>
       </c>
       <c r="D404" s="0" t="s">
         <v>11</v>
@@ -12323,10 +12386,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="405">
       <c r="A405" s="0" t="s">
-        <v>1127</v>
+        <v>1130</v>
       </c>
       <c r="B405" s="0" t="s">
-        <v>1128</v>
+        <v>1131</v>
       </c>
       <c r="D405" s="0" t="s">
         <v>11</v>
@@ -12340,10 +12403,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="406">
       <c r="A406" s="0" t="s">
-        <v>1129</v>
+        <v>1132</v>
       </c>
       <c r="B406" s="0" t="s">
-        <v>1130</v>
+        <v>1133</v>
       </c>
       <c r="D406" s="0" t="s">
         <v>16</v>
@@ -12355,15 +12418,15 @@
         <v>19</v>
       </c>
       <c r="H406" s="0" t="s">
-        <v>1131</v>
+        <v>1134</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="407">
       <c r="A407" s="0" t="s">
-        <v>1132</v>
+        <v>1135</v>
       </c>
       <c r="B407" s="0" t="s">
-        <v>1133</v>
+        <v>1136</v>
       </c>
       <c r="D407" s="0" t="s">
         <v>11</v>
@@ -12377,10 +12440,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="408">
       <c r="A408" s="0" t="s">
-        <v>1134</v>
+        <v>1137</v>
       </c>
       <c r="B408" s="0" t="s">
-        <v>1135</v>
+        <v>1138</v>
       </c>
       <c r="D408" s="0" t="s">
         <v>11</v>
@@ -12389,7 +12452,7 @@
         <v>19</v>
       </c>
       <c r="F408" s="0" t="s">
-        <v>1136</v>
+        <v>1139</v>
       </c>
       <c r="G408" s="2" t="s">
         <v>12</v>
@@ -12397,10 +12460,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="409">
       <c r="A409" s="0" t="s">
-        <v>1137</v>
+        <v>1140</v>
       </c>
       <c r="B409" s="0" t="s">
-        <v>1138</v>
+        <v>1141</v>
       </c>
       <c r="D409" s="0" t="s">
         <v>25</v>
@@ -12414,10 +12477,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="410">
       <c r="A410" s="0" t="s">
-        <v>1139</v>
+        <v>1142</v>
       </c>
       <c r="B410" s="2" t="s">
-        <v>1140</v>
+        <v>1143</v>
       </c>
       <c r="C410" s="2"/>
       <c r="D410" s="2" t="s">
@@ -12432,10 +12495,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="411">
       <c r="A411" s="0" t="s">
-        <v>1141</v>
+        <v>1144</v>
       </c>
       <c r="B411" s="0" t="s">
-        <v>1142</v>
+        <v>1145</v>
       </c>
       <c r="D411" s="0" t="s">
         <v>25</v>
@@ -12444,7 +12507,7 @@
         <v>19</v>
       </c>
       <c r="F411" s="0" t="s">
-        <v>1143</v>
+        <v>1146</v>
       </c>
       <c r="G411" s="0" t="s">
         <v>12</v>
@@ -12452,10 +12515,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="412">
       <c r="A412" s="0" t="s">
-        <v>1144</v>
+        <v>1147</v>
       </c>
       <c r="B412" s="0" t="s">
-        <v>1145</v>
+        <v>1148</v>
       </c>
       <c r="D412" s="0" t="s">
         <v>25</v>
@@ -12469,10 +12532,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="413">
       <c r="A413" s="0" t="s">
-        <v>1146</v>
+        <v>1149</v>
       </c>
       <c r="B413" s="0" t="s">
-        <v>1147</v>
+        <v>1150</v>
       </c>
       <c r="D413" s="0" t="s">
         <v>30</v>
@@ -12484,18 +12547,18 @@
         <v>19</v>
       </c>
       <c r="H413" s="0" t="s">
-        <v>1148</v>
+        <v>1151</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="414">
       <c r="A414" s="0" t="s">
-        <v>1149</v>
+        <v>1152</v>
       </c>
       <c r="B414" s="0" t="s">
-        <v>1150</v>
+        <v>1153</v>
       </c>
       <c r="D414" s="0" t="s">
-        <v>750</v>
+        <v>753</v>
       </c>
       <c r="E414" s="0" t="s">
         <v>12</v>
@@ -12504,15 +12567,15 @@
         <v>19</v>
       </c>
       <c r="H414" s="0" t="s">
-        <v>1151</v>
+        <v>1154</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="415">
       <c r="A415" s="0" t="s">
-        <v>1152</v>
+        <v>1155</v>
       </c>
       <c r="B415" s="0" t="s">
-        <v>1153</v>
+        <v>1156</v>
       </c>
       <c r="D415" s="0" t="s">
         <v>11</v>
@@ -12526,10 +12589,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="416">
       <c r="A416" s="0" t="s">
-        <v>1154</v>
+        <v>1157</v>
       </c>
       <c r="B416" s="0" t="s">
-        <v>1155</v>
+        <v>1158</v>
       </c>
       <c r="D416" s="0" t="s">
         <v>11</v>
@@ -12543,10 +12606,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="417">
       <c r="A417" s="0" t="s">
-        <v>1156</v>
+        <v>1159</v>
       </c>
       <c r="B417" s="0" t="s">
-        <v>1157</v>
+        <v>1160</v>
       </c>
       <c r="D417" s="0" t="s">
         <v>36</v>
@@ -12558,15 +12621,15 @@
         <v>19</v>
       </c>
       <c r="H417" s="0" t="s">
-        <v>1158</v>
+        <v>1161</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="418">
       <c r="A418" s="0" t="s">
-        <v>1159</v>
+        <v>1162</v>
       </c>
       <c r="B418" s="0" t="s">
-        <v>1160</v>
+        <v>1163</v>
       </c>
       <c r="D418" s="2" t="s">
         <v>25</v>
@@ -12575,7 +12638,7 @@
         <v>19</v>
       </c>
       <c r="F418" s="0" t="s">
-        <v>1161</v>
+        <v>1164</v>
       </c>
       <c r="G418" s="0" t="s">
         <v>12</v>
@@ -12583,10 +12646,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="419">
       <c r="A419" s="0" t="s">
-        <v>1162</v>
+        <v>1165</v>
       </c>
       <c r="B419" s="0" t="s">
-        <v>1163</v>
+        <v>1166</v>
       </c>
       <c r="D419" s="2" t="s">
         <v>25</v>
@@ -12600,10 +12663,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="420">
       <c r="A420" s="0" t="s">
-        <v>1164</v>
+        <v>1167</v>
       </c>
       <c r="B420" s="0" t="s">
-        <v>1165</v>
+        <v>1168</v>
       </c>
       <c r="D420" s="0" t="s">
         <v>25</v>
@@ -12617,10 +12680,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="421">
       <c r="A421" s="0" t="s">
-        <v>1166</v>
+        <v>1169</v>
       </c>
       <c r="B421" s="0" t="s">
-        <v>1167</v>
+        <v>1170</v>
       </c>
       <c r="D421" s="0" t="s">
         <v>30</v>
@@ -12629,7 +12692,7 @@
         <v>19</v>
       </c>
       <c r="F421" s="0" t="s">
-        <v>1168</v>
+        <v>1171</v>
       </c>
       <c r="G421" s="0" t="s">
         <v>12</v>
@@ -12637,10 +12700,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="422">
       <c r="A422" s="0" t="s">
-        <v>1169</v>
+        <v>1172</v>
       </c>
       <c r="B422" s="0" t="s">
-        <v>1170</v>
+        <v>1173</v>
       </c>
       <c r="D422" s="0" t="s">
         <v>25</v>
@@ -12649,7 +12712,7 @@
         <v>19</v>
       </c>
       <c r="F422" s="0" t="s">
-        <v>1171</v>
+        <v>1174</v>
       </c>
       <c r="G422" s="0" t="s">
         <v>12</v>
@@ -12657,19 +12720,19 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="423">
       <c r="A423" s="0" t="s">
-        <v>1172</v>
+        <v>1175</v>
       </c>
       <c r="B423" s="0" t="s">
-        <v>1173</v>
+        <v>1176</v>
       </c>
       <c r="D423" s="0" t="s">
-        <v>750</v>
+        <v>753</v>
       </c>
       <c r="E423" s="0" t="s">
         <v>19</v>
       </c>
       <c r="F423" s="0" t="s">
-        <v>1174</v>
+        <v>1177</v>
       </c>
       <c r="G423" s="0" t="s">
         <v>12</v>
@@ -12677,20 +12740,20 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="424">
       <c r="A424" s="0" t="s">
-        <v>1175</v>
+        <v>1178</v>
       </c>
       <c r="B424" s="2" t="s">
-        <v>1176</v>
+        <v>1179</v>
       </c>
       <c r="C424" s="2"/>
       <c r="D424" s="0" t="s">
-        <v>750</v>
+        <v>753</v>
       </c>
       <c r="E424" s="0" t="s">
         <v>19</v>
       </c>
       <c r="F424" s="0" t="s">
-        <v>1177</v>
+        <v>1180</v>
       </c>
       <c r="G424" s="0" t="s">
         <v>12</v>
@@ -12698,10 +12761,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="425">
       <c r="A425" s="0" t="s">
-        <v>1178</v>
+        <v>1181</v>
       </c>
       <c r="B425" s="0" t="s">
-        <v>1179</v>
+        <v>1182</v>
       </c>
       <c r="D425" s="0" t="s">
         <v>16</v>
@@ -12710,7 +12773,7 @@
         <v>19</v>
       </c>
       <c r="F425" s="0" t="s">
-        <v>1180</v>
+        <v>1183</v>
       </c>
       <c r="G425" s="0" t="s">
         <v>19</v>
@@ -12721,10 +12784,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="426">
       <c r="A426" s="0" t="s">
-        <v>1181</v>
+        <v>1184</v>
       </c>
       <c r="B426" s="0" t="s">
-        <v>1182</v>
+        <v>1185</v>
       </c>
       <c r="D426" s="0" t="s">
         <v>25</v>
@@ -12738,10 +12801,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="427">
       <c r="A427" s="0" t="s">
-        <v>1183</v>
+        <v>1186</v>
       </c>
       <c r="B427" s="0" t="s">
-        <v>1184</v>
+        <v>1187</v>
       </c>
       <c r="D427" s="0" t="s">
         <v>236</v>
@@ -12755,10 +12818,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="428">
       <c r="A428" s="0" t="s">
-        <v>1185</v>
+        <v>1188</v>
       </c>
       <c r="B428" s="0" t="s">
-        <v>1186</v>
+        <v>1189</v>
       </c>
       <c r="D428" s="0" t="s">
         <v>236</v>
@@ -12770,15 +12833,15 @@
         <v>19</v>
       </c>
       <c r="H428" s="0" t="s">
-        <v>1187</v>
+        <v>1190</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="429">
       <c r="A429" s="0" t="s">
-        <v>1188</v>
+        <v>1191</v>
       </c>
       <c r="B429" s="2" t="s">
-        <v>1189</v>
+        <v>1192</v>
       </c>
       <c r="C429" s="2"/>
       <c r="D429" s="0" t="s">
@@ -12788,7 +12851,7 @@
         <v>19</v>
       </c>
       <c r="F429" s="0" t="s">
-        <v>1190</v>
+        <v>1193</v>
       </c>
       <c r="G429" s="0" t="s">
         <v>12</v>
@@ -12796,10 +12859,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="430">
       <c r="A430" s="0" t="s">
-        <v>1191</v>
+        <v>1194</v>
       </c>
       <c r="B430" s="0" t="s">
-        <v>1192</v>
+        <v>1195</v>
       </c>
       <c r="D430" s="0" t="s">
         <v>236</v>
@@ -12811,15 +12874,15 @@
         <v>19</v>
       </c>
       <c r="H430" s="0" t="s">
-        <v>1193</v>
+        <v>1196</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="431">
       <c r="A431" s="0" t="s">
-        <v>1194</v>
+        <v>1197</v>
       </c>
       <c r="B431" s="0" t="s">
-        <v>1195</v>
+        <v>1198</v>
       </c>
       <c r="D431" s="0" t="s">
         <v>25</v>
@@ -12831,15 +12894,15 @@
         <v>19</v>
       </c>
       <c r="H431" s="0" t="s">
-        <v>1196</v>
+        <v>1199</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="432">
       <c r="A432" s="0" t="s">
-        <v>1197</v>
+        <v>1200</v>
       </c>
       <c r="B432" s="0" t="s">
-        <v>1198</v>
+        <v>1201</v>
       </c>
       <c r="D432" s="0" t="s">
         <v>30</v>
@@ -12848,7 +12911,7 @@
         <v>19</v>
       </c>
       <c r="F432" s="0" t="s">
-        <v>1199</v>
+        <v>1202</v>
       </c>
       <c r="G432" s="0" t="s">
         <v>12</v>
@@ -12856,10 +12919,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="433">
       <c r="A433" s="0" t="s">
-        <v>1200</v>
+        <v>1203</v>
       </c>
       <c r="B433" s="0" t="s">
-        <v>1201</v>
+        <v>1204</v>
       </c>
       <c r="D433" s="0" t="s">
         <v>11</v>
@@ -12873,10 +12936,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="434">
       <c r="A434" s="0" t="s">
-        <v>1202</v>
+        <v>1205</v>
       </c>
       <c r="B434" s="0" t="s">
-        <v>1203</v>
+        <v>1206</v>
       </c>
       <c r="D434" s="0" t="s">
         <v>25</v>
@@ -12888,15 +12951,15 @@
         <v>19</v>
       </c>
       <c r="H434" s="0" t="s">
-        <v>1204</v>
+        <v>1207</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="435">
       <c r="A435" s="0" t="s">
-        <v>1205</v>
+        <v>1208</v>
       </c>
       <c r="B435" s="0" t="s">
-        <v>1206</v>
+        <v>1209</v>
       </c>
       <c r="D435" s="2" t="s">
         <v>25</v>
@@ -12908,15 +12971,15 @@
         <v>19</v>
       </c>
       <c r="H435" s="0" t="s">
-        <v>1204</v>
+        <v>1207</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="436">
       <c r="A436" s="0" t="s">
-        <v>1207</v>
+        <v>1210</v>
       </c>
       <c r="B436" s="0" t="s">
-        <v>1208</v>
+        <v>1211</v>
       </c>
       <c r="D436" s="0" t="s">
         <v>11</v>
@@ -12925,7 +12988,7 @@
         <v>19</v>
       </c>
       <c r="F436" s="0" t="s">
-        <v>1209</v>
+        <v>1212</v>
       </c>
       <c r="G436" s="2" t="s">
         <v>12</v>
@@ -12933,10 +12996,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="437">
       <c r="A437" s="0" t="s">
-        <v>1210</v>
+        <v>1213</v>
       </c>
       <c r="B437" s="0" t="s">
-        <v>1211</v>
+        <v>1214</v>
       </c>
       <c r="D437" s="0" t="s">
         <v>11</v>
@@ -12948,15 +13011,15 @@
         <v>19</v>
       </c>
       <c r="H437" s="0" t="s">
-        <v>1212</v>
+        <v>1215</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="438">
       <c r="A438" s="0" t="s">
-        <v>1213</v>
+        <v>1216</v>
       </c>
       <c r="B438" s="0" t="s">
-        <v>1214</v>
+        <v>1217</v>
       </c>
       <c r="D438" s="0" t="s">
         <v>36</v>
@@ -12965,7 +13028,7 @@
         <v>19</v>
       </c>
       <c r="F438" s="0" t="s">
-        <v>1215</v>
+        <v>1218</v>
       </c>
       <c r="G438" s="2" t="s">
         <v>12</v>
@@ -12973,10 +13036,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="439">
       <c r="A439" s="0" t="s">
-        <v>1216</v>
+        <v>1219</v>
       </c>
       <c r="B439" s="0" t="s">
-        <v>1217</v>
+        <v>1220</v>
       </c>
       <c r="D439" s="0" t="s">
         <v>11</v>
@@ -12988,15 +13051,15 @@
         <v>19</v>
       </c>
       <c r="H439" s="0" t="s">
-        <v>1218</v>
+        <v>1221</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="440">
       <c r="A440" s="0" t="s">
-        <v>1219</v>
+        <v>1222</v>
       </c>
       <c r="B440" s="0" t="s">
-        <v>1220</v>
+        <v>1223</v>
       </c>
       <c r="D440" s="0" t="s">
         <v>25</v>
@@ -13005,21 +13068,21 @@
         <v>19</v>
       </c>
       <c r="F440" s="0" t="s">
+        <v>1224</v>
+      </c>
+      <c r="G440" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="H440" s="0" t="s">
         <v>1221</v>
-      </c>
-      <c r="G440" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="H440" s="0" t="s">
-        <v>1218</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="441">
       <c r="A441" s="0" t="s">
-        <v>1222</v>
+        <v>1225</v>
       </c>
       <c r="B441" s="0" t="s">
-        <v>1223</v>
+        <v>1226</v>
       </c>
       <c r="D441" s="0" t="s">
         <v>11</v>
@@ -13028,21 +13091,21 @@
         <v>19</v>
       </c>
       <c r="F441" s="0" t="s">
-        <v>1224</v>
+        <v>1227</v>
       </c>
       <c r="G441" s="0" t="s">
         <v>19</v>
       </c>
       <c r="H441" s="0" t="s">
-        <v>1218</v>
+        <v>1221</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="442">
       <c r="A442" s="0" t="s">
-        <v>1225</v>
+        <v>1228</v>
       </c>
       <c r="B442" s="0" t="s">
-        <v>1226</v>
+        <v>1229</v>
       </c>
       <c r="D442" s="0" t="s">
         <v>11</v>
@@ -13054,15 +13117,15 @@
         <v>19</v>
       </c>
       <c r="H442" s="0" t="s">
-        <v>1227</v>
+        <v>1230</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="443">
       <c r="A443" s="0" t="s">
-        <v>1228</v>
+        <v>1231</v>
       </c>
       <c r="B443" s="0" t="s">
-        <v>1229</v>
+        <v>1232</v>
       </c>
       <c r="D443" s="0" t="s">
         <v>30</v>
@@ -13071,21 +13134,21 @@
         <v>19</v>
       </c>
       <c r="F443" s="0" t="s">
-        <v>1230</v>
+        <v>1233</v>
       </c>
       <c r="G443" s="0" t="s">
         <v>19</v>
       </c>
       <c r="H443" s="0" t="s">
-        <v>1231</v>
+        <v>1234</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="444">
       <c r="A444" s="0" t="s">
-        <v>1232</v>
+        <v>1235</v>
       </c>
       <c r="B444" s="0" t="s">
-        <v>1233</v>
+        <v>1236</v>
       </c>
       <c r="D444" s="0" t="s">
         <v>11</v>
@@ -13094,7 +13157,7 @@
         <v>19</v>
       </c>
       <c r="F444" s="0" t="s">
-        <v>1234</v>
+        <v>1237</v>
       </c>
       <c r="G444" s="0" t="s">
         <v>12</v>
@@ -13141,7 +13204,7 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="257" min="1" style="0" width="8.7843137254902"/>
+    <col collapsed="false" hidden="false" max="257" min="1" style="0" width="8.81960784313726"/>
   </cols>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -13166,7 +13229,7 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="257" min="1" style="0" width="8.7843137254902"/>
+    <col collapsed="false" hidden="false" max="257" min="1" style="0" width="8.81960784313726"/>
   </cols>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/kohana/oiadsites.xlsx
+++ b/kohana/oiadsites.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2780" uniqueCount="1238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2813" uniqueCount="1240">
   <si>
     <t>Site Name</t>
   </si>
@@ -1999,6 +1999,9 @@
     <t>http://www.kachingkachingstore.com/</t>
   </si>
   <si>
+    <t>Register required</t>
+  </si>
+  <si>
     <t>3 Deals - see site</t>
   </si>
   <si>
@@ -2048,6 +2051,9 @@
   </si>
   <si>
     <t>http://lastchanceroad.com/</t>
+  </si>
+  <si>
+    <t>Sorry, we're closed</t>
   </si>
   <si>
     <t>http://lastchanceroad.com/sales/feed.xml</t>
@@ -3909,18 +3915,18 @@
   </sheetPr>
   <dimension ref="A1:I444"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A162" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="C203" activeCellId="0" pane="topLeft" sqref="C203"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A204" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="C235" activeCellId="0" pane="topLeft" sqref="C235"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="48.878431372549"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="96.0117647058824"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="48.878431372549"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="15.6470588235294"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="48.878431372549"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="13.2823529411765"/>
-    <col collapsed="false" hidden="false" max="257" min="8" style="0" width="48.878431372549"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="49.0862745098039"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="96.4117647058824"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="49.0862745098039"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="15.7098039215686"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="49.0862745098039"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="13.3372549019608"/>
+    <col collapsed="false" hidden="false" max="257" min="8" style="0" width="49.0862745098039"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="1" s="1">
@@ -7997,7 +8003,7 @@
         <v>533</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="184">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="184">
       <c r="A184" s="0" t="s">
         <v>534</v>
       </c>
@@ -8017,7 +8023,7 @@
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="185">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="185">
       <c r="A185" s="0" t="s">
         <v>537</v>
       </c>
@@ -8037,7 +8043,7 @@
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="186">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="186">
       <c r="A186" s="0" t="s">
         <v>539</v>
       </c>
@@ -8060,7 +8066,7 @@
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="187">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="187">
       <c r="A187" s="0" t="s">
         <v>542</v>
       </c>
@@ -8080,7 +8086,7 @@
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="188">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="188">
       <c r="A188" s="0" t="s">
         <v>544</v>
       </c>
@@ -8103,7 +8109,7 @@
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="189">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="189">
       <c r="A189" s="0" t="s">
         <v>547</v>
       </c>
@@ -8126,7 +8132,7 @@
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="190">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="190">
       <c r="A190" s="0" t="s">
         <v>550</v>
       </c>
@@ -8146,7 +8152,7 @@
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="191">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="191">
       <c r="A191" s="0" t="s">
         <v>553</v>
       </c>
@@ -8166,7 +8172,7 @@
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="192">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="192">
       <c r="A192" s="0" t="s">
         <v>556</v>
       </c>
@@ -8212,7 +8218,7 @@
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="194">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="194">
       <c r="A194" s="0" t="s">
         <v>562</v>
       </c>
@@ -8235,7 +8241,7 @@
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="195">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="195">
       <c r="A195" s="0" t="s">
         <v>565</v>
       </c>
@@ -8258,7 +8264,7 @@
         <v>567</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="196">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="196">
       <c r="A196" s="0" t="s">
         <v>565</v>
       </c>
@@ -8281,7 +8287,7 @@
         <v>567</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="197">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="197">
       <c r="A197" s="0" t="s">
         <v>569</v>
       </c>
@@ -8304,7 +8310,7 @@
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="198">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="198">
       <c r="A198" s="0" t="s">
         <v>572</v>
       </c>
@@ -8330,7 +8336,7 @@
         <v>575</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="199">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="199">
       <c r="A199" s="0" t="s">
         <v>576</v>
       </c>
@@ -8350,7 +8356,7 @@
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="200">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="200">
       <c r="A200" s="0" t="s">
         <v>578</v>
       </c>
@@ -8376,7 +8382,7 @@
         <v>581</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="201">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="201">
       <c r="A201" s="0" t="s">
         <v>582</v>
       </c>
@@ -8402,7 +8408,7 @@
         <v>585</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="202">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="202">
       <c r="A202" s="0" t="s">
         <v>586</v>
       </c>
@@ -8422,13 +8428,16 @@
         <v>19</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="203">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="203">
       <c r="A203" s="0" t="s">
         <v>588</v>
       </c>
       <c r="B203" s="0" t="s">
         <v>589</v>
       </c>
+      <c r="C203" s="0" t="s">
+        <v>15</v>
+      </c>
       <c r="D203" s="0" t="s">
         <v>16</v>
       </c>
@@ -8439,13 +8448,16 @@
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="204">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="204">
       <c r="A204" s="0" t="s">
         <v>590</v>
       </c>
       <c r="B204" s="0" t="s">
         <v>591</v>
       </c>
+      <c r="C204" s="0" t="s">
+        <v>195</v>
+      </c>
       <c r="D204" s="0" t="s">
         <v>25</v>
       </c>
@@ -8459,13 +8471,16 @@
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="205">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="205">
       <c r="A205" s="0" t="s">
         <v>593</v>
       </c>
       <c r="B205" s="0" t="s">
         <v>594</v>
       </c>
+      <c r="C205" s="0" t="s">
+        <v>15</v>
+      </c>
       <c r="D205" s="0" t="s">
         <v>25</v>
       </c>
@@ -8479,13 +8494,16 @@
         <v>595</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="206">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="206">
       <c r="A206" s="0" t="s">
         <v>596</v>
       </c>
       <c r="B206" s="0" t="s">
         <v>597</v>
       </c>
+      <c r="C206" s="0" t="s">
+        <v>15</v>
+      </c>
       <c r="D206" s="0" t="s">
         <v>25</v>
       </c>
@@ -8499,13 +8517,16 @@
         <v>19</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="207">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="207">
       <c r="A207" s="0" t="s">
         <v>599</v>
       </c>
       <c r="B207" s="0" t="s">
         <v>600</v>
       </c>
+      <c r="C207" s="0" t="s">
+        <v>195</v>
+      </c>
       <c r="D207" s="0" t="s">
         <v>30</v>
       </c>
@@ -8519,13 +8540,16 @@
         <v>601</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="208">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="208">
       <c r="A208" s="0" t="s">
         <v>602</v>
       </c>
       <c r="B208" s="0" t="s">
         <v>603</v>
       </c>
+      <c r="C208" s="0" t="s">
+        <v>285</v>
+      </c>
       <c r="D208" s="0" t="s">
         <v>30</v>
       </c>
@@ -8539,13 +8563,16 @@
         <v>604</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="209">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="209">
       <c r="A209" s="0" t="s">
         <v>605</v>
       </c>
       <c r="B209" s="0" t="s">
         <v>606</v>
       </c>
+      <c r="C209" s="0" t="s">
+        <v>15</v>
+      </c>
       <c r="D209" s="0" t="s">
         <v>11</v>
       </c>
@@ -8556,13 +8583,16 @@
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="210">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="210">
       <c r="A210" s="0" t="s">
         <v>607</v>
       </c>
       <c r="B210" s="0" t="s">
         <v>608</v>
       </c>
+      <c r="C210" s="0" t="s">
+        <v>15</v>
+      </c>
       <c r="D210" s="0" t="s">
         <v>25</v>
       </c>
@@ -8576,13 +8606,16 @@
         <v>609</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="211">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="211">
       <c r="A211" s="0" t="s">
         <v>610</v>
       </c>
       <c r="B211" s="0" t="s">
         <v>611</v>
       </c>
+      <c r="C211" s="0" t="s">
+        <v>15</v>
+      </c>
       <c r="D211" s="0" t="s">
         <v>25</v>
       </c>
@@ -8593,13 +8626,16 @@
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="212">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="212">
       <c r="A212" s="0" t="s">
         <v>612</v>
       </c>
       <c r="B212" s="0" t="s">
         <v>613</v>
       </c>
+      <c r="C212" s="0" t="s">
+        <v>15</v>
+      </c>
       <c r="D212" s="0" t="s">
         <v>30</v>
       </c>
@@ -8610,13 +8646,16 @@
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="213">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="213">
       <c r="A213" s="0" t="s">
         <v>614</v>
       </c>
       <c r="B213" s="0" t="s">
         <v>615</v>
       </c>
+      <c r="C213" s="0" t="s">
+        <v>15</v>
+      </c>
       <c r="D213" s="0" t="s">
         <v>11</v>
       </c>
@@ -8627,13 +8666,16 @@
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="214">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="214">
       <c r="A214" s="0" t="s">
         <v>616</v>
       </c>
       <c r="B214" s="0" t="s">
         <v>617</v>
       </c>
+      <c r="C214" s="0" t="s">
+        <v>15</v>
+      </c>
       <c r="D214" s="0" t="s">
         <v>25</v>
       </c>
@@ -8644,13 +8686,16 @@
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="215">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="215">
       <c r="A215" s="0" t="s">
         <v>618</v>
       </c>
       <c r="B215" s="0" t="s">
         <v>619</v>
       </c>
+      <c r="C215" s="0" t="s">
+        <v>15</v>
+      </c>
       <c r="D215" s="0" t="s">
         <v>11</v>
       </c>
@@ -8661,13 +8706,16 @@
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="216">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="216">
       <c r="A216" s="0" t="s">
         <v>620</v>
       </c>
       <c r="B216" s="0" t="s">
         <v>621</v>
       </c>
+      <c r="C216" s="0" t="s">
+        <v>15</v>
+      </c>
       <c r="D216" s="0" t="s">
         <v>36</v>
       </c>
@@ -8678,13 +8726,16 @@
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="217">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="217">
       <c r="A217" s="0" t="s">
         <v>622</v>
       </c>
       <c r="B217" s="0" t="s">
         <v>623</v>
       </c>
+      <c r="C217" s="0" t="s">
+        <v>15</v>
+      </c>
       <c r="D217" s="0" t="s">
         <v>25</v>
       </c>
@@ -8695,13 +8746,16 @@
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="218">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="218">
       <c r="A218" s="0" t="s">
         <v>624</v>
       </c>
       <c r="B218" s="0" t="s">
         <v>625</v>
       </c>
+      <c r="C218" s="0" t="s">
+        <v>15</v>
+      </c>
       <c r="D218" s="0" t="s">
         <v>11</v>
       </c>
@@ -8715,13 +8769,16 @@
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="219">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="219">
       <c r="A219" s="0" t="s">
         <v>627</v>
       </c>
       <c r="B219" s="0" t="s">
         <v>628</v>
       </c>
+      <c r="C219" s="0" t="s">
+        <v>15</v>
+      </c>
       <c r="D219" s="0" t="s">
         <v>25</v>
       </c>
@@ -8738,13 +8795,16 @@
         <v>630</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="220">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="220">
       <c r="A220" s="0" t="s">
         <v>631</v>
       </c>
       <c r="B220" s="0" t="s">
         <v>632</v>
       </c>
+      <c r="C220" s="0" t="s">
+        <v>15</v>
+      </c>
       <c r="D220" s="0" t="s">
         <v>36</v>
       </c>
@@ -8761,13 +8821,16 @@
         <v>634</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="221">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="221">
       <c r="A221" s="0" t="s">
         <v>635</v>
       </c>
       <c r="B221" s="0" t="s">
         <v>636</v>
       </c>
+      <c r="C221" s="0" t="s">
+        <v>15</v>
+      </c>
       <c r="D221" s="0" t="s">
         <v>25</v>
       </c>
@@ -8784,13 +8847,16 @@
         <v>634</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="222">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="222">
       <c r="A222" s="0" t="s">
         <v>638</v>
       </c>
       <c r="B222" s="0" t="s">
         <v>639</v>
       </c>
+      <c r="C222" s="0" t="s">
+        <v>15</v>
+      </c>
       <c r="D222" s="0" t="s">
         <v>25</v>
       </c>
@@ -8807,13 +8873,16 @@
         <v>634</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="223">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="223">
       <c r="A223" s="0" t="s">
         <v>641</v>
       </c>
       <c r="B223" s="0" t="s">
         <v>642</v>
       </c>
+      <c r="C223" s="0" t="s">
+        <v>15</v>
+      </c>
       <c r="D223" s="0" t="s">
         <v>25</v>
       </c>
@@ -8830,13 +8899,16 @@
         <v>644</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="224">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="224">
       <c r="A224" s="0" t="s">
         <v>645</v>
       </c>
       <c r="B224" s="0" t="s">
         <v>646</v>
       </c>
+      <c r="C224" s="0" t="s">
+        <v>285</v>
+      </c>
       <c r="D224" s="0" t="s">
         <v>25</v>
       </c>
@@ -8850,13 +8922,16 @@
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="225">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="225">
       <c r="A225" s="0" t="s">
         <v>648</v>
       </c>
       <c r="B225" s="0" t="s">
         <v>649</v>
       </c>
+      <c r="C225" s="0" t="s">
+        <v>15</v>
+      </c>
       <c r="D225" s="0" t="s">
         <v>11</v>
       </c>
@@ -8873,13 +8948,16 @@
         <v>651</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="226">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="226">
       <c r="A226" s="0" t="s">
         <v>652</v>
       </c>
       <c r="B226" s="0" t="s">
         <v>653</v>
       </c>
+      <c r="C226" s="0" t="s">
+        <v>15</v>
+      </c>
       <c r="D226" s="0" t="s">
         <v>25</v>
       </c>
@@ -8893,13 +8971,16 @@
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="227">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="227">
       <c r="A227" s="0" t="s">
         <v>655</v>
       </c>
       <c r="B227" s="0" t="s">
         <v>656</v>
       </c>
+      <c r="C227" s="0" t="s">
+        <v>15</v>
+      </c>
       <c r="D227" s="0" t="s">
         <v>11</v>
       </c>
@@ -8910,13 +8991,16 @@
         <v>657</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="228">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="228">
       <c r="A228" s="0" t="s">
         <v>658</v>
       </c>
       <c r="B228" s="0" t="s">
         <v>659</v>
       </c>
+      <c r="C228" s="0" t="s">
+        <v>660</v>
+      </c>
       <c r="D228" s="0" t="s">
         <v>11</v>
       </c>
@@ -8927,15 +9011,18 @@
         <v>12</v>
       </c>
       <c r="I228" s="0" t="s">
-        <v>660</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="229">
+        <v>661</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="229">
       <c r="A229" s="0" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="B229" s="0" t="s">
-        <v>662</v>
+        <v>663</v>
+      </c>
+      <c r="C229" s="0" t="s">
+        <v>15</v>
       </c>
       <c r="D229" s="0" t="s">
         <v>25</v>
@@ -8944,18 +9031,21 @@
         <v>19</v>
       </c>
       <c r="F229" s="0" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="G229" s="0" t="s">
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="230">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="230">
       <c r="A230" s="0" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="B230" s="0" t="s">
-        <v>665</v>
+        <v>666</v>
+      </c>
+      <c r="C230" s="0" t="s">
+        <v>15</v>
       </c>
       <c r="D230" s="0" t="s">
         <v>11</v>
@@ -8964,18 +9054,21 @@
         <v>19</v>
       </c>
       <c r="F230" s="0" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="G230" s="0" t="s">
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="231">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="231">
       <c r="A231" s="0" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="B231" s="0" t="s">
-        <v>668</v>
+        <v>669</v>
+      </c>
+      <c r="C231" s="0" t="s">
+        <v>15</v>
       </c>
       <c r="D231" s="0" t="s">
         <v>36</v>
@@ -8984,18 +9077,21 @@
         <v>19</v>
       </c>
       <c r="F231" s="0" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="G231" s="0" t="s">
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="232">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="232">
       <c r="A232" s="0" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="B232" s="0" t="s">
-        <v>671</v>
+        <v>672</v>
+      </c>
+      <c r="C232" s="0" t="s">
+        <v>54</v>
       </c>
       <c r="D232" s="0" t="s">
         <v>16</v>
@@ -9007,12 +9103,15 @@
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="233">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="233">
       <c r="A233" s="0" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="B233" s="0" t="s">
-        <v>673</v>
+        <v>674</v>
+      </c>
+      <c r="C233" s="0" t="s">
+        <v>15</v>
       </c>
       <c r="D233" s="0" t="s">
         <v>16</v>
@@ -9024,15 +9123,18 @@
         <v>19</v>
       </c>
       <c r="H233" s="0" t="s">
-        <v>674</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="234">
+        <v>675</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="234">
       <c r="A234" s="0" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="B234" s="0" t="s">
-        <v>676</v>
+        <v>677</v>
+      </c>
+      <c r="C234" s="2" t="s">
+        <v>678</v>
       </c>
       <c r="D234" s="0" t="s">
         <v>25</v>
@@ -9041,21 +9143,24 @@
         <v>19</v>
       </c>
       <c r="F234" s="0" t="s">
-        <v>677</v>
+        <v>679</v>
       </c>
       <c r="G234" s="0" t="s">
         <v>19</v>
       </c>
       <c r="H234" s="0" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="235">
+        <v>680</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="235">
       <c r="A235" s="0" t="s">
-        <v>679</v>
+        <v>681</v>
       </c>
       <c r="B235" s="0" t="s">
-        <v>680</v>
+        <v>682</v>
+      </c>
+      <c r="C235" s="0" t="s">
+        <v>15</v>
       </c>
       <c r="D235" s="0" t="s">
         <v>25</v>
@@ -9064,7 +9169,7 @@
         <v>19</v>
       </c>
       <c r="F235" s="0" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="G235" s="0" t="s">
         <v>12</v>
@@ -9072,10 +9177,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="236">
       <c r="A236" s="0" t="s">
-        <v>682</v>
+        <v>684</v>
       </c>
       <c r="B236" s="0" t="s">
-        <v>683</v>
+        <v>685</v>
       </c>
       <c r="D236" s="0" t="s">
         <v>25</v>
@@ -9089,10 +9194,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="237">
       <c r="A237" s="0" t="s">
-        <v>684</v>
+        <v>686</v>
       </c>
       <c r="B237" s="0" t="s">
-        <v>685</v>
+        <v>687</v>
       </c>
       <c r="D237" s="0" t="s">
         <v>25</v>
@@ -9106,10 +9211,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="238">
       <c r="A238" s="0" t="s">
-        <v>686</v>
+        <v>688</v>
       </c>
       <c r="B238" s="0" t="s">
-        <v>687</v>
+        <v>689</v>
       </c>
       <c r="D238" s="0" t="s">
         <v>11</v>
@@ -9123,10 +9228,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="239">
       <c r="A239" s="0" t="s">
-        <v>688</v>
+        <v>690</v>
       </c>
       <c r="B239" s="0" t="s">
-        <v>689</v>
+        <v>691</v>
       </c>
       <c r="D239" s="0" t="s">
         <v>11</v>
@@ -9140,10 +9245,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="240">
       <c r="A240" s="0" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
       <c r="B240" s="0" t="s">
-        <v>691</v>
+        <v>693</v>
       </c>
       <c r="D240" s="0" t="s">
         <v>11</v>
@@ -9157,10 +9262,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="241">
       <c r="A241" s="0" t="s">
-        <v>692</v>
+        <v>694</v>
       </c>
       <c r="B241" s="0" t="s">
-        <v>693</v>
+        <v>695</v>
       </c>
       <c r="D241" s="0" t="s">
         <v>30</v>
@@ -9174,10 +9279,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="242">
       <c r="A242" s="0" t="s">
-        <v>694</v>
+        <v>696</v>
       </c>
       <c r="B242" s="0" t="s">
-        <v>695</v>
+        <v>697</v>
       </c>
       <c r="D242" s="0" t="s">
         <v>36</v>
@@ -9189,15 +9294,15 @@
         <v>19</v>
       </c>
       <c r="H242" s="0" t="s">
-        <v>696</v>
+        <v>698</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="243">
       <c r="A243" s="0" t="s">
-        <v>697</v>
+        <v>699</v>
       </c>
       <c r="B243" s="0" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
       <c r="D243" s="0" t="s">
         <v>30</v>
@@ -9209,15 +9314,15 @@
         <v>19</v>
       </c>
       <c r="H243" s="0" t="s">
-        <v>699</v>
+        <v>701</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="244">
       <c r="A244" s="0" t="s">
-        <v>700</v>
+        <v>702</v>
       </c>
       <c r="B244" s="0" t="s">
-        <v>701</v>
+        <v>703</v>
       </c>
       <c r="D244" s="0" t="s">
         <v>30</v>
@@ -9226,21 +9331,21 @@
         <v>19</v>
       </c>
       <c r="F244" s="0" t="s">
-        <v>702</v>
+        <v>704</v>
       </c>
       <c r="G244" s="0" t="s">
         <v>19</v>
       </c>
       <c r="H244" s="0" t="s">
-        <v>703</v>
+        <v>705</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="245">
       <c r="A245" s="0" t="s">
-        <v>704</v>
+        <v>706</v>
       </c>
       <c r="B245" s="0" t="s">
-        <v>705</v>
+        <v>707</v>
       </c>
       <c r="D245" s="0" t="s">
         <v>30</v>
@@ -9254,10 +9359,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="246">
       <c r="A246" s="0" t="s">
-        <v>706</v>
+        <v>708</v>
       </c>
       <c r="B246" s="0" t="s">
-        <v>707</v>
+        <v>709</v>
       </c>
       <c r="D246" s="0" t="s">
         <v>25</v>
@@ -9266,7 +9371,7 @@
         <v>19</v>
       </c>
       <c r="F246" s="0" t="s">
-        <v>708</v>
+        <v>710</v>
       </c>
       <c r="G246" s="0" t="s">
         <v>12</v>
@@ -9274,10 +9379,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="247">
       <c r="A247" s="0" t="s">
-        <v>709</v>
+        <v>711</v>
       </c>
       <c r="B247" s="0" t="s">
-        <v>710</v>
+        <v>712</v>
       </c>
       <c r="D247" s="0" t="s">
         <v>16</v>
@@ -9286,7 +9391,7 @@
         <v>19</v>
       </c>
       <c r="F247" s="0" t="s">
-        <v>711</v>
+        <v>713</v>
       </c>
       <c r="G247" s="0" t="s">
         <v>19</v>
@@ -9297,10 +9402,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="248">
       <c r="A248" s="0" t="s">
-        <v>712</v>
+        <v>714</v>
       </c>
       <c r="B248" s="0" t="s">
-        <v>713</v>
+        <v>715</v>
       </c>
       <c r="D248" s="0" t="s">
         <v>30</v>
@@ -9312,15 +9417,15 @@
         <v>19</v>
       </c>
       <c r="H248" s="0" t="s">
-        <v>714</v>
+        <v>716</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="249">
       <c r="A249" s="0" t="s">
-        <v>715</v>
+        <v>717</v>
       </c>
       <c r="B249" s="0" t="s">
-        <v>716</v>
+        <v>718</v>
       </c>
       <c r="D249" s="0" t="s">
         <v>30</v>
@@ -9329,7 +9434,7 @@
         <v>19</v>
       </c>
       <c r="F249" s="0" t="s">
-        <v>717</v>
+        <v>719</v>
       </c>
       <c r="G249" s="0" t="s">
         <v>12</v>
@@ -9337,10 +9442,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="250">
       <c r="A250" s="0" t="s">
-        <v>718</v>
+        <v>720</v>
       </c>
       <c r="B250" s="0" t="s">
-        <v>719</v>
+        <v>721</v>
       </c>
       <c r="D250" s="0" t="s">
         <v>11</v>
@@ -9349,7 +9454,7 @@
         <v>19</v>
       </c>
       <c r="F250" s="0" t="s">
-        <v>720</v>
+        <v>722</v>
       </c>
       <c r="G250" s="0" t="s">
         <v>12</v>
@@ -9357,11 +9462,11 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="251">
       <c r="A251" s="0" t="s">
+        <v>723</v>
+      </c>
+      <c r="B251" s="0" t="s">
         <v>721</v>
       </c>
-      <c r="B251" s="0" t="s">
-        <v>719</v>
-      </c>
       <c r="D251" s="0" t="s">
         <v>11</v>
       </c>
@@ -9369,7 +9474,7 @@
         <v>19</v>
       </c>
       <c r="F251" s="0" t="s">
-        <v>720</v>
+        <v>722</v>
       </c>
       <c r="G251" s="0" t="s">
         <v>12</v>
@@ -9377,19 +9482,19 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="252">
       <c r="A252" s="0" t="s">
+        <v>724</v>
+      </c>
+      <c r="B252" s="0" t="s">
+        <v>721</v>
+      </c>
+      <c r="D252" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="E252" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="F252" s="0" t="s">
         <v>722</v>
-      </c>
-      <c r="B252" s="0" t="s">
-        <v>719</v>
-      </c>
-      <c r="D252" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="E252" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="F252" s="0" t="s">
-        <v>720</v>
       </c>
       <c r="G252" s="0" t="s">
         <v>12</v>
@@ -9397,10 +9502,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="253">
       <c r="A253" s="0" t="s">
-        <v>723</v>
+        <v>725</v>
       </c>
       <c r="B253" s="0" t="s">
-        <v>724</v>
+        <v>726</v>
       </c>
       <c r="D253" s="0" t="s">
         <v>11</v>
@@ -9409,7 +9514,7 @@
         <v>19</v>
       </c>
       <c r="F253" s="0" t="s">
-        <v>725</v>
+        <v>727</v>
       </c>
       <c r="G253" s="0" t="s">
         <v>12</v>
@@ -9417,10 +9522,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="254">
       <c r="A254" s="0" t="s">
-        <v>726</v>
+        <v>728</v>
       </c>
       <c r="B254" s="0" t="s">
-        <v>727</v>
+        <v>729</v>
       </c>
       <c r="D254" s="0" t="s">
         <v>36</v>
@@ -9432,15 +9537,15 @@
         <v>19</v>
       </c>
       <c r="H254" s="0" t="s">
-        <v>728</v>
+        <v>730</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="255">
       <c r="A255" s="0" t="s">
-        <v>729</v>
+        <v>731</v>
       </c>
       <c r="B255" s="0" t="s">
-        <v>730</v>
+        <v>732</v>
       </c>
       <c r="D255" s="0" t="s">
         <v>30</v>
@@ -9454,10 +9559,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="256">
       <c r="A256" s="0" t="s">
-        <v>731</v>
+        <v>733</v>
       </c>
       <c r="B256" s="0" t="s">
-        <v>732</v>
+        <v>734</v>
       </c>
       <c r="D256" s="0" t="s">
         <v>25</v>
@@ -9466,21 +9571,21 @@
         <v>19</v>
       </c>
       <c r="F256" s="0" t="s">
-        <v>733</v>
+        <v>735</v>
       </c>
       <c r="G256" s="0" t="s">
         <v>19</v>
       </c>
       <c r="H256" s="0" t="s">
-        <v>734</v>
+        <v>736</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="257">
       <c r="A257" s="0" t="s">
-        <v>735</v>
+        <v>737</v>
       </c>
       <c r="B257" s="0" t="s">
-        <v>736</v>
+        <v>738</v>
       </c>
       <c r="D257" s="0" t="s">
         <v>11</v>
@@ -9489,7 +9594,7 @@
         <v>19</v>
       </c>
       <c r="F257" s="0" t="s">
-        <v>737</v>
+        <v>739</v>
       </c>
       <c r="G257" s="0" t="s">
         <v>12</v>
@@ -9497,10 +9602,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="258">
       <c r="A258" s="0" t="s">
-        <v>738</v>
+        <v>740</v>
       </c>
       <c r="B258" s="0" t="s">
-        <v>739</v>
+        <v>741</v>
       </c>
       <c r="D258" s="0" t="s">
         <v>236</v>
@@ -9509,21 +9614,21 @@
         <v>19</v>
       </c>
       <c r="F258" s="0" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
       <c r="G258" s="0" t="s">
         <v>19</v>
       </c>
       <c r="H258" s="0" t="s">
-        <v>741</v>
+        <v>743</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="259">
       <c r="A259" s="0" t="s">
-        <v>742</v>
+        <v>744</v>
       </c>
       <c r="B259" s="0" t="s">
-        <v>743</v>
+        <v>745</v>
       </c>
       <c r="D259" s="0" t="s">
         <v>36</v>
@@ -9537,10 +9642,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="260">
       <c r="A260" s="0" t="s">
-        <v>744</v>
+        <v>746</v>
       </c>
       <c r="B260" s="0" t="s">
-        <v>745</v>
+        <v>747</v>
       </c>
       <c r="D260" s="0" t="s">
         <v>16</v>
@@ -9549,7 +9654,7 @@
         <v>19</v>
       </c>
       <c r="F260" s="0" t="s">
-        <v>746</v>
+        <v>748</v>
       </c>
       <c r="G260" s="0" t="s">
         <v>12</v>
@@ -9557,10 +9662,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="261">
       <c r="A261" s="0" t="s">
-        <v>747</v>
+        <v>749</v>
       </c>
       <c r="B261" s="0" t="s">
-        <v>748</v>
+        <v>750</v>
       </c>
       <c r="D261" s="0" t="s">
         <v>25</v>
@@ -9569,44 +9674,44 @@
         <v>19</v>
       </c>
       <c r="F261" s="0" t="s">
-        <v>749</v>
+        <v>751</v>
       </c>
       <c r="G261" s="0" t="s">
         <v>19</v>
       </c>
       <c r="H261" s="0" t="s">
-        <v>750</v>
+        <v>752</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="262">
       <c r="A262" s="0" t="s">
-        <v>751</v>
+        <v>753</v>
       </c>
       <c r="B262" s="0" t="s">
-        <v>752</v>
+        <v>754</v>
       </c>
       <c r="D262" s="0" t="s">
-        <v>753</v>
+        <v>755</v>
       </c>
       <c r="E262" s="0" t="s">
         <v>19</v>
       </c>
       <c r="F262" s="0" t="s">
-        <v>754</v>
+        <v>756</v>
       </c>
       <c r="G262" s="0" t="s">
         <v>19</v>
       </c>
       <c r="H262" s="0" t="s">
-        <v>755</v>
+        <v>757</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="263">
       <c r="A263" s="0" t="s">
-        <v>756</v>
+        <v>758</v>
       </c>
       <c r="B263" s="0" t="s">
-        <v>757</v>
+        <v>759</v>
       </c>
       <c r="D263" s="0" t="s">
         <v>30</v>
@@ -9615,21 +9720,21 @@
         <v>19</v>
       </c>
       <c r="F263" s="0" t="s">
-        <v>758</v>
+        <v>760</v>
       </c>
       <c r="G263" s="0" t="s">
         <v>19</v>
       </c>
       <c r="H263" s="0" t="s">
-        <v>759</v>
+        <v>761</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="264">
       <c r="A264" s="0" t="s">
-        <v>760</v>
+        <v>762</v>
       </c>
       <c r="B264" s="0" t="s">
-        <v>761</v>
+        <v>763</v>
       </c>
       <c r="D264" s="0" t="s">
         <v>25</v>
@@ -9643,10 +9748,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="265">
       <c r="A265" s="0" t="s">
-        <v>762</v>
+        <v>764</v>
       </c>
       <c r="B265" s="0" t="s">
-        <v>763</v>
+        <v>765</v>
       </c>
       <c r="D265" s="0" t="s">
         <v>25</v>
@@ -9655,21 +9760,21 @@
         <v>19</v>
       </c>
       <c r="F265" s="0" t="s">
-        <v>764</v>
+        <v>766</v>
       </c>
       <c r="G265" s="0" t="s">
         <v>19</v>
       </c>
       <c r="H265" s="0" t="s">
-        <v>765</v>
+        <v>767</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="266">
       <c r="A266" s="0" t="s">
-        <v>766</v>
+        <v>768</v>
       </c>
       <c r="B266" s="0" t="s">
-        <v>767</v>
+        <v>769</v>
       </c>
       <c r="D266" s="0" t="s">
         <v>11</v>
@@ -9678,7 +9783,7 @@
         <v>19</v>
       </c>
       <c r="F266" s="0" t="s">
-        <v>768</v>
+        <v>770</v>
       </c>
       <c r="G266" s="0" t="s">
         <v>12</v>
@@ -9686,10 +9791,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="267">
       <c r="A267" s="0" t="s">
-        <v>769</v>
+        <v>771</v>
       </c>
       <c r="B267" s="0" t="s">
-        <v>770</v>
+        <v>772</v>
       </c>
       <c r="D267" s="0" t="s">
         <v>25</v>
@@ -9698,21 +9803,21 @@
         <v>19</v>
       </c>
       <c r="F267" s="0" t="s">
-        <v>771</v>
+        <v>773</v>
       </c>
       <c r="G267" s="0" t="s">
         <v>19</v>
       </c>
       <c r="H267" s="0" t="s">
-        <v>772</v>
+        <v>774</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="268">
       <c r="A268" s="0" t="s">
-        <v>773</v>
+        <v>775</v>
       </c>
       <c r="B268" s="0" t="s">
-        <v>774</v>
+        <v>776</v>
       </c>
       <c r="D268" s="0" t="s">
         <v>25</v>
@@ -9724,23 +9829,23 @@
         <v>19</v>
       </c>
       <c r="H268" s="0" t="s">
-        <v>775</v>
+        <v>777</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="269">
       <c r="A269" s="0" t="s">
-        <v>776</v>
+        <v>778</v>
       </c>
       <c r="B269" s="0" t="s">
-        <v>777</v>
+        <v>779</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="270">
       <c r="A270" s="0" t="s">
-        <v>778</v>
+        <v>780</v>
       </c>
       <c r="B270" s="0" t="s">
-        <v>779</v>
+        <v>781</v>
       </c>
       <c r="D270" s="0" t="s">
         <v>11</v>
@@ -9754,10 +9859,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="271">
       <c r="A271" s="0" t="s">
-        <v>780</v>
+        <v>782</v>
       </c>
       <c r="B271" s="0" t="s">
-        <v>779</v>
+        <v>781</v>
       </c>
       <c r="D271" s="0" t="s">
         <v>11</v>
@@ -9771,10 +9876,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="272">
       <c r="A272" s="0" t="s">
-        <v>781</v>
+        <v>783</v>
       </c>
       <c r="B272" s="0" t="s">
-        <v>782</v>
+        <v>784</v>
       </c>
       <c r="D272" s="0" t="s">
         <v>30</v>
@@ -9783,21 +9888,21 @@
         <v>19</v>
       </c>
       <c r="F272" s="0" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="G272" s="0" t="s">
         <v>19</v>
       </c>
       <c r="H272" s="0" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="273">
       <c r="A273" s="0" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
       <c r="B273" s="0" t="s">
-        <v>786</v>
+        <v>788</v>
       </c>
       <c r="D273" s="0" t="s">
         <v>30</v>
@@ -9806,24 +9911,24 @@
         <v>19</v>
       </c>
       <c r="F273" s="0" t="s">
-        <v>787</v>
+        <v>789</v>
       </c>
       <c r="G273" s="0" t="s">
         <v>19</v>
       </c>
       <c r="H273" s="0" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="I273" s="0" t="s">
-        <v>788</v>
+        <v>790</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="274">
       <c r="A274" s="0" t="s">
-        <v>789</v>
+        <v>791</v>
       </c>
       <c r="B274" s="0" t="s">
-        <v>790</v>
+        <v>792</v>
       </c>
       <c r="D274" s="0" t="s">
         <v>11</v>
@@ -9835,15 +9940,15 @@
         <v>19</v>
       </c>
       <c r="H274" s="0" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="275">
       <c r="A275" s="0" t="s">
-        <v>791</v>
+        <v>793</v>
       </c>
       <c r="B275" s="0" t="s">
-        <v>792</v>
+        <v>794</v>
       </c>
       <c r="D275" s="0" t="s">
         <v>25</v>
@@ -9857,10 +9962,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="276">
       <c r="A276" s="0" t="s">
-        <v>793</v>
+        <v>795</v>
       </c>
       <c r="B276" s="0" t="s">
-        <v>794</v>
+        <v>796</v>
       </c>
       <c r="D276" s="0" t="s">
         <v>11</v>
@@ -9869,7 +9974,7 @@
         <v>19</v>
       </c>
       <c r="F276" s="0" t="s">
-        <v>795</v>
+        <v>797</v>
       </c>
       <c r="G276" s="0" t="s">
         <v>12</v>
@@ -9877,10 +9982,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="277">
       <c r="A277" s="0" t="s">
-        <v>796</v>
+        <v>798</v>
       </c>
       <c r="B277" s="0" t="s">
-        <v>797</v>
+        <v>799</v>
       </c>
       <c r="D277" s="0" t="s">
         <v>30</v>
@@ -9894,10 +9999,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="278">
       <c r="A278" s="0" t="s">
-        <v>798</v>
+        <v>800</v>
       </c>
       <c r="B278" s="0" t="s">
-        <v>799</v>
+        <v>801</v>
       </c>
       <c r="D278" s="0" t="s">
         <v>11</v>
@@ -9911,10 +10016,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="279">
       <c r="A279" s="0" t="s">
-        <v>800</v>
+        <v>802</v>
       </c>
       <c r="B279" s="0" t="s">
-        <v>801</v>
+        <v>803</v>
       </c>
       <c r="D279" s="0" t="s">
         <v>11</v>
@@ -9928,10 +10033,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="280">
       <c r="A280" s="0" t="s">
-        <v>802</v>
+        <v>804</v>
       </c>
       <c r="B280" s="0" t="s">
-        <v>803</v>
+        <v>805</v>
       </c>
       <c r="D280" s="0" t="s">
         <v>25</v>
@@ -9940,21 +10045,21 @@
         <v>19</v>
       </c>
       <c r="F280" s="0" t="s">
-        <v>804</v>
+        <v>806</v>
       </c>
       <c r="G280" s="0" t="s">
         <v>12</v>
       </c>
       <c r="I280" s="0" t="s">
-        <v>805</v>
+        <v>807</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="281">
       <c r="A281" s="0" t="s">
-        <v>806</v>
+        <v>808</v>
       </c>
       <c r="B281" s="0" t="s">
-        <v>807</v>
+        <v>809</v>
       </c>
       <c r="D281" s="0" t="s">
         <v>25</v>
@@ -9963,7 +10068,7 @@
         <v>19</v>
       </c>
       <c r="F281" s="0" t="s">
-        <v>804</v>
+        <v>806</v>
       </c>
       <c r="G281" s="0" t="s">
         <v>12</v>
@@ -9971,10 +10076,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="282">
       <c r="A282" s="0" t="s">
-        <v>808</v>
+        <v>810</v>
       </c>
       <c r="B282" s="0" t="s">
-        <v>809</v>
+        <v>811</v>
       </c>
       <c r="D282" s="0" t="s">
         <v>36</v>
@@ -9986,15 +10091,15 @@
         <v>19</v>
       </c>
       <c r="H282" s="0" t="s">
-        <v>809</v>
+        <v>811</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="283">
       <c r="A283" s="0" t="s">
-        <v>810</v>
+        <v>812</v>
       </c>
       <c r="B283" s="0" t="s">
-        <v>811</v>
+        <v>813</v>
       </c>
       <c r="D283" s="0" t="s">
         <v>25</v>
@@ -10003,7 +10108,7 @@
         <v>19</v>
       </c>
       <c r="F283" s="0" t="s">
-        <v>812</v>
+        <v>814</v>
       </c>
       <c r="G283" s="0" t="s">
         <v>12</v>
@@ -10011,10 +10116,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="284">
       <c r="A284" s="0" t="s">
-        <v>813</v>
+        <v>815</v>
       </c>
       <c r="B284" s="0" t="s">
-        <v>814</v>
+        <v>816</v>
       </c>
       <c r="D284" s="0" t="s">
         <v>11</v>
@@ -10023,7 +10128,7 @@
         <v>19</v>
       </c>
       <c r="F284" s="0" t="s">
-        <v>815</v>
+        <v>817</v>
       </c>
       <c r="G284" s="0" t="s">
         <v>12</v>
@@ -10031,10 +10136,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="285">
       <c r="A285" s="0" t="s">
-        <v>816</v>
+        <v>818</v>
       </c>
       <c r="B285" s="0" t="s">
-        <v>817</v>
+        <v>819</v>
       </c>
       <c r="D285" s="0" t="s">
         <v>30</v>
@@ -10046,15 +10151,15 @@
         <v>19</v>
       </c>
       <c r="H285" s="0" t="s">
-        <v>818</v>
+        <v>820</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="286">
       <c r="A286" s="0" t="s">
-        <v>819</v>
+        <v>821</v>
       </c>
       <c r="B286" s="0" t="s">
-        <v>820</v>
+        <v>822</v>
       </c>
       <c r="D286" s="0" t="s">
         <v>30</v>
@@ -10068,10 +10173,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="287">
       <c r="A287" s="0" t="s">
-        <v>821</v>
+        <v>823</v>
       </c>
       <c r="B287" s="0" t="s">
-        <v>822</v>
+        <v>824</v>
       </c>
       <c r="D287" s="0" t="s">
         <v>11</v>
@@ -10085,10 +10190,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="288">
       <c r="A288" s="0" t="s">
-        <v>823</v>
+        <v>825</v>
       </c>
       <c r="B288" s="0" t="s">
-        <v>824</v>
+        <v>826</v>
       </c>
       <c r="D288" s="0" t="s">
         <v>36</v>
@@ -10097,7 +10202,7 @@
         <v>19</v>
       </c>
       <c r="F288" s="0" t="s">
-        <v>825</v>
+        <v>827</v>
       </c>
       <c r="G288" s="0" t="s">
         <v>12</v>
@@ -10105,10 +10210,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="289">
       <c r="A289" s="0" t="s">
-        <v>826</v>
+        <v>828</v>
       </c>
       <c r="B289" s="0" t="s">
-        <v>827</v>
+        <v>829</v>
       </c>
       <c r="D289" s="0" t="s">
         <v>36</v>
@@ -10120,15 +10225,15 @@
         <v>19</v>
       </c>
       <c r="H289" s="0" t="s">
-        <v>828</v>
+        <v>830</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="290">
       <c r="A290" s="0" t="s">
-        <v>829</v>
+        <v>831</v>
       </c>
       <c r="B290" s="0" t="s">
-        <v>830</v>
+        <v>832</v>
       </c>
       <c r="D290" s="0" t="s">
         <v>16</v>
@@ -10140,15 +10245,15 @@
         <v>19</v>
       </c>
       <c r="H290" s="0" t="s">
-        <v>831</v>
+        <v>833</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="291">
       <c r="A291" s="0" t="s">
-        <v>832</v>
+        <v>834</v>
       </c>
       <c r="B291" s="0" t="s">
-        <v>833</v>
+        <v>835</v>
       </c>
       <c r="D291" s="0" t="s">
         <v>16</v>
@@ -10162,10 +10267,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="292">
       <c r="A292" s="0" t="s">
-        <v>834</v>
+        <v>836</v>
       </c>
       <c r="B292" s="0" t="s">
-        <v>835</v>
+        <v>837</v>
       </c>
       <c r="D292" s="0" t="s">
         <v>16</v>
@@ -10177,15 +10282,15 @@
         <v>19</v>
       </c>
       <c r="H292" s="0" t="s">
-        <v>836</v>
+        <v>838</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="293">
       <c r="A293" s="0" t="s">
-        <v>837</v>
+        <v>839</v>
       </c>
       <c r="B293" s="0" t="s">
-        <v>838</v>
+        <v>840</v>
       </c>
       <c r="D293" s="0" t="s">
         <v>16</v>
@@ -10194,7 +10299,7 @@
         <v>19</v>
       </c>
       <c r="F293" s="0" t="s">
-        <v>839</v>
+        <v>841</v>
       </c>
       <c r="G293" s="0" t="s">
         <v>12</v>
@@ -10202,7 +10307,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="294">
       <c r="A294" s="0" t="s">
-        <v>840</v>
+        <v>842</v>
       </c>
       <c r="B294" s="0" t="s">
         <v>11</v>
@@ -10222,10 +10327,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="295">
       <c r="A295" s="0" t="s">
-        <v>841</v>
+        <v>843</v>
       </c>
       <c r="B295" s="0" t="s">
-        <v>842</v>
+        <v>844</v>
       </c>
       <c r="D295" s="0" t="s">
         <v>36</v>
@@ -10239,10 +10344,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="296">
       <c r="A296" s="0" t="s">
-        <v>843</v>
+        <v>845</v>
       </c>
       <c r="B296" s="0" t="s">
-        <v>844</v>
+        <v>846</v>
       </c>
       <c r="D296" s="0" t="s">
         <v>30</v>
@@ -10251,21 +10356,21 @@
         <v>19</v>
       </c>
       <c r="F296" s="0" t="s">
-        <v>845</v>
+        <v>847</v>
       </c>
       <c r="G296" s="0" t="s">
         <v>19</v>
       </c>
       <c r="H296" s="0" t="s">
-        <v>846</v>
+        <v>848</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="297">
       <c r="A297" s="0" t="s">
-        <v>847</v>
+        <v>849</v>
       </c>
       <c r="B297" s="0" t="s">
-        <v>848</v>
+        <v>850</v>
       </c>
       <c r="D297" s="0" t="s">
         <v>25</v>
@@ -10274,21 +10379,21 @@
         <v>19</v>
       </c>
       <c r="F297" s="0" t="s">
-        <v>849</v>
+        <v>851</v>
       </c>
       <c r="G297" s="0" t="s">
         <v>19</v>
       </c>
       <c r="H297" s="0" t="s">
-        <v>850</v>
+        <v>852</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="298">
       <c r="A298" s="0" t="s">
-        <v>851</v>
+        <v>853</v>
       </c>
       <c r="B298" s="0" t="s">
-        <v>848</v>
+        <v>850</v>
       </c>
       <c r="D298" s="0" t="s">
         <v>25</v>
@@ -10297,21 +10402,21 @@
         <v>19</v>
       </c>
       <c r="F298" s="0" t="s">
-        <v>849</v>
+        <v>851</v>
       </c>
       <c r="G298" s="0" t="s">
         <v>19</v>
       </c>
       <c r="H298" s="0" t="s">
-        <v>850</v>
+        <v>852</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="299">
       <c r="A299" s="0" t="s">
-        <v>852</v>
+        <v>854</v>
       </c>
       <c r="B299" s="0" t="s">
-        <v>853</v>
+        <v>855</v>
       </c>
       <c r="D299" s="0" t="s">
         <v>36</v>
@@ -10320,21 +10425,21 @@
         <v>19</v>
       </c>
       <c r="F299" s="0" t="s">
-        <v>854</v>
+        <v>856</v>
       </c>
       <c r="G299" s="0" t="s">
         <v>19</v>
       </c>
       <c r="H299" s="0" t="s">
-        <v>855</v>
+        <v>857</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="300">
       <c r="A300" s="0" t="s">
-        <v>856</v>
+        <v>858</v>
       </c>
       <c r="B300" s="0" t="s">
-        <v>857</v>
+        <v>859</v>
       </c>
       <c r="D300" s="0" t="s">
         <v>36</v>
@@ -10346,15 +10451,15 @@
         <v>19</v>
       </c>
       <c r="H300" s="0" t="s">
-        <v>858</v>
+        <v>860</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="301">
       <c r="A301" s="0" t="s">
-        <v>859</v>
+        <v>861</v>
       </c>
       <c r="B301" s="0" t="s">
-        <v>860</v>
+        <v>862</v>
       </c>
       <c r="D301" s="0" t="s">
         <v>11</v>
@@ -10363,7 +10468,7 @@
         <v>19</v>
       </c>
       <c r="F301" s="0" t="s">
-        <v>861</v>
+        <v>863</v>
       </c>
       <c r="G301" s="0" t="s">
         <v>12</v>
@@ -10371,10 +10476,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="302">
       <c r="A302" s="0" t="s">
-        <v>862</v>
+        <v>864</v>
       </c>
       <c r="B302" s="0" t="s">
-        <v>863</v>
+        <v>865</v>
       </c>
       <c r="D302" s="0" t="s">
         <v>11</v>
@@ -10383,7 +10488,7 @@
         <v>19</v>
       </c>
       <c r="F302" s="0" t="s">
-        <v>864</v>
+        <v>866</v>
       </c>
       <c r="G302" s="0" t="s">
         <v>12</v>
@@ -10391,10 +10496,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="303">
       <c r="A303" s="0" t="s">
-        <v>865</v>
+        <v>867</v>
       </c>
       <c r="B303" s="0" t="s">
-        <v>866</v>
+        <v>868</v>
       </c>
       <c r="D303" s="0" t="s">
         <v>16</v>
@@ -10406,15 +10511,15 @@
         <v>19</v>
       </c>
       <c r="H303" s="0" t="s">
-        <v>867</v>
+        <v>869</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="304">
       <c r="A304" s="0" t="s">
-        <v>868</v>
+        <v>870</v>
       </c>
       <c r="B304" s="0" t="s">
-        <v>869</v>
+        <v>871</v>
       </c>
       <c r="D304" s="0" t="s">
         <v>36</v>
@@ -10423,15 +10528,15 @@
         <v>19</v>
       </c>
       <c r="F304" s="0" t="s">
-        <v>870</v>
+        <v>872</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="305">
       <c r="A305" s="0" t="s">
-        <v>871</v>
+        <v>873</v>
       </c>
       <c r="B305" s="0" t="s">
-        <v>872</v>
+        <v>874</v>
       </c>
       <c r="D305" s="0" t="s">
         <v>11</v>
@@ -10443,15 +10548,15 @@
         <v>19</v>
       </c>
       <c r="H305" s="0" t="s">
-        <v>873</v>
+        <v>875</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="306">
       <c r="A306" s="0" t="s">
-        <v>874</v>
+        <v>876</v>
       </c>
       <c r="B306" s="0" t="s">
-        <v>875</v>
+        <v>877</v>
       </c>
       <c r="D306" s="0" t="s">
         <v>36</v>
@@ -10463,15 +10568,15 @@
         <v>19</v>
       </c>
       <c r="H306" s="0" t="s">
-        <v>876</v>
+        <v>878</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="307">
       <c r="A307" s="0" t="s">
-        <v>877</v>
+        <v>879</v>
       </c>
       <c r="B307" s="0" t="s">
-        <v>878</v>
+        <v>880</v>
       </c>
       <c r="D307" s="0" t="s">
         <v>11</v>
@@ -10480,21 +10585,21 @@
         <v>19</v>
       </c>
       <c r="F307" s="0" t="s">
-        <v>879</v>
+        <v>881</v>
       </c>
       <c r="G307" s="0" t="s">
         <v>19</v>
       </c>
       <c r="H307" s="0" t="s">
-        <v>880</v>
+        <v>882</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="308">
       <c r="A308" s="0" t="s">
-        <v>881</v>
+        <v>883</v>
       </c>
       <c r="B308" s="0" t="s">
-        <v>882</v>
+        <v>884</v>
       </c>
       <c r="D308" s="0" t="s">
         <v>36</v>
@@ -10503,21 +10608,21 @@
         <v>19</v>
       </c>
       <c r="F308" s="0" t="s">
-        <v>883</v>
+        <v>885</v>
       </c>
       <c r="G308" s="0" t="s">
         <v>19</v>
       </c>
       <c r="H308" s="0" t="s">
-        <v>884</v>
+        <v>886</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="309">
       <c r="A309" s="0" t="s">
-        <v>885</v>
+        <v>887</v>
       </c>
       <c r="B309" s="0" t="s">
-        <v>886</v>
+        <v>888</v>
       </c>
       <c r="D309" s="0" t="s">
         <v>30</v>
@@ -10526,7 +10631,7 @@
         <v>19</v>
       </c>
       <c r="F309" s="0" t="s">
-        <v>887</v>
+        <v>889</v>
       </c>
       <c r="G309" s="0" t="s">
         <v>12</v>
@@ -10534,10 +10639,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="310">
       <c r="A310" s="0" t="s">
-        <v>888</v>
+        <v>890</v>
       </c>
       <c r="B310" s="0" t="s">
-        <v>889</v>
+        <v>891</v>
       </c>
       <c r="D310" s="0" t="s">
         <v>11</v>
@@ -10551,10 +10656,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="311">
       <c r="A311" s="0" t="s">
-        <v>890</v>
+        <v>892</v>
       </c>
       <c r="B311" s="0" t="s">
-        <v>891</v>
+        <v>893</v>
       </c>
       <c r="D311" s="0" t="s">
         <v>11</v>
@@ -10566,35 +10671,35 @@
         <v>19</v>
       </c>
       <c r="H311" s="0" t="s">
-        <v>892</v>
+        <v>894</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="312">
       <c r="A312" s="0" t="s">
-        <v>893</v>
+        <v>895</v>
       </c>
       <c r="B312" s="0" t="s">
+        <v>896</v>
+      </c>
+      <c r="D312" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="E312" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="G312" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="H312" s="0" t="s">
         <v>894</v>
-      </c>
-      <c r="D312" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="E312" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="G312" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="H312" s="0" t="s">
-        <v>892</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="313">
       <c r="A313" s="0" t="s">
-        <v>895</v>
+        <v>897</v>
       </c>
       <c r="B313" s="0" t="s">
-        <v>896</v>
+        <v>898</v>
       </c>
       <c r="D313" s="0" t="s">
         <v>11</v>
@@ -10611,10 +10716,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="314">
       <c r="A314" s="0" t="s">
-        <v>897</v>
+        <v>899</v>
       </c>
       <c r="B314" s="0" t="s">
-        <v>898</v>
+        <v>900</v>
       </c>
       <c r="D314" s="0" t="s">
         <v>11</v>
@@ -10628,10 +10733,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="315">
       <c r="A315" s="0" t="s">
-        <v>899</v>
+        <v>901</v>
       </c>
       <c r="B315" s="0" t="s">
-        <v>900</v>
+        <v>902</v>
       </c>
       <c r="D315" s="0" t="s">
         <v>36</v>
@@ -10640,21 +10745,21 @@
         <v>19</v>
       </c>
       <c r="F315" s="0" t="s">
-        <v>901</v>
+        <v>903</v>
       </c>
       <c r="G315" s="0" t="s">
         <v>19</v>
       </c>
       <c r="H315" s="0" t="s">
-        <v>902</v>
+        <v>904</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="316">
       <c r="A316" s="0" t="s">
-        <v>903</v>
+        <v>905</v>
       </c>
       <c r="B316" s="0" t="s">
-        <v>904</v>
+        <v>906</v>
       </c>
       <c r="D316" s="0" t="s">
         <v>30</v>
@@ -10671,10 +10776,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="317">
       <c r="A317" s="0" t="s">
-        <v>905</v>
+        <v>907</v>
       </c>
       <c r="B317" s="0" t="s">
-        <v>906</v>
+        <v>908</v>
       </c>
       <c r="D317" s="0" t="s">
         <v>25</v>
@@ -10683,21 +10788,21 @@
         <v>19</v>
       </c>
       <c r="F317" s="0" t="s">
-        <v>907</v>
+        <v>909</v>
       </c>
       <c r="G317" s="0" t="s">
         <v>19</v>
       </c>
       <c r="H317" s="0" t="s">
-        <v>908</v>
+        <v>910</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="318">
       <c r="A318" s="0" t="s">
-        <v>909</v>
+        <v>911</v>
       </c>
       <c r="B318" s="0" t="s">
-        <v>910</v>
+        <v>912</v>
       </c>
       <c r="D318" s="0" t="s">
         <v>16</v>
@@ -10706,7 +10811,7 @@
         <v>19</v>
       </c>
       <c r="F318" s="0" t="s">
-        <v>911</v>
+        <v>913</v>
       </c>
       <c r="G318" s="0" t="s">
         <v>19</v>
@@ -10717,10 +10822,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="319">
       <c r="A319" s="0" t="s">
-        <v>912</v>
+        <v>914</v>
       </c>
       <c r="B319" s="0" t="s">
-        <v>913</v>
+        <v>915</v>
       </c>
       <c r="D319" s="0" t="s">
         <v>16</v>
@@ -10734,10 +10839,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="320">
       <c r="A320" s="0" t="s">
-        <v>914</v>
+        <v>916</v>
       </c>
       <c r="B320" s="0" t="s">
-        <v>915</v>
+        <v>917</v>
       </c>
       <c r="D320" s="0" t="s">
         <v>16</v>
@@ -10746,21 +10851,21 @@
         <v>19</v>
       </c>
       <c r="F320" s="0" t="s">
-        <v>916</v>
+        <v>918</v>
       </c>
       <c r="G320" s="0" t="s">
         <v>19</v>
       </c>
       <c r="H320" s="0" t="s">
-        <v>917</v>
+        <v>919</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="321">
       <c r="A321" s="0" t="s">
-        <v>918</v>
+        <v>920</v>
       </c>
       <c r="B321" s="0" t="s">
-        <v>919</v>
+        <v>921</v>
       </c>
       <c r="D321" s="0" t="s">
         <v>25</v>
@@ -10769,21 +10874,21 @@
         <v>19</v>
       </c>
       <c r="F321" s="0" t="s">
-        <v>920</v>
+        <v>922</v>
       </c>
       <c r="G321" s="0" t="s">
         <v>19</v>
       </c>
       <c r="H321" s="0" t="s">
-        <v>921</v>
+        <v>923</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="322">
       <c r="A322" s="0" t="s">
-        <v>922</v>
+        <v>924</v>
       </c>
       <c r="B322" s="0" t="s">
-        <v>923</v>
+        <v>925</v>
       </c>
       <c r="D322" s="0" t="s">
         <v>11</v>
@@ -10792,7 +10897,7 @@
         <v>19</v>
       </c>
       <c r="F322" s="0" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="G322" s="0" t="s">
         <v>12</v>
@@ -10800,10 +10905,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="323">
       <c r="A323" s="0" t="s">
-        <v>925</v>
+        <v>927</v>
       </c>
       <c r="B323" s="0" t="s">
-        <v>926</v>
+        <v>928</v>
       </c>
       <c r="D323" s="0" t="s">
         <v>16</v>
@@ -10815,15 +10920,15 @@
         <v>19</v>
       </c>
       <c r="H323" s="0" t="s">
-        <v>927</v>
+        <v>929</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="324">
       <c r="A324" s="0" t="s">
-        <v>928</v>
+        <v>930</v>
       </c>
       <c r="B324" s="0" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="D324" s="0" t="s">
         <v>11</v>
@@ -10835,15 +10940,15 @@
         <v>19</v>
       </c>
       <c r="H324" s="0" t="s">
-        <v>930</v>
+        <v>932</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="325">
       <c r="A325" s="0" t="s">
-        <v>931</v>
+        <v>933</v>
       </c>
       <c r="B325" s="0" t="s">
-        <v>932</v>
+        <v>934</v>
       </c>
       <c r="D325" s="0" t="s">
         <v>25</v>
@@ -10857,10 +10962,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="326">
       <c r="A326" s="0" t="s">
-        <v>933</v>
+        <v>935</v>
       </c>
       <c r="B326" s="0" t="s">
-        <v>934</v>
+        <v>936</v>
       </c>
       <c r="D326" s="0" t="s">
         <v>36</v>
@@ -10874,10 +10979,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="327">
       <c r="A327" s="0" t="s">
-        <v>935</v>
+        <v>937</v>
       </c>
       <c r="B327" s="0" t="s">
-        <v>936</v>
+        <v>938</v>
       </c>
       <c r="D327" s="0" t="s">
         <v>30</v>
@@ -10886,7 +10991,7 @@
         <v>19</v>
       </c>
       <c r="F327" s="0" t="s">
-        <v>937</v>
+        <v>939</v>
       </c>
       <c r="G327" s="0" t="s">
         <v>12</v>
@@ -10894,10 +10999,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="328">
       <c r="A328" s="0" t="s">
-        <v>938</v>
+        <v>940</v>
       </c>
       <c r="B328" s="0" t="s">
-        <v>939</v>
+        <v>941</v>
       </c>
       <c r="D328" s="0" t="s">
         <v>16</v>
@@ -10906,15 +11011,15 @@
         <v>19</v>
       </c>
       <c r="F328" s="0" t="s">
-        <v>940</v>
+        <v>942</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="329">
       <c r="A329" s="0" t="s">
-        <v>941</v>
+        <v>943</v>
       </c>
       <c r="B329" s="0" t="s">
-        <v>942</v>
+        <v>944</v>
       </c>
       <c r="D329" s="0" t="s">
         <v>36</v>
@@ -10923,7 +11028,7 @@
         <v>19</v>
       </c>
       <c r="F329" s="0" t="s">
-        <v>943</v>
+        <v>945</v>
       </c>
       <c r="G329" s="0" t="s">
         <v>12</v>
@@ -10931,10 +11036,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="330">
       <c r="A330" s="0" t="s">
-        <v>944</v>
+        <v>946</v>
       </c>
       <c r="B330" s="0" t="s">
-        <v>945</v>
+        <v>947</v>
       </c>
       <c r="D330" s="0" t="s">
         <v>11</v>
@@ -10948,10 +11053,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="331">
       <c r="A331" s="0" t="s">
-        <v>946</v>
+        <v>948</v>
       </c>
       <c r="B331" s="0" t="s">
-        <v>947</v>
+        <v>949</v>
       </c>
       <c r="D331" s="0" t="s">
         <v>36</v>
@@ -10965,10 +11070,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="332">
       <c r="A332" s="0" t="s">
-        <v>948</v>
+        <v>950</v>
       </c>
       <c r="B332" s="0" t="s">
-        <v>949</v>
+        <v>951</v>
       </c>
       <c r="D332" s="0" t="s">
         <v>36</v>
@@ -10982,10 +11087,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="333">
       <c r="A333" s="0" t="s">
-        <v>950</v>
+        <v>952</v>
       </c>
       <c r="B333" s="0" t="s">
-        <v>951</v>
+        <v>953</v>
       </c>
       <c r="D333" s="0" t="s">
         <v>30</v>
@@ -10999,10 +11104,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="334">
       <c r="A334" s="0" t="s">
-        <v>952</v>
+        <v>954</v>
       </c>
       <c r="B334" s="0" t="s">
-        <v>953</v>
+        <v>955</v>
       </c>
       <c r="D334" s="0" t="s">
         <v>11</v>
@@ -11011,7 +11116,7 @@
         <v>19</v>
       </c>
       <c r="F334" s="0" t="s">
-        <v>954</v>
+        <v>956</v>
       </c>
       <c r="G334" s="0" t="s">
         <v>12</v>
@@ -11019,10 +11124,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="335">
       <c r="A335" s="0" t="s">
-        <v>955</v>
+        <v>957</v>
       </c>
       <c r="B335" s="0" t="s">
-        <v>956</v>
+        <v>958</v>
       </c>
       <c r="D335" s="0" t="s">
         <v>25</v>
@@ -11031,7 +11136,7 @@
         <v>19</v>
       </c>
       <c r="F335" s="0" t="s">
-        <v>957</v>
+        <v>959</v>
       </c>
       <c r="G335" s="0" t="s">
         <v>12</v>
@@ -11039,10 +11144,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="336">
       <c r="A336" s="0" t="s">
-        <v>958</v>
+        <v>960</v>
       </c>
       <c r="B336" s="0" t="s">
-        <v>959</v>
+        <v>961</v>
       </c>
       <c r="D336" s="0" t="s">
         <v>30</v>
@@ -11056,10 +11161,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="337">
       <c r="A337" s="0" t="s">
-        <v>960</v>
+        <v>962</v>
       </c>
       <c r="B337" s="0" t="s">
-        <v>961</v>
+        <v>963</v>
       </c>
       <c r="D337" s="0" t="s">
         <v>25</v>
@@ -11068,7 +11173,7 @@
         <v>19</v>
       </c>
       <c r="F337" s="0" t="s">
-        <v>962</v>
+        <v>964</v>
       </c>
       <c r="G337" s="0" t="s">
         <v>19</v>
@@ -11076,10 +11181,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="338">
       <c r="A338" s="0" t="s">
-        <v>963</v>
+        <v>965</v>
       </c>
       <c r="B338" s="0" t="s">
-        <v>964</v>
+        <v>966</v>
       </c>
       <c r="D338" s="0" t="s">
         <v>36</v>
@@ -11093,10 +11198,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="339">
       <c r="A339" s="0" t="s">
-        <v>965</v>
+        <v>967</v>
       </c>
       <c r="B339" s="0" t="s">
-        <v>966</v>
+        <v>968</v>
       </c>
       <c r="D339" s="0" t="s">
         <v>25</v>
@@ -11105,7 +11210,7 @@
         <v>19</v>
       </c>
       <c r="F339" s="0" t="s">
-        <v>967</v>
+        <v>969</v>
       </c>
       <c r="G339" s="0" t="s">
         <v>12</v>
@@ -11113,10 +11218,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="340">
       <c r="A340" s="0" t="s">
-        <v>968</v>
+        <v>970</v>
       </c>
       <c r="B340" s="0" t="s">
-        <v>969</v>
+        <v>971</v>
       </c>
       <c r="D340" s="0" t="s">
         <v>25</v>
@@ -11125,7 +11230,7 @@
         <v>19</v>
       </c>
       <c r="F340" s="0" t="s">
-        <v>970</v>
+        <v>972</v>
       </c>
       <c r="G340" s="0" t="s">
         <v>12</v>
@@ -11133,10 +11238,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="341">
       <c r="A341" s="0" t="s">
-        <v>971</v>
+        <v>973</v>
       </c>
       <c r="B341" s="0" t="s">
-        <v>972</v>
+        <v>974</v>
       </c>
       <c r="D341" s="0" t="s">
         <v>11</v>
@@ -11145,7 +11250,7 @@
         <v>19</v>
       </c>
       <c r="F341" s="0" t="s">
-        <v>973</v>
+        <v>975</v>
       </c>
       <c r="G341" s="0" t="s">
         <v>12</v>
@@ -11153,10 +11258,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="342">
       <c r="A342" s="0" t="s">
-        <v>974</v>
+        <v>976</v>
       </c>
       <c r="B342" s="0" t="s">
-        <v>975</v>
+        <v>977</v>
       </c>
       <c r="D342" s="0" t="s">
         <v>36</v>
@@ -11170,10 +11275,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="343">
       <c r="A343" s="0" t="s">
-        <v>976</v>
+        <v>978</v>
       </c>
       <c r="B343" s="0" t="s">
-        <v>977</v>
+        <v>979</v>
       </c>
       <c r="D343" s="0" t="s">
         <v>11</v>
@@ -11182,24 +11287,24 @@
         <v>19</v>
       </c>
       <c r="F343" s="0" t="s">
-        <v>978</v>
+        <v>980</v>
       </c>
       <c r="G343" s="0" t="s">
         <v>19</v>
       </c>
       <c r="H343" s="0" t="s">
-        <v>979</v>
+        <v>981</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="344">
       <c r="A344" s="0" t="s">
-        <v>980</v>
+        <v>982</v>
       </c>
       <c r="B344" s="0" t="s">
-        <v>981</v>
+        <v>983</v>
       </c>
       <c r="D344" s="0" t="s">
-        <v>753</v>
+        <v>755</v>
       </c>
       <c r="E344" s="0" t="s">
         <v>12</v>
@@ -11208,15 +11313,15 @@
         <v>19</v>
       </c>
       <c r="H344" s="0" t="s">
-        <v>982</v>
+        <v>984</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="345">
       <c r="A345" s="0" t="s">
-        <v>983</v>
+        <v>985</v>
       </c>
       <c r="B345" s="0" t="s">
-        <v>984</v>
+        <v>986</v>
       </c>
       <c r="D345" s="0" t="s">
         <v>11</v>
@@ -11225,7 +11330,7 @@
         <v>19</v>
       </c>
       <c r="F345" s="0" t="s">
-        <v>985</v>
+        <v>987</v>
       </c>
       <c r="G345" s="0" t="s">
         <v>12</v>
@@ -11233,10 +11338,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="346">
       <c r="A346" s="0" t="s">
-        <v>986</v>
+        <v>988</v>
       </c>
       <c r="B346" s="0" t="s">
-        <v>987</v>
+        <v>989</v>
       </c>
       <c r="D346" s="0" t="s">
         <v>36</v>
@@ -11250,10 +11355,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="347">
       <c r="A347" s="0" t="s">
-        <v>988</v>
+        <v>990</v>
       </c>
       <c r="B347" s="0" t="s">
-        <v>989</v>
+        <v>991</v>
       </c>
       <c r="D347" s="0" t="s">
         <v>30</v>
@@ -11265,15 +11370,15 @@
         <v>19</v>
       </c>
       <c r="H347" s="0" t="s">
-        <v>990</v>
+        <v>992</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="348">
       <c r="A348" s="0" t="s">
-        <v>991</v>
+        <v>993</v>
       </c>
       <c r="B348" s="0" t="s">
-        <v>992</v>
+        <v>994</v>
       </c>
       <c r="D348" s="0" t="s">
         <v>16</v>
@@ -11282,7 +11387,7 @@
         <v>19</v>
       </c>
       <c r="F348" s="0" t="s">
-        <v>993</v>
+        <v>995</v>
       </c>
       <c r="G348" s="0" t="s">
         <v>12</v>
@@ -11290,10 +11395,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="349">
       <c r="A349" s="0" t="s">
-        <v>994</v>
+        <v>996</v>
       </c>
       <c r="B349" s="0" t="s">
-        <v>995</v>
+        <v>997</v>
       </c>
       <c r="D349" s="0" t="s">
         <v>11</v>
@@ -11305,15 +11410,15 @@
         <v>19</v>
       </c>
       <c r="H349" s="0" t="s">
-        <v>996</v>
+        <v>998</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="350">
       <c r="A350" s="0" t="s">
-        <v>994</v>
+        <v>996</v>
       </c>
       <c r="B350" s="0" t="s">
-        <v>995</v>
+        <v>997</v>
       </c>
       <c r="D350" s="0" t="s">
         <v>11</v>
@@ -11325,15 +11430,15 @@
         <v>19</v>
       </c>
       <c r="H350" s="0" t="s">
-        <v>996</v>
+        <v>998</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="351">
       <c r="A351" s="0" t="s">
-        <v>997</v>
+        <v>999</v>
       </c>
       <c r="B351" s="0" t="s">
-        <v>998</v>
+        <v>1000</v>
       </c>
       <c r="D351" s="0" t="s">
         <v>16</v>
@@ -11345,15 +11450,15 @@
         <v>19</v>
       </c>
       <c r="H351" s="0" t="s">
-        <v>999</v>
+        <v>1001</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="352">
       <c r="A352" s="0" t="s">
-        <v>1000</v>
+        <v>1002</v>
       </c>
       <c r="B352" s="0" t="s">
-        <v>1001</v>
+        <v>1003</v>
       </c>
       <c r="D352" s="0" t="s">
         <v>25</v>
@@ -11367,10 +11472,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="353">
       <c r="A353" s="0" t="s">
-        <v>1002</v>
+        <v>1004</v>
       </c>
       <c r="B353" s="0" t="s">
-        <v>1003</v>
+        <v>1005</v>
       </c>
       <c r="D353" s="0" t="s">
         <v>25</v>
@@ -11379,21 +11484,21 @@
         <v>19</v>
       </c>
       <c r="F353" s="0" t="s">
-        <v>1004</v>
+        <v>1006</v>
       </c>
       <c r="G353" s="0" t="s">
         <v>19</v>
       </c>
       <c r="H353" s="0" t="s">
-        <v>1005</v>
+        <v>1007</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="354">
       <c r="A354" s="0" t="s">
-        <v>1006</v>
+        <v>1008</v>
       </c>
       <c r="B354" s="0" t="s">
-        <v>1007</v>
+        <v>1009</v>
       </c>
       <c r="D354" s="0" t="s">
         <v>25</v>
@@ -11407,10 +11512,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="355">
       <c r="A355" s="0" t="s">
-        <v>1008</v>
+        <v>1010</v>
       </c>
       <c r="B355" s="0" t="s">
-        <v>1009</v>
+        <v>1011</v>
       </c>
       <c r="D355" s="0" t="s">
         <v>11</v>
@@ -11422,15 +11527,15 @@
         <v>19</v>
       </c>
       <c r="H355" s="0" t="s">
-        <v>1010</v>
+        <v>1012</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="356">
       <c r="A356" s="0" t="s">
-        <v>1011</v>
+        <v>1013</v>
       </c>
       <c r="B356" s="0" t="s">
-        <v>1012</v>
+        <v>1014</v>
       </c>
       <c r="D356" s="0" t="s">
         <v>16</v>
@@ -11444,10 +11549,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="357">
       <c r="A357" s="0" t="s">
-        <v>1013</v>
+        <v>1015</v>
       </c>
       <c r="B357" s="0" t="s">
-        <v>1014</v>
+        <v>1016</v>
       </c>
       <c r="D357" s="0" t="s">
         <v>16</v>
@@ -11461,10 +11566,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="358">
       <c r="A358" s="0" t="s">
-        <v>1015</v>
+        <v>1017</v>
       </c>
       <c r="B358" s="0" t="s">
-        <v>1016</v>
+        <v>1018</v>
       </c>
       <c r="D358" s="0" t="s">
         <v>11</v>
@@ -11478,10 +11583,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="359">
       <c r="A359" s="0" t="s">
-        <v>1017</v>
+        <v>1019</v>
       </c>
       <c r="B359" s="0" t="s">
-        <v>1018</v>
+        <v>1020</v>
       </c>
       <c r="D359" s="0" t="s">
         <v>11</v>
@@ -11495,10 +11600,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="360">
       <c r="A360" s="0" t="s">
-        <v>1019</v>
+        <v>1021</v>
       </c>
       <c r="B360" s="0" t="s">
-        <v>1020</v>
+        <v>1022</v>
       </c>
       <c r="D360" s="0" t="s">
         <v>16</v>
@@ -11507,7 +11612,7 @@
         <v>19</v>
       </c>
       <c r="F360" s="0" t="s">
-        <v>1021</v>
+        <v>1023</v>
       </c>
       <c r="G360" s="0" t="s">
         <v>19</v>
@@ -11518,10 +11623,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="361">
       <c r="A361" s="0" t="s">
-        <v>1022</v>
+        <v>1024</v>
       </c>
       <c r="B361" s="0" t="s">
-        <v>1023</v>
+        <v>1025</v>
       </c>
       <c r="D361" s="0" t="s">
         <v>16</v>
@@ -11533,15 +11638,15 @@
         <v>19</v>
       </c>
       <c r="H361" s="0" t="s">
-        <v>1024</v>
+        <v>1026</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="362">
       <c r="A362" s="0" t="s">
-        <v>1025</v>
+        <v>1027</v>
       </c>
       <c r="B362" s="0" t="s">
-        <v>1026</v>
+        <v>1028</v>
       </c>
       <c r="D362" s="0" t="s">
         <v>11</v>
@@ -11555,10 +11660,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="363">
       <c r="A363" s="0" t="s">
-        <v>1027</v>
+        <v>1029</v>
       </c>
       <c r="B363" s="0" t="s">
-        <v>1028</v>
+        <v>1030</v>
       </c>
       <c r="D363" s="0" t="s">
         <v>25</v>
@@ -11570,15 +11675,15 @@
         <v>19</v>
       </c>
       <c r="H363" s="0" t="s">
-        <v>1029</v>
+        <v>1031</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="364">
       <c r="A364" s="0" t="s">
-        <v>1030</v>
+        <v>1032</v>
       </c>
       <c r="B364" s="0" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="D364" s="0" t="s">
         <v>30</v>
@@ -11590,7 +11695,7 @@
         <v>19</v>
       </c>
       <c r="H364" s="0" t="s">
-        <v>1032</v>
+        <v>1034</v>
       </c>
       <c r="I364" s="0" t="s">
         <v>33</v>
@@ -11598,10 +11703,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="365">
       <c r="A365" s="0" t="s">
-        <v>1033</v>
+        <v>1035</v>
       </c>
       <c r="B365" s="0" t="s">
-        <v>1034</v>
+        <v>1036</v>
       </c>
       <c r="D365" s="0" t="s">
         <v>25</v>
@@ -11613,15 +11718,15 @@
         <v>19</v>
       </c>
       <c r="H365" s="0" t="s">
-        <v>1035</v>
+        <v>1037</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="366">
       <c r="A366" s="0" t="s">
-        <v>1036</v>
+        <v>1038</v>
       </c>
       <c r="B366" s="0" t="s">
-        <v>1037</v>
+        <v>1039</v>
       </c>
       <c r="D366" s="0" t="s">
         <v>11</v>
@@ -11635,10 +11740,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="367">
       <c r="A367" s="0" t="s">
-        <v>1038</v>
+        <v>1040</v>
       </c>
       <c r="B367" s="0" t="s">
-        <v>1039</v>
+        <v>1041</v>
       </c>
       <c r="D367" s="0" t="s">
         <v>16</v>
@@ -11652,10 +11757,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="368">
       <c r="A368" s="0" t="s">
-        <v>1040</v>
+        <v>1042</v>
       </c>
       <c r="B368" s="2" t="s">
-        <v>1041</v>
+        <v>1043</v>
       </c>
       <c r="C368" s="2"/>
       <c r="D368" s="0" t="s">
@@ -11670,10 +11775,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="369">
       <c r="A369" s="0" t="s">
-        <v>1042</v>
+        <v>1044</v>
       </c>
       <c r="B369" s="0" t="s">
-        <v>1043</v>
+        <v>1045</v>
       </c>
       <c r="D369" s="0" t="s">
         <v>16</v>
@@ -11685,15 +11790,15 @@
         <v>19</v>
       </c>
       <c r="H369" s="0" t="s">
-        <v>1044</v>
+        <v>1046</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="370">
       <c r="A370" s="0" t="s">
-        <v>1045</v>
+        <v>1047</v>
       </c>
       <c r="B370" s="0" t="s">
-        <v>1046</v>
+        <v>1048</v>
       </c>
       <c r="D370" s="0" t="s">
         <v>11</v>
@@ -11705,15 +11810,15 @@
         <v>19</v>
       </c>
       <c r="H370" s="0" t="s">
-        <v>1047</v>
+        <v>1049</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="371">
       <c r="A371" s="0" t="s">
-        <v>1048</v>
+        <v>1050</v>
       </c>
       <c r="B371" s="2" t="s">
-        <v>1049</v>
+        <v>1051</v>
       </c>
       <c r="C371" s="2"/>
       <c r="D371" s="0" t="s">
@@ -11723,45 +11828,45 @@
         <v>19</v>
       </c>
       <c r="F371" s="0" t="s">
-        <v>1050</v>
+        <v>1052</v>
       </c>
       <c r="G371" s="0" t="s">
         <v>19</v>
       </c>
       <c r="H371" s="0" t="s">
-        <v>1051</v>
+        <v>1053</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="372">
       <c r="A372" s="0" t="s">
+        <v>1054</v>
+      </c>
+      <c r="B372" s="0" t="s">
+        <v>1051</v>
+      </c>
+      <c r="D372" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="E372" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="F372" s="0" t="s">
         <v>1052</v>
       </c>
-      <c r="B372" s="0" t="s">
-        <v>1049</v>
-      </c>
-      <c r="D372" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="E372" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="F372" s="0" t="s">
-        <v>1050</v>
-      </c>
       <c r="G372" s="0" t="s">
         <v>19</v>
       </c>
       <c r="H372" s="0" t="s">
-        <v>1051</v>
+        <v>1053</v>
       </c>
       <c r="I372" s="2"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="373">
       <c r="A373" s="0" t="s">
-        <v>1053</v>
+        <v>1055</v>
       </c>
       <c r="B373" s="0" t="s">
-        <v>1049</v>
+        <v>1051</v>
       </c>
       <c r="D373" s="0" t="s">
         <v>36</v>
@@ -11770,21 +11875,21 @@
         <v>19</v>
       </c>
       <c r="F373" s="0" t="s">
-        <v>1050</v>
+        <v>1052</v>
       </c>
       <c r="G373" s="0" t="s">
         <v>19</v>
       </c>
       <c r="H373" s="0" t="s">
-        <v>1051</v>
+        <v>1053</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="374">
       <c r="A374" s="0" t="s">
-        <v>1054</v>
+        <v>1056</v>
       </c>
       <c r="B374" s="0" t="s">
-        <v>1049</v>
+        <v>1051</v>
       </c>
       <c r="D374" s="0" t="s">
         <v>11</v>
@@ -11793,21 +11898,21 @@
         <v>19</v>
       </c>
       <c r="F374" s="0" t="s">
-        <v>1050</v>
+        <v>1052</v>
       </c>
       <c r="G374" s="0" t="s">
         <v>19</v>
       </c>
       <c r="H374" s="0" t="s">
-        <v>1051</v>
+        <v>1053</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="375">
       <c r="A375" s="0" t="s">
-        <v>1055</v>
+        <v>1057</v>
       </c>
       <c r="B375" s="2" t="s">
-        <v>1049</v>
+        <v>1051</v>
       </c>
       <c r="C375" s="2"/>
       <c r="D375" s="0" t="s">
@@ -11817,21 +11922,21 @@
         <v>19</v>
       </c>
       <c r="F375" s="0" t="s">
-        <v>1050</v>
+        <v>1052</v>
       </c>
       <c r="G375" s="0" t="s">
         <v>19</v>
       </c>
       <c r="H375" s="0" t="s">
-        <v>1051</v>
+        <v>1053</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="376">
       <c r="A376" s="0" t="s">
-        <v>1056</v>
+        <v>1058</v>
       </c>
       <c r="B376" s="0" t="s">
-        <v>1049</v>
+        <v>1051</v>
       </c>
       <c r="D376" s="0" t="s">
         <v>25</v>
@@ -11840,21 +11945,21 @@
         <v>19</v>
       </c>
       <c r="F376" s="0" t="s">
-        <v>1050</v>
+        <v>1052</v>
       </c>
       <c r="G376" s="0" t="s">
         <v>19</v>
       </c>
       <c r="H376" s="0" t="s">
-        <v>1051</v>
+        <v>1053</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="377">
       <c r="A377" s="0" t="s">
-        <v>1057</v>
+        <v>1059</v>
       </c>
       <c r="B377" s="0" t="s">
-        <v>1058</v>
+        <v>1060</v>
       </c>
       <c r="D377" s="0" t="s">
         <v>25</v>
@@ -11868,10 +11973,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="378">
       <c r="A378" s="0" t="s">
-        <v>1059</v>
+        <v>1061</v>
       </c>
       <c r="B378" s="0" t="s">
-        <v>1060</v>
+        <v>1062</v>
       </c>
       <c r="D378" s="0" t="s">
         <v>11</v>
@@ -11883,15 +11988,15 @@
         <v>19</v>
       </c>
       <c r="H378" s="0" t="s">
-        <v>1061</v>
+        <v>1063</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="379">
       <c r="A379" s="0" t="s">
-        <v>1062</v>
+        <v>1064</v>
       </c>
       <c r="B379" s="2" t="s">
-        <v>1063</v>
+        <v>1065</v>
       </c>
       <c r="C379" s="2"/>
       <c r="D379" s="0" t="s">
@@ -11901,21 +12006,21 @@
         <v>19</v>
       </c>
       <c r="F379" s="0" t="s">
-        <v>1064</v>
+        <v>1066</v>
       </c>
       <c r="G379" s="0" t="s">
         <v>19</v>
       </c>
       <c r="H379" s="0" t="s">
-        <v>1065</v>
+        <v>1067</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="380">
       <c r="A380" s="0" t="s">
-        <v>1066</v>
+        <v>1068</v>
       </c>
       <c r="B380" s="0" t="s">
-        <v>1067</v>
+        <v>1069</v>
       </c>
       <c r="D380" s="2" t="s">
         <v>25</v>
@@ -11929,10 +12034,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="381">
       <c r="A381" s="0" t="s">
-        <v>1068</v>
+        <v>1070</v>
       </c>
       <c r="B381" s="0" t="s">
-        <v>1069</v>
+        <v>1071</v>
       </c>
       <c r="D381" s="2" t="s">
         <v>25</v>
@@ -11941,7 +12046,7 @@
         <v>19</v>
       </c>
       <c r="F381" s="0" t="s">
-        <v>1070</v>
+        <v>1072</v>
       </c>
       <c r="G381" s="2" t="s">
         <v>12</v>
@@ -11950,10 +12055,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="382">
       <c r="A382" s="0" t="s">
-        <v>1071</v>
+        <v>1073</v>
       </c>
       <c r="B382" s="0" t="s">
-        <v>1072</v>
+        <v>1074</v>
       </c>
       <c r="D382" s="0" t="s">
         <v>11</v>
@@ -11967,10 +12072,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="383">
       <c r="A383" s="0" t="s">
-        <v>1073</v>
+        <v>1075</v>
       </c>
       <c r="B383" s="0" t="s">
-        <v>1074</v>
+        <v>1076</v>
       </c>
       <c r="D383" s="0" t="s">
         <v>16</v>
@@ -11984,10 +12089,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="384">
       <c r="A384" s="0" t="s">
-        <v>1075</v>
+        <v>1077</v>
       </c>
       <c r="B384" s="0" t="s">
-        <v>1076</v>
+        <v>1078</v>
       </c>
       <c r="D384" s="0" t="s">
         <v>16</v>
@@ -11999,7 +12104,7 @@
         <v>19</v>
       </c>
       <c r="H384" s="0" t="s">
-        <v>1077</v>
+        <v>1079</v>
       </c>
       <c r="I384" s="2" t="s">
         <v>33</v>
@@ -12007,10 +12112,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="385">
       <c r="A385" s="0" t="s">
-        <v>1078</v>
+        <v>1080</v>
       </c>
       <c r="B385" s="0" t="s">
-        <v>1079</v>
+        <v>1081</v>
       </c>
       <c r="D385" s="0" t="s">
         <v>11</v>
@@ -12024,10 +12129,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="386">
       <c r="A386" s="0" t="s">
-        <v>1080</v>
+        <v>1082</v>
       </c>
       <c r="B386" s="0" t="s">
-        <v>1081</v>
+        <v>1083</v>
       </c>
       <c r="D386" s="0" t="s">
         <v>25</v>
@@ -12039,15 +12144,15 @@
         <v>19</v>
       </c>
       <c r="H386" s="0" t="s">
-        <v>1082</v>
+        <v>1084</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="387">
       <c r="A387" s="0" t="s">
-        <v>1083</v>
+        <v>1085</v>
       </c>
       <c r="B387" s="0" t="s">
-        <v>1084</v>
+        <v>1086</v>
       </c>
       <c r="D387" s="0" t="s">
         <v>11</v>
@@ -12056,7 +12161,7 @@
         <v>19</v>
       </c>
       <c r="F387" s="0" t="s">
-        <v>1085</v>
+        <v>1087</v>
       </c>
       <c r="G387" s="0" t="s">
         <v>12</v>
@@ -12064,10 +12169,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="388">
       <c r="A388" s="0" t="s">
-        <v>1086</v>
+        <v>1088</v>
       </c>
       <c r="B388" s="0" t="s">
-        <v>1087</v>
+        <v>1089</v>
       </c>
       <c r="D388" s="0" t="s">
         <v>30</v>
@@ -12081,13 +12186,13 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="389">
       <c r="A389" s="0" t="s">
-        <v>1088</v>
+        <v>1090</v>
       </c>
       <c r="B389" s="0" t="s">
-        <v>1089</v>
+        <v>1091</v>
       </c>
       <c r="D389" s="0" t="s">
-        <v>753</v>
+        <v>755</v>
       </c>
       <c r="E389" s="0" t="s">
         <v>12</v>
@@ -12096,15 +12201,15 @@
         <v>19</v>
       </c>
       <c r="H389" s="0" t="s">
-        <v>1090</v>
+        <v>1092</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="390">
       <c r="A390" s="0" t="s">
-        <v>1091</v>
+        <v>1093</v>
       </c>
       <c r="B390" s="0" t="s">
-        <v>1092</v>
+        <v>1094</v>
       </c>
       <c r="D390" s="0" t="s">
         <v>11</v>
@@ -12113,7 +12218,7 @@
         <v>19</v>
       </c>
       <c r="F390" s="0" t="s">
-        <v>1093</v>
+        <v>1095</v>
       </c>
       <c r="G390" s="0" t="s">
         <v>12</v>
@@ -12121,10 +12226,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="391">
       <c r="A391" s="0" t="s">
-        <v>1094</v>
+        <v>1096</v>
       </c>
       <c r="B391" s="0" t="s">
-        <v>1095</v>
+        <v>1097</v>
       </c>
       <c r="D391" s="0" t="s">
         <v>11</v>
@@ -12138,10 +12243,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="392">
       <c r="A392" s="0" t="s">
-        <v>1096</v>
+        <v>1098</v>
       </c>
       <c r="B392" s="0" t="s">
-        <v>1097</v>
+        <v>1099</v>
       </c>
       <c r="D392" s="0" t="s">
         <v>36</v>
@@ -12150,7 +12255,7 @@
         <v>19</v>
       </c>
       <c r="F392" s="0" t="s">
-        <v>1098</v>
+        <v>1100</v>
       </c>
       <c r="G392" s="0" t="s">
         <v>12</v>
@@ -12158,10 +12263,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="393">
       <c r="A393" s="0" t="s">
-        <v>1099</v>
+        <v>1101</v>
       </c>
       <c r="B393" s="0" t="s">
-        <v>1100</v>
+        <v>1102</v>
       </c>
       <c r="D393" s="0" t="s">
         <v>25</v>
@@ -12170,7 +12275,7 @@
         <v>19</v>
       </c>
       <c r="F393" s="0" t="s">
-        <v>1101</v>
+        <v>1103</v>
       </c>
       <c r="G393" s="0" t="s">
         <v>12</v>
@@ -12178,10 +12283,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="394">
       <c r="A394" s="0" t="s">
-        <v>1102</v>
+        <v>1104</v>
       </c>
       <c r="B394" s="0" t="s">
-        <v>1103</v>
+        <v>1105</v>
       </c>
       <c r="D394" s="0" t="s">
         <v>36</v>
@@ -12190,21 +12295,21 @@
         <v>19</v>
       </c>
       <c r="F394" s="0" t="s">
-        <v>1104</v>
+        <v>1106</v>
       </c>
       <c r="G394" s="2" t="s">
         <v>19</v>
       </c>
       <c r="H394" s="0" t="s">
-        <v>1105</v>
+        <v>1107</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="395">
       <c r="A395" s="0" t="s">
-        <v>1106</v>
+        <v>1108</v>
       </c>
       <c r="B395" s="0" t="s">
-        <v>1107</v>
+        <v>1109</v>
       </c>
       <c r="D395" s="0" t="s">
         <v>25</v>
@@ -12213,7 +12318,7 @@
         <v>19</v>
       </c>
       <c r="F395" s="0" t="s">
-        <v>1108</v>
+        <v>1110</v>
       </c>
       <c r="G395" s="0" t="s">
         <v>12</v>
@@ -12221,10 +12326,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="396">
       <c r="A396" s="0" t="s">
-        <v>1109</v>
+        <v>1111</v>
       </c>
       <c r="B396" s="0" t="s">
-        <v>1110</v>
+        <v>1112</v>
       </c>
       <c r="D396" s="0" t="s">
         <v>11</v>
@@ -12238,10 +12343,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="397">
       <c r="A397" s="0" t="s">
-        <v>1111</v>
+        <v>1113</v>
       </c>
       <c r="B397" s="2" t="s">
-        <v>1112</v>
+        <v>1114</v>
       </c>
       <c r="C397" s="2"/>
       <c r="D397" s="0" t="s">
@@ -12251,7 +12356,7 @@
         <v>19</v>
       </c>
       <c r="F397" s="0" t="s">
-        <v>1113</v>
+        <v>1115</v>
       </c>
       <c r="G397" s="2" t="s">
         <v>12</v>
@@ -12259,10 +12364,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="398">
       <c r="A398" s="0" t="s">
-        <v>1114</v>
+        <v>1116</v>
       </c>
       <c r="B398" s="0" t="s">
-        <v>1115</v>
+        <v>1117</v>
       </c>
       <c r="D398" s="0" t="s">
         <v>11</v>
@@ -12274,15 +12379,15 @@
         <v>19</v>
       </c>
       <c r="H398" s="0" t="s">
-        <v>1116</v>
+        <v>1118</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="399">
       <c r="A399" s="0" t="s">
-        <v>1117</v>
+        <v>1119</v>
       </c>
       <c r="B399" s="0" t="s">
-        <v>1118</v>
+        <v>1120</v>
       </c>
       <c r="D399" s="0" t="s">
         <v>11</v>
@@ -12296,10 +12401,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="400">
       <c r="A400" s="0" t="s">
-        <v>1119</v>
+        <v>1121</v>
       </c>
       <c r="B400" s="0" t="s">
-        <v>1120</v>
+        <v>1122</v>
       </c>
       <c r="D400" s="0" t="s">
         <v>11</v>
@@ -12308,7 +12413,7 @@
         <v>19</v>
       </c>
       <c r="F400" s="0" t="s">
-        <v>1121</v>
+        <v>1123</v>
       </c>
       <c r="G400" s="0" t="s">
         <v>12</v>
@@ -12317,10 +12422,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="401">
       <c r="A401" s="2" t="s">
-        <v>1122</v>
+        <v>1124</v>
       </c>
       <c r="B401" s="0" t="s">
-        <v>1123</v>
+        <v>1125</v>
       </c>
       <c r="D401" s="2" t="s">
         <v>11</v>
@@ -12335,10 +12440,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="402">
       <c r="A402" s="0" t="s">
-        <v>1124</v>
+        <v>1126</v>
       </c>
       <c r="B402" s="0" t="s">
-        <v>1125</v>
+        <v>1127</v>
       </c>
       <c r="D402" s="0" t="s">
         <v>11</v>
@@ -12352,10 +12457,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="403">
       <c r="A403" s="0" t="s">
-        <v>1126</v>
+        <v>1128</v>
       </c>
       <c r="B403" s="0" t="s">
-        <v>1127</v>
+        <v>1129</v>
       </c>
       <c r="D403" s="0" t="s">
         <v>11</v>
@@ -12369,10 +12474,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="404">
       <c r="A404" s="0" t="s">
-        <v>1128</v>
+        <v>1130</v>
       </c>
       <c r="B404" s="0" t="s">
-        <v>1129</v>
+        <v>1131</v>
       </c>
       <c r="D404" s="0" t="s">
         <v>11</v>
@@ -12386,10 +12491,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="405">
       <c r="A405" s="0" t="s">
-        <v>1130</v>
+        <v>1132</v>
       </c>
       <c r="B405" s="0" t="s">
-        <v>1131</v>
+        <v>1133</v>
       </c>
       <c r="D405" s="0" t="s">
         <v>11</v>
@@ -12403,10 +12508,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="406">
       <c r="A406" s="0" t="s">
-        <v>1132</v>
+        <v>1134</v>
       </c>
       <c r="B406" s="0" t="s">
-        <v>1133</v>
+        <v>1135</v>
       </c>
       <c r="D406" s="0" t="s">
         <v>16</v>
@@ -12418,15 +12523,15 @@
         <v>19</v>
       </c>
       <c r="H406" s="0" t="s">
-        <v>1134</v>
+        <v>1136</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="407">
       <c r="A407" s="0" t="s">
-        <v>1135</v>
+        <v>1137</v>
       </c>
       <c r="B407" s="0" t="s">
-        <v>1136</v>
+        <v>1138</v>
       </c>
       <c r="D407" s="0" t="s">
         <v>11</v>
@@ -12440,10 +12545,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="408">
       <c r="A408" s="0" t="s">
-        <v>1137</v>
+        <v>1139</v>
       </c>
       <c r="B408" s="0" t="s">
-        <v>1138</v>
+        <v>1140</v>
       </c>
       <c r="D408" s="0" t="s">
         <v>11</v>
@@ -12452,7 +12557,7 @@
         <v>19</v>
       </c>
       <c r="F408" s="0" t="s">
-        <v>1139</v>
+        <v>1141</v>
       </c>
       <c r="G408" s="2" t="s">
         <v>12</v>
@@ -12460,10 +12565,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="409">
       <c r="A409" s="0" t="s">
-        <v>1140</v>
+        <v>1142</v>
       </c>
       <c r="B409" s="0" t="s">
-        <v>1141</v>
+        <v>1143</v>
       </c>
       <c r="D409" s="0" t="s">
         <v>25</v>
@@ -12477,10 +12582,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="410">
       <c r="A410" s="0" t="s">
-        <v>1142</v>
+        <v>1144</v>
       </c>
       <c r="B410" s="2" t="s">
-        <v>1143</v>
+        <v>1145</v>
       </c>
       <c r="C410" s="2"/>
       <c r="D410" s="2" t="s">
@@ -12495,10 +12600,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="411">
       <c r="A411" s="0" t="s">
-        <v>1144</v>
+        <v>1146</v>
       </c>
       <c r="B411" s="0" t="s">
-        <v>1145</v>
+        <v>1147</v>
       </c>
       <c r="D411" s="0" t="s">
         <v>25</v>
@@ -12507,7 +12612,7 @@
         <v>19</v>
       </c>
       <c r="F411" s="0" t="s">
-        <v>1146</v>
+        <v>1148</v>
       </c>
       <c r="G411" s="0" t="s">
         <v>12</v>
@@ -12515,10 +12620,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="412">
       <c r="A412" s="0" t="s">
-        <v>1147</v>
+        <v>1149</v>
       </c>
       <c r="B412" s="0" t="s">
-        <v>1148</v>
+        <v>1150</v>
       </c>
       <c r="D412" s="0" t="s">
         <v>25</v>
@@ -12532,10 +12637,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="413">
       <c r="A413" s="0" t="s">
-        <v>1149</v>
+        <v>1151</v>
       </c>
       <c r="B413" s="0" t="s">
-        <v>1150</v>
+        <v>1152</v>
       </c>
       <c r="D413" s="0" t="s">
         <v>30</v>
@@ -12547,18 +12652,18 @@
         <v>19</v>
       </c>
       <c r="H413" s="0" t="s">
-        <v>1151</v>
+        <v>1153</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="414">
       <c r="A414" s="0" t="s">
-        <v>1152</v>
+        <v>1154</v>
       </c>
       <c r="B414" s="0" t="s">
-        <v>1153</v>
+        <v>1155</v>
       </c>
       <c r="D414" s="0" t="s">
-        <v>753</v>
+        <v>755</v>
       </c>
       <c r="E414" s="0" t="s">
         <v>12</v>
@@ -12567,15 +12672,15 @@
         <v>19</v>
       </c>
       <c r="H414" s="0" t="s">
-        <v>1154</v>
+        <v>1156</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="415">
       <c r="A415" s="0" t="s">
-        <v>1155</v>
+        <v>1157</v>
       </c>
       <c r="B415" s="0" t="s">
-        <v>1156</v>
+        <v>1158</v>
       </c>
       <c r="D415" s="0" t="s">
         <v>11</v>
@@ -12589,10 +12694,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="416">
       <c r="A416" s="0" t="s">
-        <v>1157</v>
+        <v>1159</v>
       </c>
       <c r="B416" s="0" t="s">
-        <v>1158</v>
+        <v>1160</v>
       </c>
       <c r="D416" s="0" t="s">
         <v>11</v>
@@ -12606,10 +12711,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="417">
       <c r="A417" s="0" t="s">
-        <v>1159</v>
+        <v>1161</v>
       </c>
       <c r="B417" s="0" t="s">
-        <v>1160</v>
+        <v>1162</v>
       </c>
       <c r="D417" s="0" t="s">
         <v>36</v>
@@ -12621,15 +12726,15 @@
         <v>19</v>
       </c>
       <c r="H417" s="0" t="s">
-        <v>1161</v>
+        <v>1163</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="418">
       <c r="A418" s="0" t="s">
-        <v>1162</v>
+        <v>1164</v>
       </c>
       <c r="B418" s="0" t="s">
-        <v>1163</v>
+        <v>1165</v>
       </c>
       <c r="D418" s="2" t="s">
         <v>25</v>
@@ -12638,7 +12743,7 @@
         <v>19</v>
       </c>
       <c r="F418" s="0" t="s">
-        <v>1164</v>
+        <v>1166</v>
       </c>
       <c r="G418" s="0" t="s">
         <v>12</v>
@@ -12646,10 +12751,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="419">
       <c r="A419" s="0" t="s">
-        <v>1165</v>
+        <v>1167</v>
       </c>
       <c r="B419" s="0" t="s">
-        <v>1166</v>
+        <v>1168</v>
       </c>
       <c r="D419" s="2" t="s">
         <v>25</v>
@@ -12663,10 +12768,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="420">
       <c r="A420" s="0" t="s">
-        <v>1167</v>
+        <v>1169</v>
       </c>
       <c r="B420" s="0" t="s">
-        <v>1168</v>
+        <v>1170</v>
       </c>
       <c r="D420" s="0" t="s">
         <v>25</v>
@@ -12680,10 +12785,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="421">
       <c r="A421" s="0" t="s">
-        <v>1169</v>
+        <v>1171</v>
       </c>
       <c r="B421" s="0" t="s">
-        <v>1170</v>
+        <v>1172</v>
       </c>
       <c r="D421" s="0" t="s">
         <v>30</v>
@@ -12692,7 +12797,7 @@
         <v>19</v>
       </c>
       <c r="F421" s="0" t="s">
-        <v>1171</v>
+        <v>1173</v>
       </c>
       <c r="G421" s="0" t="s">
         <v>12</v>
@@ -12700,10 +12805,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="422">
       <c r="A422" s="0" t="s">
-        <v>1172</v>
+        <v>1174</v>
       </c>
       <c r="B422" s="0" t="s">
-        <v>1173</v>
+        <v>1175</v>
       </c>
       <c r="D422" s="0" t="s">
         <v>25</v>
@@ -12712,7 +12817,7 @@
         <v>19</v>
       </c>
       <c r="F422" s="0" t="s">
-        <v>1174</v>
+        <v>1176</v>
       </c>
       <c r="G422" s="0" t="s">
         <v>12</v>
@@ -12720,19 +12825,19 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="423">
       <c r="A423" s="0" t="s">
-        <v>1175</v>
+        <v>1177</v>
       </c>
       <c r="B423" s="0" t="s">
-        <v>1176</v>
+        <v>1178</v>
       </c>
       <c r="D423" s="0" t="s">
-        <v>753</v>
+        <v>755</v>
       </c>
       <c r="E423" s="0" t="s">
         <v>19</v>
       </c>
       <c r="F423" s="0" t="s">
-        <v>1177</v>
+        <v>1179</v>
       </c>
       <c r="G423" s="0" t="s">
         <v>12</v>
@@ -12740,20 +12845,20 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="424">
       <c r="A424" s="0" t="s">
-        <v>1178</v>
+        <v>1180</v>
       </c>
       <c r="B424" s="2" t="s">
-        <v>1179</v>
+        <v>1181</v>
       </c>
       <c r="C424" s="2"/>
       <c r="D424" s="0" t="s">
-        <v>753</v>
+        <v>755</v>
       </c>
       <c r="E424" s="0" t="s">
         <v>19</v>
       </c>
       <c r="F424" s="0" t="s">
-        <v>1180</v>
+        <v>1182</v>
       </c>
       <c r="G424" s="0" t="s">
         <v>12</v>
@@ -12761,10 +12866,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="425">
       <c r="A425" s="0" t="s">
-        <v>1181</v>
+        <v>1183</v>
       </c>
       <c r="B425" s="0" t="s">
-        <v>1182</v>
+        <v>1184</v>
       </c>
       <c r="D425" s="0" t="s">
         <v>16</v>
@@ -12773,7 +12878,7 @@
         <v>19</v>
       </c>
       <c r="F425" s="0" t="s">
-        <v>1183</v>
+        <v>1185</v>
       </c>
       <c r="G425" s="0" t="s">
         <v>19</v>
@@ -12784,10 +12889,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="426">
       <c r="A426" s="0" t="s">
-        <v>1184</v>
+        <v>1186</v>
       </c>
       <c r="B426" s="0" t="s">
-        <v>1185</v>
+        <v>1187</v>
       </c>
       <c r="D426" s="0" t="s">
         <v>25</v>
@@ -12801,10 +12906,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="427">
       <c r="A427" s="0" t="s">
-        <v>1186</v>
+        <v>1188</v>
       </c>
       <c r="B427" s="0" t="s">
-        <v>1187</v>
+        <v>1189</v>
       </c>
       <c r="D427" s="0" t="s">
         <v>236</v>
@@ -12818,10 +12923,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="428">
       <c r="A428" s="0" t="s">
-        <v>1188</v>
+        <v>1190</v>
       </c>
       <c r="B428" s="0" t="s">
-        <v>1189</v>
+        <v>1191</v>
       </c>
       <c r="D428" s="0" t="s">
         <v>236</v>
@@ -12833,15 +12938,15 @@
         <v>19</v>
       </c>
       <c r="H428" s="0" t="s">
-        <v>1190</v>
+        <v>1192</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="429">
       <c r="A429" s="0" t="s">
-        <v>1191</v>
+        <v>1193</v>
       </c>
       <c r="B429" s="2" t="s">
-        <v>1192</v>
+        <v>1194</v>
       </c>
       <c r="C429" s="2"/>
       <c r="D429" s="0" t="s">
@@ -12851,7 +12956,7 @@
         <v>19</v>
       </c>
       <c r="F429" s="0" t="s">
-        <v>1193</v>
+        <v>1195</v>
       </c>
       <c r="G429" s="0" t="s">
         <v>12</v>
@@ -12859,10 +12964,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="430">
       <c r="A430" s="0" t="s">
-        <v>1194</v>
+        <v>1196</v>
       </c>
       <c r="B430" s="0" t="s">
-        <v>1195</v>
+        <v>1197</v>
       </c>
       <c r="D430" s="0" t="s">
         <v>236</v>
@@ -12874,15 +12979,15 @@
         <v>19</v>
       </c>
       <c r="H430" s="0" t="s">
-        <v>1196</v>
+        <v>1198</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="431">
       <c r="A431" s="0" t="s">
-        <v>1197</v>
+        <v>1199</v>
       </c>
       <c r="B431" s="0" t="s">
-        <v>1198</v>
+        <v>1200</v>
       </c>
       <c r="D431" s="0" t="s">
         <v>25</v>
@@ -12894,15 +12999,15 @@
         <v>19</v>
       </c>
       <c r="H431" s="0" t="s">
-        <v>1199</v>
+        <v>1201</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="432">
       <c r="A432" s="0" t="s">
-        <v>1200</v>
+        <v>1202</v>
       </c>
       <c r="B432" s="0" t="s">
-        <v>1201</v>
+        <v>1203</v>
       </c>
       <c r="D432" s="0" t="s">
         <v>30</v>
@@ -12911,7 +13016,7 @@
         <v>19</v>
       </c>
       <c r="F432" s="0" t="s">
-        <v>1202</v>
+        <v>1204</v>
       </c>
       <c r="G432" s="0" t="s">
         <v>12</v>
@@ -12919,10 +13024,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="433">
       <c r="A433" s="0" t="s">
-        <v>1203</v>
+        <v>1205</v>
       </c>
       <c r="B433" s="0" t="s">
-        <v>1204</v>
+        <v>1206</v>
       </c>
       <c r="D433" s="0" t="s">
         <v>11</v>
@@ -12936,10 +13041,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="434">
       <c r="A434" s="0" t="s">
-        <v>1205</v>
+        <v>1207</v>
       </c>
       <c r="B434" s="0" t="s">
-        <v>1206</v>
+        <v>1208</v>
       </c>
       <c r="D434" s="0" t="s">
         <v>25</v>
@@ -12951,15 +13056,15 @@
         <v>19</v>
       </c>
       <c r="H434" s="0" t="s">
-        <v>1207</v>
+        <v>1209</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="435">
       <c r="A435" s="0" t="s">
-        <v>1208</v>
+        <v>1210</v>
       </c>
       <c r="B435" s="0" t="s">
-        <v>1209</v>
+        <v>1211</v>
       </c>
       <c r="D435" s="2" t="s">
         <v>25</v>
@@ -12971,15 +13076,15 @@
         <v>19</v>
       </c>
       <c r="H435" s="0" t="s">
-        <v>1207</v>
+        <v>1209</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="436">
       <c r="A436" s="0" t="s">
-        <v>1210</v>
+        <v>1212</v>
       </c>
       <c r="B436" s="0" t="s">
-        <v>1211</v>
+        <v>1213</v>
       </c>
       <c r="D436" s="0" t="s">
         <v>11</v>
@@ -12988,7 +13093,7 @@
         <v>19</v>
       </c>
       <c r="F436" s="0" t="s">
-        <v>1212</v>
+        <v>1214</v>
       </c>
       <c r="G436" s="2" t="s">
         <v>12</v>
@@ -12996,10 +13101,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="437">
       <c r="A437" s="0" t="s">
-        <v>1213</v>
+        <v>1215</v>
       </c>
       <c r="B437" s="0" t="s">
-        <v>1214</v>
+        <v>1216</v>
       </c>
       <c r="D437" s="0" t="s">
         <v>11</v>
@@ -13011,15 +13116,15 @@
         <v>19</v>
       </c>
       <c r="H437" s="0" t="s">
-        <v>1215</v>
+        <v>1217</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="438">
       <c r="A438" s="0" t="s">
-        <v>1216</v>
+        <v>1218</v>
       </c>
       <c r="B438" s="0" t="s">
-        <v>1217</v>
+        <v>1219</v>
       </c>
       <c r="D438" s="0" t="s">
         <v>36</v>
@@ -13028,7 +13133,7 @@
         <v>19</v>
       </c>
       <c r="F438" s="0" t="s">
-        <v>1218</v>
+        <v>1220</v>
       </c>
       <c r="G438" s="2" t="s">
         <v>12</v>
@@ -13036,10 +13141,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="439">
       <c r="A439" s="0" t="s">
-        <v>1219</v>
+        <v>1221</v>
       </c>
       <c r="B439" s="0" t="s">
-        <v>1220</v>
+        <v>1222</v>
       </c>
       <c r="D439" s="0" t="s">
         <v>11</v>
@@ -13051,15 +13156,15 @@
         <v>19</v>
       </c>
       <c r="H439" s="0" t="s">
-        <v>1221</v>
+        <v>1223</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="440">
       <c r="A440" s="0" t="s">
-        <v>1222</v>
+        <v>1224</v>
       </c>
       <c r="B440" s="0" t="s">
-        <v>1223</v>
+        <v>1225</v>
       </c>
       <c r="D440" s="0" t="s">
         <v>25</v>
@@ -13068,21 +13173,21 @@
         <v>19</v>
       </c>
       <c r="F440" s="0" t="s">
-        <v>1224</v>
+        <v>1226</v>
       </c>
       <c r="G440" s="0" t="s">
         <v>19</v>
       </c>
       <c r="H440" s="0" t="s">
-        <v>1221</v>
+        <v>1223</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="441">
       <c r="A441" s="0" t="s">
-        <v>1225</v>
+        <v>1227</v>
       </c>
       <c r="B441" s="0" t="s">
-        <v>1226</v>
+        <v>1228</v>
       </c>
       <c r="D441" s="0" t="s">
         <v>11</v>
@@ -13091,21 +13196,21 @@
         <v>19</v>
       </c>
       <c r="F441" s="0" t="s">
-        <v>1227</v>
+        <v>1229</v>
       </c>
       <c r="G441" s="0" t="s">
         <v>19</v>
       </c>
       <c r="H441" s="0" t="s">
-        <v>1221</v>
+        <v>1223</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="442">
       <c r="A442" s="0" t="s">
-        <v>1228</v>
+        <v>1230</v>
       </c>
       <c r="B442" s="0" t="s">
-        <v>1229</v>
+        <v>1231</v>
       </c>
       <c r="D442" s="0" t="s">
         <v>11</v>
@@ -13117,15 +13222,15 @@
         <v>19</v>
       </c>
       <c r="H442" s="0" t="s">
-        <v>1230</v>
+        <v>1232</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="443">
       <c r="A443" s="0" t="s">
-        <v>1231</v>
+        <v>1233</v>
       </c>
       <c r="B443" s="0" t="s">
-        <v>1232</v>
+        <v>1234</v>
       </c>
       <c r="D443" s="0" t="s">
         <v>30</v>
@@ -13134,21 +13239,21 @@
         <v>19</v>
       </c>
       <c r="F443" s="0" t="s">
-        <v>1233</v>
+        <v>1235</v>
       </c>
       <c r="G443" s="0" t="s">
         <v>19</v>
       </c>
       <c r="H443" s="0" t="s">
-        <v>1234</v>
+        <v>1236</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="444">
       <c r="A444" s="0" t="s">
-        <v>1235</v>
+        <v>1237</v>
       </c>
       <c r="B444" s="0" t="s">
-        <v>1236</v>
+        <v>1238</v>
       </c>
       <c r="D444" s="0" t="s">
         <v>11</v>
@@ -13157,7 +13262,7 @@
         <v>19</v>
       </c>
       <c r="F444" s="0" t="s">
-        <v>1237</v>
+        <v>1239</v>
       </c>
       <c r="G444" s="0" t="s">
         <v>12</v>
@@ -13204,7 +13309,7 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="257" min="1" style="0" width="8.81960784313726"/>
+    <col collapsed="false" hidden="false" max="257" min="1" style="0" width="8.85490196078431"/>
   </cols>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -13229,7 +13334,7 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="257" min="1" style="0" width="8.81960784313726"/>
+    <col collapsed="false" hidden="false" max="257" min="1" style="0" width="8.85490196078431"/>
   </cols>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/kohana/oiadsites.xlsx
+++ b/kohana/oiadsites.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2813" uniqueCount="1240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2832" uniqueCount="1242">
   <si>
     <t>Site Name</t>
   </si>
@@ -2158,6 +2158,9 @@
     <t>http://www.meijer.com/s/big-steals/_/N-5io?icid=hpdsthu</t>
   </si>
   <si>
+    <t>Scrapping protection?</t>
+  </si>
+  <si>
     <t>http://www3.meijer.com/bigsteals.xml</t>
   </si>
   <si>
@@ -2189,6 +2192,9 @@
   </si>
   <si>
     <t>Midnight Box 2</t>
+  </si>
+  <si>
+    <t>ajax load</t>
   </si>
   <si>
     <t>Midnight Box 3</t>
@@ -3915,8 +3921,8 @@
   </sheetPr>
   <dimension ref="A1:I444"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A204" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="C235" activeCellId="0" pane="topLeft" sqref="C235"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A207" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="C255" activeCellId="0" pane="topLeft" sqref="C255"/>
     </sheetView>
   </sheetViews>
   <cols>
@@ -9175,13 +9181,16 @@
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="236">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="236">
       <c r="A236" s="0" t="s">
         <v>684</v>
       </c>
       <c r="B236" s="0" t="s">
         <v>685</v>
       </c>
+      <c r="C236" s="0" t="s">
+        <v>15</v>
+      </c>
       <c r="D236" s="0" t="s">
         <v>25</v>
       </c>
@@ -9192,13 +9201,16 @@
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="237">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="237">
       <c r="A237" s="0" t="s">
         <v>686</v>
       </c>
       <c r="B237" s="0" t="s">
         <v>687</v>
       </c>
+      <c r="C237" s="0" t="s">
+        <v>285</v>
+      </c>
       <c r="D237" s="0" t="s">
         <v>25</v>
       </c>
@@ -9209,13 +9221,16 @@
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="238">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="238">
       <c r="A238" s="0" t="s">
         <v>688</v>
       </c>
       <c r="B238" s="0" t="s">
         <v>689</v>
       </c>
+      <c r="C238" s="0" t="s">
+        <v>15</v>
+      </c>
       <c r="D238" s="0" t="s">
         <v>11</v>
       </c>
@@ -9226,13 +9241,16 @@
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="239">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="239">
       <c r="A239" s="0" t="s">
         <v>690</v>
       </c>
       <c r="B239" s="0" t="s">
         <v>691</v>
       </c>
+      <c r="C239" s="0" t="s">
+        <v>15</v>
+      </c>
       <c r="D239" s="0" t="s">
         <v>11</v>
       </c>
@@ -9243,13 +9261,16 @@
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="240">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="240">
       <c r="A240" s="0" t="s">
         <v>692</v>
       </c>
       <c r="B240" s="0" t="s">
         <v>693</v>
       </c>
+      <c r="C240" s="0" t="s">
+        <v>15</v>
+      </c>
       <c r="D240" s="0" t="s">
         <v>11</v>
       </c>
@@ -9260,13 +9281,16 @@
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="241">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="241">
       <c r="A241" s="0" t="s">
         <v>694</v>
       </c>
       <c r="B241" s="0" t="s">
         <v>695</v>
       </c>
+      <c r="C241" s="0" t="s">
+        <v>54</v>
+      </c>
       <c r="D241" s="0" t="s">
         <v>30</v>
       </c>
@@ -9277,13 +9301,16 @@
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="242">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="242">
       <c r="A242" s="0" t="s">
         <v>696</v>
       </c>
       <c r="B242" s="0" t="s">
         <v>697</v>
       </c>
+      <c r="C242" s="0" t="s">
+        <v>54</v>
+      </c>
       <c r="D242" s="0" t="s">
         <v>36</v>
       </c>
@@ -9297,13 +9324,16 @@
         <v>698</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="243">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="243">
       <c r="A243" s="0" t="s">
         <v>699</v>
       </c>
       <c r="B243" s="0" t="s">
         <v>700</v>
       </c>
+      <c r="C243" s="0" t="s">
+        <v>285</v>
+      </c>
       <c r="D243" s="0" t="s">
         <v>30</v>
       </c>
@@ -9317,13 +9347,16 @@
         <v>701</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="244">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="244">
       <c r="A244" s="0" t="s">
         <v>702</v>
       </c>
       <c r="B244" s="0" t="s">
         <v>703</v>
       </c>
+      <c r="C244" s="0" t="s">
+        <v>15</v>
+      </c>
       <c r="D244" s="0" t="s">
         <v>30</v>
       </c>
@@ -9340,13 +9373,16 @@
         <v>705</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="245">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="245">
       <c r="A245" s="0" t="s">
         <v>706</v>
       </c>
       <c r="B245" s="0" t="s">
         <v>707</v>
       </c>
+      <c r="C245" s="0" t="s">
+        <v>15</v>
+      </c>
       <c r="D245" s="0" t="s">
         <v>30</v>
       </c>
@@ -9357,13 +9393,16 @@
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="246">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="246">
       <c r="A246" s="0" t="s">
         <v>708</v>
       </c>
       <c r="B246" s="0" t="s">
         <v>709</v>
       </c>
+      <c r="C246" s="0" t="s">
+        <v>15</v>
+      </c>
       <c r="D246" s="0" t="s">
         <v>25</v>
       </c>
@@ -9377,13 +9416,16 @@
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="247">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="247">
       <c r="A247" s="0" t="s">
         <v>711</v>
       </c>
       <c r="B247" s="0" t="s">
         <v>712</v>
       </c>
+      <c r="C247" s="0" t="s">
+        <v>713</v>
+      </c>
       <c r="D247" s="0" t="s">
         <v>16</v>
       </c>
@@ -9391,7 +9433,7 @@
         <v>19</v>
       </c>
       <c r="F247" s="0" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="G247" s="0" t="s">
         <v>19</v>
@@ -9400,12 +9442,15 @@
         <v>634</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="248">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="248">
       <c r="A248" s="0" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="B248" s="0" t="s">
-        <v>715</v>
+        <v>716</v>
+      </c>
+      <c r="C248" s="0" t="s">
+        <v>285</v>
       </c>
       <c r="D248" s="0" t="s">
         <v>30</v>
@@ -9417,15 +9462,18 @@
         <v>19</v>
       </c>
       <c r="H248" s="0" t="s">
-        <v>716</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="249">
+        <v>717</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="249">
       <c r="A249" s="0" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="B249" s="0" t="s">
-        <v>718</v>
+        <v>719</v>
+      </c>
+      <c r="C249" s="0" t="s">
+        <v>54</v>
       </c>
       <c r="D249" s="0" t="s">
         <v>30</v>
@@ -9434,18 +9482,21 @@
         <v>19</v>
       </c>
       <c r="F249" s="0" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="G249" s="0" t="s">
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="250">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="250">
       <c r="A250" s="0" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="B250" s="0" t="s">
-        <v>721</v>
+        <v>722</v>
+      </c>
+      <c r="C250" s="0" t="s">
+        <v>15</v>
       </c>
       <c r="D250" s="0" t="s">
         <v>11</v>
@@ -9454,38 +9505,44 @@
         <v>19</v>
       </c>
       <c r="F250" s="0" t="s">
+        <v>723</v>
+      </c>
+      <c r="G250" s="0" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="251">
+      <c r="A251" s="0" t="s">
+        <v>724</v>
+      </c>
+      <c r="B251" s="0" t="s">
         <v>722</v>
       </c>
-      <c r="G250" s="0" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="251">
-      <c r="A251" s="0" t="s">
+      <c r="C251" s="0" t="s">
+        <v>725</v>
+      </c>
+      <c r="D251" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="E251" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="F251" s="0" t="s">
         <v>723</v>
       </c>
-      <c r="B251" s="0" t="s">
-        <v>721</v>
-      </c>
-      <c r="D251" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="E251" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="F251" s="0" t="s">
+      <c r="G251" s="0" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="252">
+      <c r="A252" s="0" t="s">
+        <v>726</v>
+      </c>
+      <c r="B252" s="0" t="s">
         <v>722</v>
       </c>
-      <c r="G251" s="0" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="252">
-      <c r="A252" s="0" t="s">
-        <v>724</v>
-      </c>
-      <c r="B252" s="0" t="s">
-        <v>721</v>
+      <c r="C252" s="0" t="s">
+        <v>725</v>
       </c>
       <c r="D252" s="0" t="s">
         <v>11</v>
@@ -9494,18 +9551,21 @@
         <v>19</v>
       </c>
       <c r="F252" s="0" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="G252" s="0" t="s">
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="253">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="253">
       <c r="A253" s="0" t="s">
-        <v>725</v>
+        <v>727</v>
       </c>
       <c r="B253" s="0" t="s">
-        <v>726</v>
+        <v>728</v>
+      </c>
+      <c r="C253" s="0" t="s">
+        <v>15</v>
       </c>
       <c r="D253" s="0" t="s">
         <v>11</v>
@@ -9514,18 +9574,21 @@
         <v>19</v>
       </c>
       <c r="F253" s="0" t="s">
-        <v>727</v>
+        <v>729</v>
       </c>
       <c r="G253" s="0" t="s">
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="254">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="254">
       <c r="A254" s="0" t="s">
-        <v>728</v>
+        <v>730</v>
       </c>
       <c r="B254" s="0" t="s">
-        <v>729</v>
+        <v>731</v>
+      </c>
+      <c r="C254" s="0" t="s">
+        <v>285</v>
       </c>
       <c r="D254" s="0" t="s">
         <v>36</v>
@@ -9537,15 +9600,15 @@
         <v>19</v>
       </c>
       <c r="H254" s="0" t="s">
-        <v>730</v>
+        <v>732</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="255">
       <c r="A255" s="0" t="s">
-        <v>731</v>
+        <v>733</v>
       </c>
       <c r="B255" s="0" t="s">
-        <v>732</v>
+        <v>734</v>
       </c>
       <c r="D255" s="0" t="s">
         <v>30</v>
@@ -9559,10 +9622,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="256">
       <c r="A256" s="0" t="s">
-        <v>733</v>
+        <v>735</v>
       </c>
       <c r="B256" s="0" t="s">
-        <v>734</v>
+        <v>736</v>
       </c>
       <c r="D256" s="0" t="s">
         <v>25</v>
@@ -9571,21 +9634,21 @@
         <v>19</v>
       </c>
       <c r="F256" s="0" t="s">
-        <v>735</v>
+        <v>737</v>
       </c>
       <c r="G256" s="0" t="s">
         <v>19</v>
       </c>
       <c r="H256" s="0" t="s">
-        <v>736</v>
+        <v>738</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="257">
       <c r="A257" s="0" t="s">
-        <v>737</v>
+        <v>739</v>
       </c>
       <c r="B257" s="0" t="s">
-        <v>738</v>
+        <v>740</v>
       </c>
       <c r="D257" s="0" t="s">
         <v>11</v>
@@ -9594,7 +9657,7 @@
         <v>19</v>
       </c>
       <c r="F257" s="0" t="s">
-        <v>739</v>
+        <v>741</v>
       </c>
       <c r="G257" s="0" t="s">
         <v>12</v>
@@ -9602,10 +9665,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="258">
       <c r="A258" s="0" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
       <c r="B258" s="0" t="s">
-        <v>741</v>
+        <v>743</v>
       </c>
       <c r="D258" s="0" t="s">
         <v>236</v>
@@ -9614,21 +9677,21 @@
         <v>19</v>
       </c>
       <c r="F258" s="0" t="s">
-        <v>742</v>
+        <v>744</v>
       </c>
       <c r="G258" s="0" t="s">
         <v>19</v>
       </c>
       <c r="H258" s="0" t="s">
-        <v>743</v>
+        <v>745</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="259">
       <c r="A259" s="0" t="s">
-        <v>744</v>
+        <v>746</v>
       </c>
       <c r="B259" s="0" t="s">
-        <v>745</v>
+        <v>747</v>
       </c>
       <c r="D259" s="0" t="s">
         <v>36</v>
@@ -9642,10 +9705,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="260">
       <c r="A260" s="0" t="s">
-        <v>746</v>
+        <v>748</v>
       </c>
       <c r="B260" s="0" t="s">
-        <v>747</v>
+        <v>749</v>
       </c>
       <c r="D260" s="0" t="s">
         <v>16</v>
@@ -9654,7 +9717,7 @@
         <v>19</v>
       </c>
       <c r="F260" s="0" t="s">
-        <v>748</v>
+        <v>750</v>
       </c>
       <c r="G260" s="0" t="s">
         <v>12</v>
@@ -9662,10 +9725,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="261">
       <c r="A261" s="0" t="s">
-        <v>749</v>
+        <v>751</v>
       </c>
       <c r="B261" s="0" t="s">
-        <v>750</v>
+        <v>752</v>
       </c>
       <c r="D261" s="0" t="s">
         <v>25</v>
@@ -9674,44 +9737,44 @@
         <v>19</v>
       </c>
       <c r="F261" s="0" t="s">
-        <v>751</v>
+        <v>753</v>
       </c>
       <c r="G261" s="0" t="s">
         <v>19</v>
       </c>
       <c r="H261" s="0" t="s">
-        <v>752</v>
+        <v>754</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="262">
       <c r="A262" s="0" t="s">
-        <v>753</v>
+        <v>755</v>
       </c>
       <c r="B262" s="0" t="s">
-        <v>754</v>
+        <v>756</v>
       </c>
       <c r="D262" s="0" t="s">
-        <v>755</v>
+        <v>757</v>
       </c>
       <c r="E262" s="0" t="s">
         <v>19</v>
       </c>
       <c r="F262" s="0" t="s">
-        <v>756</v>
+        <v>758</v>
       </c>
       <c r="G262" s="0" t="s">
         <v>19</v>
       </c>
       <c r="H262" s="0" t="s">
-        <v>757</v>
+        <v>759</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="263">
       <c r="A263" s="0" t="s">
-        <v>758</v>
+        <v>760</v>
       </c>
       <c r="B263" s="0" t="s">
-        <v>759</v>
+        <v>761</v>
       </c>
       <c r="D263" s="0" t="s">
         <v>30</v>
@@ -9720,21 +9783,21 @@
         <v>19</v>
       </c>
       <c r="F263" s="0" t="s">
-        <v>760</v>
+        <v>762</v>
       </c>
       <c r="G263" s="0" t="s">
         <v>19</v>
       </c>
       <c r="H263" s="0" t="s">
-        <v>761</v>
+        <v>763</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="264">
       <c r="A264" s="0" t="s">
-        <v>762</v>
+        <v>764</v>
       </c>
       <c r="B264" s="0" t="s">
-        <v>763</v>
+        <v>765</v>
       </c>
       <c r="D264" s="0" t="s">
         <v>25</v>
@@ -9748,10 +9811,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="265">
       <c r="A265" s="0" t="s">
-        <v>764</v>
+        <v>766</v>
       </c>
       <c r="B265" s="0" t="s">
-        <v>765</v>
+        <v>767</v>
       </c>
       <c r="D265" s="0" t="s">
         <v>25</v>
@@ -9760,21 +9823,21 @@
         <v>19</v>
       </c>
       <c r="F265" s="0" t="s">
-        <v>766</v>
+        <v>768</v>
       </c>
       <c r="G265" s="0" t="s">
         <v>19</v>
       </c>
       <c r="H265" s="0" t="s">
-        <v>767</v>
+        <v>769</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="266">
       <c r="A266" s="0" t="s">
-        <v>768</v>
+        <v>770</v>
       </c>
       <c r="B266" s="0" t="s">
-        <v>769</v>
+        <v>771</v>
       </c>
       <c r="D266" s="0" t="s">
         <v>11</v>
@@ -9783,7 +9846,7 @@
         <v>19</v>
       </c>
       <c r="F266" s="0" t="s">
-        <v>770</v>
+        <v>772</v>
       </c>
       <c r="G266" s="0" t="s">
         <v>12</v>
@@ -9791,10 +9854,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="267">
       <c r="A267" s="0" t="s">
-        <v>771</v>
+        <v>773</v>
       </c>
       <c r="B267" s="0" t="s">
-        <v>772</v>
+        <v>774</v>
       </c>
       <c r="D267" s="0" t="s">
         <v>25</v>
@@ -9803,21 +9866,21 @@
         <v>19</v>
       </c>
       <c r="F267" s="0" t="s">
-        <v>773</v>
+        <v>775</v>
       </c>
       <c r="G267" s="0" t="s">
         <v>19</v>
       </c>
       <c r="H267" s="0" t="s">
-        <v>774</v>
+        <v>776</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="268">
       <c r="A268" s="0" t="s">
-        <v>775</v>
+        <v>777</v>
       </c>
       <c r="B268" s="0" t="s">
-        <v>776</v>
+        <v>778</v>
       </c>
       <c r="D268" s="0" t="s">
         <v>25</v>
@@ -9829,23 +9892,23 @@
         <v>19</v>
       </c>
       <c r="H268" s="0" t="s">
-        <v>777</v>
+        <v>779</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="269">
       <c r="A269" s="0" t="s">
-        <v>778</v>
+        <v>780</v>
       </c>
       <c r="B269" s="0" t="s">
-        <v>779</v>
+        <v>781</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="270">
       <c r="A270" s="0" t="s">
-        <v>780</v>
+        <v>782</v>
       </c>
       <c r="B270" s="0" t="s">
-        <v>781</v>
+        <v>783</v>
       </c>
       <c r="D270" s="0" t="s">
         <v>11</v>
@@ -9859,10 +9922,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="271">
       <c r="A271" s="0" t="s">
-        <v>782</v>
+        <v>784</v>
       </c>
       <c r="B271" s="0" t="s">
-        <v>781</v>
+        <v>783</v>
       </c>
       <c r="D271" s="0" t="s">
         <v>11</v>
@@ -9876,10 +9939,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="272">
       <c r="A272" s="0" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="B272" s="0" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="D272" s="0" t="s">
         <v>30</v>
@@ -9888,21 +9951,21 @@
         <v>19</v>
       </c>
       <c r="F272" s="0" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
       <c r="G272" s="0" t="s">
         <v>19</v>
       </c>
       <c r="H272" s="0" t="s">
-        <v>786</v>
+        <v>788</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="273">
       <c r="A273" s="0" t="s">
-        <v>787</v>
+        <v>789</v>
       </c>
       <c r="B273" s="0" t="s">
-        <v>788</v>
+        <v>790</v>
       </c>
       <c r="D273" s="0" t="s">
         <v>30</v>
@@ -9911,24 +9974,24 @@
         <v>19</v>
       </c>
       <c r="F273" s="0" t="s">
-        <v>789</v>
+        <v>791</v>
       </c>
       <c r="G273" s="0" t="s">
         <v>19</v>
       </c>
       <c r="H273" s="0" t="s">
-        <v>786</v>
+        <v>788</v>
       </c>
       <c r="I273" s="0" t="s">
-        <v>790</v>
+        <v>792</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="274">
       <c r="A274" s="0" t="s">
-        <v>791</v>
+        <v>793</v>
       </c>
       <c r="B274" s="0" t="s">
-        <v>792</v>
+        <v>794</v>
       </c>
       <c r="D274" s="0" t="s">
         <v>11</v>
@@ -9940,15 +10003,15 @@
         <v>19</v>
       </c>
       <c r="H274" s="0" t="s">
-        <v>786</v>
+        <v>788</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="275">
       <c r="A275" s="0" t="s">
-        <v>793</v>
+        <v>795</v>
       </c>
       <c r="B275" s="0" t="s">
-        <v>794</v>
+        <v>796</v>
       </c>
       <c r="D275" s="0" t="s">
         <v>25</v>
@@ -9962,10 +10025,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="276">
       <c r="A276" s="0" t="s">
-        <v>795</v>
+        <v>797</v>
       </c>
       <c r="B276" s="0" t="s">
-        <v>796</v>
+        <v>798</v>
       </c>
       <c r="D276" s="0" t="s">
         <v>11</v>
@@ -9974,7 +10037,7 @@
         <v>19</v>
       </c>
       <c r="F276" s="0" t="s">
-        <v>797</v>
+        <v>799</v>
       </c>
       <c r="G276" s="0" t="s">
         <v>12</v>
@@ -9982,10 +10045,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="277">
       <c r="A277" s="0" t="s">
-        <v>798</v>
+        <v>800</v>
       </c>
       <c r="B277" s="0" t="s">
-        <v>799</v>
+        <v>801</v>
       </c>
       <c r="D277" s="0" t="s">
         <v>30</v>
@@ -9999,10 +10062,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="278">
       <c r="A278" s="0" t="s">
-        <v>800</v>
+        <v>802</v>
       </c>
       <c r="B278" s="0" t="s">
-        <v>801</v>
+        <v>803</v>
       </c>
       <c r="D278" s="0" t="s">
         <v>11</v>
@@ -10016,10 +10079,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="279">
       <c r="A279" s="0" t="s">
-        <v>802</v>
+        <v>804</v>
       </c>
       <c r="B279" s="0" t="s">
-        <v>803</v>
+        <v>805</v>
       </c>
       <c r="D279" s="0" t="s">
         <v>11</v>
@@ -10033,10 +10096,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="280">
       <c r="A280" s="0" t="s">
-        <v>804</v>
+        <v>806</v>
       </c>
       <c r="B280" s="0" t="s">
-        <v>805</v>
+        <v>807</v>
       </c>
       <c r="D280" s="0" t="s">
         <v>25</v>
@@ -10045,21 +10108,21 @@
         <v>19</v>
       </c>
       <c r="F280" s="0" t="s">
-        <v>806</v>
+        <v>808</v>
       </c>
       <c r="G280" s="0" t="s">
         <v>12</v>
       </c>
       <c r="I280" s="0" t="s">
-        <v>807</v>
+        <v>809</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="281">
       <c r="A281" s="0" t="s">
-        <v>808</v>
+        <v>810</v>
       </c>
       <c r="B281" s="0" t="s">
-        <v>809</v>
+        <v>811</v>
       </c>
       <c r="D281" s="0" t="s">
         <v>25</v>
@@ -10068,7 +10131,7 @@
         <v>19</v>
       </c>
       <c r="F281" s="0" t="s">
-        <v>806</v>
+        <v>808</v>
       </c>
       <c r="G281" s="0" t="s">
         <v>12</v>
@@ -10076,10 +10139,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="282">
       <c r="A282" s="0" t="s">
-        <v>810</v>
+        <v>812</v>
       </c>
       <c r="B282" s="0" t="s">
-        <v>811</v>
+        <v>813</v>
       </c>
       <c r="D282" s="0" t="s">
         <v>36</v>
@@ -10091,15 +10154,15 @@
         <v>19</v>
       </c>
       <c r="H282" s="0" t="s">
-        <v>811</v>
+        <v>813</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="283">
       <c r="A283" s="0" t="s">
-        <v>812</v>
+        <v>814</v>
       </c>
       <c r="B283" s="0" t="s">
-        <v>813</v>
+        <v>815</v>
       </c>
       <c r="D283" s="0" t="s">
         <v>25</v>
@@ -10108,7 +10171,7 @@
         <v>19</v>
       </c>
       <c r="F283" s="0" t="s">
-        <v>814</v>
+        <v>816</v>
       </c>
       <c r="G283" s="0" t="s">
         <v>12</v>
@@ -10116,10 +10179,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="284">
       <c r="A284" s="0" t="s">
-        <v>815</v>
+        <v>817</v>
       </c>
       <c r="B284" s="0" t="s">
-        <v>816</v>
+        <v>818</v>
       </c>
       <c r="D284" s="0" t="s">
         <v>11</v>
@@ -10128,7 +10191,7 @@
         <v>19</v>
       </c>
       <c r="F284" s="0" t="s">
-        <v>817</v>
+        <v>819</v>
       </c>
       <c r="G284" s="0" t="s">
         <v>12</v>
@@ -10136,10 +10199,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="285">
       <c r="A285" s="0" t="s">
-        <v>818</v>
+        <v>820</v>
       </c>
       <c r="B285" s="0" t="s">
-        <v>819</v>
+        <v>821</v>
       </c>
       <c r="D285" s="0" t="s">
         <v>30</v>
@@ -10151,15 +10214,15 @@
         <v>19</v>
       </c>
       <c r="H285" s="0" t="s">
-        <v>820</v>
+        <v>822</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="286">
       <c r="A286" s="0" t="s">
-        <v>821</v>
+        <v>823</v>
       </c>
       <c r="B286" s="0" t="s">
-        <v>822</v>
+        <v>824</v>
       </c>
       <c r="D286" s="0" t="s">
         <v>30</v>
@@ -10173,10 +10236,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="287">
       <c r="A287" s="0" t="s">
-        <v>823</v>
+        <v>825</v>
       </c>
       <c r="B287" s="0" t="s">
-        <v>824</v>
+        <v>826</v>
       </c>
       <c r="D287" s="0" t="s">
         <v>11</v>
@@ -10190,10 +10253,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="288">
       <c r="A288" s="0" t="s">
-        <v>825</v>
+        <v>827</v>
       </c>
       <c r="B288" s="0" t="s">
-        <v>826</v>
+        <v>828</v>
       </c>
       <c r="D288" s="0" t="s">
         <v>36</v>
@@ -10202,7 +10265,7 @@
         <v>19</v>
       </c>
       <c r="F288" s="0" t="s">
-        <v>827</v>
+        <v>829</v>
       </c>
       <c r="G288" s="0" t="s">
         <v>12</v>
@@ -10210,10 +10273,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="289">
       <c r="A289" s="0" t="s">
-        <v>828</v>
+        <v>830</v>
       </c>
       <c r="B289" s="0" t="s">
-        <v>829</v>
+        <v>831</v>
       </c>
       <c r="D289" s="0" t="s">
         <v>36</v>
@@ -10225,15 +10288,15 @@
         <v>19</v>
       </c>
       <c r="H289" s="0" t="s">
-        <v>830</v>
+        <v>832</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="290">
       <c r="A290" s="0" t="s">
-        <v>831</v>
+        <v>833</v>
       </c>
       <c r="B290" s="0" t="s">
-        <v>832</v>
+        <v>834</v>
       </c>
       <c r="D290" s="0" t="s">
         <v>16</v>
@@ -10245,15 +10308,15 @@
         <v>19</v>
       </c>
       <c r="H290" s="0" t="s">
-        <v>833</v>
+        <v>835</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="291">
       <c r="A291" s="0" t="s">
-        <v>834</v>
+        <v>836</v>
       </c>
       <c r="B291" s="0" t="s">
-        <v>835</v>
+        <v>837</v>
       </c>
       <c r="D291" s="0" t="s">
         <v>16</v>
@@ -10267,10 +10330,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="292">
       <c r="A292" s="0" t="s">
-        <v>836</v>
+        <v>838</v>
       </c>
       <c r="B292" s="0" t="s">
-        <v>837</v>
+        <v>839</v>
       </c>
       <c r="D292" s="0" t="s">
         <v>16</v>
@@ -10282,15 +10345,15 @@
         <v>19</v>
       </c>
       <c r="H292" s="0" t="s">
-        <v>838</v>
+        <v>840</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="293">
       <c r="A293" s="0" t="s">
-        <v>839</v>
+        <v>841</v>
       </c>
       <c r="B293" s="0" t="s">
-        <v>840</v>
+        <v>842</v>
       </c>
       <c r="D293" s="0" t="s">
         <v>16</v>
@@ -10299,7 +10362,7 @@
         <v>19</v>
       </c>
       <c r="F293" s="0" t="s">
-        <v>841</v>
+        <v>843</v>
       </c>
       <c r="G293" s="0" t="s">
         <v>12</v>
@@ -10307,7 +10370,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="294">
       <c r="A294" s="0" t="s">
-        <v>842</v>
+        <v>844</v>
       </c>
       <c r="B294" s="0" t="s">
         <v>11</v>
@@ -10327,10 +10390,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="295">
       <c r="A295" s="0" t="s">
-        <v>843</v>
+        <v>845</v>
       </c>
       <c r="B295" s="0" t="s">
-        <v>844</v>
+        <v>846</v>
       </c>
       <c r="D295" s="0" t="s">
         <v>36</v>
@@ -10344,10 +10407,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="296">
       <c r="A296" s="0" t="s">
-        <v>845</v>
+        <v>847</v>
       </c>
       <c r="B296" s="0" t="s">
-        <v>846</v>
+        <v>848</v>
       </c>
       <c r="D296" s="0" t="s">
         <v>30</v>
@@ -10356,21 +10419,21 @@
         <v>19</v>
       </c>
       <c r="F296" s="0" t="s">
-        <v>847</v>
+        <v>849</v>
       </c>
       <c r="G296" s="0" t="s">
         <v>19</v>
       </c>
       <c r="H296" s="0" t="s">
-        <v>848</v>
+        <v>850</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="297">
       <c r="A297" s="0" t="s">
-        <v>849</v>
+        <v>851</v>
       </c>
       <c r="B297" s="0" t="s">
-        <v>850</v>
+        <v>852</v>
       </c>
       <c r="D297" s="0" t="s">
         <v>25</v>
@@ -10379,21 +10442,21 @@
         <v>19</v>
       </c>
       <c r="F297" s="0" t="s">
-        <v>851</v>
+        <v>853</v>
       </c>
       <c r="G297" s="0" t="s">
         <v>19</v>
       </c>
       <c r="H297" s="0" t="s">
-        <v>852</v>
+        <v>854</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="298">
       <c r="A298" s="0" t="s">
-        <v>853</v>
+        <v>855</v>
       </c>
       <c r="B298" s="0" t="s">
-        <v>850</v>
+        <v>852</v>
       </c>
       <c r="D298" s="0" t="s">
         <v>25</v>
@@ -10402,21 +10465,21 @@
         <v>19</v>
       </c>
       <c r="F298" s="0" t="s">
-        <v>851</v>
+        <v>853</v>
       </c>
       <c r="G298" s="0" t="s">
         <v>19</v>
       </c>
       <c r="H298" s="0" t="s">
-        <v>852</v>
+        <v>854</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="299">
       <c r="A299" s="0" t="s">
-        <v>854</v>
+        <v>856</v>
       </c>
       <c r="B299" s="0" t="s">
-        <v>855</v>
+        <v>857</v>
       </c>
       <c r="D299" s="0" t="s">
         <v>36</v>
@@ -10425,21 +10488,21 @@
         <v>19</v>
       </c>
       <c r="F299" s="0" t="s">
-        <v>856</v>
+        <v>858</v>
       </c>
       <c r="G299" s="0" t="s">
         <v>19</v>
       </c>
       <c r="H299" s="0" t="s">
-        <v>857</v>
+        <v>859</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="300">
       <c r="A300" s="0" t="s">
-        <v>858</v>
+        <v>860</v>
       </c>
       <c r="B300" s="0" t="s">
-        <v>859</v>
+        <v>861</v>
       </c>
       <c r="D300" s="0" t="s">
         <v>36</v>
@@ -10451,15 +10514,15 @@
         <v>19</v>
       </c>
       <c r="H300" s="0" t="s">
-        <v>860</v>
+        <v>862</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="301">
       <c r="A301" s="0" t="s">
-        <v>861</v>
+        <v>863</v>
       </c>
       <c r="B301" s="0" t="s">
-        <v>862</v>
+        <v>864</v>
       </c>
       <c r="D301" s="0" t="s">
         <v>11</v>
@@ -10468,7 +10531,7 @@
         <v>19</v>
       </c>
       <c r="F301" s="0" t="s">
-        <v>863</v>
+        <v>865</v>
       </c>
       <c r="G301" s="0" t="s">
         <v>12</v>
@@ -10476,10 +10539,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="302">
       <c r="A302" s="0" t="s">
-        <v>864</v>
+        <v>866</v>
       </c>
       <c r="B302" s="0" t="s">
-        <v>865</v>
+        <v>867</v>
       </c>
       <c r="D302" s="0" t="s">
         <v>11</v>
@@ -10488,7 +10551,7 @@
         <v>19</v>
       </c>
       <c r="F302" s="0" t="s">
-        <v>866</v>
+        <v>868</v>
       </c>
       <c r="G302" s="0" t="s">
         <v>12</v>
@@ -10496,10 +10559,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="303">
       <c r="A303" s="0" t="s">
-        <v>867</v>
+        <v>869</v>
       </c>
       <c r="B303" s="0" t="s">
-        <v>868</v>
+        <v>870</v>
       </c>
       <c r="D303" s="0" t="s">
         <v>16</v>
@@ -10511,15 +10574,15 @@
         <v>19</v>
       </c>
       <c r="H303" s="0" t="s">
-        <v>869</v>
+        <v>871</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="304">
       <c r="A304" s="0" t="s">
-        <v>870</v>
+        <v>872</v>
       </c>
       <c r="B304" s="0" t="s">
-        <v>871</v>
+        <v>873</v>
       </c>
       <c r="D304" s="0" t="s">
         <v>36</v>
@@ -10528,15 +10591,15 @@
         <v>19</v>
       </c>
       <c r="F304" s="0" t="s">
-        <v>872</v>
+        <v>874</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="305">
       <c r="A305" s="0" t="s">
-        <v>873</v>
+        <v>875</v>
       </c>
       <c r="B305" s="0" t="s">
-        <v>874</v>
+        <v>876</v>
       </c>
       <c r="D305" s="0" t="s">
         <v>11</v>
@@ -10548,15 +10611,15 @@
         <v>19</v>
       </c>
       <c r="H305" s="0" t="s">
-        <v>875</v>
+        <v>877</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="306">
       <c r="A306" s="0" t="s">
-        <v>876</v>
+        <v>878</v>
       </c>
       <c r="B306" s="0" t="s">
-        <v>877</v>
+        <v>879</v>
       </c>
       <c r="D306" s="0" t="s">
         <v>36</v>
@@ -10568,15 +10631,15 @@
         <v>19</v>
       </c>
       <c r="H306" s="0" t="s">
-        <v>878</v>
+        <v>880</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="307">
       <c r="A307" s="0" t="s">
-        <v>879</v>
+        <v>881</v>
       </c>
       <c r="B307" s="0" t="s">
-        <v>880</v>
+        <v>882</v>
       </c>
       <c r="D307" s="0" t="s">
         <v>11</v>
@@ -10585,21 +10648,21 @@
         <v>19</v>
       </c>
       <c r="F307" s="0" t="s">
-        <v>881</v>
+        <v>883</v>
       </c>
       <c r="G307" s="0" t="s">
         <v>19</v>
       </c>
       <c r="H307" s="0" t="s">
-        <v>882</v>
+        <v>884</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="308">
       <c r="A308" s="0" t="s">
-        <v>883</v>
+        <v>885</v>
       </c>
       <c r="B308" s="0" t="s">
-        <v>884</v>
+        <v>886</v>
       </c>
       <c r="D308" s="0" t="s">
         <v>36</v>
@@ -10608,21 +10671,21 @@
         <v>19</v>
       </c>
       <c r="F308" s="0" t="s">
-        <v>885</v>
+        <v>887</v>
       </c>
       <c r="G308" s="0" t="s">
         <v>19</v>
       </c>
       <c r="H308" s="0" t="s">
-        <v>886</v>
+        <v>888</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="309">
       <c r="A309" s="0" t="s">
-        <v>887</v>
+        <v>889</v>
       </c>
       <c r="B309" s="0" t="s">
-        <v>888</v>
+        <v>890</v>
       </c>
       <c r="D309" s="0" t="s">
         <v>30</v>
@@ -10631,7 +10694,7 @@
         <v>19</v>
       </c>
       <c r="F309" s="0" t="s">
-        <v>889</v>
+        <v>891</v>
       </c>
       <c r="G309" s="0" t="s">
         <v>12</v>
@@ -10639,10 +10702,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="310">
       <c r="A310" s="0" t="s">
-        <v>890</v>
+        <v>892</v>
       </c>
       <c r="B310" s="0" t="s">
-        <v>891</v>
+        <v>893</v>
       </c>
       <c r="D310" s="0" t="s">
         <v>11</v>
@@ -10656,10 +10719,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="311">
       <c r="A311" s="0" t="s">
-        <v>892</v>
+        <v>894</v>
       </c>
       <c r="B311" s="0" t="s">
-        <v>893</v>
+        <v>895</v>
       </c>
       <c r="D311" s="0" t="s">
         <v>11</v>
@@ -10671,35 +10734,35 @@
         <v>19</v>
       </c>
       <c r="H311" s="0" t="s">
-        <v>894</v>
+        <v>896</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="312">
       <c r="A312" s="0" t="s">
-        <v>895</v>
+        <v>897</v>
       </c>
       <c r="B312" s="0" t="s">
+        <v>898</v>
+      </c>
+      <c r="D312" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="E312" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="G312" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="H312" s="0" t="s">
         <v>896</v>
-      </c>
-      <c r="D312" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="E312" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="G312" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="H312" s="0" t="s">
-        <v>894</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="313">
       <c r="A313" s="0" t="s">
-        <v>897</v>
+        <v>899</v>
       </c>
       <c r="B313" s="0" t="s">
-        <v>898</v>
+        <v>900</v>
       </c>
       <c r="D313" s="0" t="s">
         <v>11</v>
@@ -10716,10 +10779,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="314">
       <c r="A314" s="0" t="s">
-        <v>899</v>
+        <v>901</v>
       </c>
       <c r="B314" s="0" t="s">
-        <v>900</v>
+        <v>902</v>
       </c>
       <c r="D314" s="0" t="s">
         <v>11</v>
@@ -10733,10 +10796,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="315">
       <c r="A315" s="0" t="s">
-        <v>901</v>
+        <v>903</v>
       </c>
       <c r="B315" s="0" t="s">
-        <v>902</v>
+        <v>904</v>
       </c>
       <c r="D315" s="0" t="s">
         <v>36</v>
@@ -10745,21 +10808,21 @@
         <v>19</v>
       </c>
       <c r="F315" s="0" t="s">
-        <v>903</v>
+        <v>905</v>
       </c>
       <c r="G315" s="0" t="s">
         <v>19</v>
       </c>
       <c r="H315" s="0" t="s">
-        <v>904</v>
+        <v>906</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="316">
       <c r="A316" s="0" t="s">
-        <v>905</v>
+        <v>907</v>
       </c>
       <c r="B316" s="0" t="s">
-        <v>906</v>
+        <v>908</v>
       </c>
       <c r="D316" s="0" t="s">
         <v>30</v>
@@ -10776,10 +10839,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="317">
       <c r="A317" s="0" t="s">
-        <v>907</v>
+        <v>909</v>
       </c>
       <c r="B317" s="0" t="s">
-        <v>908</v>
+        <v>910</v>
       </c>
       <c r="D317" s="0" t="s">
         <v>25</v>
@@ -10788,21 +10851,21 @@
         <v>19</v>
       </c>
       <c r="F317" s="0" t="s">
-        <v>909</v>
+        <v>911</v>
       </c>
       <c r="G317" s="0" t="s">
         <v>19</v>
       </c>
       <c r="H317" s="0" t="s">
-        <v>910</v>
+        <v>912</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="318">
       <c r="A318" s="0" t="s">
-        <v>911</v>
+        <v>913</v>
       </c>
       <c r="B318" s="0" t="s">
-        <v>912</v>
+        <v>914</v>
       </c>
       <c r="D318" s="0" t="s">
         <v>16</v>
@@ -10811,7 +10874,7 @@
         <v>19</v>
       </c>
       <c r="F318" s="0" t="s">
-        <v>913</v>
+        <v>915</v>
       </c>
       <c r="G318" s="0" t="s">
         <v>19</v>
@@ -10822,10 +10885,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="319">
       <c r="A319" s="0" t="s">
-        <v>914</v>
+        <v>916</v>
       </c>
       <c r="B319" s="0" t="s">
-        <v>915</v>
+        <v>917</v>
       </c>
       <c r="D319" s="0" t="s">
         <v>16</v>
@@ -10839,10 +10902,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="320">
       <c r="A320" s="0" t="s">
-        <v>916</v>
+        <v>918</v>
       </c>
       <c r="B320" s="0" t="s">
-        <v>917</v>
+        <v>919</v>
       </c>
       <c r="D320" s="0" t="s">
         <v>16</v>
@@ -10851,21 +10914,21 @@
         <v>19</v>
       </c>
       <c r="F320" s="0" t="s">
-        <v>918</v>
+        <v>920</v>
       </c>
       <c r="G320" s="0" t="s">
         <v>19</v>
       </c>
       <c r="H320" s="0" t="s">
-        <v>919</v>
+        <v>921</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="321">
       <c r="A321" s="0" t="s">
-        <v>920</v>
+        <v>922</v>
       </c>
       <c r="B321" s="0" t="s">
-        <v>921</v>
+        <v>923</v>
       </c>
       <c r="D321" s="0" t="s">
         <v>25</v>
@@ -10874,21 +10937,21 @@
         <v>19</v>
       </c>
       <c r="F321" s="0" t="s">
-        <v>922</v>
+        <v>924</v>
       </c>
       <c r="G321" s="0" t="s">
         <v>19</v>
       </c>
       <c r="H321" s="0" t="s">
-        <v>923</v>
+        <v>925</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="322">
       <c r="A322" s="0" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="B322" s="0" t="s">
-        <v>925</v>
+        <v>927</v>
       </c>
       <c r="D322" s="0" t="s">
         <v>11</v>
@@ -10897,7 +10960,7 @@
         <v>19</v>
       </c>
       <c r="F322" s="0" t="s">
-        <v>926</v>
+        <v>928</v>
       </c>
       <c r="G322" s="0" t="s">
         <v>12</v>
@@ -10905,10 +10968,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="323">
       <c r="A323" s="0" t="s">
-        <v>927</v>
+        <v>929</v>
       </c>
       <c r="B323" s="0" t="s">
-        <v>928</v>
+        <v>930</v>
       </c>
       <c r="D323" s="0" t="s">
         <v>16</v>
@@ -10920,15 +10983,15 @@
         <v>19</v>
       </c>
       <c r="H323" s="0" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="324">
       <c r="A324" s="0" t="s">
-        <v>930</v>
+        <v>932</v>
       </c>
       <c r="B324" s="0" t="s">
-        <v>931</v>
+        <v>933</v>
       </c>
       <c r="D324" s="0" t="s">
         <v>11</v>
@@ -10940,15 +11003,15 @@
         <v>19</v>
       </c>
       <c r="H324" s="0" t="s">
-        <v>932</v>
+        <v>934</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="325">
       <c r="A325" s="0" t="s">
-        <v>933</v>
+        <v>935</v>
       </c>
       <c r="B325" s="0" t="s">
-        <v>934</v>
+        <v>936</v>
       </c>
       <c r="D325" s="0" t="s">
         <v>25</v>
@@ -10962,10 +11025,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="326">
       <c r="A326" s="0" t="s">
-        <v>935</v>
+        <v>937</v>
       </c>
       <c r="B326" s="0" t="s">
-        <v>936</v>
+        <v>938</v>
       </c>
       <c r="D326" s="0" t="s">
         <v>36</v>
@@ -10979,10 +11042,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="327">
       <c r="A327" s="0" t="s">
-        <v>937</v>
+        <v>939</v>
       </c>
       <c r="B327" s="0" t="s">
-        <v>938</v>
+        <v>940</v>
       </c>
       <c r="D327" s="0" t="s">
         <v>30</v>
@@ -10991,7 +11054,7 @@
         <v>19</v>
       </c>
       <c r="F327" s="0" t="s">
-        <v>939</v>
+        <v>941</v>
       </c>
       <c r="G327" s="0" t="s">
         <v>12</v>
@@ -10999,10 +11062,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="328">
       <c r="A328" s="0" t="s">
-        <v>940</v>
+        <v>942</v>
       </c>
       <c r="B328" s="0" t="s">
-        <v>941</v>
+        <v>943</v>
       </c>
       <c r="D328" s="0" t="s">
         <v>16</v>
@@ -11011,15 +11074,15 @@
         <v>19</v>
       </c>
       <c r="F328" s="0" t="s">
-        <v>942</v>
+        <v>944</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="329">
       <c r="A329" s="0" t="s">
-        <v>943</v>
+        <v>945</v>
       </c>
       <c r="B329" s="0" t="s">
-        <v>944</v>
+        <v>946</v>
       </c>
       <c r="D329" s="0" t="s">
         <v>36</v>
@@ -11028,7 +11091,7 @@
         <v>19</v>
       </c>
       <c r="F329" s="0" t="s">
-        <v>945</v>
+        <v>947</v>
       </c>
       <c r="G329" s="0" t="s">
         <v>12</v>
@@ -11036,10 +11099,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="330">
       <c r="A330" s="0" t="s">
-        <v>946</v>
+        <v>948</v>
       </c>
       <c r="B330" s="0" t="s">
-        <v>947</v>
+        <v>949</v>
       </c>
       <c r="D330" s="0" t="s">
         <v>11</v>
@@ -11053,10 +11116,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="331">
       <c r="A331" s="0" t="s">
-        <v>948</v>
+        <v>950</v>
       </c>
       <c r="B331" s="0" t="s">
-        <v>949</v>
+        <v>951</v>
       </c>
       <c r="D331" s="0" t="s">
         <v>36</v>
@@ -11070,10 +11133,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="332">
       <c r="A332" s="0" t="s">
-        <v>950</v>
+        <v>952</v>
       </c>
       <c r="B332" s="0" t="s">
-        <v>951</v>
+        <v>953</v>
       </c>
       <c r="D332" s="0" t="s">
         <v>36</v>
@@ -11087,10 +11150,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="333">
       <c r="A333" s="0" t="s">
-        <v>952</v>
+        <v>954</v>
       </c>
       <c r="B333" s="0" t="s">
-        <v>953</v>
+        <v>955</v>
       </c>
       <c r="D333" s="0" t="s">
         <v>30</v>
@@ -11104,10 +11167,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="334">
       <c r="A334" s="0" t="s">
-        <v>954</v>
+        <v>956</v>
       </c>
       <c r="B334" s="0" t="s">
-        <v>955</v>
+        <v>957</v>
       </c>
       <c r="D334" s="0" t="s">
         <v>11</v>
@@ -11116,7 +11179,7 @@
         <v>19</v>
       </c>
       <c r="F334" s="0" t="s">
-        <v>956</v>
+        <v>958</v>
       </c>
       <c r="G334" s="0" t="s">
         <v>12</v>
@@ -11124,10 +11187,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="335">
       <c r="A335" s="0" t="s">
-        <v>957</v>
+        <v>959</v>
       </c>
       <c r="B335" s="0" t="s">
-        <v>958</v>
+        <v>960</v>
       </c>
       <c r="D335" s="0" t="s">
         <v>25</v>
@@ -11136,7 +11199,7 @@
         <v>19</v>
       </c>
       <c r="F335" s="0" t="s">
-        <v>959</v>
+        <v>961</v>
       </c>
       <c r="G335" s="0" t="s">
         <v>12</v>
@@ -11144,10 +11207,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="336">
       <c r="A336" s="0" t="s">
-        <v>960</v>
+        <v>962</v>
       </c>
       <c r="B336" s="0" t="s">
-        <v>961</v>
+        <v>963</v>
       </c>
       <c r="D336" s="0" t="s">
         <v>30</v>
@@ -11161,10 +11224,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="337">
       <c r="A337" s="0" t="s">
-        <v>962</v>
+        <v>964</v>
       </c>
       <c r="B337" s="0" t="s">
-        <v>963</v>
+        <v>965</v>
       </c>
       <c r="D337" s="0" t="s">
         <v>25</v>
@@ -11173,7 +11236,7 @@
         <v>19</v>
       </c>
       <c r="F337" s="0" t="s">
-        <v>964</v>
+        <v>966</v>
       </c>
       <c r="G337" s="0" t="s">
         <v>19</v>
@@ -11181,10 +11244,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="338">
       <c r="A338" s="0" t="s">
-        <v>965</v>
+        <v>967</v>
       </c>
       <c r="B338" s="0" t="s">
-        <v>966</v>
+        <v>968</v>
       </c>
       <c r="D338" s="0" t="s">
         <v>36</v>
@@ -11198,10 +11261,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="339">
       <c r="A339" s="0" t="s">
-        <v>967</v>
+        <v>969</v>
       </c>
       <c r="B339" s="0" t="s">
-        <v>968</v>
+        <v>970</v>
       </c>
       <c r="D339" s="0" t="s">
         <v>25</v>
@@ -11210,7 +11273,7 @@
         <v>19</v>
       </c>
       <c r="F339" s="0" t="s">
-        <v>969</v>
+        <v>971</v>
       </c>
       <c r="G339" s="0" t="s">
         <v>12</v>
@@ -11218,10 +11281,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="340">
       <c r="A340" s="0" t="s">
-        <v>970</v>
+        <v>972</v>
       </c>
       <c r="B340" s="0" t="s">
-        <v>971</v>
+        <v>973</v>
       </c>
       <c r="D340" s="0" t="s">
         <v>25</v>
@@ -11230,7 +11293,7 @@
         <v>19</v>
       </c>
       <c r="F340" s="0" t="s">
-        <v>972</v>
+        <v>974</v>
       </c>
       <c r="G340" s="0" t="s">
         <v>12</v>
@@ -11238,10 +11301,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="341">
       <c r="A341" s="0" t="s">
-        <v>973</v>
+        <v>975</v>
       </c>
       <c r="B341" s="0" t="s">
-        <v>974</v>
+        <v>976</v>
       </c>
       <c r="D341" s="0" t="s">
         <v>11</v>
@@ -11250,7 +11313,7 @@
         <v>19</v>
       </c>
       <c r="F341" s="0" t="s">
-        <v>975</v>
+        <v>977</v>
       </c>
       <c r="G341" s="0" t="s">
         <v>12</v>
@@ -11258,10 +11321,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="342">
       <c r="A342" s="0" t="s">
-        <v>976</v>
+        <v>978</v>
       </c>
       <c r="B342" s="0" t="s">
-        <v>977</v>
+        <v>979</v>
       </c>
       <c r="D342" s="0" t="s">
         <v>36</v>
@@ -11275,10 +11338,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="343">
       <c r="A343" s="0" t="s">
-        <v>978</v>
+        <v>980</v>
       </c>
       <c r="B343" s="0" t="s">
-        <v>979</v>
+        <v>981</v>
       </c>
       <c r="D343" s="0" t="s">
         <v>11</v>
@@ -11287,24 +11350,24 @@
         <v>19</v>
       </c>
       <c r="F343" s="0" t="s">
-        <v>980</v>
+        <v>982</v>
       </c>
       <c r="G343" s="0" t="s">
         <v>19</v>
       </c>
       <c r="H343" s="0" t="s">
-        <v>981</v>
+        <v>983</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="344">
       <c r="A344" s="0" t="s">
-        <v>982</v>
+        <v>984</v>
       </c>
       <c r="B344" s="0" t="s">
-        <v>983</v>
+        <v>985</v>
       </c>
       <c r="D344" s="0" t="s">
-        <v>755</v>
+        <v>757</v>
       </c>
       <c r="E344" s="0" t="s">
         <v>12</v>
@@ -11313,15 +11376,15 @@
         <v>19</v>
       </c>
       <c r="H344" s="0" t="s">
-        <v>984</v>
+        <v>986</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="345">
       <c r="A345" s="0" t="s">
-        <v>985</v>
+        <v>987</v>
       </c>
       <c r="B345" s="0" t="s">
-        <v>986</v>
+        <v>988</v>
       </c>
       <c r="D345" s="0" t="s">
         <v>11</v>
@@ -11330,7 +11393,7 @@
         <v>19</v>
       </c>
       <c r="F345" s="0" t="s">
-        <v>987</v>
+        <v>989</v>
       </c>
       <c r="G345" s="0" t="s">
         <v>12</v>
@@ -11338,10 +11401,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="346">
       <c r="A346" s="0" t="s">
-        <v>988</v>
+        <v>990</v>
       </c>
       <c r="B346" s="0" t="s">
-        <v>989</v>
+        <v>991</v>
       </c>
       <c r="D346" s="0" t="s">
         <v>36</v>
@@ -11355,10 +11418,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="347">
       <c r="A347" s="0" t="s">
-        <v>990</v>
+        <v>992</v>
       </c>
       <c r="B347" s="0" t="s">
-        <v>991</v>
+        <v>993</v>
       </c>
       <c r="D347" s="0" t="s">
         <v>30</v>
@@ -11370,15 +11433,15 @@
         <v>19</v>
       </c>
       <c r="H347" s="0" t="s">
-        <v>992</v>
+        <v>994</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="348">
       <c r="A348" s="0" t="s">
-        <v>993</v>
+        <v>995</v>
       </c>
       <c r="B348" s="0" t="s">
-        <v>994</v>
+        <v>996</v>
       </c>
       <c r="D348" s="0" t="s">
         <v>16</v>
@@ -11387,7 +11450,7 @@
         <v>19</v>
       </c>
       <c r="F348" s="0" t="s">
-        <v>995</v>
+        <v>997</v>
       </c>
       <c r="G348" s="0" t="s">
         <v>12</v>
@@ -11395,10 +11458,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="349">
       <c r="A349" s="0" t="s">
-        <v>996</v>
+        <v>998</v>
       </c>
       <c r="B349" s="0" t="s">
-        <v>997</v>
+        <v>999</v>
       </c>
       <c r="D349" s="0" t="s">
         <v>11</v>
@@ -11410,15 +11473,15 @@
         <v>19</v>
       </c>
       <c r="H349" s="0" t="s">
-        <v>998</v>
+        <v>1000</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="350">
       <c r="A350" s="0" t="s">
-        <v>996</v>
+        <v>998</v>
       </c>
       <c r="B350" s="0" t="s">
-        <v>997</v>
+        <v>999</v>
       </c>
       <c r="D350" s="0" t="s">
         <v>11</v>
@@ -11430,15 +11493,15 @@
         <v>19</v>
       </c>
       <c r="H350" s="0" t="s">
-        <v>998</v>
+        <v>1000</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="351">
       <c r="A351" s="0" t="s">
-        <v>999</v>
+        <v>1001</v>
       </c>
       <c r="B351" s="0" t="s">
-        <v>1000</v>
+        <v>1002</v>
       </c>
       <c r="D351" s="0" t="s">
         <v>16</v>
@@ -11450,15 +11513,15 @@
         <v>19</v>
       </c>
       <c r="H351" s="0" t="s">
-        <v>1001</v>
+        <v>1003</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="352">
       <c r="A352" s="0" t="s">
-        <v>1002</v>
+        <v>1004</v>
       </c>
       <c r="B352" s="0" t="s">
-        <v>1003</v>
+        <v>1005</v>
       </c>
       <c r="D352" s="0" t="s">
         <v>25</v>
@@ -11472,10 +11535,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="353">
       <c r="A353" s="0" t="s">
-        <v>1004</v>
+        <v>1006</v>
       </c>
       <c r="B353" s="0" t="s">
-        <v>1005</v>
+        <v>1007</v>
       </c>
       <c r="D353" s="0" t="s">
         <v>25</v>
@@ -11484,21 +11547,21 @@
         <v>19</v>
       </c>
       <c r="F353" s="0" t="s">
-        <v>1006</v>
+        <v>1008</v>
       </c>
       <c r="G353" s="0" t="s">
         <v>19</v>
       </c>
       <c r="H353" s="0" t="s">
-        <v>1007</v>
+        <v>1009</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="354">
       <c r="A354" s="0" t="s">
-        <v>1008</v>
+        <v>1010</v>
       </c>
       <c r="B354" s="0" t="s">
-        <v>1009</v>
+        <v>1011</v>
       </c>
       <c r="D354" s="0" t="s">
         <v>25</v>
@@ -11512,10 +11575,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="355">
       <c r="A355" s="0" t="s">
-        <v>1010</v>
+        <v>1012</v>
       </c>
       <c r="B355" s="0" t="s">
-        <v>1011</v>
+        <v>1013</v>
       </c>
       <c r="D355" s="0" t="s">
         <v>11</v>
@@ -11527,15 +11590,15 @@
         <v>19</v>
       </c>
       <c r="H355" s="0" t="s">
-        <v>1012</v>
+        <v>1014</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="356">
       <c r="A356" s="0" t="s">
-        <v>1013</v>
+        <v>1015</v>
       </c>
       <c r="B356" s="0" t="s">
-        <v>1014</v>
+        <v>1016</v>
       </c>
       <c r="D356" s="0" t="s">
         <v>16</v>
@@ -11549,10 +11612,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="357">
       <c r="A357" s="0" t="s">
-        <v>1015</v>
+        <v>1017</v>
       </c>
       <c r="B357" s="0" t="s">
-        <v>1016</v>
+        <v>1018</v>
       </c>
       <c r="D357" s="0" t="s">
         <v>16</v>
@@ -11566,10 +11629,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="358">
       <c r="A358" s="0" t="s">
-        <v>1017</v>
+        <v>1019</v>
       </c>
       <c r="B358" s="0" t="s">
-        <v>1018</v>
+        <v>1020</v>
       </c>
       <c r="D358" s="0" t="s">
         <v>11</v>
@@ -11583,10 +11646,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="359">
       <c r="A359" s="0" t="s">
-        <v>1019</v>
+        <v>1021</v>
       </c>
       <c r="B359" s="0" t="s">
-        <v>1020</v>
+        <v>1022</v>
       </c>
       <c r="D359" s="0" t="s">
         <v>11</v>
@@ -11600,10 +11663,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="360">
       <c r="A360" s="0" t="s">
-        <v>1021</v>
+        <v>1023</v>
       </c>
       <c r="B360" s="0" t="s">
-        <v>1022</v>
+        <v>1024</v>
       </c>
       <c r="D360" s="0" t="s">
         <v>16</v>
@@ -11612,7 +11675,7 @@
         <v>19</v>
       </c>
       <c r="F360" s="0" t="s">
-        <v>1023</v>
+        <v>1025</v>
       </c>
       <c r="G360" s="0" t="s">
         <v>19</v>
@@ -11623,10 +11686,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="361">
       <c r="A361" s="0" t="s">
-        <v>1024</v>
+        <v>1026</v>
       </c>
       <c r="B361" s="0" t="s">
-        <v>1025</v>
+        <v>1027</v>
       </c>
       <c r="D361" s="0" t="s">
         <v>16</v>
@@ -11638,15 +11701,15 @@
         <v>19</v>
       </c>
       <c r="H361" s="0" t="s">
-        <v>1026</v>
+        <v>1028</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="362">
       <c r="A362" s="0" t="s">
-        <v>1027</v>
+        <v>1029</v>
       </c>
       <c r="B362" s="0" t="s">
-        <v>1028</v>
+        <v>1030</v>
       </c>
       <c r="D362" s="0" t="s">
         <v>11</v>
@@ -11660,10 +11723,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="363">
       <c r="A363" s="0" t="s">
-        <v>1029</v>
+        <v>1031</v>
       </c>
       <c r="B363" s="0" t="s">
-        <v>1030</v>
+        <v>1032</v>
       </c>
       <c r="D363" s="0" t="s">
         <v>25</v>
@@ -11675,15 +11738,15 @@
         <v>19</v>
       </c>
       <c r="H363" s="0" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="364">
       <c r="A364" s="0" t="s">
-        <v>1032</v>
+        <v>1034</v>
       </c>
       <c r="B364" s="0" t="s">
-        <v>1033</v>
+        <v>1035</v>
       </c>
       <c r="D364" s="0" t="s">
         <v>30</v>
@@ -11695,7 +11758,7 @@
         <v>19</v>
       </c>
       <c r="H364" s="0" t="s">
-        <v>1034</v>
+        <v>1036</v>
       </c>
       <c r="I364" s="0" t="s">
         <v>33</v>
@@ -11703,10 +11766,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="365">
       <c r="A365" s="0" t="s">
-        <v>1035</v>
+        <v>1037</v>
       </c>
       <c r="B365" s="0" t="s">
-        <v>1036</v>
+        <v>1038</v>
       </c>
       <c r="D365" s="0" t="s">
         <v>25</v>
@@ -11718,15 +11781,15 @@
         <v>19</v>
       </c>
       <c r="H365" s="0" t="s">
-        <v>1037</v>
+        <v>1039</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="366">
       <c r="A366" s="0" t="s">
-        <v>1038</v>
+        <v>1040</v>
       </c>
       <c r="B366" s="0" t="s">
-        <v>1039</v>
+        <v>1041</v>
       </c>
       <c r="D366" s="0" t="s">
         <v>11</v>
@@ -11740,10 +11803,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="367">
       <c r="A367" s="0" t="s">
-        <v>1040</v>
+        <v>1042</v>
       </c>
       <c r="B367" s="0" t="s">
-        <v>1041</v>
+        <v>1043</v>
       </c>
       <c r="D367" s="0" t="s">
         <v>16</v>
@@ -11757,10 +11820,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="368">
       <c r="A368" s="0" t="s">
-        <v>1042</v>
+        <v>1044</v>
       </c>
       <c r="B368" s="2" t="s">
-        <v>1043</v>
+        <v>1045</v>
       </c>
       <c r="C368" s="2"/>
       <c r="D368" s="0" t="s">
@@ -11775,10 +11838,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="369">
       <c r="A369" s="0" t="s">
-        <v>1044</v>
+        <v>1046</v>
       </c>
       <c r="B369" s="0" t="s">
-        <v>1045</v>
+        <v>1047</v>
       </c>
       <c r="D369" s="0" t="s">
         <v>16</v>
@@ -11790,15 +11853,15 @@
         <v>19</v>
       </c>
       <c r="H369" s="0" t="s">
-        <v>1046</v>
+        <v>1048</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="370">
       <c r="A370" s="0" t="s">
-        <v>1047</v>
+        <v>1049</v>
       </c>
       <c r="B370" s="0" t="s">
-        <v>1048</v>
+        <v>1050</v>
       </c>
       <c r="D370" s="0" t="s">
         <v>11</v>
@@ -11810,15 +11873,15 @@
         <v>19</v>
       </c>
       <c r="H370" s="0" t="s">
-        <v>1049</v>
+        <v>1051</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="371">
       <c r="A371" s="0" t="s">
-        <v>1050</v>
+        <v>1052</v>
       </c>
       <c r="B371" s="2" t="s">
-        <v>1051</v>
+        <v>1053</v>
       </c>
       <c r="C371" s="2"/>
       <c r="D371" s="0" t="s">
@@ -11828,45 +11891,45 @@
         <v>19</v>
       </c>
       <c r="F371" s="0" t="s">
-        <v>1052</v>
+        <v>1054</v>
       </c>
       <c r="G371" s="0" t="s">
         <v>19</v>
       </c>
       <c r="H371" s="0" t="s">
-        <v>1053</v>
+        <v>1055</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="372">
       <c r="A372" s="0" t="s">
+        <v>1056</v>
+      </c>
+      <c r="B372" s="0" t="s">
+        <v>1053</v>
+      </c>
+      <c r="D372" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="E372" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="F372" s="0" t="s">
         <v>1054</v>
       </c>
-      <c r="B372" s="0" t="s">
-        <v>1051</v>
-      </c>
-      <c r="D372" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="E372" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="F372" s="0" t="s">
-        <v>1052</v>
-      </c>
       <c r="G372" s="0" t="s">
         <v>19</v>
       </c>
       <c r="H372" s="0" t="s">
-        <v>1053</v>
+        <v>1055</v>
       </c>
       <c r="I372" s="2"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="373">
       <c r="A373" s="0" t="s">
-        <v>1055</v>
+        <v>1057</v>
       </c>
       <c r="B373" s="0" t="s">
-        <v>1051</v>
+        <v>1053</v>
       </c>
       <c r="D373" s="0" t="s">
         <v>36</v>
@@ -11875,21 +11938,21 @@
         <v>19</v>
       </c>
       <c r="F373" s="0" t="s">
-        <v>1052</v>
+        <v>1054</v>
       </c>
       <c r="G373" s="0" t="s">
         <v>19</v>
       </c>
       <c r="H373" s="0" t="s">
-        <v>1053</v>
+        <v>1055</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="374">
       <c r="A374" s="0" t="s">
-        <v>1056</v>
+        <v>1058</v>
       </c>
       <c r="B374" s="0" t="s">
-        <v>1051</v>
+        <v>1053</v>
       </c>
       <c r="D374" s="0" t="s">
         <v>11</v>
@@ -11898,21 +11961,21 @@
         <v>19</v>
       </c>
       <c r="F374" s="0" t="s">
-        <v>1052</v>
+        <v>1054</v>
       </c>
       <c r="G374" s="0" t="s">
         <v>19</v>
       </c>
       <c r="H374" s="0" t="s">
-        <v>1053</v>
+        <v>1055</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="375">
       <c r="A375" s="0" t="s">
-        <v>1057</v>
+        <v>1059</v>
       </c>
       <c r="B375" s="2" t="s">
-        <v>1051</v>
+        <v>1053</v>
       </c>
       <c r="C375" s="2"/>
       <c r="D375" s="0" t="s">
@@ -11922,21 +11985,21 @@
         <v>19</v>
       </c>
       <c r="F375" s="0" t="s">
-        <v>1052</v>
+        <v>1054</v>
       </c>
       <c r="G375" s="0" t="s">
         <v>19</v>
       </c>
       <c r="H375" s="0" t="s">
-        <v>1053</v>
+        <v>1055</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="376">
       <c r="A376" s="0" t="s">
-        <v>1058</v>
+        <v>1060</v>
       </c>
       <c r="B376" s="0" t="s">
-        <v>1051</v>
+        <v>1053</v>
       </c>
       <c r="D376" s="0" t="s">
         <v>25</v>
@@ -11945,21 +12008,21 @@
         <v>19</v>
       </c>
       <c r="F376" s="0" t="s">
-        <v>1052</v>
+        <v>1054</v>
       </c>
       <c r="G376" s="0" t="s">
         <v>19</v>
       </c>
       <c r="H376" s="0" t="s">
-        <v>1053</v>
+        <v>1055</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="377">
       <c r="A377" s="0" t="s">
-        <v>1059</v>
+        <v>1061</v>
       </c>
       <c r="B377" s="0" t="s">
-        <v>1060</v>
+        <v>1062</v>
       </c>
       <c r="D377" s="0" t="s">
         <v>25</v>
@@ -11973,10 +12036,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="378">
       <c r="A378" s="0" t="s">
-        <v>1061</v>
+        <v>1063</v>
       </c>
       <c r="B378" s="0" t="s">
-        <v>1062</v>
+        <v>1064</v>
       </c>
       <c r="D378" s="0" t="s">
         <v>11</v>
@@ -11988,15 +12051,15 @@
         <v>19</v>
       </c>
       <c r="H378" s="0" t="s">
-        <v>1063</v>
+        <v>1065</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="379">
       <c r="A379" s="0" t="s">
-        <v>1064</v>
+        <v>1066</v>
       </c>
       <c r="B379" s="2" t="s">
-        <v>1065</v>
+        <v>1067</v>
       </c>
       <c r="C379" s="2"/>
       <c r="D379" s="0" t="s">
@@ -12006,21 +12069,21 @@
         <v>19</v>
       </c>
       <c r="F379" s="0" t="s">
-        <v>1066</v>
+        <v>1068</v>
       </c>
       <c r="G379" s="0" t="s">
         <v>19</v>
       </c>
       <c r="H379" s="0" t="s">
-        <v>1067</v>
+        <v>1069</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="380">
       <c r="A380" s="0" t="s">
-        <v>1068</v>
+        <v>1070</v>
       </c>
       <c r="B380" s="0" t="s">
-        <v>1069</v>
+        <v>1071</v>
       </c>
       <c r="D380" s="2" t="s">
         <v>25</v>
@@ -12034,10 +12097,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="381">
       <c r="A381" s="0" t="s">
-        <v>1070</v>
+        <v>1072</v>
       </c>
       <c r="B381" s="0" t="s">
-        <v>1071</v>
+        <v>1073</v>
       </c>
       <c r="D381" s="2" t="s">
         <v>25</v>
@@ -12046,7 +12109,7 @@
         <v>19</v>
       </c>
       <c r="F381" s="0" t="s">
-        <v>1072</v>
+        <v>1074</v>
       </c>
       <c r="G381" s="2" t="s">
         <v>12</v>
@@ -12055,10 +12118,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="382">
       <c r="A382" s="0" t="s">
-        <v>1073</v>
+        <v>1075</v>
       </c>
       <c r="B382" s="0" t="s">
-        <v>1074</v>
+        <v>1076</v>
       </c>
       <c r="D382" s="0" t="s">
         <v>11</v>
@@ -12072,10 +12135,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="383">
       <c r="A383" s="0" t="s">
-        <v>1075</v>
+        <v>1077</v>
       </c>
       <c r="B383" s="0" t="s">
-        <v>1076</v>
+        <v>1078</v>
       </c>
       <c r="D383" s="0" t="s">
         <v>16</v>
@@ -12089,10 +12152,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="384">
       <c r="A384" s="0" t="s">
-        <v>1077</v>
+        <v>1079</v>
       </c>
       <c r="B384" s="0" t="s">
-        <v>1078</v>
+        <v>1080</v>
       </c>
       <c r="D384" s="0" t="s">
         <v>16</v>
@@ -12104,7 +12167,7 @@
         <v>19</v>
       </c>
       <c r="H384" s="0" t="s">
-        <v>1079</v>
+        <v>1081</v>
       </c>
       <c r="I384" s="2" t="s">
         <v>33</v>
@@ -12112,10 +12175,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="385">
       <c r="A385" s="0" t="s">
-        <v>1080</v>
+        <v>1082</v>
       </c>
       <c r="B385" s="0" t="s">
-        <v>1081</v>
+        <v>1083</v>
       </c>
       <c r="D385" s="0" t="s">
         <v>11</v>
@@ -12129,10 +12192,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="386">
       <c r="A386" s="0" t="s">
-        <v>1082</v>
+        <v>1084</v>
       </c>
       <c r="B386" s="0" t="s">
-        <v>1083</v>
+        <v>1085</v>
       </c>
       <c r="D386" s="0" t="s">
         <v>25</v>
@@ -12144,15 +12207,15 @@
         <v>19</v>
       </c>
       <c r="H386" s="0" t="s">
-        <v>1084</v>
+        <v>1086</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="387">
       <c r="A387" s="0" t="s">
-        <v>1085</v>
+        <v>1087</v>
       </c>
       <c r="B387" s="0" t="s">
-        <v>1086</v>
+        <v>1088</v>
       </c>
       <c r="D387" s="0" t="s">
         <v>11</v>
@@ -12161,7 +12224,7 @@
         <v>19</v>
       </c>
       <c r="F387" s="0" t="s">
-        <v>1087</v>
+        <v>1089</v>
       </c>
       <c r="G387" s="0" t="s">
         <v>12</v>
@@ -12169,10 +12232,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="388">
       <c r="A388" s="0" t="s">
-        <v>1088</v>
+        <v>1090</v>
       </c>
       <c r="B388" s="0" t="s">
-        <v>1089</v>
+        <v>1091</v>
       </c>
       <c r="D388" s="0" t="s">
         <v>30</v>
@@ -12186,13 +12249,13 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="389">
       <c r="A389" s="0" t="s">
-        <v>1090</v>
+        <v>1092</v>
       </c>
       <c r="B389" s="0" t="s">
-        <v>1091</v>
+        <v>1093</v>
       </c>
       <c r="D389" s="0" t="s">
-        <v>755</v>
+        <v>757</v>
       </c>
       <c r="E389" s="0" t="s">
         <v>12</v>
@@ -12201,15 +12264,15 @@
         <v>19</v>
       </c>
       <c r="H389" s="0" t="s">
-        <v>1092</v>
+        <v>1094</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="390">
       <c r="A390" s="0" t="s">
-        <v>1093</v>
+        <v>1095</v>
       </c>
       <c r="B390" s="0" t="s">
-        <v>1094</v>
+        <v>1096</v>
       </c>
       <c r="D390" s="0" t="s">
         <v>11</v>
@@ -12218,7 +12281,7 @@
         <v>19</v>
       </c>
       <c r="F390" s="0" t="s">
-        <v>1095</v>
+        <v>1097</v>
       </c>
       <c r="G390" s="0" t="s">
         <v>12</v>
@@ -12226,10 +12289,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="391">
       <c r="A391" s="0" t="s">
-        <v>1096</v>
+        <v>1098</v>
       </c>
       <c r="B391" s="0" t="s">
-        <v>1097</v>
+        <v>1099</v>
       </c>
       <c r="D391" s="0" t="s">
         <v>11</v>
@@ -12243,10 +12306,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="392">
       <c r="A392" s="0" t="s">
-        <v>1098</v>
+        <v>1100</v>
       </c>
       <c r="B392" s="0" t="s">
-        <v>1099</v>
+        <v>1101</v>
       </c>
       <c r="D392" s="0" t="s">
         <v>36</v>
@@ -12255,7 +12318,7 @@
         <v>19</v>
       </c>
       <c r="F392" s="0" t="s">
-        <v>1100</v>
+        <v>1102</v>
       </c>
       <c r="G392" s="0" t="s">
         <v>12</v>
@@ -12263,10 +12326,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="393">
       <c r="A393" s="0" t="s">
-        <v>1101</v>
+        <v>1103</v>
       </c>
       <c r="B393" s="0" t="s">
-        <v>1102</v>
+        <v>1104</v>
       </c>
       <c r="D393" s="0" t="s">
         <v>25</v>
@@ -12275,7 +12338,7 @@
         <v>19</v>
       </c>
       <c r="F393" s="0" t="s">
-        <v>1103</v>
+        <v>1105</v>
       </c>
       <c r="G393" s="0" t="s">
         <v>12</v>
@@ -12283,10 +12346,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="394">
       <c r="A394" s="0" t="s">
-        <v>1104</v>
+        <v>1106</v>
       </c>
       <c r="B394" s="0" t="s">
-        <v>1105</v>
+        <v>1107</v>
       </c>
       <c r="D394" s="0" t="s">
         <v>36</v>
@@ -12295,21 +12358,21 @@
         <v>19</v>
       </c>
       <c r="F394" s="0" t="s">
-        <v>1106</v>
+        <v>1108</v>
       </c>
       <c r="G394" s="2" t="s">
         <v>19</v>
       </c>
       <c r="H394" s="0" t="s">
-        <v>1107</v>
+        <v>1109</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="395">
       <c r="A395" s="0" t="s">
-        <v>1108</v>
+        <v>1110</v>
       </c>
       <c r="B395" s="0" t="s">
-        <v>1109</v>
+        <v>1111</v>
       </c>
       <c r="D395" s="0" t="s">
         <v>25</v>
@@ -12318,7 +12381,7 @@
         <v>19</v>
       </c>
       <c r="F395" s="0" t="s">
-        <v>1110</v>
+        <v>1112</v>
       </c>
       <c r="G395" s="0" t="s">
         <v>12</v>
@@ -12326,10 +12389,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="396">
       <c r="A396" s="0" t="s">
-        <v>1111</v>
+        <v>1113</v>
       </c>
       <c r="B396" s="0" t="s">
-        <v>1112</v>
+        <v>1114</v>
       </c>
       <c r="D396" s="0" t="s">
         <v>11</v>
@@ -12343,10 +12406,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="397">
       <c r="A397" s="0" t="s">
-        <v>1113</v>
+        <v>1115</v>
       </c>
       <c r="B397" s="2" t="s">
-        <v>1114</v>
+        <v>1116</v>
       </c>
       <c r="C397" s="2"/>
       <c r="D397" s="0" t="s">
@@ -12356,7 +12419,7 @@
         <v>19</v>
       </c>
       <c r="F397" s="0" t="s">
-        <v>1115</v>
+        <v>1117</v>
       </c>
       <c r="G397" s="2" t="s">
         <v>12</v>
@@ -12364,10 +12427,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="398">
       <c r="A398" s="0" t="s">
-        <v>1116</v>
+        <v>1118</v>
       </c>
       <c r="B398" s="0" t="s">
-        <v>1117</v>
+        <v>1119</v>
       </c>
       <c r="D398" s="0" t="s">
         <v>11</v>
@@ -12379,15 +12442,15 @@
         <v>19</v>
       </c>
       <c r="H398" s="0" t="s">
-        <v>1118</v>
+        <v>1120</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="399">
       <c r="A399" s="0" t="s">
-        <v>1119</v>
+        <v>1121</v>
       </c>
       <c r="B399" s="0" t="s">
-        <v>1120</v>
+        <v>1122</v>
       </c>
       <c r="D399" s="0" t="s">
         <v>11</v>
@@ -12401,10 +12464,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="400">
       <c r="A400" s="0" t="s">
-        <v>1121</v>
+        <v>1123</v>
       </c>
       <c r="B400" s="0" t="s">
-        <v>1122</v>
+        <v>1124</v>
       </c>
       <c r="D400" s="0" t="s">
         <v>11</v>
@@ -12413,7 +12476,7 @@
         <v>19</v>
       </c>
       <c r="F400" s="0" t="s">
-        <v>1123</v>
+        <v>1125</v>
       </c>
       <c r="G400" s="0" t="s">
         <v>12</v>
@@ -12422,10 +12485,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="401">
       <c r="A401" s="2" t="s">
-        <v>1124</v>
+        <v>1126</v>
       </c>
       <c r="B401" s="0" t="s">
-        <v>1125</v>
+        <v>1127</v>
       </c>
       <c r="D401" s="2" t="s">
         <v>11</v>
@@ -12440,10 +12503,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="402">
       <c r="A402" s="0" t="s">
-        <v>1126</v>
+        <v>1128</v>
       </c>
       <c r="B402" s="0" t="s">
-        <v>1127</v>
+        <v>1129</v>
       </c>
       <c r="D402" s="0" t="s">
         <v>11</v>
@@ -12457,10 +12520,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="403">
       <c r="A403" s="0" t="s">
-        <v>1128</v>
+        <v>1130</v>
       </c>
       <c r="B403" s="0" t="s">
-        <v>1129</v>
+        <v>1131</v>
       </c>
       <c r="D403" s="0" t="s">
         <v>11</v>
@@ -12474,10 +12537,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="404">
       <c r="A404" s="0" t="s">
-        <v>1130</v>
+        <v>1132</v>
       </c>
       <c r="B404" s="0" t="s">
-        <v>1131</v>
+        <v>1133</v>
       </c>
       <c r="D404" s="0" t="s">
         <v>11</v>
@@ -12491,10 +12554,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="405">
       <c r="A405" s="0" t="s">
-        <v>1132</v>
+        <v>1134</v>
       </c>
       <c r="B405" s="0" t="s">
-        <v>1133</v>
+        <v>1135</v>
       </c>
       <c r="D405" s="0" t="s">
         <v>11</v>
@@ -12508,10 +12571,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="406">
       <c r="A406" s="0" t="s">
-        <v>1134</v>
+        <v>1136</v>
       </c>
       <c r="B406" s="0" t="s">
-        <v>1135</v>
+        <v>1137</v>
       </c>
       <c r="D406" s="0" t="s">
         <v>16</v>
@@ -12523,15 +12586,15 @@
         <v>19</v>
       </c>
       <c r="H406" s="0" t="s">
-        <v>1136</v>
+        <v>1138</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="407">
       <c r="A407" s="0" t="s">
-        <v>1137</v>
+        <v>1139</v>
       </c>
       <c r="B407" s="0" t="s">
-        <v>1138</v>
+        <v>1140</v>
       </c>
       <c r="D407" s="0" t="s">
         <v>11</v>
@@ -12545,10 +12608,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="408">
       <c r="A408" s="0" t="s">
-        <v>1139</v>
+        <v>1141</v>
       </c>
       <c r="B408" s="0" t="s">
-        <v>1140</v>
+        <v>1142</v>
       </c>
       <c r="D408" s="0" t="s">
         <v>11</v>
@@ -12557,7 +12620,7 @@
         <v>19</v>
       </c>
       <c r="F408" s="0" t="s">
-        <v>1141</v>
+        <v>1143</v>
       </c>
       <c r="G408" s="2" t="s">
         <v>12</v>
@@ -12565,10 +12628,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="409">
       <c r="A409" s="0" t="s">
-        <v>1142</v>
+        <v>1144</v>
       </c>
       <c r="B409" s="0" t="s">
-        <v>1143</v>
+        <v>1145</v>
       </c>
       <c r="D409" s="0" t="s">
         <v>25</v>
@@ -12582,10 +12645,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="410">
       <c r="A410" s="0" t="s">
-        <v>1144</v>
+        <v>1146</v>
       </c>
       <c r="B410" s="2" t="s">
-        <v>1145</v>
+        <v>1147</v>
       </c>
       <c r="C410" s="2"/>
       <c r="D410" s="2" t="s">
@@ -12600,10 +12663,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="411">
       <c r="A411" s="0" t="s">
-        <v>1146</v>
+        <v>1148</v>
       </c>
       <c r="B411" s="0" t="s">
-        <v>1147</v>
+        <v>1149</v>
       </c>
       <c r="D411" s="0" t="s">
         <v>25</v>
@@ -12612,7 +12675,7 @@
         <v>19</v>
       </c>
       <c r="F411" s="0" t="s">
-        <v>1148</v>
+        <v>1150</v>
       </c>
       <c r="G411" s="0" t="s">
         <v>12</v>
@@ -12620,10 +12683,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="412">
       <c r="A412" s="0" t="s">
-        <v>1149</v>
+        <v>1151</v>
       </c>
       <c r="B412" s="0" t="s">
-        <v>1150</v>
+        <v>1152</v>
       </c>
       <c r="D412" s="0" t="s">
         <v>25</v>
@@ -12637,10 +12700,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="413">
       <c r="A413" s="0" t="s">
-        <v>1151</v>
+        <v>1153</v>
       </c>
       <c r="B413" s="0" t="s">
-        <v>1152</v>
+        <v>1154</v>
       </c>
       <c r="D413" s="0" t="s">
         <v>30</v>
@@ -12652,18 +12715,18 @@
         <v>19</v>
       </c>
       <c r="H413" s="0" t="s">
-        <v>1153</v>
+        <v>1155</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="414">
       <c r="A414" s="0" t="s">
-        <v>1154</v>
+        <v>1156</v>
       </c>
       <c r="B414" s="0" t="s">
-        <v>1155</v>
+        <v>1157</v>
       </c>
       <c r="D414" s="0" t="s">
-        <v>755</v>
+        <v>757</v>
       </c>
       <c r="E414" s="0" t="s">
         <v>12</v>
@@ -12672,15 +12735,15 @@
         <v>19</v>
       </c>
       <c r="H414" s="0" t="s">
-        <v>1156</v>
+        <v>1158</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="415">
       <c r="A415" s="0" t="s">
-        <v>1157</v>
+        <v>1159</v>
       </c>
       <c r="B415" s="0" t="s">
-        <v>1158</v>
+        <v>1160</v>
       </c>
       <c r="D415" s="0" t="s">
         <v>11</v>
@@ -12694,10 +12757,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="416">
       <c r="A416" s="0" t="s">
-        <v>1159</v>
+        <v>1161</v>
       </c>
       <c r="B416" s="0" t="s">
-        <v>1160</v>
+        <v>1162</v>
       </c>
       <c r="D416" s="0" t="s">
         <v>11</v>
@@ -12711,10 +12774,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="417">
       <c r="A417" s="0" t="s">
-        <v>1161</v>
+        <v>1163</v>
       </c>
       <c r="B417" s="0" t="s">
-        <v>1162</v>
+        <v>1164</v>
       </c>
       <c r="D417" s="0" t="s">
         <v>36</v>
@@ -12726,15 +12789,15 @@
         <v>19</v>
       </c>
       <c r="H417" s="0" t="s">
-        <v>1163</v>
+        <v>1165</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="418">
       <c r="A418" s="0" t="s">
-        <v>1164</v>
+        <v>1166</v>
       </c>
       <c r="B418" s="0" t="s">
-        <v>1165</v>
+        <v>1167</v>
       </c>
       <c r="D418" s="2" t="s">
         <v>25</v>
@@ -12743,7 +12806,7 @@
         <v>19</v>
       </c>
       <c r="F418" s="0" t="s">
-        <v>1166</v>
+        <v>1168</v>
       </c>
       <c r="G418" s="0" t="s">
         <v>12</v>
@@ -12751,10 +12814,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="419">
       <c r="A419" s="0" t="s">
-        <v>1167</v>
+        <v>1169</v>
       </c>
       <c r="B419" s="0" t="s">
-        <v>1168</v>
+        <v>1170</v>
       </c>
       <c r="D419" s="2" t="s">
         <v>25</v>
@@ -12768,10 +12831,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="420">
       <c r="A420" s="0" t="s">
-        <v>1169</v>
+        <v>1171</v>
       </c>
       <c r="B420" s="0" t="s">
-        <v>1170</v>
+        <v>1172</v>
       </c>
       <c r="D420" s="0" t="s">
         <v>25</v>
@@ -12785,10 +12848,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="421">
       <c r="A421" s="0" t="s">
-        <v>1171</v>
+        <v>1173</v>
       </c>
       <c r="B421" s="0" t="s">
-        <v>1172</v>
+        <v>1174</v>
       </c>
       <c r="D421" s="0" t="s">
         <v>30</v>
@@ -12797,7 +12860,7 @@
         <v>19</v>
       </c>
       <c r="F421" s="0" t="s">
-        <v>1173</v>
+        <v>1175</v>
       </c>
       <c r="G421" s="0" t="s">
         <v>12</v>
@@ -12805,10 +12868,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="422">
       <c r="A422" s="0" t="s">
-        <v>1174</v>
+        <v>1176</v>
       </c>
       <c r="B422" s="0" t="s">
-        <v>1175</v>
+        <v>1177</v>
       </c>
       <c r="D422" s="0" t="s">
         <v>25</v>
@@ -12817,7 +12880,7 @@
         <v>19</v>
       </c>
       <c r="F422" s="0" t="s">
-        <v>1176</v>
+        <v>1178</v>
       </c>
       <c r="G422" s="0" t="s">
         <v>12</v>
@@ -12825,19 +12888,19 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="423">
       <c r="A423" s="0" t="s">
-        <v>1177</v>
+        <v>1179</v>
       </c>
       <c r="B423" s="0" t="s">
-        <v>1178</v>
+        <v>1180</v>
       </c>
       <c r="D423" s="0" t="s">
-        <v>755</v>
+        <v>757</v>
       </c>
       <c r="E423" s="0" t="s">
         <v>19</v>
       </c>
       <c r="F423" s="0" t="s">
-        <v>1179</v>
+        <v>1181</v>
       </c>
       <c r="G423" s="0" t="s">
         <v>12</v>
@@ -12845,20 +12908,20 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="424">
       <c r="A424" s="0" t="s">
-        <v>1180</v>
+        <v>1182</v>
       </c>
       <c r="B424" s="2" t="s">
-        <v>1181</v>
+        <v>1183</v>
       </c>
       <c r="C424" s="2"/>
       <c r="D424" s="0" t="s">
-        <v>755</v>
+        <v>757</v>
       </c>
       <c r="E424" s="0" t="s">
         <v>19</v>
       </c>
       <c r="F424" s="0" t="s">
-        <v>1182</v>
+        <v>1184</v>
       </c>
       <c r="G424" s="0" t="s">
         <v>12</v>
@@ -12866,10 +12929,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="425">
       <c r="A425" s="0" t="s">
-        <v>1183</v>
+        <v>1185</v>
       </c>
       <c r="B425" s="0" t="s">
-        <v>1184</v>
+        <v>1186</v>
       </c>
       <c r="D425" s="0" t="s">
         <v>16</v>
@@ -12878,7 +12941,7 @@
         <v>19</v>
       </c>
       <c r="F425" s="0" t="s">
-        <v>1185</v>
+        <v>1187</v>
       </c>
       <c r="G425" s="0" t="s">
         <v>19</v>
@@ -12889,10 +12952,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="426">
       <c r="A426" s="0" t="s">
-        <v>1186</v>
+        <v>1188</v>
       </c>
       <c r="B426" s="0" t="s">
-        <v>1187</v>
+        <v>1189</v>
       </c>
       <c r="D426" s="0" t="s">
         <v>25</v>
@@ -12906,10 +12969,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="427">
       <c r="A427" s="0" t="s">
-        <v>1188</v>
+        <v>1190</v>
       </c>
       <c r="B427" s="0" t="s">
-        <v>1189</v>
+        <v>1191</v>
       </c>
       <c r="D427" s="0" t="s">
         <v>236</v>
@@ -12923,10 +12986,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="428">
       <c r="A428" s="0" t="s">
-        <v>1190</v>
+        <v>1192</v>
       </c>
       <c r="B428" s="0" t="s">
-        <v>1191</v>
+        <v>1193</v>
       </c>
       <c r="D428" s="0" t="s">
         <v>236</v>
@@ -12938,15 +13001,15 @@
         <v>19</v>
       </c>
       <c r="H428" s="0" t="s">
-        <v>1192</v>
+        <v>1194</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="429">
       <c r="A429" s="0" t="s">
-        <v>1193</v>
+        <v>1195</v>
       </c>
       <c r="B429" s="2" t="s">
-        <v>1194</v>
+        <v>1196</v>
       </c>
       <c r="C429" s="2"/>
       <c r="D429" s="0" t="s">
@@ -12956,7 +13019,7 @@
         <v>19</v>
       </c>
       <c r="F429" s="0" t="s">
-        <v>1195</v>
+        <v>1197</v>
       </c>
       <c r="G429" s="0" t="s">
         <v>12</v>
@@ -12964,10 +13027,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="430">
       <c r="A430" s="0" t="s">
-        <v>1196</v>
+        <v>1198</v>
       </c>
       <c r="B430" s="0" t="s">
-        <v>1197</v>
+        <v>1199</v>
       </c>
       <c r="D430" s="0" t="s">
         <v>236</v>
@@ -12979,15 +13042,15 @@
         <v>19</v>
       </c>
       <c r="H430" s="0" t="s">
-        <v>1198</v>
+        <v>1200</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="431">
       <c r="A431" s="0" t="s">
-        <v>1199</v>
+        <v>1201</v>
       </c>
       <c r="B431" s="0" t="s">
-        <v>1200</v>
+        <v>1202</v>
       </c>
       <c r="D431" s="0" t="s">
         <v>25</v>
@@ -12999,15 +13062,15 @@
         <v>19</v>
       </c>
       <c r="H431" s="0" t="s">
-        <v>1201</v>
+        <v>1203</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="432">
       <c r="A432" s="0" t="s">
-        <v>1202</v>
+        <v>1204</v>
       </c>
       <c r="B432" s="0" t="s">
-        <v>1203</v>
+        <v>1205</v>
       </c>
       <c r="D432" s="0" t="s">
         <v>30</v>
@@ -13016,7 +13079,7 @@
         <v>19</v>
       </c>
       <c r="F432" s="0" t="s">
-        <v>1204</v>
+        <v>1206</v>
       </c>
       <c r="G432" s="0" t="s">
         <v>12</v>
@@ -13024,10 +13087,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="433">
       <c r="A433" s="0" t="s">
-        <v>1205</v>
+        <v>1207</v>
       </c>
       <c r="B433" s="0" t="s">
-        <v>1206</v>
+        <v>1208</v>
       </c>
       <c r="D433" s="0" t="s">
         <v>11</v>
@@ -13041,10 +13104,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="434">
       <c r="A434" s="0" t="s">
-        <v>1207</v>
+        <v>1209</v>
       </c>
       <c r="B434" s="0" t="s">
-        <v>1208</v>
+        <v>1210</v>
       </c>
       <c r="D434" s="0" t="s">
         <v>25</v>
@@ -13056,15 +13119,15 @@
         <v>19</v>
       </c>
       <c r="H434" s="0" t="s">
-        <v>1209</v>
+        <v>1211</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="435">
       <c r="A435" s="0" t="s">
-        <v>1210</v>
+        <v>1212</v>
       </c>
       <c r="B435" s="0" t="s">
-        <v>1211</v>
+        <v>1213</v>
       </c>
       <c r="D435" s="2" t="s">
         <v>25</v>
@@ -13076,15 +13139,15 @@
         <v>19</v>
       </c>
       <c r="H435" s="0" t="s">
-        <v>1209</v>
+        <v>1211</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="436">
       <c r="A436" s="0" t="s">
-        <v>1212</v>
+        <v>1214</v>
       </c>
       <c r="B436" s="0" t="s">
-        <v>1213</v>
+        <v>1215</v>
       </c>
       <c r="D436" s="0" t="s">
         <v>11</v>
@@ -13093,7 +13156,7 @@
         <v>19</v>
       </c>
       <c r="F436" s="0" t="s">
-        <v>1214</v>
+        <v>1216</v>
       </c>
       <c r="G436" s="2" t="s">
         <v>12</v>
@@ -13101,10 +13164,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="437">
       <c r="A437" s="0" t="s">
-        <v>1215</v>
+        <v>1217</v>
       </c>
       <c r="B437" s="0" t="s">
-        <v>1216</v>
+        <v>1218</v>
       </c>
       <c r="D437" s="0" t="s">
         <v>11</v>
@@ -13116,15 +13179,15 @@
         <v>19</v>
       </c>
       <c r="H437" s="0" t="s">
-        <v>1217</v>
+        <v>1219</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="438">
       <c r="A438" s="0" t="s">
-        <v>1218</v>
+        <v>1220</v>
       </c>
       <c r="B438" s="0" t="s">
-        <v>1219</v>
+        <v>1221</v>
       </c>
       <c r="D438" s="0" t="s">
         <v>36</v>
@@ -13133,7 +13196,7 @@
         <v>19</v>
       </c>
       <c r="F438" s="0" t="s">
-        <v>1220</v>
+        <v>1222</v>
       </c>
       <c r="G438" s="2" t="s">
         <v>12</v>
@@ -13141,10 +13204,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="439">
       <c r="A439" s="0" t="s">
-        <v>1221</v>
+        <v>1223</v>
       </c>
       <c r="B439" s="0" t="s">
-        <v>1222</v>
+        <v>1224</v>
       </c>
       <c r="D439" s="0" t="s">
         <v>11</v>
@@ -13156,15 +13219,15 @@
         <v>19</v>
       </c>
       <c r="H439" s="0" t="s">
-        <v>1223</v>
+        <v>1225</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="440">
       <c r="A440" s="0" t="s">
-        <v>1224</v>
+        <v>1226</v>
       </c>
       <c r="B440" s="0" t="s">
-        <v>1225</v>
+        <v>1227</v>
       </c>
       <c r="D440" s="0" t="s">
         <v>25</v>
@@ -13173,21 +13236,21 @@
         <v>19</v>
       </c>
       <c r="F440" s="0" t="s">
-        <v>1226</v>
+        <v>1228</v>
       </c>
       <c r="G440" s="0" t="s">
         <v>19</v>
       </c>
       <c r="H440" s="0" t="s">
-        <v>1223</v>
+        <v>1225</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="441">
       <c r="A441" s="0" t="s">
-        <v>1227</v>
+        <v>1229</v>
       </c>
       <c r="B441" s="0" t="s">
-        <v>1228</v>
+        <v>1230</v>
       </c>
       <c r="D441" s="0" t="s">
         <v>11</v>
@@ -13196,21 +13259,21 @@
         <v>19</v>
       </c>
       <c r="F441" s="0" t="s">
-        <v>1229</v>
+        <v>1231</v>
       </c>
       <c r="G441" s="0" t="s">
         <v>19</v>
       </c>
       <c r="H441" s="0" t="s">
-        <v>1223</v>
+        <v>1225</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="442">
       <c r="A442" s="0" t="s">
-        <v>1230</v>
+        <v>1232</v>
       </c>
       <c r="B442" s="0" t="s">
-        <v>1231</v>
+        <v>1233</v>
       </c>
       <c r="D442" s="0" t="s">
         <v>11</v>
@@ -13222,15 +13285,15 @@
         <v>19</v>
       </c>
       <c r="H442" s="0" t="s">
-        <v>1232</v>
+        <v>1234</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="443">
       <c r="A443" s="0" t="s">
-        <v>1233</v>
+        <v>1235</v>
       </c>
       <c r="B443" s="0" t="s">
-        <v>1234</v>
+        <v>1236</v>
       </c>
       <c r="D443" s="0" t="s">
         <v>30</v>
@@ -13239,21 +13302,21 @@
         <v>19</v>
       </c>
       <c r="F443" s="0" t="s">
-        <v>1235</v>
+        <v>1237</v>
       </c>
       <c r="G443" s="0" t="s">
         <v>19</v>
       </c>
       <c r="H443" s="0" t="s">
-        <v>1236</v>
+        <v>1238</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="444">
       <c r="A444" s="0" t="s">
-        <v>1237</v>
+        <v>1239</v>
       </c>
       <c r="B444" s="0" t="s">
-        <v>1238</v>
+        <v>1240</v>
       </c>
       <c r="D444" s="0" t="s">
         <v>11</v>
@@ -13262,7 +13325,7 @@
         <v>19</v>
       </c>
       <c r="F444" s="0" t="s">
-        <v>1239</v>
+        <v>1241</v>
       </c>
       <c r="G444" s="0" t="s">
         <v>12</v>

--- a/kohana/oiadsites.xlsx
+++ b/kohana/oiadsites.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2832" uniqueCount="1242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2888" uniqueCount="1246">
   <si>
     <t>Site Name</t>
   </si>
@@ -2230,6 +2230,9 @@
     <t>http://now.montred.com/</t>
   </si>
   <si>
+    <t>Fatal error: ...</t>
+  </si>
+  <si>
     <t>http://now.montred.com/feed/</t>
   </si>
   <si>
@@ -2323,6 +2326,9 @@
     <t>http://www.myjewelrybox.com/</t>
   </si>
   <si>
+    <t>Daily Item Not found (?)</t>
+  </si>
+  <si>
     <t>http://www.myjewelrybox.com/media/rss/MyJewelryBoxcomBargainofTheDay.xml</t>
   </si>
   <si>
@@ -2335,6 +2341,9 @@
     <t>http://www.mysafetyshield.com/</t>
   </si>
   <si>
+    <t>Account suspended</t>
+  </si>
+  <si>
     <t>http://www.mysafetyshield.com/todaydeal_rss.asp</t>
   </si>
   <si>
@@ -2492,6 +2501,9 @@
   </si>
   <si>
     <t>http://www.onesmallstore.com/catalog/193/1/Deal_of_the_Day!.html</t>
+  </si>
+  <si>
+    <t>STORE IS SUSPENDED</t>
   </si>
   <si>
     <t>One Tool A Day</t>
@@ -3921,18 +3933,18 @@
   </sheetPr>
   <dimension ref="A1:I444"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A207" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="C255" activeCellId="0" pane="topLeft" sqref="C255"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A284" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="C311" activeCellId="0" pane="topLeft" sqref="C311"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="49.0862745098039"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="96.4117647058824"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="49.0862745098039"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="15.7098039215686"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="49.0862745098039"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="13.3372549019608"/>
-    <col collapsed="false" hidden="false" max="257" min="8" style="0" width="49.0862745098039"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="49.2862745098039"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="96.8156862745098"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="49.2862745098039"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="15.7764705882353"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="49.2862745098039"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="13.3882352941176"/>
+    <col collapsed="false" hidden="false" max="257" min="8" style="0" width="49.2862745098039"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="1" s="1">
@@ -8434,7 +8446,7 @@
         <v>19</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="203">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="203">
       <c r="A203" s="0" t="s">
         <v>588</v>
       </c>
@@ -8454,7 +8466,7 @@
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="204">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="204">
       <c r="A204" s="0" t="s">
         <v>590</v>
       </c>
@@ -8477,7 +8489,7 @@
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="205">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="205">
       <c r="A205" s="0" t="s">
         <v>593</v>
       </c>
@@ -8500,7 +8512,7 @@
         <v>595</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="206">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="206">
       <c r="A206" s="0" t="s">
         <v>596</v>
       </c>
@@ -8523,7 +8535,7 @@
         <v>19</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="207">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="207">
       <c r="A207" s="0" t="s">
         <v>599</v>
       </c>
@@ -8546,7 +8558,7 @@
         <v>601</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="208">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="208">
       <c r="A208" s="0" t="s">
         <v>602</v>
       </c>
@@ -8569,7 +8581,7 @@
         <v>604</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="209">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="209">
       <c r="A209" s="0" t="s">
         <v>605</v>
       </c>
@@ -8589,7 +8601,7 @@
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="210">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="210">
       <c r="A210" s="0" t="s">
         <v>607</v>
       </c>
@@ -8612,7 +8624,7 @@
         <v>609</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="211">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="211">
       <c r="A211" s="0" t="s">
         <v>610</v>
       </c>
@@ -8632,7 +8644,7 @@
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="212">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="212">
       <c r="A212" s="0" t="s">
         <v>612</v>
       </c>
@@ -8652,7 +8664,7 @@
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="213">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="213">
       <c r="A213" s="0" t="s">
         <v>614</v>
       </c>
@@ -8672,7 +8684,7 @@
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="214">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="214">
       <c r="A214" s="0" t="s">
         <v>616</v>
       </c>
@@ -8692,7 +8704,7 @@
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="215">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="215">
       <c r="A215" s="0" t="s">
         <v>618</v>
       </c>
@@ -8712,7 +8724,7 @@
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="216">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="216">
       <c r="A216" s="0" t="s">
         <v>620</v>
       </c>
@@ -8732,7 +8744,7 @@
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="217">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="217">
       <c r="A217" s="0" t="s">
         <v>622</v>
       </c>
@@ -8752,7 +8764,7 @@
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="218">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="218">
       <c r="A218" s="0" t="s">
         <v>624</v>
       </c>
@@ -8775,7 +8787,7 @@
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="219">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="219">
       <c r="A219" s="0" t="s">
         <v>627</v>
       </c>
@@ -8801,7 +8813,7 @@
         <v>630</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="220">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="220">
       <c r="A220" s="0" t="s">
         <v>631</v>
       </c>
@@ -8827,7 +8839,7 @@
         <v>634</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="221">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="221">
       <c r="A221" s="0" t="s">
         <v>635</v>
       </c>
@@ -8853,7 +8865,7 @@
         <v>634</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="222">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="222">
       <c r="A222" s="0" t="s">
         <v>638</v>
       </c>
@@ -8879,7 +8891,7 @@
         <v>634</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="223">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="223">
       <c r="A223" s="0" t="s">
         <v>641</v>
       </c>
@@ -8905,7 +8917,7 @@
         <v>644</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="224">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="224">
       <c r="A224" s="0" t="s">
         <v>645</v>
       </c>
@@ -8928,7 +8940,7 @@
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="225">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="225">
       <c r="A225" s="0" t="s">
         <v>648</v>
       </c>
@@ -8954,7 +8966,7 @@
         <v>651</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="226">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="226">
       <c r="A226" s="0" t="s">
         <v>652</v>
       </c>
@@ -8977,7 +8989,7 @@
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="227">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="227">
       <c r="A227" s="0" t="s">
         <v>655</v>
       </c>
@@ -8997,7 +9009,7 @@
         <v>657</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="228">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="228">
       <c r="A228" s="0" t="s">
         <v>658</v>
       </c>
@@ -9020,7 +9032,7 @@
         <v>661</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="229">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="229">
       <c r="A229" s="0" t="s">
         <v>662</v>
       </c>
@@ -9043,7 +9055,7 @@
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="230">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="230">
       <c r="A230" s="0" t="s">
         <v>665</v>
       </c>
@@ -9066,7 +9078,7 @@
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="231">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="231">
       <c r="A231" s="0" t="s">
         <v>668</v>
       </c>
@@ -9089,7 +9101,7 @@
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="232">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="232">
       <c r="A232" s="0" t="s">
         <v>671</v>
       </c>
@@ -9109,7 +9121,7 @@
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="233">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="233">
       <c r="A233" s="0" t="s">
         <v>673</v>
       </c>
@@ -9132,7 +9144,7 @@
         <v>675</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="234">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="234">
       <c r="A234" s="0" t="s">
         <v>676</v>
       </c>
@@ -9158,7 +9170,7 @@
         <v>680</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="235">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="235">
       <c r="A235" s="0" t="s">
         <v>681</v>
       </c>
@@ -9181,7 +9193,7 @@
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="236">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="236">
       <c r="A236" s="0" t="s">
         <v>684</v>
       </c>
@@ -9201,7 +9213,7 @@
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="237">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="237">
       <c r="A237" s="0" t="s">
         <v>686</v>
       </c>
@@ -9221,7 +9233,7 @@
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="238">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="238">
       <c r="A238" s="0" t="s">
         <v>688</v>
       </c>
@@ -9241,7 +9253,7 @@
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="239">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="239">
       <c r="A239" s="0" t="s">
         <v>690</v>
       </c>
@@ -9261,7 +9273,7 @@
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="240">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="240">
       <c r="A240" s="0" t="s">
         <v>692</v>
       </c>
@@ -9281,7 +9293,7 @@
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="241">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="241">
       <c r="A241" s="0" t="s">
         <v>694</v>
       </c>
@@ -9301,7 +9313,7 @@
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="242">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="242">
       <c r="A242" s="0" t="s">
         <v>696</v>
       </c>
@@ -9324,7 +9336,7 @@
         <v>698</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="243">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="243">
       <c r="A243" s="0" t="s">
         <v>699</v>
       </c>
@@ -9347,7 +9359,7 @@
         <v>701</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="244">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="244">
       <c r="A244" s="0" t="s">
         <v>702</v>
       </c>
@@ -9373,7 +9385,7 @@
         <v>705</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="245">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="245">
       <c r="A245" s="0" t="s">
         <v>706</v>
       </c>
@@ -9393,7 +9405,7 @@
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="246">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="246">
       <c r="A246" s="0" t="s">
         <v>708</v>
       </c>
@@ -9416,7 +9428,7 @@
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="247">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="247">
       <c r="A247" s="0" t="s">
         <v>711</v>
       </c>
@@ -9442,7 +9454,7 @@
         <v>634</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="248">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="248">
       <c r="A248" s="0" t="s">
         <v>715</v>
       </c>
@@ -9465,7 +9477,7 @@
         <v>717</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="249">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="249">
       <c r="A249" s="0" t="s">
         <v>718</v>
       </c>
@@ -9488,7 +9500,7 @@
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="250">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="250">
       <c r="A250" s="0" t="s">
         <v>721</v>
       </c>
@@ -9511,7 +9523,7 @@
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="251">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="251">
       <c r="A251" s="0" t="s">
         <v>724</v>
       </c>
@@ -9534,7 +9546,7 @@
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="252">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="252">
       <c r="A252" s="0" t="s">
         <v>726</v>
       </c>
@@ -9557,7 +9569,7 @@
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="253">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="253">
       <c r="A253" s="0" t="s">
         <v>727</v>
       </c>
@@ -9580,7 +9592,7 @@
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="254">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="254">
       <c r="A254" s="0" t="s">
         <v>730</v>
       </c>
@@ -9603,13 +9615,16 @@
         <v>732</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="255">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="255">
       <c r="A255" s="0" t="s">
         <v>733</v>
       </c>
       <c r="B255" s="0" t="s">
         <v>734</v>
       </c>
+      <c r="C255" s="0" t="s">
+        <v>15</v>
+      </c>
       <c r="D255" s="0" t="s">
         <v>30</v>
       </c>
@@ -9620,13 +9635,16 @@
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="256">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="256">
       <c r="A256" s="0" t="s">
         <v>735</v>
       </c>
       <c r="B256" s="0" t="s">
         <v>736</v>
       </c>
+      <c r="C256" s="2" t="s">
+        <v>737</v>
+      </c>
       <c r="D256" s="0" t="s">
         <v>25</v>
       </c>
@@ -9634,21 +9652,24 @@
         <v>19</v>
       </c>
       <c r="F256" s="0" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="G256" s="0" t="s">
         <v>19</v>
       </c>
       <c r="H256" s="0" t="s">
-        <v>738</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="257">
+        <v>739</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="257">
       <c r="A257" s="0" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="B257" s="0" t="s">
-        <v>740</v>
+        <v>741</v>
+      </c>
+      <c r="C257" s="0" t="s">
+        <v>15</v>
       </c>
       <c r="D257" s="0" t="s">
         <v>11</v>
@@ -9657,18 +9678,21 @@
         <v>19</v>
       </c>
       <c r="F257" s="0" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="G257" s="0" t="s">
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="258">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="258">
       <c r="A258" s="0" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="B258" s="0" t="s">
-        <v>743</v>
+        <v>744</v>
+      </c>
+      <c r="C258" s="0" t="s">
+        <v>15</v>
       </c>
       <c r="D258" s="0" t="s">
         <v>236</v>
@@ -9677,21 +9701,24 @@
         <v>19</v>
       </c>
       <c r="F258" s="0" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="G258" s="0" t="s">
         <v>19</v>
       </c>
       <c r="H258" s="0" t="s">
-        <v>745</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="259">
+        <v>746</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="259">
       <c r="A259" s="0" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="B259" s="0" t="s">
-        <v>747</v>
+        <v>748</v>
+      </c>
+      <c r="C259" s="0" t="s">
+        <v>15</v>
       </c>
       <c r="D259" s="0" t="s">
         <v>36</v>
@@ -9703,12 +9730,15 @@
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="260">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="260">
       <c r="A260" s="0" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="B260" s="0" t="s">
-        <v>749</v>
+        <v>750</v>
+      </c>
+      <c r="C260" s="0" t="s">
+        <v>15</v>
       </c>
       <c r="D260" s="0" t="s">
         <v>16</v>
@@ -9717,18 +9747,21 @@
         <v>19</v>
       </c>
       <c r="F260" s="0" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="G260" s="0" t="s">
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="261">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="261">
       <c r="A261" s="0" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="B261" s="0" t="s">
-        <v>752</v>
+        <v>753</v>
+      </c>
+      <c r="C261" s="0" t="s">
+        <v>54</v>
       </c>
       <c r="D261" s="0" t="s">
         <v>25</v>
@@ -9737,44 +9770,50 @@
         <v>19</v>
       </c>
       <c r="F261" s="0" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="G261" s="0" t="s">
         <v>19</v>
       </c>
       <c r="H261" s="0" t="s">
-        <v>754</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="262">
+        <v>755</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="262">
       <c r="A262" s="0" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="B262" s="0" t="s">
-        <v>756</v>
+        <v>757</v>
+      </c>
+      <c r="C262" s="0" t="s">
+        <v>15</v>
       </c>
       <c r="D262" s="0" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="E262" s="0" t="s">
         <v>19</v>
       </c>
       <c r="F262" s="0" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="G262" s="0" t="s">
         <v>19</v>
       </c>
       <c r="H262" s="0" t="s">
-        <v>759</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="263">
+        <v>760</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="263">
       <c r="A263" s="0" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="B263" s="0" t="s">
-        <v>761</v>
+        <v>762</v>
+      </c>
+      <c r="C263" s="0" t="s">
+        <v>15</v>
       </c>
       <c r="D263" s="0" t="s">
         <v>30</v>
@@ -9783,21 +9822,24 @@
         <v>19</v>
       </c>
       <c r="F263" s="0" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="G263" s="0" t="s">
         <v>19</v>
       </c>
       <c r="H263" s="0" t="s">
-        <v>763</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="264">
+        <v>764</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="264">
       <c r="A264" s="0" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="B264" s="0" t="s">
-        <v>765</v>
+        <v>766</v>
+      </c>
+      <c r="C264" s="0" t="s">
+        <v>15</v>
       </c>
       <c r="D264" s="0" t="s">
         <v>25</v>
@@ -9809,12 +9851,15 @@
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="265">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="265">
       <c r="A265" s="0" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="B265" s="0" t="s">
-        <v>767</v>
+        <v>768</v>
+      </c>
+      <c r="C265" s="0" t="s">
+        <v>769</v>
       </c>
       <c r="D265" s="0" t="s">
         <v>25</v>
@@ -9823,21 +9868,24 @@
         <v>19</v>
       </c>
       <c r="F265" s="0" t="s">
-        <v>768</v>
+        <v>770</v>
       </c>
       <c r="G265" s="0" t="s">
         <v>19</v>
       </c>
       <c r="H265" s="0" t="s">
-        <v>769</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="266">
+        <v>771</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="266">
       <c r="A266" s="0" t="s">
-        <v>770</v>
+        <v>772</v>
       </c>
       <c r="B266" s="0" t="s">
-        <v>771</v>
+        <v>773</v>
+      </c>
+      <c r="C266" s="2" t="s">
+        <v>774</v>
       </c>
       <c r="D266" s="0" t="s">
         <v>11</v>
@@ -9846,18 +9894,21 @@
         <v>19</v>
       </c>
       <c r="F266" s="0" t="s">
-        <v>772</v>
+        <v>775</v>
       </c>
       <c r="G266" s="0" t="s">
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="267">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="267">
       <c r="A267" s="0" t="s">
-        <v>773</v>
+        <v>776</v>
       </c>
       <c r="B267" s="0" t="s">
-        <v>774</v>
+        <v>777</v>
+      </c>
+      <c r="C267" s="0" t="s">
+        <v>15</v>
       </c>
       <c r="D267" s="0" t="s">
         <v>25</v>
@@ -9866,21 +9917,24 @@
         <v>19</v>
       </c>
       <c r="F267" s="0" t="s">
-        <v>775</v>
+        <v>778</v>
       </c>
       <c r="G267" s="0" t="s">
         <v>19</v>
       </c>
       <c r="H267" s="0" t="s">
-        <v>776</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="268">
+        <v>779</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="268">
       <c r="A268" s="0" t="s">
-        <v>777</v>
+        <v>780</v>
       </c>
       <c r="B268" s="0" t="s">
-        <v>778</v>
+        <v>781</v>
+      </c>
+      <c r="C268" s="0" t="s">
+        <v>15</v>
       </c>
       <c r="D268" s="0" t="s">
         <v>25</v>
@@ -9892,23 +9946,29 @@
         <v>19</v>
       </c>
       <c r="H268" s="0" t="s">
-        <v>779</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="269">
+        <v>782</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="269">
       <c r="A269" s="0" t="s">
-        <v>780</v>
+        <v>783</v>
       </c>
       <c r="B269" s="0" t="s">
-        <v>781</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="270">
+        <v>784</v>
+      </c>
+      <c r="C269" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="270">
       <c r="A270" s="0" t="s">
-        <v>782</v>
+        <v>785</v>
       </c>
       <c r="B270" s="0" t="s">
-        <v>783</v>
+        <v>786</v>
+      </c>
+      <c r="C270" s="0" t="s">
+        <v>54</v>
       </c>
       <c r="D270" s="0" t="s">
         <v>11</v>
@@ -9920,12 +9980,15 @@
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="271">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="271">
       <c r="A271" s="0" t="s">
-        <v>784</v>
+        <v>787</v>
       </c>
       <c r="B271" s="0" t="s">
-        <v>783</v>
+        <v>786</v>
+      </c>
+      <c r="C271" s="0" t="s">
+        <v>15</v>
       </c>
       <c r="D271" s="0" t="s">
         <v>11</v>
@@ -9937,12 +10000,15 @@
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="272">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="272">
       <c r="A272" s="0" t="s">
-        <v>785</v>
+        <v>788</v>
       </c>
       <c r="B272" s="0" t="s">
-        <v>786</v>
+        <v>789</v>
+      </c>
+      <c r="C272" s="0" t="s">
+        <v>15</v>
       </c>
       <c r="D272" s="0" t="s">
         <v>30</v>
@@ -9951,21 +10017,24 @@
         <v>19</v>
       </c>
       <c r="F272" s="0" t="s">
-        <v>787</v>
+        <v>790</v>
       </c>
       <c r="G272" s="0" t="s">
         <v>19</v>
       </c>
       <c r="H272" s="0" t="s">
-        <v>788</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="273">
+        <v>791</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="273">
       <c r="A273" s="0" t="s">
-        <v>789</v>
+        <v>792</v>
       </c>
       <c r="B273" s="0" t="s">
-        <v>790</v>
+        <v>793</v>
+      </c>
+      <c r="C273" s="0" t="s">
+        <v>285</v>
       </c>
       <c r="D273" s="0" t="s">
         <v>30</v>
@@ -9974,24 +10043,27 @@
         <v>19</v>
       </c>
       <c r="F273" s="0" t="s">
+        <v>794</v>
+      </c>
+      <c r="G273" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="H273" s="0" t="s">
         <v>791</v>
       </c>
-      <c r="G273" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="H273" s="0" t="s">
-        <v>788</v>
-      </c>
       <c r="I273" s="0" t="s">
-        <v>792</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="274">
+        <v>795</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="274">
       <c r="A274" s="0" t="s">
-        <v>793</v>
+        <v>796</v>
       </c>
       <c r="B274" s="0" t="s">
-        <v>794</v>
+        <v>797</v>
+      </c>
+      <c r="C274" s="0" t="s">
+        <v>112</v>
       </c>
       <c r="D274" s="0" t="s">
         <v>11</v>
@@ -10003,15 +10075,18 @@
         <v>19</v>
       </c>
       <c r="H274" s="0" t="s">
-        <v>788</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="275">
+        <v>791</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="275">
       <c r="A275" s="0" t="s">
-        <v>795</v>
+        <v>798</v>
       </c>
       <c r="B275" s="0" t="s">
-        <v>796</v>
+        <v>799</v>
+      </c>
+      <c r="C275" s="0" t="s">
+        <v>15</v>
       </c>
       <c r="D275" s="0" t="s">
         <v>25</v>
@@ -10023,12 +10098,15 @@
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="276">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="276">
       <c r="A276" s="0" t="s">
-        <v>797</v>
+        <v>800</v>
       </c>
       <c r="B276" s="0" t="s">
-        <v>798</v>
+        <v>801</v>
+      </c>
+      <c r="C276" s="0" t="s">
+        <v>15</v>
       </c>
       <c r="D276" s="0" t="s">
         <v>11</v>
@@ -10037,18 +10115,21 @@
         <v>19</v>
       </c>
       <c r="F276" s="0" t="s">
-        <v>799</v>
+        <v>802</v>
       </c>
       <c r="G276" s="0" t="s">
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="277">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="277">
       <c r="A277" s="0" t="s">
-        <v>800</v>
+        <v>803</v>
       </c>
       <c r="B277" s="0" t="s">
-        <v>801</v>
+        <v>804</v>
+      </c>
+      <c r="C277" s="0" t="s">
+        <v>15</v>
       </c>
       <c r="D277" s="0" t="s">
         <v>30</v>
@@ -10060,12 +10141,15 @@
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="278">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="278">
       <c r="A278" s="0" t="s">
-        <v>802</v>
+        <v>805</v>
       </c>
       <c r="B278" s="0" t="s">
-        <v>803</v>
+        <v>806</v>
+      </c>
+      <c r="C278" s="0" t="s">
+        <v>15</v>
       </c>
       <c r="D278" s="0" t="s">
         <v>11</v>
@@ -10077,12 +10161,15 @@
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="279">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="279">
       <c r="A279" s="0" t="s">
-        <v>804</v>
+        <v>807</v>
       </c>
       <c r="B279" s="0" t="s">
-        <v>805</v>
+        <v>808</v>
+      </c>
+      <c r="C279" s="0" t="s">
+        <v>195</v>
       </c>
       <c r="D279" s="0" t="s">
         <v>11</v>
@@ -10094,12 +10181,15 @@
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="280">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="280">
       <c r="A280" s="0" t="s">
-        <v>806</v>
+        <v>809</v>
       </c>
       <c r="B280" s="0" t="s">
-        <v>807</v>
+        <v>810</v>
+      </c>
+      <c r="C280" s="0" t="s">
+        <v>15</v>
       </c>
       <c r="D280" s="0" t="s">
         <v>25</v>
@@ -10108,21 +10198,24 @@
         <v>19</v>
       </c>
       <c r="F280" s="0" t="s">
-        <v>808</v>
+        <v>811</v>
       </c>
       <c r="G280" s="0" t="s">
         <v>12</v>
       </c>
       <c r="I280" s="0" t="s">
-        <v>809</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="281">
+        <v>812</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="281">
       <c r="A281" s="0" t="s">
-        <v>810</v>
+        <v>813</v>
       </c>
       <c r="B281" s="0" t="s">
-        <v>811</v>
+        <v>814</v>
+      </c>
+      <c r="C281" s="0" t="s">
+        <v>15</v>
       </c>
       <c r="D281" s="0" t="s">
         <v>25</v>
@@ -10131,18 +10224,21 @@
         <v>19</v>
       </c>
       <c r="F281" s="0" t="s">
-        <v>808</v>
+        <v>811</v>
       </c>
       <c r="G281" s="0" t="s">
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="282">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="282">
       <c r="A282" s="0" t="s">
-        <v>812</v>
+        <v>815</v>
       </c>
       <c r="B282" s="0" t="s">
-        <v>813</v>
+        <v>816</v>
+      </c>
+      <c r="C282" s="0" t="s">
+        <v>15</v>
       </c>
       <c r="D282" s="0" t="s">
         <v>36</v>
@@ -10154,15 +10250,18 @@
         <v>19</v>
       </c>
       <c r="H282" s="0" t="s">
-        <v>813</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="283">
+        <v>816</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="283">
       <c r="A283" s="0" t="s">
-        <v>814</v>
+        <v>817</v>
       </c>
       <c r="B283" s="0" t="s">
-        <v>815</v>
+        <v>818</v>
+      </c>
+      <c r="C283" s="0" t="s">
+        <v>15</v>
       </c>
       <c r="D283" s="0" t="s">
         <v>25</v>
@@ -10171,18 +10270,21 @@
         <v>19</v>
       </c>
       <c r="F283" s="0" t="s">
-        <v>816</v>
+        <v>819</v>
       </c>
       <c r="G283" s="0" t="s">
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="284">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="284">
       <c r="A284" s="0" t="s">
-        <v>817</v>
+        <v>820</v>
       </c>
       <c r="B284" s="0" t="s">
-        <v>818</v>
+        <v>821</v>
+      </c>
+      <c r="C284" s="0" t="s">
+        <v>15</v>
       </c>
       <c r="D284" s="0" t="s">
         <v>11</v>
@@ -10191,18 +10293,21 @@
         <v>19</v>
       </c>
       <c r="F284" s="0" t="s">
-        <v>819</v>
+        <v>822</v>
       </c>
       <c r="G284" s="0" t="s">
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="285">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="285">
       <c r="A285" s="0" t="s">
-        <v>820</v>
+        <v>823</v>
       </c>
       <c r="B285" s="0" t="s">
-        <v>821</v>
+        <v>824</v>
+      </c>
+      <c r="C285" s="0" t="s">
+        <v>54</v>
       </c>
       <c r="D285" s="0" t="s">
         <v>30</v>
@@ -10214,15 +10319,18 @@
         <v>19</v>
       </c>
       <c r="H285" s="0" t="s">
-        <v>822</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="286">
+        <v>825</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="286">
       <c r="A286" s="0" t="s">
-        <v>823</v>
+        <v>826</v>
       </c>
       <c r="B286" s="0" t="s">
-        <v>824</v>
+        <v>827</v>
+      </c>
+      <c r="C286" s="2" t="s">
+        <v>828</v>
       </c>
       <c r="D286" s="0" t="s">
         <v>30</v>
@@ -10234,12 +10342,15 @@
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="287">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="287">
       <c r="A287" s="0" t="s">
-        <v>825</v>
+        <v>829</v>
       </c>
       <c r="B287" s="0" t="s">
-        <v>826</v>
+        <v>830</v>
+      </c>
+      <c r="C287" s="0" t="s">
+        <v>15</v>
       </c>
       <c r="D287" s="0" t="s">
         <v>11</v>
@@ -10251,12 +10362,15 @@
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="288">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="288">
       <c r="A288" s="0" t="s">
-        <v>827</v>
+        <v>831</v>
       </c>
       <c r="B288" s="0" t="s">
-        <v>828</v>
+        <v>832</v>
+      </c>
+      <c r="C288" s="0" t="s">
+        <v>15</v>
       </c>
       <c r="D288" s="0" t="s">
         <v>36</v>
@@ -10265,18 +10379,21 @@
         <v>19</v>
       </c>
       <c r="F288" s="0" t="s">
-        <v>829</v>
+        <v>833</v>
       </c>
       <c r="G288" s="0" t="s">
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="289">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="289">
       <c r="A289" s="0" t="s">
-        <v>830</v>
+        <v>834</v>
       </c>
       <c r="B289" s="0" t="s">
-        <v>831</v>
+        <v>835</v>
+      </c>
+      <c r="C289" s="0" t="s">
+        <v>285</v>
       </c>
       <c r="D289" s="0" t="s">
         <v>36</v>
@@ -10288,15 +10405,18 @@
         <v>19</v>
       </c>
       <c r="H289" s="0" t="s">
-        <v>832</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="290">
+        <v>836</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="290">
       <c r="A290" s="0" t="s">
-        <v>833</v>
+        <v>837</v>
       </c>
       <c r="B290" s="0" t="s">
-        <v>834</v>
+        <v>838</v>
+      </c>
+      <c r="C290" s="0" t="s">
+        <v>54</v>
       </c>
       <c r="D290" s="0" t="s">
         <v>16</v>
@@ -10308,15 +10428,18 @@
         <v>19</v>
       </c>
       <c r="H290" s="0" t="s">
-        <v>835</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="291">
+        <v>839</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="291">
       <c r="A291" s="0" t="s">
-        <v>836</v>
+        <v>840</v>
       </c>
       <c r="B291" s="0" t="s">
-        <v>837</v>
+        <v>841</v>
+      </c>
+      <c r="C291" s="0" t="s">
+        <v>15</v>
       </c>
       <c r="D291" s="0" t="s">
         <v>16</v>
@@ -10328,12 +10451,15 @@
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="292">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="292">
       <c r="A292" s="0" t="s">
-        <v>838</v>
+        <v>842</v>
       </c>
       <c r="B292" s="0" t="s">
-        <v>839</v>
+        <v>843</v>
+      </c>
+      <c r="C292" s="0" t="s">
+        <v>54</v>
       </c>
       <c r="D292" s="0" t="s">
         <v>16</v>
@@ -10345,15 +10471,18 @@
         <v>19</v>
       </c>
       <c r="H292" s="0" t="s">
-        <v>840</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="293">
+        <v>844</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="293">
       <c r="A293" s="0" t="s">
-        <v>841</v>
+        <v>845</v>
       </c>
       <c r="B293" s="0" t="s">
-        <v>842</v>
+        <v>846</v>
+      </c>
+      <c r="C293" s="0" t="s">
+        <v>15</v>
       </c>
       <c r="D293" s="0" t="s">
         <v>16</v>
@@ -10362,19 +10491,22 @@
         <v>19</v>
       </c>
       <c r="F293" s="0" t="s">
-        <v>843</v>
+        <v>847</v>
       </c>
       <c r="G293" s="0" t="s">
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="294">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="294">
       <c r="A294" s="0" t="s">
-        <v>844</v>
+        <v>848</v>
       </c>
       <c r="B294" s="0" t="s">
         <v>11</v>
       </c>
+      <c r="C294" s="0" t="s">
+        <v>285</v>
+      </c>
       <c r="D294" s="0" t="s">
         <v>11</v>
       </c>
@@ -10388,12 +10520,15 @@
         <v>11</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="295">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="295">
       <c r="A295" s="0" t="s">
-        <v>845</v>
+        <v>849</v>
       </c>
       <c r="B295" s="0" t="s">
-        <v>846</v>
+        <v>850</v>
+      </c>
+      <c r="C295" s="0" t="s">
+        <v>15</v>
       </c>
       <c r="D295" s="0" t="s">
         <v>36</v>
@@ -10405,12 +10540,15 @@
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="296">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="296">
       <c r="A296" s="0" t="s">
-        <v>847</v>
+        <v>851</v>
       </c>
       <c r="B296" s="0" t="s">
-        <v>848</v>
+        <v>852</v>
+      </c>
+      <c r="C296" s="0" t="s">
+        <v>15</v>
       </c>
       <c r="D296" s="0" t="s">
         <v>30</v>
@@ -10419,21 +10557,24 @@
         <v>19</v>
       </c>
       <c r="F296" s="0" t="s">
-        <v>849</v>
+        <v>853</v>
       </c>
       <c r="G296" s="0" t="s">
         <v>19</v>
       </c>
       <c r="H296" s="0" t="s">
-        <v>850</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="297">
+        <v>854</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="297">
       <c r="A297" s="0" t="s">
-        <v>851</v>
+        <v>855</v>
       </c>
       <c r="B297" s="0" t="s">
-        <v>852</v>
+        <v>856</v>
+      </c>
+      <c r="C297" s="0" t="s">
+        <v>285</v>
       </c>
       <c r="D297" s="0" t="s">
         <v>25</v>
@@ -10442,21 +10583,24 @@
         <v>19</v>
       </c>
       <c r="F297" s="0" t="s">
-        <v>853</v>
+        <v>857</v>
       </c>
       <c r="G297" s="0" t="s">
         <v>19</v>
       </c>
       <c r="H297" s="0" t="s">
-        <v>854</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="298">
+        <v>858</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="298">
       <c r="A298" s="0" t="s">
-        <v>855</v>
+        <v>859</v>
       </c>
       <c r="B298" s="0" t="s">
-        <v>852</v>
+        <v>856</v>
+      </c>
+      <c r="C298" s="0" t="s">
+        <v>15</v>
       </c>
       <c r="D298" s="0" t="s">
         <v>25</v>
@@ -10465,21 +10609,24 @@
         <v>19</v>
       </c>
       <c r="F298" s="0" t="s">
-        <v>853</v>
+        <v>857</v>
       </c>
       <c r="G298" s="0" t="s">
         <v>19</v>
       </c>
       <c r="H298" s="0" t="s">
-        <v>854</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="299">
+        <v>858</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="299">
       <c r="A299" s="0" t="s">
-        <v>856</v>
+        <v>860</v>
       </c>
       <c r="B299" s="0" t="s">
-        <v>857</v>
+        <v>861</v>
+      </c>
+      <c r="C299" s="0" t="s">
+        <v>112</v>
       </c>
       <c r="D299" s="0" t="s">
         <v>36</v>
@@ -10488,21 +10635,24 @@
         <v>19</v>
       </c>
       <c r="F299" s="0" t="s">
-        <v>858</v>
+        <v>862</v>
       </c>
       <c r="G299" s="0" t="s">
         <v>19</v>
       </c>
       <c r="H299" s="0" t="s">
-        <v>859</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="300">
+        <v>863</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="300">
       <c r="A300" s="0" t="s">
-        <v>860</v>
+        <v>864</v>
       </c>
       <c r="B300" s="0" t="s">
-        <v>861</v>
+        <v>865</v>
+      </c>
+      <c r="C300" s="0" t="s">
+        <v>15</v>
       </c>
       <c r="D300" s="0" t="s">
         <v>36</v>
@@ -10514,15 +10664,18 @@
         <v>19</v>
       </c>
       <c r="H300" s="0" t="s">
-        <v>862</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="301">
+        <v>866</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="301">
       <c r="A301" s="0" t="s">
-        <v>863</v>
+        <v>867</v>
       </c>
       <c r="B301" s="0" t="s">
-        <v>864</v>
+        <v>868</v>
+      </c>
+      <c r="C301" s="0" t="s">
+        <v>15</v>
       </c>
       <c r="D301" s="0" t="s">
         <v>11</v>
@@ -10531,18 +10684,21 @@
         <v>19</v>
       </c>
       <c r="F301" s="0" t="s">
-        <v>865</v>
+        <v>869</v>
       </c>
       <c r="G301" s="0" t="s">
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="302">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="302">
       <c r="A302" s="0" t="s">
-        <v>866</v>
+        <v>870</v>
       </c>
       <c r="B302" s="0" t="s">
-        <v>867</v>
+        <v>871</v>
+      </c>
+      <c r="C302" s="0" t="s">
+        <v>195</v>
       </c>
       <c r="D302" s="0" t="s">
         <v>11</v>
@@ -10551,18 +10707,21 @@
         <v>19</v>
       </c>
       <c r="F302" s="0" t="s">
-        <v>868</v>
+        <v>872</v>
       </c>
       <c r="G302" s="0" t="s">
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="303">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="303">
       <c r="A303" s="0" t="s">
-        <v>869</v>
+        <v>873</v>
       </c>
       <c r="B303" s="0" t="s">
-        <v>870</v>
+        <v>874</v>
+      </c>
+      <c r="C303" s="0" t="s">
+        <v>54</v>
       </c>
       <c r="D303" s="0" t="s">
         <v>16</v>
@@ -10574,15 +10733,18 @@
         <v>19</v>
       </c>
       <c r="H303" s="0" t="s">
-        <v>871</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="304">
+        <v>875</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="304">
       <c r="A304" s="0" t="s">
-        <v>872</v>
+        <v>876</v>
       </c>
       <c r="B304" s="0" t="s">
-        <v>873</v>
+        <v>877</v>
+      </c>
+      <c r="C304" s="0" t="s">
+        <v>195</v>
       </c>
       <c r="D304" s="0" t="s">
         <v>36</v>
@@ -10591,15 +10753,18 @@
         <v>19</v>
       </c>
       <c r="F304" s="0" t="s">
-        <v>874</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="305">
+        <v>878</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="305">
       <c r="A305" s="0" t="s">
-        <v>875</v>
+        <v>879</v>
       </c>
       <c r="B305" s="0" t="s">
-        <v>876</v>
+        <v>880</v>
+      </c>
+      <c r="C305" s="0" t="s">
+        <v>15</v>
       </c>
       <c r="D305" s="0" t="s">
         <v>11</v>
@@ -10611,15 +10776,18 @@
         <v>19</v>
       </c>
       <c r="H305" s="0" t="s">
-        <v>877</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="306">
+        <v>881</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="306">
       <c r="A306" s="0" t="s">
-        <v>878</v>
+        <v>882</v>
       </c>
       <c r="B306" s="0" t="s">
-        <v>879</v>
+        <v>883</v>
+      </c>
+      <c r="C306" s="0" t="s">
+        <v>109</v>
       </c>
       <c r="D306" s="0" t="s">
         <v>36</v>
@@ -10631,15 +10799,18 @@
         <v>19</v>
       </c>
       <c r="H306" s="0" t="s">
-        <v>880</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="307">
+        <v>884</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="307">
       <c r="A307" s="0" t="s">
-        <v>881</v>
+        <v>885</v>
       </c>
       <c r="B307" s="0" t="s">
-        <v>882</v>
+        <v>886</v>
+      </c>
+      <c r="C307" s="0" t="s">
+        <v>496</v>
       </c>
       <c r="D307" s="0" t="s">
         <v>11</v>
@@ -10648,21 +10819,24 @@
         <v>19</v>
       </c>
       <c r="F307" s="0" t="s">
-        <v>883</v>
+        <v>887</v>
       </c>
       <c r="G307" s="0" t="s">
         <v>19</v>
       </c>
       <c r="H307" s="0" t="s">
-        <v>884</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="308">
+        <v>888</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="308">
       <c r="A308" s="0" t="s">
-        <v>885</v>
+        <v>889</v>
       </c>
       <c r="B308" s="0" t="s">
-        <v>886</v>
+        <v>890</v>
+      </c>
+      <c r="C308" s="0" t="s">
+        <v>54</v>
       </c>
       <c r="D308" s="0" t="s">
         <v>36</v>
@@ -10671,21 +10845,24 @@
         <v>19</v>
       </c>
       <c r="F308" s="0" t="s">
-        <v>887</v>
+        <v>891</v>
       </c>
       <c r="G308" s="0" t="s">
         <v>19</v>
       </c>
       <c r="H308" s="0" t="s">
-        <v>888</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="309">
+        <v>892</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="309">
       <c r="A309" s="0" t="s">
-        <v>889</v>
+        <v>893</v>
       </c>
       <c r="B309" s="0" t="s">
-        <v>890</v>
+        <v>894</v>
+      </c>
+      <c r="C309" s="0" t="s">
+        <v>15</v>
       </c>
       <c r="D309" s="0" t="s">
         <v>30</v>
@@ -10694,18 +10871,21 @@
         <v>19</v>
       </c>
       <c r="F309" s="0" t="s">
-        <v>891</v>
+        <v>895</v>
       </c>
       <c r="G309" s="0" t="s">
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="310">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="310">
       <c r="A310" s="0" t="s">
-        <v>892</v>
+        <v>896</v>
       </c>
       <c r="B310" s="0" t="s">
-        <v>893</v>
+        <v>897</v>
+      </c>
+      <c r="C310" s="0" t="s">
+        <v>285</v>
       </c>
       <c r="D310" s="0" t="s">
         <v>11</v>
@@ -10719,10 +10899,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="311">
       <c r="A311" s="0" t="s">
-        <v>894</v>
+        <v>898</v>
       </c>
       <c r="B311" s="0" t="s">
-        <v>895</v>
+        <v>899</v>
       </c>
       <c r="D311" s="0" t="s">
         <v>11</v>
@@ -10734,15 +10914,15 @@
         <v>19</v>
       </c>
       <c r="H311" s="0" t="s">
-        <v>896</v>
+        <v>900</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="312">
       <c r="A312" s="0" t="s">
-        <v>897</v>
+        <v>901</v>
       </c>
       <c r="B312" s="0" t="s">
-        <v>898</v>
+        <v>902</v>
       </c>
       <c r="D312" s="0" t="s">
         <v>11</v>
@@ -10754,15 +10934,15 @@
         <v>19</v>
       </c>
       <c r="H312" s="0" t="s">
-        <v>896</v>
+        <v>900</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="313">
       <c r="A313" s="0" t="s">
-        <v>899</v>
+        <v>903</v>
       </c>
       <c r="B313" s="0" t="s">
-        <v>900</v>
+        <v>904</v>
       </c>
       <c r="D313" s="0" t="s">
         <v>11</v>
@@ -10779,10 +10959,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="314">
       <c r="A314" s="0" t="s">
-        <v>901</v>
+        <v>905</v>
       </c>
       <c r="B314" s="0" t="s">
-        <v>902</v>
+        <v>906</v>
       </c>
       <c r="D314" s="0" t="s">
         <v>11</v>
@@ -10796,10 +10976,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="315">
       <c r="A315" s="0" t="s">
-        <v>903</v>
+        <v>907</v>
       </c>
       <c r="B315" s="0" t="s">
-        <v>904</v>
+        <v>908</v>
       </c>
       <c r="D315" s="0" t="s">
         <v>36</v>
@@ -10808,21 +10988,21 @@
         <v>19</v>
       </c>
       <c r="F315" s="0" t="s">
-        <v>905</v>
+        <v>909</v>
       </c>
       <c r="G315" s="0" t="s">
         <v>19</v>
       </c>
       <c r="H315" s="0" t="s">
-        <v>906</v>
+        <v>910</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="316">
       <c r="A316" s="0" t="s">
-        <v>907</v>
+        <v>911</v>
       </c>
       <c r="B316" s="0" t="s">
-        <v>908</v>
+        <v>912</v>
       </c>
       <c r="D316" s="0" t="s">
         <v>30</v>
@@ -10839,10 +11019,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="317">
       <c r="A317" s="0" t="s">
-        <v>909</v>
+        <v>913</v>
       </c>
       <c r="B317" s="0" t="s">
-        <v>910</v>
+        <v>914</v>
       </c>
       <c r="D317" s="0" t="s">
         <v>25</v>
@@ -10851,21 +11031,21 @@
         <v>19</v>
       </c>
       <c r="F317" s="0" t="s">
-        <v>911</v>
+        <v>915</v>
       </c>
       <c r="G317" s="0" t="s">
         <v>19</v>
       </c>
       <c r="H317" s="0" t="s">
-        <v>912</v>
+        <v>916</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="318">
       <c r="A318" s="0" t="s">
-        <v>913</v>
+        <v>917</v>
       </c>
       <c r="B318" s="0" t="s">
-        <v>914</v>
+        <v>918</v>
       </c>
       <c r="D318" s="0" t="s">
         <v>16</v>
@@ -10874,7 +11054,7 @@
         <v>19</v>
       </c>
       <c r="F318" s="0" t="s">
-        <v>915</v>
+        <v>919</v>
       </c>
       <c r="G318" s="0" t="s">
         <v>19</v>
@@ -10885,10 +11065,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="319">
       <c r="A319" s="0" t="s">
-        <v>916</v>
+        <v>920</v>
       </c>
       <c r="B319" s="0" t="s">
-        <v>917</v>
+        <v>921</v>
       </c>
       <c r="D319" s="0" t="s">
         <v>16</v>
@@ -10902,10 +11082,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="320">
       <c r="A320" s="0" t="s">
-        <v>918</v>
+        <v>922</v>
       </c>
       <c r="B320" s="0" t="s">
-        <v>919</v>
+        <v>923</v>
       </c>
       <c r="D320" s="0" t="s">
         <v>16</v>
@@ -10914,21 +11094,21 @@
         <v>19</v>
       </c>
       <c r="F320" s="0" t="s">
-        <v>920</v>
+        <v>924</v>
       </c>
       <c r="G320" s="0" t="s">
         <v>19</v>
       </c>
       <c r="H320" s="0" t="s">
-        <v>921</v>
+        <v>925</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="321">
       <c r="A321" s="0" t="s">
-        <v>922</v>
+        <v>926</v>
       </c>
       <c r="B321" s="0" t="s">
-        <v>923</v>
+        <v>927</v>
       </c>
       <c r="D321" s="0" t="s">
         <v>25</v>
@@ -10937,21 +11117,21 @@
         <v>19</v>
       </c>
       <c r="F321" s="0" t="s">
-        <v>924</v>
+        <v>928</v>
       </c>
       <c r="G321" s="0" t="s">
         <v>19</v>
       </c>
       <c r="H321" s="0" t="s">
-        <v>925</v>
+        <v>929</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="322">
       <c r="A322" s="0" t="s">
-        <v>926</v>
+        <v>930</v>
       </c>
       <c r="B322" s="0" t="s">
-        <v>927</v>
+        <v>931</v>
       </c>
       <c r="D322" s="0" t="s">
         <v>11</v>
@@ -10960,7 +11140,7 @@
         <v>19</v>
       </c>
       <c r="F322" s="0" t="s">
-        <v>928</v>
+        <v>932</v>
       </c>
       <c r="G322" s="0" t="s">
         <v>12</v>
@@ -10968,10 +11148,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="323">
       <c r="A323" s="0" t="s">
-        <v>929</v>
+        <v>933</v>
       </c>
       <c r="B323" s="0" t="s">
-        <v>930</v>
+        <v>934</v>
       </c>
       <c r="D323" s="0" t="s">
         <v>16</v>
@@ -10983,15 +11163,15 @@
         <v>19</v>
       </c>
       <c r="H323" s="0" t="s">
-        <v>931</v>
+        <v>935</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="324">
       <c r="A324" s="0" t="s">
-        <v>932</v>
+        <v>936</v>
       </c>
       <c r="B324" s="0" t="s">
-        <v>933</v>
+        <v>937</v>
       </c>
       <c r="D324" s="0" t="s">
         <v>11</v>
@@ -11003,15 +11183,15 @@
         <v>19</v>
       </c>
       <c r="H324" s="0" t="s">
-        <v>934</v>
+        <v>938</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="325">
       <c r="A325" s="0" t="s">
-        <v>935</v>
+        <v>939</v>
       </c>
       <c r="B325" s="0" t="s">
-        <v>936</v>
+        <v>940</v>
       </c>
       <c r="D325" s="0" t="s">
         <v>25</v>
@@ -11025,10 +11205,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="326">
       <c r="A326" s="0" t="s">
-        <v>937</v>
+        <v>941</v>
       </c>
       <c r="B326" s="0" t="s">
-        <v>938</v>
+        <v>942</v>
       </c>
       <c r="D326" s="0" t="s">
         <v>36</v>
@@ -11042,10 +11222,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="327">
       <c r="A327" s="0" t="s">
-        <v>939</v>
+        <v>943</v>
       </c>
       <c r="B327" s="0" t="s">
-        <v>940</v>
+        <v>944</v>
       </c>
       <c r="D327" s="0" t="s">
         <v>30</v>
@@ -11054,7 +11234,7 @@
         <v>19</v>
       </c>
       <c r="F327" s="0" t="s">
-        <v>941</v>
+        <v>945</v>
       </c>
       <c r="G327" s="0" t="s">
         <v>12</v>
@@ -11062,10 +11242,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="328">
       <c r="A328" s="0" t="s">
-        <v>942</v>
+        <v>946</v>
       </c>
       <c r="B328" s="0" t="s">
-        <v>943</v>
+        <v>947</v>
       </c>
       <c r="D328" s="0" t="s">
         <v>16</v>
@@ -11074,15 +11254,15 @@
         <v>19</v>
       </c>
       <c r="F328" s="0" t="s">
-        <v>944</v>
+        <v>948</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="329">
       <c r="A329" s="0" t="s">
-        <v>945</v>
+        <v>949</v>
       </c>
       <c r="B329" s="0" t="s">
-        <v>946</v>
+        <v>950</v>
       </c>
       <c r="D329" s="0" t="s">
         <v>36</v>
@@ -11091,7 +11271,7 @@
         <v>19</v>
       </c>
       <c r="F329" s="0" t="s">
-        <v>947</v>
+        <v>951</v>
       </c>
       <c r="G329" s="0" t="s">
         <v>12</v>
@@ -11099,10 +11279,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="330">
       <c r="A330" s="0" t="s">
-        <v>948</v>
+        <v>952</v>
       </c>
       <c r="B330" s="0" t="s">
-        <v>949</v>
+        <v>953</v>
       </c>
       <c r="D330" s="0" t="s">
         <v>11</v>
@@ -11116,10 +11296,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="331">
       <c r="A331" s="0" t="s">
-        <v>950</v>
+        <v>954</v>
       </c>
       <c r="B331" s="0" t="s">
-        <v>951</v>
+        <v>955</v>
       </c>
       <c r="D331" s="0" t="s">
         <v>36</v>
@@ -11133,10 +11313,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="332">
       <c r="A332" s="0" t="s">
-        <v>952</v>
+        <v>956</v>
       </c>
       <c r="B332" s="0" t="s">
-        <v>953</v>
+        <v>957</v>
       </c>
       <c r="D332" s="0" t="s">
         <v>36</v>
@@ -11150,10 +11330,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="333">
       <c r="A333" s="0" t="s">
-        <v>954</v>
+        <v>958</v>
       </c>
       <c r="B333" s="0" t="s">
-        <v>955</v>
+        <v>959</v>
       </c>
       <c r="D333" s="0" t="s">
         <v>30</v>
@@ -11167,10 +11347,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="334">
       <c r="A334" s="0" t="s">
-        <v>956</v>
+        <v>960</v>
       </c>
       <c r="B334" s="0" t="s">
-        <v>957</v>
+        <v>961</v>
       </c>
       <c r="D334" s="0" t="s">
         <v>11</v>
@@ -11179,7 +11359,7 @@
         <v>19</v>
       </c>
       <c r="F334" s="0" t="s">
-        <v>958</v>
+        <v>962</v>
       </c>
       <c r="G334" s="0" t="s">
         <v>12</v>
@@ -11187,10 +11367,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="335">
       <c r="A335" s="0" t="s">
-        <v>959</v>
+        <v>963</v>
       </c>
       <c r="B335" s="0" t="s">
-        <v>960</v>
+        <v>964</v>
       </c>
       <c r="D335" s="0" t="s">
         <v>25</v>
@@ -11199,7 +11379,7 @@
         <v>19</v>
       </c>
       <c r="F335" s="0" t="s">
-        <v>961</v>
+        <v>965</v>
       </c>
       <c r="G335" s="0" t="s">
         <v>12</v>
@@ -11207,10 +11387,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="336">
       <c r="A336" s="0" t="s">
-        <v>962</v>
+        <v>966</v>
       </c>
       <c r="B336" s="0" t="s">
-        <v>963</v>
+        <v>967</v>
       </c>
       <c r="D336" s="0" t="s">
         <v>30</v>
@@ -11224,10 +11404,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="337">
       <c r="A337" s="0" t="s">
-        <v>964</v>
+        <v>968</v>
       </c>
       <c r="B337" s="0" t="s">
-        <v>965</v>
+        <v>969</v>
       </c>
       <c r="D337" s="0" t="s">
         <v>25</v>
@@ -11236,7 +11416,7 @@
         <v>19</v>
       </c>
       <c r="F337" s="0" t="s">
-        <v>966</v>
+        <v>970</v>
       </c>
       <c r="G337" s="0" t="s">
         <v>19</v>
@@ -11244,10 +11424,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="338">
       <c r="A338" s="0" t="s">
-        <v>967</v>
+        <v>971</v>
       </c>
       <c r="B338" s="0" t="s">
-        <v>968</v>
+        <v>972</v>
       </c>
       <c r="D338" s="0" t="s">
         <v>36</v>
@@ -11261,10 +11441,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="339">
       <c r="A339" s="0" t="s">
-        <v>969</v>
+        <v>973</v>
       </c>
       <c r="B339" s="0" t="s">
-        <v>970</v>
+        <v>974</v>
       </c>
       <c r="D339" s="0" t="s">
         <v>25</v>
@@ -11273,7 +11453,7 @@
         <v>19</v>
       </c>
       <c r="F339" s="0" t="s">
-        <v>971</v>
+        <v>975</v>
       </c>
       <c r="G339" s="0" t="s">
         <v>12</v>
@@ -11281,10 +11461,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="340">
       <c r="A340" s="0" t="s">
-        <v>972</v>
+        <v>976</v>
       </c>
       <c r="B340" s="0" t="s">
-        <v>973</v>
+        <v>977</v>
       </c>
       <c r="D340" s="0" t="s">
         <v>25</v>
@@ -11293,7 +11473,7 @@
         <v>19</v>
       </c>
       <c r="F340" s="0" t="s">
-        <v>974</v>
+        <v>978</v>
       </c>
       <c r="G340" s="0" t="s">
         <v>12</v>
@@ -11301,10 +11481,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="341">
       <c r="A341" s="0" t="s">
-        <v>975</v>
+        <v>979</v>
       </c>
       <c r="B341" s="0" t="s">
-        <v>976</v>
+        <v>980</v>
       </c>
       <c r="D341" s="0" t="s">
         <v>11</v>
@@ -11313,7 +11493,7 @@
         <v>19</v>
       </c>
       <c r="F341" s="0" t="s">
-        <v>977</v>
+        <v>981</v>
       </c>
       <c r="G341" s="0" t="s">
         <v>12</v>
@@ -11321,10 +11501,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="342">
       <c r="A342" s="0" t="s">
-        <v>978</v>
+        <v>982</v>
       </c>
       <c r="B342" s="0" t="s">
-        <v>979</v>
+        <v>983</v>
       </c>
       <c r="D342" s="0" t="s">
         <v>36</v>
@@ -11338,10 +11518,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="343">
       <c r="A343" s="0" t="s">
-        <v>980</v>
+        <v>984</v>
       </c>
       <c r="B343" s="0" t="s">
-        <v>981</v>
+        <v>985</v>
       </c>
       <c r="D343" s="0" t="s">
         <v>11</v>
@@ -11350,24 +11530,24 @@
         <v>19</v>
       </c>
       <c r="F343" s="0" t="s">
-        <v>982</v>
+        <v>986</v>
       </c>
       <c r="G343" s="0" t="s">
         <v>19</v>
       </c>
       <c r="H343" s="0" t="s">
-        <v>983</v>
+        <v>987</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="344">
       <c r="A344" s="0" t="s">
-        <v>984</v>
+        <v>988</v>
       </c>
       <c r="B344" s="0" t="s">
-        <v>985</v>
+        <v>989</v>
       </c>
       <c r="D344" s="0" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="E344" s="0" t="s">
         <v>12</v>
@@ -11376,15 +11556,15 @@
         <v>19</v>
       </c>
       <c r="H344" s="0" t="s">
-        <v>986</v>
+        <v>990</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="345">
       <c r="A345" s="0" t="s">
-        <v>987</v>
+        <v>991</v>
       </c>
       <c r="B345" s="0" t="s">
-        <v>988</v>
+        <v>992</v>
       </c>
       <c r="D345" s="0" t="s">
         <v>11</v>
@@ -11393,7 +11573,7 @@
         <v>19</v>
       </c>
       <c r="F345" s="0" t="s">
-        <v>989</v>
+        <v>993</v>
       </c>
       <c r="G345" s="0" t="s">
         <v>12</v>
@@ -11401,10 +11581,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="346">
       <c r="A346" s="0" t="s">
-        <v>990</v>
+        <v>994</v>
       </c>
       <c r="B346" s="0" t="s">
-        <v>991</v>
+        <v>995</v>
       </c>
       <c r="D346" s="0" t="s">
         <v>36</v>
@@ -11418,10 +11598,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="347">
       <c r="A347" s="0" t="s">
-        <v>992</v>
+        <v>996</v>
       </c>
       <c r="B347" s="0" t="s">
-        <v>993</v>
+        <v>997</v>
       </c>
       <c r="D347" s="0" t="s">
         <v>30</v>
@@ -11433,15 +11613,15 @@
         <v>19</v>
       </c>
       <c r="H347" s="0" t="s">
-        <v>994</v>
+        <v>998</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="348">
       <c r="A348" s="0" t="s">
-        <v>995</v>
+        <v>999</v>
       </c>
       <c r="B348" s="0" t="s">
-        <v>996</v>
+        <v>1000</v>
       </c>
       <c r="D348" s="0" t="s">
         <v>16</v>
@@ -11450,7 +11630,7 @@
         <v>19</v>
       </c>
       <c r="F348" s="0" t="s">
-        <v>997</v>
+        <v>1001</v>
       </c>
       <c r="G348" s="0" t="s">
         <v>12</v>
@@ -11458,10 +11638,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="349">
       <c r="A349" s="0" t="s">
-        <v>998</v>
+        <v>1002</v>
       </c>
       <c r="B349" s="0" t="s">
-        <v>999</v>
+        <v>1003</v>
       </c>
       <c r="D349" s="0" t="s">
         <v>11</v>
@@ -11473,15 +11653,15 @@
         <v>19</v>
       </c>
       <c r="H349" s="0" t="s">
-        <v>1000</v>
+        <v>1004</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="350">
       <c r="A350" s="0" t="s">
-        <v>998</v>
+        <v>1002</v>
       </c>
       <c r="B350" s="0" t="s">
-        <v>999</v>
+        <v>1003</v>
       </c>
       <c r="D350" s="0" t="s">
         <v>11</v>
@@ -11493,15 +11673,15 @@
         <v>19</v>
       </c>
       <c r="H350" s="0" t="s">
-        <v>1000</v>
+        <v>1004</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="351">
       <c r="A351" s="0" t="s">
-        <v>1001</v>
+        <v>1005</v>
       </c>
       <c r="B351" s="0" t="s">
-        <v>1002</v>
+        <v>1006</v>
       </c>
       <c r="D351" s="0" t="s">
         <v>16</v>
@@ -11513,15 +11693,15 @@
         <v>19</v>
       </c>
       <c r="H351" s="0" t="s">
-        <v>1003</v>
+        <v>1007</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="352">
       <c r="A352" s="0" t="s">
-        <v>1004</v>
+        <v>1008</v>
       </c>
       <c r="B352" s="0" t="s">
-        <v>1005</v>
+        <v>1009</v>
       </c>
       <c r="D352" s="0" t="s">
         <v>25</v>
@@ -11535,10 +11715,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="353">
       <c r="A353" s="0" t="s">
-        <v>1006</v>
+        <v>1010</v>
       </c>
       <c r="B353" s="0" t="s">
-        <v>1007</v>
+        <v>1011</v>
       </c>
       <c r="D353" s="0" t="s">
         <v>25</v>
@@ -11547,21 +11727,21 @@
         <v>19</v>
       </c>
       <c r="F353" s="0" t="s">
-        <v>1008</v>
+        <v>1012</v>
       </c>
       <c r="G353" s="0" t="s">
         <v>19</v>
       </c>
       <c r="H353" s="0" t="s">
-        <v>1009</v>
+        <v>1013</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="354">
       <c r="A354" s="0" t="s">
-        <v>1010</v>
+        <v>1014</v>
       </c>
       <c r="B354" s="0" t="s">
-        <v>1011</v>
+        <v>1015</v>
       </c>
       <c r="D354" s="0" t="s">
         <v>25</v>
@@ -11575,10 +11755,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="355">
       <c r="A355" s="0" t="s">
-        <v>1012</v>
+        <v>1016</v>
       </c>
       <c r="B355" s="0" t="s">
-        <v>1013</v>
+        <v>1017</v>
       </c>
       <c r="D355" s="0" t="s">
         <v>11</v>
@@ -11590,15 +11770,15 @@
         <v>19</v>
       </c>
       <c r="H355" s="0" t="s">
-        <v>1014</v>
+        <v>1018</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="356">
       <c r="A356" s="0" t="s">
-        <v>1015</v>
+        <v>1019</v>
       </c>
       <c r="B356" s="0" t="s">
-        <v>1016</v>
+        <v>1020</v>
       </c>
       <c r="D356" s="0" t="s">
         <v>16</v>
@@ -11612,10 +11792,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="357">
       <c r="A357" s="0" t="s">
-        <v>1017</v>
+        <v>1021</v>
       </c>
       <c r="B357" s="0" t="s">
-        <v>1018</v>
+        <v>1022</v>
       </c>
       <c r="D357" s="0" t="s">
         <v>16</v>
@@ -11629,10 +11809,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="358">
       <c r="A358" s="0" t="s">
-        <v>1019</v>
+        <v>1023</v>
       </c>
       <c r="B358" s="0" t="s">
-        <v>1020</v>
+        <v>1024</v>
       </c>
       <c r="D358" s="0" t="s">
         <v>11</v>
@@ -11646,10 +11826,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="359">
       <c r="A359" s="0" t="s">
-        <v>1021</v>
+        <v>1025</v>
       </c>
       <c r="B359" s="0" t="s">
-        <v>1022</v>
+        <v>1026</v>
       </c>
       <c r="D359" s="0" t="s">
         <v>11</v>
@@ -11663,10 +11843,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="360">
       <c r="A360" s="0" t="s">
-        <v>1023</v>
+        <v>1027</v>
       </c>
       <c r="B360" s="0" t="s">
-        <v>1024</v>
+        <v>1028</v>
       </c>
       <c r="D360" s="0" t="s">
         <v>16</v>
@@ -11675,7 +11855,7 @@
         <v>19</v>
       </c>
       <c r="F360" s="0" t="s">
-        <v>1025</v>
+        <v>1029</v>
       </c>
       <c r="G360" s="0" t="s">
         <v>19</v>
@@ -11686,10 +11866,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="361">
       <c r="A361" s="0" t="s">
-        <v>1026</v>
+        <v>1030</v>
       </c>
       <c r="B361" s="0" t="s">
-        <v>1027</v>
+        <v>1031</v>
       </c>
       <c r="D361" s="0" t="s">
         <v>16</v>
@@ -11701,15 +11881,15 @@
         <v>19</v>
       </c>
       <c r="H361" s="0" t="s">
-        <v>1028</v>
+        <v>1032</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="362">
       <c r="A362" s="0" t="s">
-        <v>1029</v>
+        <v>1033</v>
       </c>
       <c r="B362" s="0" t="s">
-        <v>1030</v>
+        <v>1034</v>
       </c>
       <c r="D362" s="0" t="s">
         <v>11</v>
@@ -11723,10 +11903,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="363">
       <c r="A363" s="0" t="s">
-        <v>1031</v>
+        <v>1035</v>
       </c>
       <c r="B363" s="0" t="s">
-        <v>1032</v>
+        <v>1036</v>
       </c>
       <c r="D363" s="0" t="s">
         <v>25</v>
@@ -11738,15 +11918,15 @@
         <v>19</v>
       </c>
       <c r="H363" s="0" t="s">
-        <v>1033</v>
+        <v>1037</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="364">
       <c r="A364" s="0" t="s">
-        <v>1034</v>
+        <v>1038</v>
       </c>
       <c r="B364" s="0" t="s">
-        <v>1035</v>
+        <v>1039</v>
       </c>
       <c r="D364" s="0" t="s">
         <v>30</v>
@@ -11758,7 +11938,7 @@
         <v>19</v>
       </c>
       <c r="H364" s="0" t="s">
-        <v>1036</v>
+        <v>1040</v>
       </c>
       <c r="I364" s="0" t="s">
         <v>33</v>
@@ -11766,10 +11946,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="365">
       <c r="A365" s="0" t="s">
-        <v>1037</v>
+        <v>1041</v>
       </c>
       <c r="B365" s="0" t="s">
-        <v>1038</v>
+        <v>1042</v>
       </c>
       <c r="D365" s="0" t="s">
         <v>25</v>
@@ -11781,15 +11961,15 @@
         <v>19</v>
       </c>
       <c r="H365" s="0" t="s">
-        <v>1039</v>
+        <v>1043</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="366">
       <c r="A366" s="0" t="s">
-        <v>1040</v>
+        <v>1044</v>
       </c>
       <c r="B366" s="0" t="s">
-        <v>1041</v>
+        <v>1045</v>
       </c>
       <c r="D366" s="0" t="s">
         <v>11</v>
@@ -11803,10 +11983,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="367">
       <c r="A367" s="0" t="s">
-        <v>1042</v>
+        <v>1046</v>
       </c>
       <c r="B367" s="0" t="s">
-        <v>1043</v>
+        <v>1047</v>
       </c>
       <c r="D367" s="0" t="s">
         <v>16</v>
@@ -11820,10 +12000,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="368">
       <c r="A368" s="0" t="s">
-        <v>1044</v>
+        <v>1048</v>
       </c>
       <c r="B368" s="2" t="s">
-        <v>1045</v>
+        <v>1049</v>
       </c>
       <c r="C368" s="2"/>
       <c r="D368" s="0" t="s">
@@ -11838,10 +12018,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="369">
       <c r="A369" s="0" t="s">
-        <v>1046</v>
+        <v>1050</v>
       </c>
       <c r="B369" s="0" t="s">
-        <v>1047</v>
+        <v>1051</v>
       </c>
       <c r="D369" s="0" t="s">
         <v>16</v>
@@ -11853,15 +12033,15 @@
         <v>19</v>
       </c>
       <c r="H369" s="0" t="s">
-        <v>1048</v>
+        <v>1052</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="370">
       <c r="A370" s="0" t="s">
-        <v>1049</v>
+        <v>1053</v>
       </c>
       <c r="B370" s="0" t="s">
-        <v>1050</v>
+        <v>1054</v>
       </c>
       <c r="D370" s="0" t="s">
         <v>11</v>
@@ -11873,15 +12053,15 @@
         <v>19</v>
       </c>
       <c r="H370" s="0" t="s">
-        <v>1051</v>
+        <v>1055</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="371">
       <c r="A371" s="0" t="s">
-        <v>1052</v>
+        <v>1056</v>
       </c>
       <c r="B371" s="2" t="s">
-        <v>1053</v>
+        <v>1057</v>
       </c>
       <c r="C371" s="2"/>
       <c r="D371" s="0" t="s">
@@ -11891,21 +12071,21 @@
         <v>19</v>
       </c>
       <c r="F371" s="0" t="s">
-        <v>1054</v>
+        <v>1058</v>
       </c>
       <c r="G371" s="0" t="s">
         <v>19</v>
       </c>
       <c r="H371" s="0" t="s">
-        <v>1055</v>
+        <v>1059</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="372">
       <c r="A372" s="0" t="s">
-        <v>1056</v>
+        <v>1060</v>
       </c>
       <c r="B372" s="0" t="s">
-        <v>1053</v>
+        <v>1057</v>
       </c>
       <c r="D372" s="0" t="s">
         <v>11</v>
@@ -11914,22 +12094,22 @@
         <v>19</v>
       </c>
       <c r="F372" s="0" t="s">
-        <v>1054</v>
+        <v>1058</v>
       </c>
       <c r="G372" s="0" t="s">
         <v>19</v>
       </c>
       <c r="H372" s="0" t="s">
-        <v>1055</v>
+        <v>1059</v>
       </c>
       <c r="I372" s="2"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="373">
       <c r="A373" s="0" t="s">
+        <v>1061</v>
+      </c>
+      <c r="B373" s="0" t="s">
         <v>1057</v>
-      </c>
-      <c r="B373" s="0" t="s">
-        <v>1053</v>
       </c>
       <c r="D373" s="0" t="s">
         <v>36</v>
@@ -11938,44 +12118,44 @@
         <v>19</v>
       </c>
       <c r="F373" s="0" t="s">
-        <v>1054</v>
+        <v>1058</v>
       </c>
       <c r="G373" s="0" t="s">
         <v>19</v>
       </c>
       <c r="H373" s="0" t="s">
-        <v>1055</v>
+        <v>1059</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="374">
       <c r="A374" s="0" t="s">
+        <v>1062</v>
+      </c>
+      <c r="B374" s="0" t="s">
+        <v>1057</v>
+      </c>
+      <c r="D374" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="E374" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="F374" s="0" t="s">
         <v>1058</v>
       </c>
-      <c r="B374" s="0" t="s">
-        <v>1053</v>
-      </c>
-      <c r="D374" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="E374" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="F374" s="0" t="s">
-        <v>1054</v>
-      </c>
       <c r="G374" s="0" t="s">
         <v>19</v>
       </c>
       <c r="H374" s="0" t="s">
-        <v>1055</v>
+        <v>1059</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="375">
       <c r="A375" s="0" t="s">
-        <v>1059</v>
+        <v>1063</v>
       </c>
       <c r="B375" s="2" t="s">
-        <v>1053</v>
+        <v>1057</v>
       </c>
       <c r="C375" s="2"/>
       <c r="D375" s="0" t="s">
@@ -11985,21 +12165,21 @@
         <v>19</v>
       </c>
       <c r="F375" s="0" t="s">
-        <v>1054</v>
+        <v>1058</v>
       </c>
       <c r="G375" s="0" t="s">
         <v>19</v>
       </c>
       <c r="H375" s="0" t="s">
-        <v>1055</v>
+        <v>1059</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="376">
       <c r="A376" s="0" t="s">
-        <v>1060</v>
+        <v>1064</v>
       </c>
       <c r="B376" s="0" t="s">
-        <v>1053</v>
+        <v>1057</v>
       </c>
       <c r="D376" s="0" t="s">
         <v>25</v>
@@ -12008,21 +12188,21 @@
         <v>19</v>
       </c>
       <c r="F376" s="0" t="s">
-        <v>1054</v>
+        <v>1058</v>
       </c>
       <c r="G376" s="0" t="s">
         <v>19</v>
       </c>
       <c r="H376" s="0" t="s">
-        <v>1055</v>
+        <v>1059</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="377">
       <c r="A377" s="0" t="s">
-        <v>1061</v>
+        <v>1065</v>
       </c>
       <c r="B377" s="0" t="s">
-        <v>1062</v>
+        <v>1066</v>
       </c>
       <c r="D377" s="0" t="s">
         <v>25</v>
@@ -12036,10 +12216,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="378">
       <c r="A378" s="0" t="s">
-        <v>1063</v>
+        <v>1067</v>
       </c>
       <c r="B378" s="0" t="s">
-        <v>1064</v>
+        <v>1068</v>
       </c>
       <c r="D378" s="0" t="s">
         <v>11</v>
@@ -12051,15 +12231,15 @@
         <v>19</v>
       </c>
       <c r="H378" s="0" t="s">
-        <v>1065</v>
+        <v>1069</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="379">
       <c r="A379" s="0" t="s">
-        <v>1066</v>
+        <v>1070</v>
       </c>
       <c r="B379" s="2" t="s">
-        <v>1067</v>
+        <v>1071</v>
       </c>
       <c r="C379" s="2"/>
       <c r="D379" s="0" t="s">
@@ -12069,21 +12249,21 @@
         <v>19</v>
       </c>
       <c r="F379" s="0" t="s">
-        <v>1068</v>
+        <v>1072</v>
       </c>
       <c r="G379" s="0" t="s">
         <v>19</v>
       </c>
       <c r="H379" s="0" t="s">
-        <v>1069</v>
+        <v>1073</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="380">
       <c r="A380" s="0" t="s">
-        <v>1070</v>
+        <v>1074</v>
       </c>
       <c r="B380" s="0" t="s">
-        <v>1071</v>
+        <v>1075</v>
       </c>
       <c r="D380" s="2" t="s">
         <v>25</v>
@@ -12097,10 +12277,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="381">
       <c r="A381" s="0" t="s">
-        <v>1072</v>
+        <v>1076</v>
       </c>
       <c r="B381" s="0" t="s">
-        <v>1073</v>
+        <v>1077</v>
       </c>
       <c r="D381" s="2" t="s">
         <v>25</v>
@@ -12109,7 +12289,7 @@
         <v>19</v>
       </c>
       <c r="F381" s="0" t="s">
-        <v>1074</v>
+        <v>1078</v>
       </c>
       <c r="G381" s="2" t="s">
         <v>12</v>
@@ -12118,10 +12298,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="382">
       <c r="A382" s="0" t="s">
-        <v>1075</v>
+        <v>1079</v>
       </c>
       <c r="B382" s="0" t="s">
-        <v>1076</v>
+        <v>1080</v>
       </c>
       <c r="D382" s="0" t="s">
         <v>11</v>
@@ -12135,10 +12315,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="383">
       <c r="A383" s="0" t="s">
-        <v>1077</v>
+        <v>1081</v>
       </c>
       <c r="B383" s="0" t="s">
-        <v>1078</v>
+        <v>1082</v>
       </c>
       <c r="D383" s="0" t="s">
         <v>16</v>
@@ -12152,10 +12332,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="384">
       <c r="A384" s="0" t="s">
-        <v>1079</v>
+        <v>1083</v>
       </c>
       <c r="B384" s="0" t="s">
-        <v>1080</v>
+        <v>1084</v>
       </c>
       <c r="D384" s="0" t="s">
         <v>16</v>
@@ -12167,7 +12347,7 @@
         <v>19</v>
       </c>
       <c r="H384" s="0" t="s">
-        <v>1081</v>
+        <v>1085</v>
       </c>
       <c r="I384" s="2" t="s">
         <v>33</v>
@@ -12175,10 +12355,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="385">
       <c r="A385" s="0" t="s">
-        <v>1082</v>
+        <v>1086</v>
       </c>
       <c r="B385" s="0" t="s">
-        <v>1083</v>
+        <v>1087</v>
       </c>
       <c r="D385" s="0" t="s">
         <v>11</v>
@@ -12192,10 +12372,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="386">
       <c r="A386" s="0" t="s">
-        <v>1084</v>
+        <v>1088</v>
       </c>
       <c r="B386" s="0" t="s">
-        <v>1085</v>
+        <v>1089</v>
       </c>
       <c r="D386" s="0" t="s">
         <v>25</v>
@@ -12207,15 +12387,15 @@
         <v>19</v>
       </c>
       <c r="H386" s="0" t="s">
-        <v>1086</v>
+        <v>1090</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="387">
       <c r="A387" s="0" t="s">
-        <v>1087</v>
+        <v>1091</v>
       </c>
       <c r="B387" s="0" t="s">
-        <v>1088</v>
+        <v>1092</v>
       </c>
       <c r="D387" s="0" t="s">
         <v>11</v>
@@ -12224,7 +12404,7 @@
         <v>19</v>
       </c>
       <c r="F387" s="0" t="s">
-        <v>1089</v>
+        <v>1093</v>
       </c>
       <c r="G387" s="0" t="s">
         <v>12</v>
@@ -12232,10 +12412,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="388">
       <c r="A388" s="0" t="s">
-        <v>1090</v>
+        <v>1094</v>
       </c>
       <c r="B388" s="0" t="s">
-        <v>1091</v>
+        <v>1095</v>
       </c>
       <c r="D388" s="0" t="s">
         <v>30</v>
@@ -12249,13 +12429,13 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="389">
       <c r="A389" s="0" t="s">
-        <v>1092</v>
+        <v>1096</v>
       </c>
       <c r="B389" s="0" t="s">
-        <v>1093</v>
+        <v>1097</v>
       </c>
       <c r="D389" s="0" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="E389" s="0" t="s">
         <v>12</v>
@@ -12264,15 +12444,15 @@
         <v>19</v>
       </c>
       <c r="H389" s="0" t="s">
-        <v>1094</v>
+        <v>1098</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="390">
       <c r="A390" s="0" t="s">
-        <v>1095</v>
+        <v>1099</v>
       </c>
       <c r="B390" s="0" t="s">
-        <v>1096</v>
+        <v>1100</v>
       </c>
       <c r="D390" s="0" t="s">
         <v>11</v>
@@ -12281,7 +12461,7 @@
         <v>19</v>
       </c>
       <c r="F390" s="0" t="s">
-        <v>1097</v>
+        <v>1101</v>
       </c>
       <c r="G390" s="0" t="s">
         <v>12</v>
@@ -12289,10 +12469,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="391">
       <c r="A391" s="0" t="s">
-        <v>1098</v>
+        <v>1102</v>
       </c>
       <c r="B391" s="0" t="s">
-        <v>1099</v>
+        <v>1103</v>
       </c>
       <c r="D391" s="0" t="s">
         <v>11</v>
@@ -12306,10 +12486,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="392">
       <c r="A392" s="0" t="s">
-        <v>1100</v>
+        <v>1104</v>
       </c>
       <c r="B392" s="0" t="s">
-        <v>1101</v>
+        <v>1105</v>
       </c>
       <c r="D392" s="0" t="s">
         <v>36</v>
@@ -12318,7 +12498,7 @@
         <v>19</v>
       </c>
       <c r="F392" s="0" t="s">
-        <v>1102</v>
+        <v>1106</v>
       </c>
       <c r="G392" s="0" t="s">
         <v>12</v>
@@ -12326,10 +12506,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="393">
       <c r="A393" s="0" t="s">
-        <v>1103</v>
+        <v>1107</v>
       </c>
       <c r="B393" s="0" t="s">
-        <v>1104</v>
+        <v>1108</v>
       </c>
       <c r="D393" s="0" t="s">
         <v>25</v>
@@ -12338,7 +12518,7 @@
         <v>19</v>
       </c>
       <c r="F393" s="0" t="s">
-        <v>1105</v>
+        <v>1109</v>
       </c>
       <c r="G393" s="0" t="s">
         <v>12</v>
@@ -12346,10 +12526,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="394">
       <c r="A394" s="0" t="s">
-        <v>1106</v>
+        <v>1110</v>
       </c>
       <c r="B394" s="0" t="s">
-        <v>1107</v>
+        <v>1111</v>
       </c>
       <c r="D394" s="0" t="s">
         <v>36</v>
@@ -12358,21 +12538,21 @@
         <v>19</v>
       </c>
       <c r="F394" s="0" t="s">
-        <v>1108</v>
+        <v>1112</v>
       </c>
       <c r="G394" s="2" t="s">
         <v>19</v>
       </c>
       <c r="H394" s="0" t="s">
-        <v>1109</v>
+        <v>1113</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="395">
       <c r="A395" s="0" t="s">
-        <v>1110</v>
+        <v>1114</v>
       </c>
       <c r="B395" s="0" t="s">
-        <v>1111</v>
+        <v>1115</v>
       </c>
       <c r="D395" s="0" t="s">
         <v>25</v>
@@ -12381,7 +12561,7 @@
         <v>19</v>
       </c>
       <c r="F395" s="0" t="s">
-        <v>1112</v>
+        <v>1116</v>
       </c>
       <c r="G395" s="0" t="s">
         <v>12</v>
@@ -12389,10 +12569,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="396">
       <c r="A396" s="0" t="s">
-        <v>1113</v>
+        <v>1117</v>
       </c>
       <c r="B396" s="0" t="s">
-        <v>1114</v>
+        <v>1118</v>
       </c>
       <c r="D396" s="0" t="s">
         <v>11</v>
@@ -12406,10 +12586,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="397">
       <c r="A397" s="0" t="s">
-        <v>1115</v>
+        <v>1119</v>
       </c>
       <c r="B397" s="2" t="s">
-        <v>1116</v>
+        <v>1120</v>
       </c>
       <c r="C397" s="2"/>
       <c r="D397" s="0" t="s">
@@ -12419,7 +12599,7 @@
         <v>19</v>
       </c>
       <c r="F397" s="0" t="s">
-        <v>1117</v>
+        <v>1121</v>
       </c>
       <c r="G397" s="2" t="s">
         <v>12</v>
@@ -12427,10 +12607,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="398">
       <c r="A398" s="0" t="s">
-        <v>1118</v>
+        <v>1122</v>
       </c>
       <c r="B398" s="0" t="s">
-        <v>1119</v>
+        <v>1123</v>
       </c>
       <c r="D398" s="0" t="s">
         <v>11</v>
@@ -12442,15 +12622,15 @@
         <v>19</v>
       </c>
       <c r="H398" s="0" t="s">
-        <v>1120</v>
+        <v>1124</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="399">
       <c r="A399" s="0" t="s">
-        <v>1121</v>
+        <v>1125</v>
       </c>
       <c r="B399" s="0" t="s">
-        <v>1122</v>
+        <v>1126</v>
       </c>
       <c r="D399" s="0" t="s">
         <v>11</v>
@@ -12464,10 +12644,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="400">
       <c r="A400" s="0" t="s">
-        <v>1123</v>
+        <v>1127</v>
       </c>
       <c r="B400" s="0" t="s">
-        <v>1124</v>
+        <v>1128</v>
       </c>
       <c r="D400" s="0" t="s">
         <v>11</v>
@@ -12476,7 +12656,7 @@
         <v>19</v>
       </c>
       <c r="F400" s="0" t="s">
-        <v>1125</v>
+        <v>1129</v>
       </c>
       <c r="G400" s="0" t="s">
         <v>12</v>
@@ -12485,10 +12665,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="401">
       <c r="A401" s="2" t="s">
-        <v>1126</v>
+        <v>1130</v>
       </c>
       <c r="B401" s="0" t="s">
-        <v>1127</v>
+        <v>1131</v>
       </c>
       <c r="D401" s="2" t="s">
         <v>11</v>
@@ -12503,10 +12683,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="402">
       <c r="A402" s="0" t="s">
-        <v>1128</v>
+        <v>1132</v>
       </c>
       <c r="B402" s="0" t="s">
-        <v>1129</v>
+        <v>1133</v>
       </c>
       <c r="D402" s="0" t="s">
         <v>11</v>
@@ -12520,10 +12700,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="403">
       <c r="A403" s="0" t="s">
-        <v>1130</v>
+        <v>1134</v>
       </c>
       <c r="B403" s="0" t="s">
-        <v>1131</v>
+        <v>1135</v>
       </c>
       <c r="D403" s="0" t="s">
         <v>11</v>
@@ -12537,10 +12717,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="404">
       <c r="A404" s="0" t="s">
-        <v>1132</v>
+        <v>1136</v>
       </c>
       <c r="B404" s="0" t="s">
-        <v>1133</v>
+        <v>1137</v>
       </c>
       <c r="D404" s="0" t="s">
         <v>11</v>
@@ -12554,10 +12734,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="405">
       <c r="A405" s="0" t="s">
-        <v>1134</v>
+        <v>1138</v>
       </c>
       <c r="B405" s="0" t="s">
-        <v>1135</v>
+        <v>1139</v>
       </c>
       <c r="D405" s="0" t="s">
         <v>11</v>
@@ -12571,10 +12751,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="406">
       <c r="A406" s="0" t="s">
-        <v>1136</v>
+        <v>1140</v>
       </c>
       <c r="B406" s="0" t="s">
-        <v>1137</v>
+        <v>1141</v>
       </c>
       <c r="D406" s="0" t="s">
         <v>16</v>
@@ -12586,15 +12766,15 @@
         <v>19</v>
       </c>
       <c r="H406" s="0" t="s">
-        <v>1138</v>
+        <v>1142</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="407">
       <c r="A407" s="0" t="s">
-        <v>1139</v>
+        <v>1143</v>
       </c>
       <c r="B407" s="0" t="s">
-        <v>1140</v>
+        <v>1144</v>
       </c>
       <c r="D407" s="0" t="s">
         <v>11</v>
@@ -12608,10 +12788,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="408">
       <c r="A408" s="0" t="s">
-        <v>1141</v>
+        <v>1145</v>
       </c>
       <c r="B408" s="0" t="s">
-        <v>1142</v>
+        <v>1146</v>
       </c>
       <c r="D408" s="0" t="s">
         <v>11</v>
@@ -12620,7 +12800,7 @@
         <v>19</v>
       </c>
       <c r="F408" s="0" t="s">
-        <v>1143</v>
+        <v>1147</v>
       </c>
       <c r="G408" s="2" t="s">
         <v>12</v>
@@ -12628,10 +12808,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="409">
       <c r="A409" s="0" t="s">
-        <v>1144</v>
+        <v>1148</v>
       </c>
       <c r="B409" s="0" t="s">
-        <v>1145</v>
+        <v>1149</v>
       </c>
       <c r="D409" s="0" t="s">
         <v>25</v>
@@ -12645,10 +12825,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="410">
       <c r="A410" s="0" t="s">
-        <v>1146</v>
+        <v>1150</v>
       </c>
       <c r="B410" s="2" t="s">
-        <v>1147</v>
+        <v>1151</v>
       </c>
       <c r="C410" s="2"/>
       <c r="D410" s="2" t="s">
@@ -12663,10 +12843,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="411">
       <c r="A411" s="0" t="s">
-        <v>1148</v>
+        <v>1152</v>
       </c>
       <c r="B411" s="0" t="s">
-        <v>1149</v>
+        <v>1153</v>
       </c>
       <c r="D411" s="0" t="s">
         <v>25</v>
@@ -12675,7 +12855,7 @@
         <v>19</v>
       </c>
       <c r="F411" s="0" t="s">
-        <v>1150</v>
+        <v>1154</v>
       </c>
       <c r="G411" s="0" t="s">
         <v>12</v>
@@ -12683,10 +12863,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="412">
       <c r="A412" s="0" t="s">
-        <v>1151</v>
+        <v>1155</v>
       </c>
       <c r="B412" s="0" t="s">
-        <v>1152</v>
+        <v>1156</v>
       </c>
       <c r="D412" s="0" t="s">
         <v>25</v>
@@ -12700,10 +12880,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="413">
       <c r="A413" s="0" t="s">
-        <v>1153</v>
+        <v>1157</v>
       </c>
       <c r="B413" s="0" t="s">
-        <v>1154</v>
+        <v>1158</v>
       </c>
       <c r="D413" s="0" t="s">
         <v>30</v>
@@ -12715,18 +12895,18 @@
         <v>19</v>
       </c>
       <c r="H413" s="0" t="s">
-        <v>1155</v>
+        <v>1159</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="414">
       <c r="A414" s="0" t="s">
-        <v>1156</v>
+        <v>1160</v>
       </c>
       <c r="B414" s="0" t="s">
-        <v>1157</v>
+        <v>1161</v>
       </c>
       <c r="D414" s="0" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="E414" s="0" t="s">
         <v>12</v>
@@ -12735,15 +12915,15 @@
         <v>19</v>
       </c>
       <c r="H414" s="0" t="s">
-        <v>1158</v>
+        <v>1162</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="415">
       <c r="A415" s="0" t="s">
-        <v>1159</v>
+        <v>1163</v>
       </c>
       <c r="B415" s="0" t="s">
-        <v>1160</v>
+        <v>1164</v>
       </c>
       <c r="D415" s="0" t="s">
         <v>11</v>
@@ -12757,10 +12937,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="416">
       <c r="A416" s="0" t="s">
-        <v>1161</v>
+        <v>1165</v>
       </c>
       <c r="B416" s="0" t="s">
-        <v>1162</v>
+        <v>1166</v>
       </c>
       <c r="D416" s="0" t="s">
         <v>11</v>
@@ -12774,10 +12954,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="417">
       <c r="A417" s="0" t="s">
-        <v>1163</v>
+        <v>1167</v>
       </c>
       <c r="B417" s="0" t="s">
-        <v>1164</v>
+        <v>1168</v>
       </c>
       <c r="D417" s="0" t="s">
         <v>36</v>
@@ -12789,15 +12969,15 @@
         <v>19</v>
       </c>
       <c r="H417" s="0" t="s">
-        <v>1165</v>
+        <v>1169</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="418">
       <c r="A418" s="0" t="s">
-        <v>1166</v>
+        <v>1170</v>
       </c>
       <c r="B418" s="0" t="s">
-        <v>1167</v>
+        <v>1171</v>
       </c>
       <c r="D418" s="2" t="s">
         <v>25</v>
@@ -12806,7 +12986,7 @@
         <v>19</v>
       </c>
       <c r="F418" s="0" t="s">
-        <v>1168</v>
+        <v>1172</v>
       </c>
       <c r="G418" s="0" t="s">
         <v>12</v>
@@ -12814,10 +12994,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="419">
       <c r="A419" s="0" t="s">
-        <v>1169</v>
+        <v>1173</v>
       </c>
       <c r="B419" s="0" t="s">
-        <v>1170</v>
+        <v>1174</v>
       </c>
       <c r="D419" s="2" t="s">
         <v>25</v>
@@ -12831,10 +13011,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="420">
       <c r="A420" s="0" t="s">
-        <v>1171</v>
+        <v>1175</v>
       </c>
       <c r="B420" s="0" t="s">
-        <v>1172</v>
+        <v>1176</v>
       </c>
       <c r="D420" s="0" t="s">
         <v>25</v>
@@ -12848,10 +13028,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="421">
       <c r="A421" s="0" t="s">
-        <v>1173</v>
+        <v>1177</v>
       </c>
       <c r="B421" s="0" t="s">
-        <v>1174</v>
+        <v>1178</v>
       </c>
       <c r="D421" s="0" t="s">
         <v>30</v>
@@ -12860,7 +13040,7 @@
         <v>19</v>
       </c>
       <c r="F421" s="0" t="s">
-        <v>1175</v>
+        <v>1179</v>
       </c>
       <c r="G421" s="0" t="s">
         <v>12</v>
@@ -12868,10 +13048,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="422">
       <c r="A422" s="0" t="s">
-        <v>1176</v>
+        <v>1180</v>
       </c>
       <c r="B422" s="0" t="s">
-        <v>1177</v>
+        <v>1181</v>
       </c>
       <c r="D422" s="0" t="s">
         <v>25</v>
@@ -12880,7 +13060,7 @@
         <v>19</v>
       </c>
       <c r="F422" s="0" t="s">
-        <v>1178</v>
+        <v>1182</v>
       </c>
       <c r="G422" s="0" t="s">
         <v>12</v>
@@ -12888,19 +13068,19 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="423">
       <c r="A423" s="0" t="s">
-        <v>1179</v>
+        <v>1183</v>
       </c>
       <c r="B423" s="0" t="s">
-        <v>1180</v>
+        <v>1184</v>
       </c>
       <c r="D423" s="0" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="E423" s="0" t="s">
         <v>19</v>
       </c>
       <c r="F423" s="0" t="s">
-        <v>1181</v>
+        <v>1185</v>
       </c>
       <c r="G423" s="0" t="s">
         <v>12</v>
@@ -12908,20 +13088,20 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="424">
       <c r="A424" s="0" t="s">
-        <v>1182</v>
+        <v>1186</v>
       </c>
       <c r="B424" s="2" t="s">
-        <v>1183</v>
+        <v>1187</v>
       </c>
       <c r="C424" s="2"/>
       <c r="D424" s="0" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="E424" s="0" t="s">
         <v>19</v>
       </c>
       <c r="F424" s="0" t="s">
-        <v>1184</v>
+        <v>1188</v>
       </c>
       <c r="G424" s="0" t="s">
         <v>12</v>
@@ -12929,10 +13109,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="425">
       <c r="A425" s="0" t="s">
-        <v>1185</v>
+        <v>1189</v>
       </c>
       <c r="B425" s="0" t="s">
-        <v>1186</v>
+        <v>1190</v>
       </c>
       <c r="D425" s="0" t="s">
         <v>16</v>
@@ -12941,7 +13121,7 @@
         <v>19</v>
       </c>
       <c r="F425" s="0" t="s">
-        <v>1187</v>
+        <v>1191</v>
       </c>
       <c r="G425" s="0" t="s">
         <v>19</v>
@@ -12952,10 +13132,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="426">
       <c r="A426" s="0" t="s">
-        <v>1188</v>
+        <v>1192</v>
       </c>
       <c r="B426" s="0" t="s">
-        <v>1189</v>
+        <v>1193</v>
       </c>
       <c r="D426" s="0" t="s">
         <v>25</v>
@@ -12969,10 +13149,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="427">
       <c r="A427" s="0" t="s">
-        <v>1190</v>
+        <v>1194</v>
       </c>
       <c r="B427" s="0" t="s">
-        <v>1191</v>
+        <v>1195</v>
       </c>
       <c r="D427" s="0" t="s">
         <v>236</v>
@@ -12986,10 +13166,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="428">
       <c r="A428" s="0" t="s">
-        <v>1192</v>
+        <v>1196</v>
       </c>
       <c r="B428" s="0" t="s">
-        <v>1193</v>
+        <v>1197</v>
       </c>
       <c r="D428" s="0" t="s">
         <v>236</v>
@@ -13001,15 +13181,15 @@
         <v>19</v>
       </c>
       <c r="H428" s="0" t="s">
-        <v>1194</v>
+        <v>1198</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="429">
       <c r="A429" s="0" t="s">
-        <v>1195</v>
+        <v>1199</v>
       </c>
       <c r="B429" s="2" t="s">
-        <v>1196</v>
+        <v>1200</v>
       </c>
       <c r="C429" s="2"/>
       <c r="D429" s="0" t="s">
@@ -13019,7 +13199,7 @@
         <v>19</v>
       </c>
       <c r="F429" s="0" t="s">
-        <v>1197</v>
+        <v>1201</v>
       </c>
       <c r="G429" s="0" t="s">
         <v>12</v>
@@ -13027,10 +13207,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="430">
       <c r="A430" s="0" t="s">
-        <v>1198</v>
+        <v>1202</v>
       </c>
       <c r="B430" s="0" t="s">
-        <v>1199</v>
+        <v>1203</v>
       </c>
       <c r="D430" s="0" t="s">
         <v>236</v>
@@ -13042,15 +13222,15 @@
         <v>19</v>
       </c>
       <c r="H430" s="0" t="s">
-        <v>1200</v>
+        <v>1204</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="431">
       <c r="A431" s="0" t="s">
-        <v>1201</v>
+        <v>1205</v>
       </c>
       <c r="B431" s="0" t="s">
-        <v>1202</v>
+        <v>1206</v>
       </c>
       <c r="D431" s="0" t="s">
         <v>25</v>
@@ -13062,15 +13242,15 @@
         <v>19</v>
       </c>
       <c r="H431" s="0" t="s">
-        <v>1203</v>
+        <v>1207</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="432">
       <c r="A432" s="0" t="s">
-        <v>1204</v>
+        <v>1208</v>
       </c>
       <c r="B432" s="0" t="s">
-        <v>1205</v>
+        <v>1209</v>
       </c>
       <c r="D432" s="0" t="s">
         <v>30</v>
@@ -13079,7 +13259,7 @@
         <v>19</v>
       </c>
       <c r="F432" s="0" t="s">
-        <v>1206</v>
+        <v>1210</v>
       </c>
       <c r="G432" s="0" t="s">
         <v>12</v>
@@ -13087,10 +13267,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="433">
       <c r="A433" s="0" t="s">
-        <v>1207</v>
+        <v>1211</v>
       </c>
       <c r="B433" s="0" t="s">
-        <v>1208</v>
+        <v>1212</v>
       </c>
       <c r="D433" s="0" t="s">
         <v>11</v>
@@ -13104,10 +13284,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="434">
       <c r="A434" s="0" t="s">
-        <v>1209</v>
+        <v>1213</v>
       </c>
       <c r="B434" s="0" t="s">
-        <v>1210</v>
+        <v>1214</v>
       </c>
       <c r="D434" s="0" t="s">
         <v>25</v>
@@ -13119,15 +13299,15 @@
         <v>19</v>
       </c>
       <c r="H434" s="0" t="s">
-        <v>1211</v>
+        <v>1215</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="435">
       <c r="A435" s="0" t="s">
-        <v>1212</v>
+        <v>1216</v>
       </c>
       <c r="B435" s="0" t="s">
-        <v>1213</v>
+        <v>1217</v>
       </c>
       <c r="D435" s="2" t="s">
         <v>25</v>
@@ -13139,15 +13319,15 @@
         <v>19</v>
       </c>
       <c r="H435" s="0" t="s">
-        <v>1211</v>
+        <v>1215</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="436">
       <c r="A436" s="0" t="s">
-        <v>1214</v>
+        <v>1218</v>
       </c>
       <c r="B436" s="0" t="s">
-        <v>1215</v>
+        <v>1219</v>
       </c>
       <c r="D436" s="0" t="s">
         <v>11</v>
@@ -13156,7 +13336,7 @@
         <v>19</v>
       </c>
       <c r="F436" s="0" t="s">
-        <v>1216</v>
+        <v>1220</v>
       </c>
       <c r="G436" s="2" t="s">
         <v>12</v>
@@ -13164,10 +13344,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="437">
       <c r="A437" s="0" t="s">
-        <v>1217</v>
+        <v>1221</v>
       </c>
       <c r="B437" s="0" t="s">
-        <v>1218</v>
+        <v>1222</v>
       </c>
       <c r="D437" s="0" t="s">
         <v>11</v>
@@ -13179,15 +13359,15 @@
         <v>19</v>
       </c>
       <c r="H437" s="0" t="s">
-        <v>1219</v>
+        <v>1223</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="438">
       <c r="A438" s="0" t="s">
-        <v>1220</v>
+        <v>1224</v>
       </c>
       <c r="B438" s="0" t="s">
-        <v>1221</v>
+        <v>1225</v>
       </c>
       <c r="D438" s="0" t="s">
         <v>36</v>
@@ -13196,7 +13376,7 @@
         <v>19</v>
       </c>
       <c r="F438" s="0" t="s">
-        <v>1222</v>
+        <v>1226</v>
       </c>
       <c r="G438" s="2" t="s">
         <v>12</v>
@@ -13204,10 +13384,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="439">
       <c r="A439" s="0" t="s">
-        <v>1223</v>
+        <v>1227</v>
       </c>
       <c r="B439" s="0" t="s">
-        <v>1224</v>
+        <v>1228</v>
       </c>
       <c r="D439" s="0" t="s">
         <v>11</v>
@@ -13219,15 +13399,15 @@
         <v>19</v>
       </c>
       <c r="H439" s="0" t="s">
-        <v>1225</v>
+        <v>1229</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="440">
       <c r="A440" s="0" t="s">
-        <v>1226</v>
+        <v>1230</v>
       </c>
       <c r="B440" s="0" t="s">
-        <v>1227</v>
+        <v>1231</v>
       </c>
       <c r="D440" s="0" t="s">
         <v>25</v>
@@ -13236,44 +13416,44 @@
         <v>19</v>
       </c>
       <c r="F440" s="0" t="s">
-        <v>1228</v>
+        <v>1232</v>
       </c>
       <c r="G440" s="0" t="s">
         <v>19</v>
       </c>
       <c r="H440" s="0" t="s">
-        <v>1225</v>
+        <v>1229</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="441">
       <c r="A441" s="0" t="s">
+        <v>1233</v>
+      </c>
+      <c r="B441" s="0" t="s">
+        <v>1234</v>
+      </c>
+      <c r="D441" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="E441" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="F441" s="0" t="s">
+        <v>1235</v>
+      </c>
+      <c r="G441" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="H441" s="0" t="s">
         <v>1229</v>
-      </c>
-      <c r="B441" s="0" t="s">
-        <v>1230</v>
-      </c>
-      <c r="D441" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="E441" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="F441" s="0" t="s">
-        <v>1231</v>
-      </c>
-      <c r="G441" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="H441" s="0" t="s">
-        <v>1225</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="442">
       <c r="A442" s="0" t="s">
-        <v>1232</v>
+        <v>1236</v>
       </c>
       <c r="B442" s="0" t="s">
-        <v>1233</v>
+        <v>1237</v>
       </c>
       <c r="D442" s="0" t="s">
         <v>11</v>
@@ -13285,15 +13465,15 @@
         <v>19</v>
       </c>
       <c r="H442" s="0" t="s">
-        <v>1234</v>
+        <v>1238</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="443">
       <c r="A443" s="0" t="s">
-        <v>1235</v>
+        <v>1239</v>
       </c>
       <c r="B443" s="0" t="s">
-        <v>1236</v>
+        <v>1240</v>
       </c>
       <c r="D443" s="0" t="s">
         <v>30</v>
@@ -13302,21 +13482,21 @@
         <v>19</v>
       </c>
       <c r="F443" s="0" t="s">
-        <v>1237</v>
+        <v>1241</v>
       </c>
       <c r="G443" s="0" t="s">
         <v>19</v>
       </c>
       <c r="H443" s="0" t="s">
-        <v>1238</v>
+        <v>1242</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="444">
       <c r="A444" s="0" t="s">
-        <v>1239</v>
+        <v>1243</v>
       </c>
       <c r="B444" s="0" t="s">
-        <v>1240</v>
+        <v>1244</v>
       </c>
       <c r="D444" s="0" t="s">
         <v>11</v>
@@ -13325,7 +13505,7 @@
         <v>19</v>
       </c>
       <c r="F444" s="0" t="s">
-        <v>1241</v>
+        <v>1245</v>
       </c>
       <c r="G444" s="0" t="s">
         <v>12</v>
@@ -13372,7 +13552,7 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="257" min="1" style="0" width="8.85490196078431"/>
+    <col collapsed="false" hidden="false" max="257" min="1" style="0" width="8.89019607843137"/>
   </cols>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -13397,7 +13577,7 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="257" min="1" style="0" width="8.85490196078431"/>
+    <col collapsed="false" hidden="false" max="257" min="1" style="0" width="8.89019607843137"/>
   </cols>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/kohana/oiadsites.xlsx
+++ b/kohana/oiadsites.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2888" uniqueCount="1246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2936" uniqueCount="1248">
   <si>
     <t>Site Name</t>
   </si>
@@ -2728,6 +2728,9 @@
     <t>http://www2.pulsetv.com/deals.asp</t>
   </si>
   <si>
+    <t>Unparsable</t>
+  </si>
+  <si>
     <t>QLIQO</t>
   </si>
   <si>
@@ -2927,6 +2930,9 @@
   </si>
   <si>
     <t>http://www.shadeshark.com/</t>
+  </si>
+  <si>
+    <t>Read fail</t>
   </si>
   <si>
     <t>http://feeds.feedburner.com/Shadeshark-DailyDealRssFeed?format=xml</t>
@@ -3933,18 +3939,18 @@
   </sheetPr>
   <dimension ref="A1:I444"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A284" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="C311" activeCellId="0" pane="topLeft" sqref="C311"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A310" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="C358" activeCellId="0" pane="topLeft" sqref="C358"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="49.2862745098039"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="96.8156862745098"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="49.2862745098039"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="15.7764705882353"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="49.2862745098039"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="13.3882352941176"/>
-    <col collapsed="false" hidden="false" max="257" min="8" style="0" width="49.2862745098039"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="49.4941176470588"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="97.2156862745098"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="49.4941176470588"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="15.8392156862745"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="49.4941176470588"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="13.4470588235294"/>
+    <col collapsed="false" hidden="false" max="257" min="8" style="0" width="49.4941176470588"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="1" s="1">
@@ -9615,7 +9621,7 @@
         <v>732</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="255">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="255">
       <c r="A255" s="0" t="s">
         <v>733</v>
       </c>
@@ -9635,7 +9641,7 @@
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="256">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="256">
       <c r="A256" s="0" t="s">
         <v>735</v>
       </c>
@@ -9661,7 +9667,7 @@
         <v>739</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="257">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="257">
       <c r="A257" s="0" t="s">
         <v>740</v>
       </c>
@@ -9684,7 +9690,7 @@
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="258">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="258">
       <c r="A258" s="0" t="s">
         <v>743</v>
       </c>
@@ -9710,7 +9716,7 @@
         <v>746</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="259">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="259">
       <c r="A259" s="0" t="s">
         <v>747</v>
       </c>
@@ -9730,7 +9736,7 @@
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="260">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="260">
       <c r="A260" s="0" t="s">
         <v>749</v>
       </c>
@@ -9753,7 +9759,7 @@
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="261">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="261">
       <c r="A261" s="0" t="s">
         <v>752</v>
       </c>
@@ -9779,7 +9785,7 @@
         <v>755</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="262">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="262">
       <c r="A262" s="0" t="s">
         <v>756</v>
       </c>
@@ -9805,7 +9811,7 @@
         <v>760</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="263">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="263">
       <c r="A263" s="0" t="s">
         <v>761</v>
       </c>
@@ -9831,7 +9837,7 @@
         <v>764</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="264">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="264">
       <c r="A264" s="0" t="s">
         <v>765</v>
       </c>
@@ -9851,7 +9857,7 @@
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="265">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="265">
       <c r="A265" s="0" t="s">
         <v>767</v>
       </c>
@@ -9877,7 +9883,7 @@
         <v>771</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="266">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="266">
       <c r="A266" s="0" t="s">
         <v>772</v>
       </c>
@@ -9900,7 +9906,7 @@
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="267">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="267">
       <c r="A267" s="0" t="s">
         <v>776</v>
       </c>
@@ -9926,7 +9932,7 @@
         <v>779</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="268">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="268">
       <c r="A268" s="0" t="s">
         <v>780</v>
       </c>
@@ -9949,7 +9955,7 @@
         <v>782</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="269">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="269">
       <c r="A269" s="0" t="s">
         <v>783</v>
       </c>
@@ -9960,7 +9966,7 @@
         <v>15</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="270">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="270">
       <c r="A270" s="0" t="s">
         <v>785</v>
       </c>
@@ -9980,7 +9986,7 @@
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="271">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="271">
       <c r="A271" s="0" t="s">
         <v>787</v>
       </c>
@@ -10000,7 +10006,7 @@
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="272">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="272">
       <c r="A272" s="0" t="s">
         <v>788</v>
       </c>
@@ -10026,7 +10032,7 @@
         <v>791</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="273">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="273">
       <c r="A273" s="0" t="s">
         <v>792</v>
       </c>
@@ -10055,7 +10061,7 @@
         <v>795</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="274">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="274">
       <c r="A274" s="0" t="s">
         <v>796</v>
       </c>
@@ -10078,7 +10084,7 @@
         <v>791</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="275">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="275">
       <c r="A275" s="0" t="s">
         <v>798</v>
       </c>
@@ -10098,7 +10104,7 @@
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="276">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="276">
       <c r="A276" s="0" t="s">
         <v>800</v>
       </c>
@@ -10121,7 +10127,7 @@
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="277">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="277">
       <c r="A277" s="0" t="s">
         <v>803</v>
       </c>
@@ -10141,7 +10147,7 @@
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="278">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="278">
       <c r="A278" s="0" t="s">
         <v>805</v>
       </c>
@@ -10161,7 +10167,7 @@
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="279">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="279">
       <c r="A279" s="0" t="s">
         <v>807</v>
       </c>
@@ -10181,7 +10187,7 @@
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="280">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="280">
       <c r="A280" s="0" t="s">
         <v>809</v>
       </c>
@@ -10207,7 +10213,7 @@
         <v>812</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="281">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="281">
       <c r="A281" s="0" t="s">
         <v>813</v>
       </c>
@@ -10230,7 +10236,7 @@
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="282">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="282">
       <c r="A282" s="0" t="s">
         <v>815</v>
       </c>
@@ -10253,7 +10259,7 @@
         <v>816</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="283">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="283">
       <c r="A283" s="0" t="s">
         <v>817</v>
       </c>
@@ -10276,7 +10282,7 @@
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="284">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="284">
       <c r="A284" s="0" t="s">
         <v>820</v>
       </c>
@@ -10299,7 +10305,7 @@
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="285">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="285">
       <c r="A285" s="0" t="s">
         <v>823</v>
       </c>
@@ -10322,7 +10328,7 @@
         <v>825</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="286">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="286">
       <c r="A286" s="0" t="s">
         <v>826</v>
       </c>
@@ -10342,7 +10348,7 @@
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="287">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="287">
       <c r="A287" s="0" t="s">
         <v>829</v>
       </c>
@@ -10362,7 +10368,7 @@
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="288">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="288">
       <c r="A288" s="0" t="s">
         <v>831</v>
       </c>
@@ -10385,7 +10391,7 @@
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="289">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="289">
       <c r="A289" s="0" t="s">
         <v>834</v>
       </c>
@@ -10408,7 +10414,7 @@
         <v>836</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="290">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="290">
       <c r="A290" s="0" t="s">
         <v>837</v>
       </c>
@@ -10431,7 +10437,7 @@
         <v>839</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="291">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="291">
       <c r="A291" s="0" t="s">
         <v>840</v>
       </c>
@@ -10451,7 +10457,7 @@
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="292">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="292">
       <c r="A292" s="0" t="s">
         <v>842</v>
       </c>
@@ -10474,7 +10480,7 @@
         <v>844</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="293">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="293">
       <c r="A293" s="0" t="s">
         <v>845</v>
       </c>
@@ -10497,7 +10503,7 @@
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="294">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="294">
       <c r="A294" s="0" t="s">
         <v>848</v>
       </c>
@@ -10520,7 +10526,7 @@
         <v>11</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="295">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="295">
       <c r="A295" s="0" t="s">
         <v>849</v>
       </c>
@@ -10540,7 +10546,7 @@
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="296">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="296">
       <c r="A296" s="0" t="s">
         <v>851</v>
       </c>
@@ -10566,7 +10572,7 @@
         <v>854</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="297">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="297">
       <c r="A297" s="0" t="s">
         <v>855</v>
       </c>
@@ -10592,7 +10598,7 @@
         <v>858</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="298">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="298">
       <c r="A298" s="0" t="s">
         <v>859</v>
       </c>
@@ -10618,7 +10624,7 @@
         <v>858</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="299">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="299">
       <c r="A299" s="0" t="s">
         <v>860</v>
       </c>
@@ -10644,7 +10650,7 @@
         <v>863</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="300">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="300">
       <c r="A300" s="0" t="s">
         <v>864</v>
       </c>
@@ -10667,7 +10673,7 @@
         <v>866</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="301">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="301">
       <c r="A301" s="0" t="s">
         <v>867</v>
       </c>
@@ -10690,7 +10696,7 @@
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="302">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="302">
       <c r="A302" s="0" t="s">
         <v>870</v>
       </c>
@@ -10713,7 +10719,7 @@
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="303">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="303">
       <c r="A303" s="0" t="s">
         <v>873</v>
       </c>
@@ -10736,7 +10742,7 @@
         <v>875</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="304">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="304">
       <c r="A304" s="0" t="s">
         <v>876</v>
       </c>
@@ -10756,7 +10762,7 @@
         <v>878</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="305">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="305">
       <c r="A305" s="0" t="s">
         <v>879</v>
       </c>
@@ -10779,7 +10785,7 @@
         <v>881</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="306">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="306">
       <c r="A306" s="0" t="s">
         <v>882</v>
       </c>
@@ -10802,7 +10808,7 @@
         <v>884</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="307">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="307">
       <c r="A307" s="0" t="s">
         <v>885</v>
       </c>
@@ -10828,7 +10834,7 @@
         <v>888</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="308">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="308">
       <c r="A308" s="0" t="s">
         <v>889</v>
       </c>
@@ -10854,7 +10860,7 @@
         <v>892</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="309">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="309">
       <c r="A309" s="0" t="s">
         <v>893</v>
       </c>
@@ -10877,7 +10883,7 @@
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="310">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="310">
       <c r="A310" s="0" t="s">
         <v>896</v>
       </c>
@@ -10897,13 +10903,16 @@
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="311">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="311">
       <c r="A311" s="0" t="s">
         <v>898</v>
       </c>
       <c r="B311" s="0" t="s">
         <v>899</v>
       </c>
+      <c r="C311" s="0" t="s">
+        <v>15</v>
+      </c>
       <c r="D311" s="0" t="s">
         <v>11</v>
       </c>
@@ -10917,13 +10926,16 @@
         <v>900</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="312">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="312">
       <c r="A312" s="0" t="s">
         <v>901</v>
       </c>
       <c r="B312" s="0" t="s">
         <v>902</v>
       </c>
+      <c r="C312" s="0" t="s">
+        <v>903</v>
+      </c>
       <c r="D312" s="0" t="s">
         <v>11</v>
       </c>
@@ -10937,12 +10949,15 @@
         <v>900</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="313">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="313">
       <c r="A313" s="0" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
       <c r="B313" s="0" t="s">
-        <v>904</v>
+        <v>905</v>
+      </c>
+      <c r="C313" s="0" t="s">
+        <v>15</v>
       </c>
       <c r="D313" s="0" t="s">
         <v>11</v>
@@ -10957,12 +10972,15 @@
         <v>33</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="314">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="314">
       <c r="A314" s="0" t="s">
-        <v>905</v>
+        <v>906</v>
       </c>
       <c r="B314" s="0" t="s">
-        <v>906</v>
+        <v>907</v>
+      </c>
+      <c r="C314" s="0" t="s">
+        <v>15</v>
       </c>
       <c r="D314" s="0" t="s">
         <v>11</v>
@@ -10974,12 +10992,15 @@
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="315">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="315">
       <c r="A315" s="0" t="s">
-        <v>907</v>
+        <v>908</v>
       </c>
       <c r="B315" s="0" t="s">
-        <v>908</v>
+        <v>909</v>
+      </c>
+      <c r="C315" s="0" t="s">
+        <v>15</v>
       </c>
       <c r="D315" s="0" t="s">
         <v>36</v>
@@ -10988,21 +11009,24 @@
         <v>19</v>
       </c>
       <c r="F315" s="0" t="s">
-        <v>909</v>
+        <v>910</v>
       </c>
       <c r="G315" s="0" t="s">
         <v>19</v>
       </c>
       <c r="H315" s="0" t="s">
-        <v>910</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="316">
+        <v>911</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="316">
       <c r="A316" s="0" t="s">
-        <v>911</v>
+        <v>912</v>
       </c>
       <c r="B316" s="0" t="s">
-        <v>912</v>
+        <v>913</v>
+      </c>
+      <c r="C316" s="0" t="s">
+        <v>285</v>
       </c>
       <c r="D316" s="0" t="s">
         <v>30</v>
@@ -11017,12 +11041,15 @@
         <v>33</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="317">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="317">
       <c r="A317" s="0" t="s">
-        <v>913</v>
+        <v>914</v>
       </c>
       <c r="B317" s="0" t="s">
-        <v>914</v>
+        <v>915</v>
+      </c>
+      <c r="C317" s="0" t="s">
+        <v>678</v>
       </c>
       <c r="D317" s="0" t="s">
         <v>25</v>
@@ -11031,21 +11058,24 @@
         <v>19</v>
       </c>
       <c r="F317" s="0" t="s">
-        <v>915</v>
+        <v>916</v>
       </c>
       <c r="G317" s="0" t="s">
         <v>19</v>
       </c>
       <c r="H317" s="0" t="s">
-        <v>916</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="318">
+        <v>917</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="318">
       <c r="A318" s="0" t="s">
-        <v>917</v>
+        <v>918</v>
       </c>
       <c r="B318" s="0" t="s">
-        <v>918</v>
+        <v>919</v>
+      </c>
+      <c r="C318" s="0" t="s">
+        <v>15</v>
       </c>
       <c r="D318" s="0" t="s">
         <v>16</v>
@@ -11054,7 +11084,7 @@
         <v>19</v>
       </c>
       <c r="F318" s="0" t="s">
-        <v>919</v>
+        <v>920</v>
       </c>
       <c r="G318" s="0" t="s">
         <v>19</v>
@@ -11063,12 +11093,15 @@
         <v>11</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="319">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="319">
       <c r="A319" s="0" t="s">
-        <v>920</v>
+        <v>921</v>
       </c>
       <c r="B319" s="0" t="s">
-        <v>921</v>
+        <v>922</v>
+      </c>
+      <c r="C319" s="0" t="s">
+        <v>15</v>
       </c>
       <c r="D319" s="0" t="s">
         <v>16</v>
@@ -11080,12 +11113,15 @@
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="320">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="320">
       <c r="A320" s="0" t="s">
-        <v>922</v>
+        <v>923</v>
       </c>
       <c r="B320" s="0" t="s">
-        <v>923</v>
+        <v>924</v>
+      </c>
+      <c r="C320" s="0" t="s">
+        <v>15</v>
       </c>
       <c r="D320" s="0" t="s">
         <v>16</v>
@@ -11094,21 +11130,24 @@
         <v>19</v>
       </c>
       <c r="F320" s="0" t="s">
-        <v>924</v>
+        <v>925</v>
       </c>
       <c r="G320" s="0" t="s">
         <v>19</v>
       </c>
       <c r="H320" s="0" t="s">
-        <v>925</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="321">
+        <v>926</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="321">
       <c r="A321" s="0" t="s">
-        <v>926</v>
+        <v>927</v>
       </c>
       <c r="B321" s="0" t="s">
-        <v>927</v>
+        <v>928</v>
+      </c>
+      <c r="C321" s="0" t="s">
+        <v>15</v>
       </c>
       <c r="D321" s="0" t="s">
         <v>25</v>
@@ -11117,21 +11156,24 @@
         <v>19</v>
       </c>
       <c r="F321" s="0" t="s">
-        <v>928</v>
+        <v>929</v>
       </c>
       <c r="G321" s="0" t="s">
         <v>19</v>
       </c>
       <c r="H321" s="0" t="s">
-        <v>929</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="322">
+        <v>930</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="322">
       <c r="A322" s="0" t="s">
-        <v>930</v>
+        <v>931</v>
       </c>
       <c r="B322" s="0" t="s">
-        <v>931</v>
+        <v>932</v>
+      </c>
+      <c r="C322" s="0" t="s">
+        <v>15</v>
       </c>
       <c r="D322" s="0" t="s">
         <v>11</v>
@@ -11140,18 +11182,21 @@
         <v>19</v>
       </c>
       <c r="F322" s="0" t="s">
-        <v>932</v>
+        <v>933</v>
       </c>
       <c r="G322" s="0" t="s">
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="323">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="323">
       <c r="A323" s="0" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="B323" s="0" t="s">
-        <v>934</v>
+        <v>935</v>
+      </c>
+      <c r="C323" s="0" t="s">
+        <v>15</v>
       </c>
       <c r="D323" s="0" t="s">
         <v>16</v>
@@ -11163,15 +11208,18 @@
         <v>19</v>
       </c>
       <c r="H323" s="0" t="s">
-        <v>935</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="324">
+        <v>936</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="324">
       <c r="A324" s="0" t="s">
-        <v>936</v>
+        <v>937</v>
       </c>
       <c r="B324" s="0" t="s">
-        <v>937</v>
+        <v>938</v>
+      </c>
+      <c r="C324" s="0" t="s">
+        <v>15</v>
       </c>
       <c r="D324" s="0" t="s">
         <v>11</v>
@@ -11183,15 +11231,18 @@
         <v>19</v>
       </c>
       <c r="H324" s="0" t="s">
-        <v>938</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="325">
+        <v>939</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="325">
       <c r="A325" s="0" t="s">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="B325" s="0" t="s">
-        <v>940</v>
+        <v>941</v>
+      </c>
+      <c r="C325" s="0" t="s">
+        <v>285</v>
       </c>
       <c r="D325" s="0" t="s">
         <v>25</v>
@@ -11203,12 +11254,15 @@
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="326">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="326">
       <c r="A326" s="0" t="s">
-        <v>941</v>
+        <v>942</v>
       </c>
       <c r="B326" s="0" t="s">
-        <v>942</v>
+        <v>943</v>
+      </c>
+      <c r="C326" s="0" t="s">
+        <v>15</v>
       </c>
       <c r="D326" s="0" t="s">
         <v>36</v>
@@ -11220,12 +11274,15 @@
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="327">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="327">
       <c r="A327" s="0" t="s">
-        <v>943</v>
+        <v>944</v>
       </c>
       <c r="B327" s="0" t="s">
-        <v>944</v>
+        <v>945</v>
+      </c>
+      <c r="C327" s="0" t="s">
+        <v>15</v>
       </c>
       <c r="D327" s="0" t="s">
         <v>30</v>
@@ -11234,18 +11291,21 @@
         <v>19</v>
       </c>
       <c r="F327" s="0" t="s">
-        <v>945</v>
+        <v>946</v>
       </c>
       <c r="G327" s="0" t="s">
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="328">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="328">
       <c r="A328" s="0" t="s">
-        <v>946</v>
+        <v>947</v>
       </c>
       <c r="B328" s="0" t="s">
-        <v>947</v>
+        <v>948</v>
+      </c>
+      <c r="C328" s="0" t="s">
+        <v>195</v>
       </c>
       <c r="D328" s="0" t="s">
         <v>16</v>
@@ -11254,15 +11314,18 @@
         <v>19</v>
       </c>
       <c r="F328" s="0" t="s">
-        <v>948</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="329">
+        <v>949</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="329">
       <c r="A329" s="0" t="s">
-        <v>949</v>
+        <v>950</v>
       </c>
       <c r="B329" s="0" t="s">
-        <v>950</v>
+        <v>951</v>
+      </c>
+      <c r="C329" s="0" t="s">
+        <v>15</v>
       </c>
       <c r="D329" s="0" t="s">
         <v>36</v>
@@ -11271,18 +11334,21 @@
         <v>19</v>
       </c>
       <c r="F329" s="0" t="s">
-        <v>951</v>
+        <v>952</v>
       </c>
       <c r="G329" s="0" t="s">
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="330">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="330">
       <c r="A330" s="0" t="s">
-        <v>952</v>
+        <v>953</v>
       </c>
       <c r="B330" s="0" t="s">
-        <v>953</v>
+        <v>954</v>
+      </c>
+      <c r="C330" s="0" t="s">
+        <v>285</v>
       </c>
       <c r="D330" s="0" t="s">
         <v>11</v>
@@ -11294,12 +11360,15 @@
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="331">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="331">
       <c r="A331" s="0" t="s">
-        <v>954</v>
+        <v>955</v>
       </c>
       <c r="B331" s="0" t="s">
-        <v>955</v>
+        <v>956</v>
+      </c>
+      <c r="C331" s="0" t="s">
+        <v>552</v>
       </c>
       <c r="D331" s="0" t="s">
         <v>36</v>
@@ -11311,12 +11380,15 @@
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="332">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="332">
       <c r="A332" s="0" t="s">
-        <v>956</v>
+        <v>957</v>
       </c>
       <c r="B332" s="0" t="s">
-        <v>957</v>
+        <v>958</v>
+      </c>
+      <c r="C332" s="0" t="s">
+        <v>15</v>
       </c>
       <c r="D332" s="0" t="s">
         <v>36</v>
@@ -11328,12 +11400,15 @@
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="333">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="333">
       <c r="A333" s="0" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="B333" s="0" t="s">
-        <v>959</v>
+        <v>960</v>
+      </c>
+      <c r="C333" s="0" t="s">
+        <v>15</v>
       </c>
       <c r="D333" s="0" t="s">
         <v>30</v>
@@ -11345,12 +11420,15 @@
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="334">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="334">
       <c r="A334" s="0" t="s">
-        <v>960</v>
+        <v>961</v>
       </c>
       <c r="B334" s="0" t="s">
-        <v>961</v>
+        <v>962</v>
+      </c>
+      <c r="C334" s="0" t="s">
+        <v>15</v>
       </c>
       <c r="D334" s="0" t="s">
         <v>11</v>
@@ -11359,18 +11437,21 @@
         <v>19</v>
       </c>
       <c r="F334" s="0" t="s">
-        <v>962</v>
+        <v>963</v>
       </c>
       <c r="G334" s="0" t="s">
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="335">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="335">
       <c r="A335" s="0" t="s">
-        <v>963</v>
+        <v>964</v>
       </c>
       <c r="B335" s="0" t="s">
-        <v>964</v>
+        <v>965</v>
+      </c>
+      <c r="C335" s="0" t="s">
+        <v>15</v>
       </c>
       <c r="D335" s="0" t="s">
         <v>25</v>
@@ -11379,18 +11460,21 @@
         <v>19</v>
       </c>
       <c r="F335" s="0" t="s">
-        <v>965</v>
+        <v>966</v>
       </c>
       <c r="G335" s="0" t="s">
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="336">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="336">
       <c r="A336" s="0" t="s">
-        <v>966</v>
+        <v>967</v>
       </c>
       <c r="B336" s="0" t="s">
-        <v>967</v>
+        <v>968</v>
+      </c>
+      <c r="C336" s="0" t="s">
+        <v>15</v>
       </c>
       <c r="D336" s="0" t="s">
         <v>30</v>
@@ -11402,12 +11486,15 @@
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="337">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="337">
       <c r="A337" s="0" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
       <c r="B337" s="0" t="s">
-        <v>969</v>
+        <v>970</v>
+      </c>
+      <c r="C337" s="0" t="s">
+        <v>971</v>
       </c>
       <c r="D337" s="0" t="s">
         <v>25</v>
@@ -11416,18 +11503,21 @@
         <v>19</v>
       </c>
       <c r="F337" s="0" t="s">
-        <v>970</v>
+        <v>972</v>
       </c>
       <c r="G337" s="0" t="s">
         <v>19</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="338">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="338">
       <c r="A338" s="0" t="s">
-        <v>971</v>
+        <v>973</v>
       </c>
       <c r="B338" s="0" t="s">
-        <v>972</v>
+        <v>974</v>
+      </c>
+      <c r="C338" s="0" t="s">
+        <v>15</v>
       </c>
       <c r="D338" s="0" t="s">
         <v>36</v>
@@ -11439,12 +11529,15 @@
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="339">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="339">
       <c r="A339" s="0" t="s">
-        <v>973</v>
+        <v>975</v>
       </c>
       <c r="B339" s="0" t="s">
-        <v>974</v>
+        <v>976</v>
+      </c>
+      <c r="C339" s="0" t="s">
+        <v>15</v>
       </c>
       <c r="D339" s="0" t="s">
         <v>25</v>
@@ -11453,18 +11546,21 @@
         <v>19</v>
       </c>
       <c r="F339" s="0" t="s">
-        <v>975</v>
+        <v>977</v>
       </c>
       <c r="G339" s="0" t="s">
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="340">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="340">
       <c r="A340" s="0" t="s">
-        <v>976</v>
+        <v>978</v>
       </c>
       <c r="B340" s="0" t="s">
-        <v>977</v>
+        <v>979</v>
+      </c>
+      <c r="C340" s="0" t="s">
+        <v>15</v>
       </c>
       <c r="D340" s="0" t="s">
         <v>25</v>
@@ -11473,18 +11569,21 @@
         <v>19</v>
       </c>
       <c r="F340" s="0" t="s">
-        <v>978</v>
+        <v>980</v>
       </c>
       <c r="G340" s="0" t="s">
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="341">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="341">
       <c r="A341" s="0" t="s">
-        <v>979</v>
+        <v>981</v>
       </c>
       <c r="B341" s="0" t="s">
-        <v>980</v>
+        <v>982</v>
+      </c>
+      <c r="C341" s="0" t="s">
+        <v>195</v>
       </c>
       <c r="D341" s="0" t="s">
         <v>11</v>
@@ -11493,18 +11592,21 @@
         <v>19</v>
       </c>
       <c r="F341" s="0" t="s">
-        <v>981</v>
+        <v>983</v>
       </c>
       <c r="G341" s="0" t="s">
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="342">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="342">
       <c r="A342" s="0" t="s">
-        <v>982</v>
+        <v>984</v>
       </c>
       <c r="B342" s="0" t="s">
-        <v>983</v>
+        <v>985</v>
+      </c>
+      <c r="C342" s="0" t="s">
+        <v>54</v>
       </c>
       <c r="D342" s="0" t="s">
         <v>36</v>
@@ -11516,12 +11618,15 @@
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="343">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="343">
       <c r="A343" s="0" t="s">
-        <v>984</v>
+        <v>986</v>
       </c>
       <c r="B343" s="0" t="s">
-        <v>985</v>
+        <v>987</v>
+      </c>
+      <c r="C343" s="0" t="s">
+        <v>15</v>
       </c>
       <c r="D343" s="0" t="s">
         <v>11</v>
@@ -11530,21 +11635,24 @@
         <v>19</v>
       </c>
       <c r="F343" s="0" t="s">
-        <v>986</v>
+        <v>988</v>
       </c>
       <c r="G343" s="0" t="s">
         <v>19</v>
       </c>
       <c r="H343" s="0" t="s">
-        <v>987</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="344">
+        <v>989</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="344">
       <c r="A344" s="0" t="s">
-        <v>988</v>
+        <v>990</v>
       </c>
       <c r="B344" s="0" t="s">
-        <v>989</v>
+        <v>991</v>
+      </c>
+      <c r="C344" s="0" t="s">
+        <v>15</v>
       </c>
       <c r="D344" s="0" t="s">
         <v>758</v>
@@ -11556,15 +11664,18 @@
         <v>19</v>
       </c>
       <c r="H344" s="0" t="s">
-        <v>990</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="345">
+        <v>992</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="345">
       <c r="A345" s="0" t="s">
-        <v>991</v>
+        <v>993</v>
       </c>
       <c r="B345" s="0" t="s">
-        <v>992</v>
+        <v>994</v>
+      </c>
+      <c r="C345" s="0" t="s">
+        <v>15</v>
       </c>
       <c r="D345" s="0" t="s">
         <v>11</v>
@@ -11573,18 +11684,21 @@
         <v>19</v>
       </c>
       <c r="F345" s="0" t="s">
-        <v>993</v>
+        <v>995</v>
       </c>
       <c r="G345" s="0" t="s">
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="346">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="346">
       <c r="A346" s="0" t="s">
-        <v>994</v>
+        <v>996</v>
       </c>
       <c r="B346" s="0" t="s">
-        <v>995</v>
+        <v>997</v>
+      </c>
+      <c r="C346" s="0" t="s">
+        <v>54</v>
       </c>
       <c r="D346" s="0" t="s">
         <v>36</v>
@@ -11596,12 +11710,15 @@
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="347">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="347">
       <c r="A347" s="0" t="s">
-        <v>996</v>
+        <v>998</v>
       </c>
       <c r="B347" s="0" t="s">
-        <v>997</v>
+        <v>999</v>
+      </c>
+      <c r="C347" s="0" t="s">
+        <v>15</v>
       </c>
       <c r="D347" s="0" t="s">
         <v>30</v>
@@ -11613,15 +11730,18 @@
         <v>19</v>
       </c>
       <c r="H347" s="0" t="s">
-        <v>998</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="348">
+        <v>1000</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="348">
       <c r="A348" s="0" t="s">
-        <v>999</v>
+        <v>1001</v>
       </c>
       <c r="B348" s="0" t="s">
-        <v>1000</v>
+        <v>1002</v>
+      </c>
+      <c r="C348" s="0" t="s">
+        <v>15</v>
       </c>
       <c r="D348" s="0" t="s">
         <v>16</v>
@@ -11630,18 +11750,21 @@
         <v>19</v>
       </c>
       <c r="F348" s="0" t="s">
-        <v>1001</v>
+        <v>1003</v>
       </c>
       <c r="G348" s="0" t="s">
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="349">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="349">
       <c r="A349" s="0" t="s">
-        <v>1002</v>
+        <v>1004</v>
       </c>
       <c r="B349" s="0" t="s">
-        <v>1003</v>
+        <v>1005</v>
+      </c>
+      <c r="C349" s="0" t="s">
+        <v>285</v>
       </c>
       <c r="D349" s="0" t="s">
         <v>11</v>
@@ -11653,15 +11776,18 @@
         <v>19</v>
       </c>
       <c r="H349" s="0" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="350">
+      <c r="A350" s="0" t="s">
         <v>1004</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="350">
-      <c r="A350" s="0" t="s">
-        <v>1002</v>
-      </c>
       <c r="B350" s="0" t="s">
-        <v>1003</v>
+        <v>1005</v>
+      </c>
+      <c r="C350" s="0" t="s">
+        <v>285</v>
       </c>
       <c r="D350" s="0" t="s">
         <v>11</v>
@@ -11673,15 +11799,18 @@
         <v>19</v>
       </c>
       <c r="H350" s="0" t="s">
-        <v>1004</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="351">
+        <v>1006</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="351">
       <c r="A351" s="0" t="s">
-        <v>1005</v>
+        <v>1007</v>
       </c>
       <c r="B351" s="0" t="s">
-        <v>1006</v>
+        <v>1008</v>
+      </c>
+      <c r="C351" s="0" t="s">
+        <v>15</v>
       </c>
       <c r="D351" s="0" t="s">
         <v>16</v>
@@ -11693,15 +11822,18 @@
         <v>19</v>
       </c>
       <c r="H351" s="0" t="s">
-        <v>1007</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="352">
+        <v>1009</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="352">
       <c r="A352" s="0" t="s">
-        <v>1008</v>
+        <v>1010</v>
       </c>
       <c r="B352" s="0" t="s">
-        <v>1009</v>
+        <v>1011</v>
+      </c>
+      <c r="C352" s="0" t="s">
+        <v>195</v>
       </c>
       <c r="D352" s="0" t="s">
         <v>25</v>
@@ -11713,12 +11845,15 @@
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="353">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="353">
       <c r="A353" s="0" t="s">
-        <v>1010</v>
+        <v>1012</v>
       </c>
       <c r="B353" s="0" t="s">
-        <v>1011</v>
+        <v>1013</v>
+      </c>
+      <c r="C353" s="0" t="s">
+        <v>15</v>
       </c>
       <c r="D353" s="0" t="s">
         <v>25</v>
@@ -11727,21 +11862,24 @@
         <v>19</v>
       </c>
       <c r="F353" s="0" t="s">
-        <v>1012</v>
+        <v>1014</v>
       </c>
       <c r="G353" s="0" t="s">
         <v>19</v>
       </c>
       <c r="H353" s="0" t="s">
-        <v>1013</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="354">
+        <v>1015</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="354">
       <c r="A354" s="0" t="s">
-        <v>1014</v>
+        <v>1016</v>
       </c>
       <c r="B354" s="0" t="s">
-        <v>1015</v>
+        <v>1017</v>
+      </c>
+      <c r="C354" s="0" t="s">
+        <v>15</v>
       </c>
       <c r="D354" s="0" t="s">
         <v>25</v>
@@ -11753,12 +11891,15 @@
         <v>19</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="355">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="355">
       <c r="A355" s="0" t="s">
-        <v>1016</v>
+        <v>1018</v>
       </c>
       <c r="B355" s="0" t="s">
-        <v>1017</v>
+        <v>1019</v>
+      </c>
+      <c r="C355" s="0" t="s">
+        <v>15</v>
       </c>
       <c r="D355" s="0" t="s">
         <v>11</v>
@@ -11770,15 +11911,18 @@
         <v>19</v>
       </c>
       <c r="H355" s="0" t="s">
-        <v>1018</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="356">
+        <v>1020</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="356">
       <c r="A356" s="0" t="s">
-        <v>1019</v>
+        <v>1021</v>
       </c>
       <c r="B356" s="0" t="s">
-        <v>1020</v>
+        <v>1022</v>
+      </c>
+      <c r="C356" s="0" t="s">
+        <v>15</v>
       </c>
       <c r="D356" s="0" t="s">
         <v>16</v>
@@ -11790,12 +11934,15 @@
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="357">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="357">
       <c r="A357" s="0" t="s">
-        <v>1021</v>
+        <v>1023</v>
       </c>
       <c r="B357" s="0" t="s">
-        <v>1022</v>
+        <v>1024</v>
+      </c>
+      <c r="C357" s="0" t="s">
+        <v>15</v>
       </c>
       <c r="D357" s="0" t="s">
         <v>16</v>
@@ -11807,12 +11954,15 @@
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="358">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="358">
       <c r="A358" s="0" t="s">
-        <v>1023</v>
+        <v>1025</v>
       </c>
       <c r="B358" s="0" t="s">
-        <v>1024</v>
+        <v>1026</v>
+      </c>
+      <c r="C358" s="0" t="s">
+        <v>15</v>
       </c>
       <c r="D358" s="0" t="s">
         <v>11</v>
@@ -11826,10 +11976,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="359">
       <c r="A359" s="0" t="s">
-        <v>1025</v>
+        <v>1027</v>
       </c>
       <c r="B359" s="0" t="s">
-        <v>1026</v>
+        <v>1028</v>
       </c>
       <c r="D359" s="0" t="s">
         <v>11</v>
@@ -11843,10 +11993,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="360">
       <c r="A360" s="0" t="s">
-        <v>1027</v>
+        <v>1029</v>
       </c>
       <c r="B360" s="0" t="s">
-        <v>1028</v>
+        <v>1030</v>
       </c>
       <c r="D360" s="0" t="s">
         <v>16</v>
@@ -11855,7 +12005,7 @@
         <v>19</v>
       </c>
       <c r="F360" s="0" t="s">
-        <v>1029</v>
+        <v>1031</v>
       </c>
       <c r="G360" s="0" t="s">
         <v>19</v>
@@ -11866,10 +12016,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="361">
       <c r="A361" s="0" t="s">
-        <v>1030</v>
+        <v>1032</v>
       </c>
       <c r="B361" s="0" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="D361" s="0" t="s">
         <v>16</v>
@@ -11881,15 +12031,15 @@
         <v>19</v>
       </c>
       <c r="H361" s="0" t="s">
-        <v>1032</v>
+        <v>1034</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="362">
       <c r="A362" s="0" t="s">
-        <v>1033</v>
+        <v>1035</v>
       </c>
       <c r="B362" s="0" t="s">
-        <v>1034</v>
+        <v>1036</v>
       </c>
       <c r="D362" s="0" t="s">
         <v>11</v>
@@ -11903,10 +12053,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="363">
       <c r="A363" s="0" t="s">
-        <v>1035</v>
+        <v>1037</v>
       </c>
       <c r="B363" s="0" t="s">
-        <v>1036</v>
+        <v>1038</v>
       </c>
       <c r="D363" s="0" t="s">
         <v>25</v>
@@ -11918,15 +12068,15 @@
         <v>19</v>
       </c>
       <c r="H363" s="0" t="s">
-        <v>1037</v>
+        <v>1039</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="364">
       <c r="A364" s="0" t="s">
-        <v>1038</v>
+        <v>1040</v>
       </c>
       <c r="B364" s="0" t="s">
-        <v>1039</v>
+        <v>1041</v>
       </c>
       <c r="D364" s="0" t="s">
         <v>30</v>
@@ -11938,7 +12088,7 @@
         <v>19</v>
       </c>
       <c r="H364" s="0" t="s">
-        <v>1040</v>
+        <v>1042</v>
       </c>
       <c r="I364" s="0" t="s">
         <v>33</v>
@@ -11946,10 +12096,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="365">
       <c r="A365" s="0" t="s">
-        <v>1041</v>
+        <v>1043</v>
       </c>
       <c r="B365" s="0" t="s">
-        <v>1042</v>
+        <v>1044</v>
       </c>
       <c r="D365" s="0" t="s">
         <v>25</v>
@@ -11961,15 +12111,15 @@
         <v>19</v>
       </c>
       <c r="H365" s="0" t="s">
-        <v>1043</v>
+        <v>1045</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="366">
       <c r="A366" s="0" t="s">
-        <v>1044</v>
+        <v>1046</v>
       </c>
       <c r="B366" s="0" t="s">
-        <v>1045</v>
+        <v>1047</v>
       </c>
       <c r="D366" s="0" t="s">
         <v>11</v>
@@ -11983,10 +12133,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="367">
       <c r="A367" s="0" t="s">
-        <v>1046</v>
+        <v>1048</v>
       </c>
       <c r="B367" s="0" t="s">
-        <v>1047</v>
+        <v>1049</v>
       </c>
       <c r="D367" s="0" t="s">
         <v>16</v>
@@ -12000,10 +12150,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="368">
       <c r="A368" s="0" t="s">
-        <v>1048</v>
+        <v>1050</v>
       </c>
       <c r="B368" s="2" t="s">
-        <v>1049</v>
+        <v>1051</v>
       </c>
       <c r="C368" s="2"/>
       <c r="D368" s="0" t="s">
@@ -12018,10 +12168,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="369">
       <c r="A369" s="0" t="s">
-        <v>1050</v>
+        <v>1052</v>
       </c>
       <c r="B369" s="0" t="s">
-        <v>1051</v>
+        <v>1053</v>
       </c>
       <c r="D369" s="0" t="s">
         <v>16</v>
@@ -12033,15 +12183,15 @@
         <v>19</v>
       </c>
       <c r="H369" s="0" t="s">
-        <v>1052</v>
+        <v>1054</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="370">
       <c r="A370" s="0" t="s">
-        <v>1053</v>
+        <v>1055</v>
       </c>
       <c r="B370" s="0" t="s">
-        <v>1054</v>
+        <v>1056</v>
       </c>
       <c r="D370" s="0" t="s">
         <v>11</v>
@@ -12053,15 +12203,15 @@
         <v>19</v>
       </c>
       <c r="H370" s="0" t="s">
-        <v>1055</v>
+        <v>1057</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="371">
       <c r="A371" s="0" t="s">
-        <v>1056</v>
+        <v>1058</v>
       </c>
       <c r="B371" s="2" t="s">
-        <v>1057</v>
+        <v>1059</v>
       </c>
       <c r="C371" s="2"/>
       <c r="D371" s="0" t="s">
@@ -12071,45 +12221,45 @@
         <v>19</v>
       </c>
       <c r="F371" s="0" t="s">
-        <v>1058</v>
+        <v>1060</v>
       </c>
       <c r="G371" s="0" t="s">
         <v>19</v>
       </c>
       <c r="H371" s="0" t="s">
-        <v>1059</v>
+        <v>1061</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="372">
       <c r="A372" s="0" t="s">
+        <v>1062</v>
+      </c>
+      <c r="B372" s="0" t="s">
+        <v>1059</v>
+      </c>
+      <c r="D372" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="E372" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="F372" s="0" t="s">
         <v>1060</v>
       </c>
-      <c r="B372" s="0" t="s">
-        <v>1057</v>
-      </c>
-      <c r="D372" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="E372" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="F372" s="0" t="s">
-        <v>1058</v>
-      </c>
       <c r="G372" s="0" t="s">
         <v>19</v>
       </c>
       <c r="H372" s="0" t="s">
-        <v>1059</v>
+        <v>1061</v>
       </c>
       <c r="I372" s="2"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="373">
       <c r="A373" s="0" t="s">
-        <v>1061</v>
+        <v>1063</v>
       </c>
       <c r="B373" s="0" t="s">
-        <v>1057</v>
+        <v>1059</v>
       </c>
       <c r="D373" s="0" t="s">
         <v>36</v>
@@ -12118,21 +12268,21 @@
         <v>19</v>
       </c>
       <c r="F373" s="0" t="s">
-        <v>1058</v>
+        <v>1060</v>
       </c>
       <c r="G373" s="0" t="s">
         <v>19</v>
       </c>
       <c r="H373" s="0" t="s">
-        <v>1059</v>
+        <v>1061</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="374">
       <c r="A374" s="0" t="s">
-        <v>1062</v>
+        <v>1064</v>
       </c>
       <c r="B374" s="0" t="s">
-        <v>1057</v>
+        <v>1059</v>
       </c>
       <c r="D374" s="0" t="s">
         <v>11</v>
@@ -12141,21 +12291,21 @@
         <v>19</v>
       </c>
       <c r="F374" s="0" t="s">
-        <v>1058</v>
+        <v>1060</v>
       </c>
       <c r="G374" s="0" t="s">
         <v>19</v>
       </c>
       <c r="H374" s="0" t="s">
-        <v>1059</v>
+        <v>1061</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="375">
       <c r="A375" s="0" t="s">
-        <v>1063</v>
+        <v>1065</v>
       </c>
       <c r="B375" s="2" t="s">
-        <v>1057</v>
+        <v>1059</v>
       </c>
       <c r="C375" s="2"/>
       <c r="D375" s="0" t="s">
@@ -12165,21 +12315,21 @@
         <v>19</v>
       </c>
       <c r="F375" s="0" t="s">
-        <v>1058</v>
+        <v>1060</v>
       </c>
       <c r="G375" s="0" t="s">
         <v>19</v>
       </c>
       <c r="H375" s="0" t="s">
-        <v>1059</v>
+        <v>1061</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="376">
       <c r="A376" s="0" t="s">
-        <v>1064</v>
+        <v>1066</v>
       </c>
       <c r="B376" s="0" t="s">
-        <v>1057</v>
+        <v>1059</v>
       </c>
       <c r="D376" s="0" t="s">
         <v>25</v>
@@ -12188,21 +12338,21 @@
         <v>19</v>
       </c>
       <c r="F376" s="0" t="s">
-        <v>1058</v>
+        <v>1060</v>
       </c>
       <c r="G376" s="0" t="s">
         <v>19</v>
       </c>
       <c r="H376" s="0" t="s">
-        <v>1059</v>
+        <v>1061</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="377">
       <c r="A377" s="0" t="s">
-        <v>1065</v>
+        <v>1067</v>
       </c>
       <c r="B377" s="0" t="s">
-        <v>1066</v>
+        <v>1068</v>
       </c>
       <c r="D377" s="0" t="s">
         <v>25</v>
@@ -12216,10 +12366,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="378">
       <c r="A378" s="0" t="s">
-        <v>1067</v>
+        <v>1069</v>
       </c>
       <c r="B378" s="0" t="s">
-        <v>1068</v>
+        <v>1070</v>
       </c>
       <c r="D378" s="0" t="s">
         <v>11</v>
@@ -12231,15 +12381,15 @@
         <v>19</v>
       </c>
       <c r="H378" s="0" t="s">
-        <v>1069</v>
+        <v>1071</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="379">
       <c r="A379" s="0" t="s">
-        <v>1070</v>
+        <v>1072</v>
       </c>
       <c r="B379" s="2" t="s">
-        <v>1071</v>
+        <v>1073</v>
       </c>
       <c r="C379" s="2"/>
       <c r="D379" s="0" t="s">
@@ -12249,21 +12399,21 @@
         <v>19</v>
       </c>
       <c r="F379" s="0" t="s">
-        <v>1072</v>
+        <v>1074</v>
       </c>
       <c r="G379" s="0" t="s">
         <v>19</v>
       </c>
       <c r="H379" s="0" t="s">
-        <v>1073</v>
+        <v>1075</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="380">
       <c r="A380" s="0" t="s">
-        <v>1074</v>
+        <v>1076</v>
       </c>
       <c r="B380" s="0" t="s">
-        <v>1075</v>
+        <v>1077</v>
       </c>
       <c r="D380" s="2" t="s">
         <v>25</v>
@@ -12277,10 +12427,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="381">
       <c r="A381" s="0" t="s">
-        <v>1076</v>
+        <v>1078</v>
       </c>
       <c r="B381" s="0" t="s">
-        <v>1077</v>
+        <v>1079</v>
       </c>
       <c r="D381" s="2" t="s">
         <v>25</v>
@@ -12289,7 +12439,7 @@
         <v>19</v>
       </c>
       <c r="F381" s="0" t="s">
-        <v>1078</v>
+        <v>1080</v>
       </c>
       <c r="G381" s="2" t="s">
         <v>12</v>
@@ -12298,10 +12448,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="382">
       <c r="A382" s="0" t="s">
-        <v>1079</v>
+        <v>1081</v>
       </c>
       <c r="B382" s="0" t="s">
-        <v>1080</v>
+        <v>1082</v>
       </c>
       <c r="D382" s="0" t="s">
         <v>11</v>
@@ -12315,10 +12465,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="383">
       <c r="A383" s="0" t="s">
-        <v>1081</v>
+        <v>1083</v>
       </c>
       <c r="B383" s="0" t="s">
-        <v>1082</v>
+        <v>1084</v>
       </c>
       <c r="D383" s="0" t="s">
         <v>16</v>
@@ -12332,10 +12482,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="384">
       <c r="A384" s="0" t="s">
-        <v>1083</v>
+        <v>1085</v>
       </c>
       <c r="B384" s="0" t="s">
-        <v>1084</v>
+        <v>1086</v>
       </c>
       <c r="D384" s="0" t="s">
         <v>16</v>
@@ -12347,7 +12497,7 @@
         <v>19</v>
       </c>
       <c r="H384" s="0" t="s">
-        <v>1085</v>
+        <v>1087</v>
       </c>
       <c r="I384" s="2" t="s">
         <v>33</v>
@@ -12355,10 +12505,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="385">
       <c r="A385" s="0" t="s">
-        <v>1086</v>
+        <v>1088</v>
       </c>
       <c r="B385" s="0" t="s">
-        <v>1087</v>
+        <v>1089</v>
       </c>
       <c r="D385" s="0" t="s">
         <v>11</v>
@@ -12372,10 +12522,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="386">
       <c r="A386" s="0" t="s">
-        <v>1088</v>
+        <v>1090</v>
       </c>
       <c r="B386" s="0" t="s">
-        <v>1089</v>
+        <v>1091</v>
       </c>
       <c r="D386" s="0" t="s">
         <v>25</v>
@@ -12387,15 +12537,15 @@
         <v>19</v>
       </c>
       <c r="H386" s="0" t="s">
-        <v>1090</v>
+        <v>1092</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="387">
       <c r="A387" s="0" t="s">
-        <v>1091</v>
+        <v>1093</v>
       </c>
       <c r="B387" s="0" t="s">
-        <v>1092</v>
+        <v>1094</v>
       </c>
       <c r="D387" s="0" t="s">
         <v>11</v>
@@ -12404,7 +12554,7 @@
         <v>19</v>
       </c>
       <c r="F387" s="0" t="s">
-        <v>1093</v>
+        <v>1095</v>
       </c>
       <c r="G387" s="0" t="s">
         <v>12</v>
@@ -12412,10 +12562,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="388">
       <c r="A388" s="0" t="s">
-        <v>1094</v>
+        <v>1096</v>
       </c>
       <c r="B388" s="0" t="s">
-        <v>1095</v>
+        <v>1097</v>
       </c>
       <c r="D388" s="0" t="s">
         <v>30</v>
@@ -12429,10 +12579,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="389">
       <c r="A389" s="0" t="s">
-        <v>1096</v>
+        <v>1098</v>
       </c>
       <c r="B389" s="0" t="s">
-        <v>1097</v>
+        <v>1099</v>
       </c>
       <c r="D389" s="0" t="s">
         <v>758</v>
@@ -12444,15 +12594,15 @@
         <v>19</v>
       </c>
       <c r="H389" s="0" t="s">
-        <v>1098</v>
+        <v>1100</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="390">
       <c r="A390" s="0" t="s">
-        <v>1099</v>
+        <v>1101</v>
       </c>
       <c r="B390" s="0" t="s">
-        <v>1100</v>
+        <v>1102</v>
       </c>
       <c r="D390" s="0" t="s">
         <v>11</v>
@@ -12461,7 +12611,7 @@
         <v>19</v>
       </c>
       <c r="F390" s="0" t="s">
-        <v>1101</v>
+        <v>1103</v>
       </c>
       <c r="G390" s="0" t="s">
         <v>12</v>
@@ -12469,10 +12619,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="391">
       <c r="A391" s="0" t="s">
-        <v>1102</v>
+        <v>1104</v>
       </c>
       <c r="B391" s="0" t="s">
-        <v>1103</v>
+        <v>1105</v>
       </c>
       <c r="D391" s="0" t="s">
         <v>11</v>
@@ -12486,10 +12636,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="392">
       <c r="A392" s="0" t="s">
-        <v>1104</v>
+        <v>1106</v>
       </c>
       <c r="B392" s="0" t="s">
-        <v>1105</v>
+        <v>1107</v>
       </c>
       <c r="D392" s="0" t="s">
         <v>36</v>
@@ -12498,7 +12648,7 @@
         <v>19</v>
       </c>
       <c r="F392" s="0" t="s">
-        <v>1106</v>
+        <v>1108</v>
       </c>
       <c r="G392" s="0" t="s">
         <v>12</v>
@@ -12506,10 +12656,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="393">
       <c r="A393" s="0" t="s">
-        <v>1107</v>
+        <v>1109</v>
       </c>
       <c r="B393" s="0" t="s">
-        <v>1108</v>
+        <v>1110</v>
       </c>
       <c r="D393" s="0" t="s">
         <v>25</v>
@@ -12518,7 +12668,7 @@
         <v>19</v>
       </c>
       <c r="F393" s="0" t="s">
-        <v>1109</v>
+        <v>1111</v>
       </c>
       <c r="G393" s="0" t="s">
         <v>12</v>
@@ -12526,10 +12676,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="394">
       <c r="A394" s="0" t="s">
-        <v>1110</v>
+        <v>1112</v>
       </c>
       <c r="B394" s="0" t="s">
-        <v>1111</v>
+        <v>1113</v>
       </c>
       <c r="D394" s="0" t="s">
         <v>36</v>
@@ -12538,21 +12688,21 @@
         <v>19</v>
       </c>
       <c r="F394" s="0" t="s">
-        <v>1112</v>
+        <v>1114</v>
       </c>
       <c r="G394" s="2" t="s">
         <v>19</v>
       </c>
       <c r="H394" s="0" t="s">
-        <v>1113</v>
+        <v>1115</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="395">
       <c r="A395" s="0" t="s">
-        <v>1114</v>
+        <v>1116</v>
       </c>
       <c r="B395" s="0" t="s">
-        <v>1115</v>
+        <v>1117</v>
       </c>
       <c r="D395" s="0" t="s">
         <v>25</v>
@@ -12561,7 +12711,7 @@
         <v>19</v>
       </c>
       <c r="F395" s="0" t="s">
-        <v>1116</v>
+        <v>1118</v>
       </c>
       <c r="G395" s="0" t="s">
         <v>12</v>
@@ -12569,10 +12719,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="396">
       <c r="A396" s="0" t="s">
-        <v>1117</v>
+        <v>1119</v>
       </c>
       <c r="B396" s="0" t="s">
-        <v>1118</v>
+        <v>1120</v>
       </c>
       <c r="D396" s="0" t="s">
         <v>11</v>
@@ -12586,10 +12736,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="397">
       <c r="A397" s="0" t="s">
-        <v>1119</v>
+        <v>1121</v>
       </c>
       <c r="B397" s="2" t="s">
-        <v>1120</v>
+        <v>1122</v>
       </c>
       <c r="C397" s="2"/>
       <c r="D397" s="0" t="s">
@@ -12599,7 +12749,7 @@
         <v>19</v>
       </c>
       <c r="F397" s="0" t="s">
-        <v>1121</v>
+        <v>1123</v>
       </c>
       <c r="G397" s="2" t="s">
         <v>12</v>
@@ -12607,10 +12757,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="398">
       <c r="A398" s="0" t="s">
-        <v>1122</v>
+        <v>1124</v>
       </c>
       <c r="B398" s="0" t="s">
-        <v>1123</v>
+        <v>1125</v>
       </c>
       <c r="D398" s="0" t="s">
         <v>11</v>
@@ -12622,15 +12772,15 @@
         <v>19</v>
       </c>
       <c r="H398" s="0" t="s">
-        <v>1124</v>
+        <v>1126</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="399">
       <c r="A399" s="0" t="s">
-        <v>1125</v>
+        <v>1127</v>
       </c>
       <c r="B399" s="0" t="s">
-        <v>1126</v>
+        <v>1128</v>
       </c>
       <c r="D399" s="0" t="s">
         <v>11</v>
@@ -12644,10 +12794,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="400">
       <c r="A400" s="0" t="s">
-        <v>1127</v>
+        <v>1129</v>
       </c>
       <c r="B400" s="0" t="s">
-        <v>1128</v>
+        <v>1130</v>
       </c>
       <c r="D400" s="0" t="s">
         <v>11</v>
@@ -12656,7 +12806,7 @@
         <v>19</v>
       </c>
       <c r="F400" s="0" t="s">
-        <v>1129</v>
+        <v>1131</v>
       </c>
       <c r="G400" s="0" t="s">
         <v>12</v>
@@ -12665,10 +12815,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="401">
       <c r="A401" s="2" t="s">
-        <v>1130</v>
+        <v>1132</v>
       </c>
       <c r="B401" s="0" t="s">
-        <v>1131</v>
+        <v>1133</v>
       </c>
       <c r="D401" s="2" t="s">
         <v>11</v>
@@ -12683,10 +12833,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="402">
       <c r="A402" s="0" t="s">
-        <v>1132</v>
+        <v>1134</v>
       </c>
       <c r="B402" s="0" t="s">
-        <v>1133</v>
+        <v>1135</v>
       </c>
       <c r="D402" s="0" t="s">
         <v>11</v>
@@ -12700,10 +12850,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="403">
       <c r="A403" s="0" t="s">
-        <v>1134</v>
+        <v>1136</v>
       </c>
       <c r="B403" s="0" t="s">
-        <v>1135</v>
+        <v>1137</v>
       </c>
       <c r="D403" s="0" t="s">
         <v>11</v>
@@ -12717,10 +12867,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="404">
       <c r="A404" s="0" t="s">
-        <v>1136</v>
+        <v>1138</v>
       </c>
       <c r="B404" s="0" t="s">
-        <v>1137</v>
+        <v>1139</v>
       </c>
       <c r="D404" s="0" t="s">
         <v>11</v>
@@ -12734,10 +12884,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="405">
       <c r="A405" s="0" t="s">
-        <v>1138</v>
+        <v>1140</v>
       </c>
       <c r="B405" s="0" t="s">
-        <v>1139</v>
+        <v>1141</v>
       </c>
       <c r="D405" s="0" t="s">
         <v>11</v>
@@ -12751,10 +12901,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="406">
       <c r="A406" s="0" t="s">
-        <v>1140</v>
+        <v>1142</v>
       </c>
       <c r="B406" s="0" t="s">
-        <v>1141</v>
+        <v>1143</v>
       </c>
       <c r="D406" s="0" t="s">
         <v>16</v>
@@ -12766,15 +12916,15 @@
         <v>19</v>
       </c>
       <c r="H406" s="0" t="s">
-        <v>1142</v>
+        <v>1144</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="407">
       <c r="A407" s="0" t="s">
-        <v>1143</v>
+        <v>1145</v>
       </c>
       <c r="B407" s="0" t="s">
-        <v>1144</v>
+        <v>1146</v>
       </c>
       <c r="D407" s="0" t="s">
         <v>11</v>
@@ -12788,10 +12938,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="408">
       <c r="A408" s="0" t="s">
-        <v>1145</v>
+        <v>1147</v>
       </c>
       <c r="B408" s="0" t="s">
-        <v>1146</v>
+        <v>1148</v>
       </c>
       <c r="D408" s="0" t="s">
         <v>11</v>
@@ -12800,7 +12950,7 @@
         <v>19</v>
       </c>
       <c r="F408" s="0" t="s">
-        <v>1147</v>
+        <v>1149</v>
       </c>
       <c r="G408" s="2" t="s">
         <v>12</v>
@@ -12808,10 +12958,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="409">
       <c r="A409" s="0" t="s">
-        <v>1148</v>
+        <v>1150</v>
       </c>
       <c r="B409" s="0" t="s">
-        <v>1149</v>
+        <v>1151</v>
       </c>
       <c r="D409" s="0" t="s">
         <v>25</v>
@@ -12825,10 +12975,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="410">
       <c r="A410" s="0" t="s">
-        <v>1150</v>
+        <v>1152</v>
       </c>
       <c r="B410" s="2" t="s">
-        <v>1151</v>
+        <v>1153</v>
       </c>
       <c r="C410" s="2"/>
       <c r="D410" s="2" t="s">
@@ -12843,10 +12993,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="411">
       <c r="A411" s="0" t="s">
-        <v>1152</v>
+        <v>1154</v>
       </c>
       <c r="B411" s="0" t="s">
-        <v>1153</v>
+        <v>1155</v>
       </c>
       <c r="D411" s="0" t="s">
         <v>25</v>
@@ -12855,7 +13005,7 @@
         <v>19</v>
       </c>
       <c r="F411" s="0" t="s">
-        <v>1154</v>
+        <v>1156</v>
       </c>
       <c r="G411" s="0" t="s">
         <v>12</v>
@@ -12863,10 +13013,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="412">
       <c r="A412" s="0" t="s">
-        <v>1155</v>
+        <v>1157</v>
       </c>
       <c r="B412" s="0" t="s">
-        <v>1156</v>
+        <v>1158</v>
       </c>
       <c r="D412" s="0" t="s">
         <v>25</v>
@@ -12880,10 +13030,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="413">
       <c r="A413" s="0" t="s">
-        <v>1157</v>
+        <v>1159</v>
       </c>
       <c r="B413" s="0" t="s">
-        <v>1158</v>
+        <v>1160</v>
       </c>
       <c r="D413" s="0" t="s">
         <v>30</v>
@@ -12895,15 +13045,15 @@
         <v>19</v>
       </c>
       <c r="H413" s="0" t="s">
-        <v>1159</v>
+        <v>1161</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="414">
       <c r="A414" s="0" t="s">
-        <v>1160</v>
+        <v>1162</v>
       </c>
       <c r="B414" s="0" t="s">
-        <v>1161</v>
+        <v>1163</v>
       </c>
       <c r="D414" s="0" t="s">
         <v>758</v>
@@ -12915,15 +13065,15 @@
         <v>19</v>
       </c>
       <c r="H414" s="0" t="s">
-        <v>1162</v>
+        <v>1164</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="415">
       <c r="A415" s="0" t="s">
-        <v>1163</v>
+        <v>1165</v>
       </c>
       <c r="B415" s="0" t="s">
-        <v>1164</v>
+        <v>1166</v>
       </c>
       <c r="D415" s="0" t="s">
         <v>11</v>
@@ -12937,10 +13087,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="416">
       <c r="A416" s="0" t="s">
-        <v>1165</v>
+        <v>1167</v>
       </c>
       <c r="B416" s="0" t="s">
-        <v>1166</v>
+        <v>1168</v>
       </c>
       <c r="D416" s="0" t="s">
         <v>11</v>
@@ -12954,10 +13104,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="417">
       <c r="A417" s="0" t="s">
-        <v>1167</v>
+        <v>1169</v>
       </c>
       <c r="B417" s="0" t="s">
-        <v>1168</v>
+        <v>1170</v>
       </c>
       <c r="D417" s="0" t="s">
         <v>36</v>
@@ -12969,15 +13119,15 @@
         <v>19</v>
       </c>
       <c r="H417" s="0" t="s">
-        <v>1169</v>
+        <v>1171</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="418">
       <c r="A418" s="0" t="s">
-        <v>1170</v>
+        <v>1172</v>
       </c>
       <c r="B418" s="0" t="s">
-        <v>1171</v>
+        <v>1173</v>
       </c>
       <c r="D418" s="2" t="s">
         <v>25</v>
@@ -12986,7 +13136,7 @@
         <v>19</v>
       </c>
       <c r="F418" s="0" t="s">
-        <v>1172</v>
+        <v>1174</v>
       </c>
       <c r="G418" s="0" t="s">
         <v>12</v>
@@ -12994,10 +13144,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="419">
       <c r="A419" s="0" t="s">
-        <v>1173</v>
+        <v>1175</v>
       </c>
       <c r="B419" s="0" t="s">
-        <v>1174</v>
+        <v>1176</v>
       </c>
       <c r="D419" s="2" t="s">
         <v>25</v>
@@ -13011,10 +13161,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="420">
       <c r="A420" s="0" t="s">
-        <v>1175</v>
+        <v>1177</v>
       </c>
       <c r="B420" s="0" t="s">
-        <v>1176</v>
+        <v>1178</v>
       </c>
       <c r="D420" s="0" t="s">
         <v>25</v>
@@ -13028,10 +13178,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="421">
       <c r="A421" s="0" t="s">
-        <v>1177</v>
+        <v>1179</v>
       </c>
       <c r="B421" s="0" t="s">
-        <v>1178</v>
+        <v>1180</v>
       </c>
       <c r="D421" s="0" t="s">
         <v>30</v>
@@ -13040,7 +13190,7 @@
         <v>19</v>
       </c>
       <c r="F421" s="0" t="s">
-        <v>1179</v>
+        <v>1181</v>
       </c>
       <c r="G421" s="0" t="s">
         <v>12</v>
@@ -13048,10 +13198,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="422">
       <c r="A422" s="0" t="s">
-        <v>1180</v>
+        <v>1182</v>
       </c>
       <c r="B422" s="0" t="s">
-        <v>1181</v>
+        <v>1183</v>
       </c>
       <c r="D422" s="0" t="s">
         <v>25</v>
@@ -13060,7 +13210,7 @@
         <v>19</v>
       </c>
       <c r="F422" s="0" t="s">
-        <v>1182</v>
+        <v>1184</v>
       </c>
       <c r="G422" s="0" t="s">
         <v>12</v>
@@ -13068,10 +13218,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="423">
       <c r="A423" s="0" t="s">
-        <v>1183</v>
+        <v>1185</v>
       </c>
       <c r="B423" s="0" t="s">
-        <v>1184</v>
+        <v>1186</v>
       </c>
       <c r="D423" s="0" t="s">
         <v>758</v>
@@ -13080,7 +13230,7 @@
         <v>19</v>
       </c>
       <c r="F423" s="0" t="s">
-        <v>1185</v>
+        <v>1187</v>
       </c>
       <c r="G423" s="0" t="s">
         <v>12</v>
@@ -13088,10 +13238,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="424">
       <c r="A424" s="0" t="s">
-        <v>1186</v>
+        <v>1188</v>
       </c>
       <c r="B424" s="2" t="s">
-        <v>1187</v>
+        <v>1189</v>
       </c>
       <c r="C424" s="2"/>
       <c r="D424" s="0" t="s">
@@ -13101,7 +13251,7 @@
         <v>19</v>
       </c>
       <c r="F424" s="0" t="s">
-        <v>1188</v>
+        <v>1190</v>
       </c>
       <c r="G424" s="0" t="s">
         <v>12</v>
@@ -13109,10 +13259,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="425">
       <c r="A425" s="0" t="s">
-        <v>1189</v>
+        <v>1191</v>
       </c>
       <c r="B425" s="0" t="s">
-        <v>1190</v>
+        <v>1192</v>
       </c>
       <c r="D425" s="0" t="s">
         <v>16</v>
@@ -13121,7 +13271,7 @@
         <v>19</v>
       </c>
       <c r="F425" s="0" t="s">
-        <v>1191</v>
+        <v>1193</v>
       </c>
       <c r="G425" s="0" t="s">
         <v>19</v>
@@ -13132,10 +13282,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="426">
       <c r="A426" s="0" t="s">
-        <v>1192</v>
+        <v>1194</v>
       </c>
       <c r="B426" s="0" t="s">
-        <v>1193</v>
+        <v>1195</v>
       </c>
       <c r="D426" s="0" t="s">
         <v>25</v>
@@ -13149,10 +13299,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="427">
       <c r="A427" s="0" t="s">
-        <v>1194</v>
+        <v>1196</v>
       </c>
       <c r="B427" s="0" t="s">
-        <v>1195</v>
+        <v>1197</v>
       </c>
       <c r="D427" s="0" t="s">
         <v>236</v>
@@ -13166,10 +13316,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="428">
       <c r="A428" s="0" t="s">
-        <v>1196</v>
+        <v>1198</v>
       </c>
       <c r="B428" s="0" t="s">
-        <v>1197</v>
+        <v>1199</v>
       </c>
       <c r="D428" s="0" t="s">
         <v>236</v>
@@ -13181,15 +13331,15 @@
         <v>19</v>
       </c>
       <c r="H428" s="0" t="s">
-        <v>1198</v>
+        <v>1200</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="429">
       <c r="A429" s="0" t="s">
-        <v>1199</v>
+        <v>1201</v>
       </c>
       <c r="B429" s="2" t="s">
-        <v>1200</v>
+        <v>1202</v>
       </c>
       <c r="C429" s="2"/>
       <c r="D429" s="0" t="s">
@@ -13199,7 +13349,7 @@
         <v>19</v>
       </c>
       <c r="F429" s="0" t="s">
-        <v>1201</v>
+        <v>1203</v>
       </c>
       <c r="G429" s="0" t="s">
         <v>12</v>
@@ -13207,10 +13357,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="430">
       <c r="A430" s="0" t="s">
-        <v>1202</v>
+        <v>1204</v>
       </c>
       <c r="B430" s="0" t="s">
-        <v>1203</v>
+        <v>1205</v>
       </c>
       <c r="D430" s="0" t="s">
         <v>236</v>
@@ -13222,15 +13372,15 @@
         <v>19</v>
       </c>
       <c r="H430" s="0" t="s">
-        <v>1204</v>
+        <v>1206</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="431">
       <c r="A431" s="0" t="s">
-        <v>1205</v>
+        <v>1207</v>
       </c>
       <c r="B431" s="0" t="s">
-        <v>1206</v>
+        <v>1208</v>
       </c>
       <c r="D431" s="0" t="s">
         <v>25</v>
@@ -13242,15 +13392,15 @@
         <v>19</v>
       </c>
       <c r="H431" s="0" t="s">
-        <v>1207</v>
+        <v>1209</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="432">
       <c r="A432" s="0" t="s">
-        <v>1208</v>
+        <v>1210</v>
       </c>
       <c r="B432" s="0" t="s">
-        <v>1209</v>
+        <v>1211</v>
       </c>
       <c r="D432" s="0" t="s">
         <v>30</v>
@@ -13259,7 +13409,7 @@
         <v>19</v>
       </c>
       <c r="F432" s="0" t="s">
-        <v>1210</v>
+        <v>1212</v>
       </c>
       <c r="G432" s="0" t="s">
         <v>12</v>
@@ -13267,10 +13417,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="433">
       <c r="A433" s="0" t="s">
-        <v>1211</v>
+        <v>1213</v>
       </c>
       <c r="B433" s="0" t="s">
-        <v>1212</v>
+        <v>1214</v>
       </c>
       <c r="D433" s="0" t="s">
         <v>11</v>
@@ -13284,10 +13434,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="434">
       <c r="A434" s="0" t="s">
-        <v>1213</v>
+        <v>1215</v>
       </c>
       <c r="B434" s="0" t="s">
-        <v>1214</v>
+        <v>1216</v>
       </c>
       <c r="D434" s="0" t="s">
         <v>25</v>
@@ -13299,15 +13449,15 @@
         <v>19</v>
       </c>
       <c r="H434" s="0" t="s">
-        <v>1215</v>
+        <v>1217</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="435">
       <c r="A435" s="0" t="s">
-        <v>1216</v>
+        <v>1218</v>
       </c>
       <c r="B435" s="0" t="s">
-        <v>1217</v>
+        <v>1219</v>
       </c>
       <c r="D435" s="2" t="s">
         <v>25</v>
@@ -13319,15 +13469,15 @@
         <v>19</v>
       </c>
       <c r="H435" s="0" t="s">
-        <v>1215</v>
+        <v>1217</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="436">
       <c r="A436" s="0" t="s">
-        <v>1218</v>
+        <v>1220</v>
       </c>
       <c r="B436" s="0" t="s">
-        <v>1219</v>
+        <v>1221</v>
       </c>
       <c r="D436" s="0" t="s">
         <v>11</v>
@@ -13336,7 +13486,7 @@
         <v>19</v>
       </c>
       <c r="F436" s="0" t="s">
-        <v>1220</v>
+        <v>1222</v>
       </c>
       <c r="G436" s="2" t="s">
         <v>12</v>
@@ -13344,10 +13494,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="437">
       <c r="A437" s="0" t="s">
-        <v>1221</v>
+        <v>1223</v>
       </c>
       <c r="B437" s="0" t="s">
-        <v>1222</v>
+        <v>1224</v>
       </c>
       <c r="D437" s="0" t="s">
         <v>11</v>
@@ -13359,15 +13509,15 @@
         <v>19</v>
       </c>
       <c r="H437" s="0" t="s">
-        <v>1223</v>
+        <v>1225</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="438">
       <c r="A438" s="0" t="s">
-        <v>1224</v>
+        <v>1226</v>
       </c>
       <c r="B438" s="0" t="s">
-        <v>1225</v>
+        <v>1227</v>
       </c>
       <c r="D438" s="0" t="s">
         <v>36</v>
@@ -13376,7 +13526,7 @@
         <v>19</v>
       </c>
       <c r="F438" s="0" t="s">
-        <v>1226</v>
+        <v>1228</v>
       </c>
       <c r="G438" s="2" t="s">
         <v>12</v>
@@ -13384,10 +13534,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="439">
       <c r="A439" s="0" t="s">
-        <v>1227</v>
+        <v>1229</v>
       </c>
       <c r="B439" s="0" t="s">
-        <v>1228</v>
+        <v>1230</v>
       </c>
       <c r="D439" s="0" t="s">
         <v>11</v>
@@ -13399,15 +13549,15 @@
         <v>19</v>
       </c>
       <c r="H439" s="0" t="s">
-        <v>1229</v>
+        <v>1231</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="440">
       <c r="A440" s="0" t="s">
-        <v>1230</v>
+        <v>1232</v>
       </c>
       <c r="B440" s="0" t="s">
-        <v>1231</v>
+        <v>1233</v>
       </c>
       <c r="D440" s="0" t="s">
         <v>25</v>
@@ -13416,21 +13566,21 @@
         <v>19</v>
       </c>
       <c r="F440" s="0" t="s">
-        <v>1232</v>
+        <v>1234</v>
       </c>
       <c r="G440" s="0" t="s">
         <v>19</v>
       </c>
       <c r="H440" s="0" t="s">
-        <v>1229</v>
+        <v>1231</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="441">
       <c r="A441" s="0" t="s">
-        <v>1233</v>
+        <v>1235</v>
       </c>
       <c r="B441" s="0" t="s">
-        <v>1234</v>
+        <v>1236</v>
       </c>
       <c r="D441" s="0" t="s">
         <v>11</v>
@@ -13439,21 +13589,21 @@
         <v>19</v>
       </c>
       <c r="F441" s="0" t="s">
-        <v>1235</v>
+        <v>1237</v>
       </c>
       <c r="G441" s="0" t="s">
         <v>19</v>
       </c>
       <c r="H441" s="0" t="s">
-        <v>1229</v>
+        <v>1231</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="442">
       <c r="A442" s="0" t="s">
-        <v>1236</v>
+        <v>1238</v>
       </c>
       <c r="B442" s="0" t="s">
-        <v>1237</v>
+        <v>1239</v>
       </c>
       <c r="D442" s="0" t="s">
         <v>11</v>
@@ -13465,15 +13615,15 @@
         <v>19</v>
       </c>
       <c r="H442" s="0" t="s">
-        <v>1238</v>
+        <v>1240</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="443">
       <c r="A443" s="0" t="s">
-        <v>1239</v>
+        <v>1241</v>
       </c>
       <c r="B443" s="0" t="s">
-        <v>1240</v>
+        <v>1242</v>
       </c>
       <c r="D443" s="0" t="s">
         <v>30</v>
@@ -13482,21 +13632,21 @@
         <v>19</v>
       </c>
       <c r="F443" s="0" t="s">
-        <v>1241</v>
+        <v>1243</v>
       </c>
       <c r="G443" s="0" t="s">
         <v>19</v>
       </c>
       <c r="H443" s="0" t="s">
-        <v>1242</v>
+        <v>1244</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="444">
       <c r="A444" s="0" t="s">
-        <v>1243</v>
+        <v>1245</v>
       </c>
       <c r="B444" s="0" t="s">
-        <v>1244</v>
+        <v>1246</v>
       </c>
       <c r="D444" s="0" t="s">
         <v>11</v>
@@ -13505,7 +13655,7 @@
         <v>19</v>
       </c>
       <c r="F444" s="0" t="s">
-        <v>1245</v>
+        <v>1247</v>
       </c>
       <c r="G444" s="0" t="s">
         <v>12</v>
@@ -13552,7 +13702,7 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="257" min="1" style="0" width="8.89019607843137"/>
+    <col collapsed="false" hidden="false" max="257" min="1" style="0" width="8.92941176470588"/>
   </cols>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -13577,7 +13727,7 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="257" min="1" style="0" width="8.89019607843137"/>
+    <col collapsed="false" hidden="false" max="257" min="1" style="0" width="8.92941176470588"/>
   </cols>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/kohana/oiadsites.xlsx
+++ b/kohana/oiadsites.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2936" uniqueCount="1248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3022" uniqueCount="1248">
   <si>
     <t>Site Name</t>
   </si>
@@ -3939,18 +3939,18 @@
   </sheetPr>
   <dimension ref="A1:I444"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A310" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="C358" activeCellId="0" pane="topLeft" sqref="C358"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A433" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="C442" activeCellId="0" pane="topLeft" sqref="C442"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="49.4941176470588"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="97.2156862745098"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="49.4941176470588"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="15.8392156862745"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="49.4941176470588"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="13.4470588235294"/>
-    <col collapsed="false" hidden="false" max="257" min="8" style="0" width="49.4941176470588"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="49.7019607843137"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="97.6156862745098"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="49.7019607843137"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="15.9058823529412"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="49.7019607843137"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="13.5019607843137"/>
+    <col collapsed="false" hidden="false" max="257" min="8" style="0" width="49.7019607843137"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="1" s="1">
@@ -10903,7 +10903,7 @@
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="311">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="311">
       <c r="A311" s="0" t="s">
         <v>898</v>
       </c>
@@ -10926,7 +10926,7 @@
         <v>900</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="312">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="312">
       <c r="A312" s="0" t="s">
         <v>901</v>
       </c>
@@ -10949,7 +10949,7 @@
         <v>900</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="313">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="313">
       <c r="A313" s="0" t="s">
         <v>904</v>
       </c>
@@ -10972,7 +10972,7 @@
         <v>33</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="314">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="314">
       <c r="A314" s="0" t="s">
         <v>906</v>
       </c>
@@ -10992,7 +10992,7 @@
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="315">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="315">
       <c r="A315" s="0" t="s">
         <v>908</v>
       </c>
@@ -11018,7 +11018,7 @@
         <v>911</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="316">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="316">
       <c r="A316" s="0" t="s">
         <v>912</v>
       </c>
@@ -11041,7 +11041,7 @@
         <v>33</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="317">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="317">
       <c r="A317" s="0" t="s">
         <v>914</v>
       </c>
@@ -11067,7 +11067,7 @@
         <v>917</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="318">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="318">
       <c r="A318" s="0" t="s">
         <v>918</v>
       </c>
@@ -11093,7 +11093,7 @@
         <v>11</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="319">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="319">
       <c r="A319" s="0" t="s">
         <v>921</v>
       </c>
@@ -11113,7 +11113,7 @@
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="320">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="320">
       <c r="A320" s="0" t="s">
         <v>923</v>
       </c>
@@ -11139,7 +11139,7 @@
         <v>926</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="321">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="321">
       <c r="A321" s="0" t="s">
         <v>927</v>
       </c>
@@ -11165,7 +11165,7 @@
         <v>930</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="322">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="322">
       <c r="A322" s="0" t="s">
         <v>931</v>
       </c>
@@ -11188,7 +11188,7 @@
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="323">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="323">
       <c r="A323" s="0" t="s">
         <v>934</v>
       </c>
@@ -11211,7 +11211,7 @@
         <v>936</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="324">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="324">
       <c r="A324" s="0" t="s">
         <v>937</v>
       </c>
@@ -11234,7 +11234,7 @@
         <v>939</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="325">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="325">
       <c r="A325" s="0" t="s">
         <v>940</v>
       </c>
@@ -11254,7 +11254,7 @@
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="326">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="326">
       <c r="A326" s="0" t="s">
         <v>942</v>
       </c>
@@ -11274,7 +11274,7 @@
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="327">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="327">
       <c r="A327" s="0" t="s">
         <v>944</v>
       </c>
@@ -11297,7 +11297,7 @@
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="328">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="328">
       <c r="A328" s="0" t="s">
         <v>947</v>
       </c>
@@ -11317,7 +11317,7 @@
         <v>949</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="329">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="329">
       <c r="A329" s="0" t="s">
         <v>950</v>
       </c>
@@ -11340,7 +11340,7 @@
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="330">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="330">
       <c r="A330" s="0" t="s">
         <v>953</v>
       </c>
@@ -11360,7 +11360,7 @@
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="331">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="331">
       <c r="A331" s="0" t="s">
         <v>955</v>
       </c>
@@ -11380,7 +11380,7 @@
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="332">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="332">
       <c r="A332" s="0" t="s">
         <v>957</v>
       </c>
@@ -11400,7 +11400,7 @@
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="333">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="333">
       <c r="A333" s="0" t="s">
         <v>959</v>
       </c>
@@ -11420,7 +11420,7 @@
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="334">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="334">
       <c r="A334" s="0" t="s">
         <v>961</v>
       </c>
@@ -11443,7 +11443,7 @@
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="335">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="335">
       <c r="A335" s="0" t="s">
         <v>964</v>
       </c>
@@ -11466,7 +11466,7 @@
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="336">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="336">
       <c r="A336" s="0" t="s">
         <v>967</v>
       </c>
@@ -11486,7 +11486,7 @@
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="337">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="337">
       <c r="A337" s="0" t="s">
         <v>969</v>
       </c>
@@ -11509,7 +11509,7 @@
         <v>19</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="338">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="338">
       <c r="A338" s="0" t="s">
         <v>973</v>
       </c>
@@ -11529,7 +11529,7 @@
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="339">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="339">
       <c r="A339" s="0" t="s">
         <v>975</v>
       </c>
@@ -11552,7 +11552,7 @@
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="340">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="340">
       <c r="A340" s="0" t="s">
         <v>978</v>
       </c>
@@ -11575,7 +11575,7 @@
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="341">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="341">
       <c r="A341" s="0" t="s">
         <v>981</v>
       </c>
@@ -11598,7 +11598,7 @@
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="342">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="342">
       <c r="A342" s="0" t="s">
         <v>984</v>
       </c>
@@ -11618,7 +11618,7 @@
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="343">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="343">
       <c r="A343" s="0" t="s">
         <v>986</v>
       </c>
@@ -11644,7 +11644,7 @@
         <v>989</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="344">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="344">
       <c r="A344" s="0" t="s">
         <v>990</v>
       </c>
@@ -11667,7 +11667,7 @@
         <v>992</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="345">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="345">
       <c r="A345" s="0" t="s">
         <v>993</v>
       </c>
@@ -11690,7 +11690,7 @@
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="346">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="346">
       <c r="A346" s="0" t="s">
         <v>996</v>
       </c>
@@ -11710,7 +11710,7 @@
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="347">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="347">
       <c r="A347" s="0" t="s">
         <v>998</v>
       </c>
@@ -11733,7 +11733,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="348">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="348">
       <c r="A348" s="0" t="s">
         <v>1001</v>
       </c>
@@ -11756,7 +11756,7 @@
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="349">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="349">
       <c r="A349" s="0" t="s">
         <v>1004</v>
       </c>
@@ -11779,7 +11779,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="350">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="350">
       <c r="A350" s="0" t="s">
         <v>1004</v>
       </c>
@@ -11802,7 +11802,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="351">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="351">
       <c r="A351" s="0" t="s">
         <v>1007</v>
       </c>
@@ -11825,7 +11825,7 @@
         <v>1009</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="352">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="352">
       <c r="A352" s="0" t="s">
         <v>1010</v>
       </c>
@@ -11845,7 +11845,7 @@
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="353">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="353">
       <c r="A353" s="0" t="s">
         <v>1012</v>
       </c>
@@ -11871,7 +11871,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="354">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="354">
       <c r="A354" s="0" t="s">
         <v>1016</v>
       </c>
@@ -11891,7 +11891,7 @@
         <v>19</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="355">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="355">
       <c r="A355" s="0" t="s">
         <v>1018</v>
       </c>
@@ -11914,7 +11914,7 @@
         <v>1020</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="356">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="356">
       <c r="A356" s="0" t="s">
         <v>1021</v>
       </c>
@@ -11934,7 +11934,7 @@
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="357">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="357">
       <c r="A357" s="0" t="s">
         <v>1023</v>
       </c>
@@ -11954,7 +11954,7 @@
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="358">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="358">
       <c r="A358" s="0" t="s">
         <v>1025</v>
       </c>
@@ -11974,13 +11974,16 @@
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="359">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="359">
       <c r="A359" s="0" t="s">
         <v>1027</v>
       </c>
       <c r="B359" s="0" t="s">
         <v>1028</v>
       </c>
+      <c r="C359" s="0" t="s">
+        <v>15</v>
+      </c>
       <c r="D359" s="0" t="s">
         <v>11</v>
       </c>
@@ -11991,13 +11994,16 @@
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="360">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="360">
       <c r="A360" s="0" t="s">
         <v>1029</v>
       </c>
       <c r="B360" s="0" t="s">
         <v>1030</v>
       </c>
+      <c r="C360" s="0" t="s">
+        <v>15</v>
+      </c>
       <c r="D360" s="0" t="s">
         <v>16</v>
       </c>
@@ -12014,13 +12020,16 @@
         <v>209</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="361">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="361">
       <c r="A361" s="0" t="s">
         <v>1032</v>
       </c>
       <c r="B361" s="0" t="s">
         <v>1033</v>
       </c>
+      <c r="C361" s="0" t="s">
+        <v>15</v>
+      </c>
       <c r="D361" s="0" t="s">
         <v>16</v>
       </c>
@@ -12034,13 +12043,16 @@
         <v>1034</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="362">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="362">
       <c r="A362" s="0" t="s">
         <v>1035</v>
       </c>
       <c r="B362" s="0" t="s">
         <v>1036</v>
       </c>
+      <c r="C362" s="0" t="s">
+        <v>15</v>
+      </c>
       <c r="D362" s="0" t="s">
         <v>11</v>
       </c>
@@ -12051,13 +12063,16 @@
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="363">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="363">
       <c r="A363" s="0" t="s">
         <v>1037</v>
       </c>
       <c r="B363" s="0" t="s">
         <v>1038</v>
       </c>
+      <c r="C363" s="0" t="s">
+        <v>15</v>
+      </c>
       <c r="D363" s="0" t="s">
         <v>25</v>
       </c>
@@ -12071,13 +12086,16 @@
         <v>1039</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="364">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="364">
       <c r="A364" s="0" t="s">
         <v>1040</v>
       </c>
       <c r="B364" s="0" t="s">
         <v>1041</v>
       </c>
+      <c r="C364" s="0" t="s">
+        <v>15</v>
+      </c>
       <c r="D364" s="0" t="s">
         <v>30</v>
       </c>
@@ -12094,13 +12112,16 @@
         <v>33</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="365">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="365">
       <c r="A365" s="0" t="s">
         <v>1043</v>
       </c>
       <c r="B365" s="0" t="s">
         <v>1044</v>
       </c>
+      <c r="C365" s="0" t="s">
+        <v>15</v>
+      </c>
       <c r="D365" s="0" t="s">
         <v>25</v>
       </c>
@@ -12114,13 +12135,16 @@
         <v>1045</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="366">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="366">
       <c r="A366" s="0" t="s">
         <v>1046</v>
       </c>
       <c r="B366" s="0" t="s">
         <v>1047</v>
       </c>
+      <c r="C366" s="0" t="s">
+        <v>15</v>
+      </c>
       <c r="D366" s="0" t="s">
         <v>11</v>
       </c>
@@ -12131,13 +12155,16 @@
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="367">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="367">
       <c r="A367" s="0" t="s">
         <v>1048</v>
       </c>
       <c r="B367" s="0" t="s">
         <v>1049</v>
       </c>
+      <c r="C367" s="0" t="s">
+        <v>15</v>
+      </c>
       <c r="D367" s="0" t="s">
         <v>16</v>
       </c>
@@ -12148,14 +12175,16 @@
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="368">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="368">
       <c r="A368" s="0" t="s">
         <v>1050</v>
       </c>
       <c r="B368" s="2" t="s">
         <v>1051</v>
       </c>
-      <c r="C368" s="2"/>
+      <c r="C368" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="D368" s="0" t="s">
         <v>16</v>
       </c>
@@ -12166,13 +12195,16 @@
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="369">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="369">
       <c r="A369" s="0" t="s">
         <v>1052</v>
       </c>
       <c r="B369" s="0" t="s">
         <v>1053</v>
       </c>
+      <c r="C369" s="0" t="s">
+        <v>15</v>
+      </c>
       <c r="D369" s="0" t="s">
         <v>16</v>
       </c>
@@ -12186,13 +12218,16 @@
         <v>1054</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="370">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="370">
       <c r="A370" s="0" t="s">
         <v>1055</v>
       </c>
       <c r="B370" s="0" t="s">
         <v>1056</v>
       </c>
+      <c r="C370" s="0" t="s">
+        <v>15</v>
+      </c>
       <c r="D370" s="0" t="s">
         <v>11</v>
       </c>
@@ -12206,14 +12241,16 @@
         <v>1057</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="371">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="371">
       <c r="A371" s="0" t="s">
         <v>1058</v>
       </c>
       <c r="B371" s="2" t="s">
         <v>1059</v>
       </c>
-      <c r="C371" s="2"/>
+      <c r="C371" s="2" t="s">
+        <v>285</v>
+      </c>
       <c r="D371" s="0" t="s">
         <v>11</v>
       </c>
@@ -12230,13 +12267,16 @@
         <v>1061</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="372">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="372">
       <c r="A372" s="0" t="s">
         <v>1062</v>
       </c>
       <c r="B372" s="0" t="s">
         <v>1059</v>
       </c>
+      <c r="C372" s="2" t="s">
+        <v>285</v>
+      </c>
       <c r="D372" s="0" t="s">
         <v>11</v>
       </c>
@@ -12254,13 +12294,16 @@
       </c>
       <c r="I372" s="2"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="373">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="373">
       <c r="A373" s="0" t="s">
         <v>1063</v>
       </c>
       <c r="B373" s="0" t="s">
         <v>1059</v>
       </c>
+      <c r="C373" s="2" t="s">
+        <v>285</v>
+      </c>
       <c r="D373" s="0" t="s">
         <v>36</v>
       </c>
@@ -12277,13 +12320,16 @@
         <v>1061</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="374">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="374">
       <c r="A374" s="0" t="s">
         <v>1064</v>
       </c>
       <c r="B374" s="0" t="s">
         <v>1059</v>
       </c>
+      <c r="C374" s="2" t="s">
+        <v>285</v>
+      </c>
       <c r="D374" s="0" t="s">
         <v>11</v>
       </c>
@@ -12300,14 +12346,16 @@
         <v>1061</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="375">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="375">
       <c r="A375" s="0" t="s">
         <v>1065</v>
       </c>
       <c r="B375" s="2" t="s">
         <v>1059</v>
       </c>
-      <c r="C375" s="2"/>
+      <c r="C375" s="2" t="s">
+        <v>285</v>
+      </c>
       <c r="D375" s="0" t="s">
         <v>11</v>
       </c>
@@ -12324,13 +12372,16 @@
         <v>1061</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="376">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="376">
       <c r="A376" s="0" t="s">
         <v>1066</v>
       </c>
       <c r="B376" s="0" t="s">
         <v>1059</v>
       </c>
+      <c r="C376" s="2" t="s">
+        <v>285</v>
+      </c>
       <c r="D376" s="0" t="s">
         <v>25</v>
       </c>
@@ -12347,13 +12398,16 @@
         <v>1061</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="377">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="377">
       <c r="A377" s="0" t="s">
         <v>1067</v>
       </c>
       <c r="B377" s="0" t="s">
         <v>1068</v>
       </c>
+      <c r="C377" s="0" t="s">
+        <v>15</v>
+      </c>
       <c r="D377" s="0" t="s">
         <v>25</v>
       </c>
@@ -12364,13 +12418,16 @@
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="378">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="378">
       <c r="A378" s="0" t="s">
         <v>1069</v>
       </c>
       <c r="B378" s="0" t="s">
         <v>1070</v>
       </c>
+      <c r="C378" s="0" t="s">
+        <v>15</v>
+      </c>
       <c r="D378" s="0" t="s">
         <v>11</v>
       </c>
@@ -12384,14 +12441,16 @@
         <v>1071</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="379">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="379">
       <c r="A379" s="0" t="s">
         <v>1072</v>
       </c>
       <c r="B379" s="2" t="s">
         <v>1073</v>
       </c>
-      <c r="C379" s="2"/>
+      <c r="C379" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="D379" s="0" t="s">
         <v>30</v>
       </c>
@@ -12408,13 +12467,16 @@
         <v>1075</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="380">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="380">
       <c r="A380" s="0" t="s">
         <v>1076</v>
       </c>
       <c r="B380" s="0" t="s">
         <v>1077</v>
       </c>
+      <c r="C380" s="0" t="s">
+        <v>15</v>
+      </c>
       <c r="D380" s="2" t="s">
         <v>25</v>
       </c>
@@ -12425,13 +12487,16 @@
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="381">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="381">
       <c r="A381" s="0" t="s">
         <v>1078</v>
       </c>
       <c r="B381" s="0" t="s">
         <v>1079</v>
       </c>
+      <c r="C381" s="0" t="s">
+        <v>15</v>
+      </c>
       <c r="D381" s="2" t="s">
         <v>25</v>
       </c>
@@ -12446,13 +12511,16 @@
       </c>
       <c r="I381" s="2"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="382">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="382">
       <c r="A382" s="0" t="s">
         <v>1081</v>
       </c>
       <c r="B382" s="0" t="s">
         <v>1082</v>
       </c>
+      <c r="C382" s="0" t="s">
+        <v>54</v>
+      </c>
       <c r="D382" s="0" t="s">
         <v>11</v>
       </c>
@@ -12463,13 +12531,16 @@
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="383">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="383">
       <c r="A383" s="0" t="s">
         <v>1083</v>
       </c>
       <c r="B383" s="0" t="s">
         <v>1084</v>
       </c>
+      <c r="C383" s="0" t="s">
+        <v>15</v>
+      </c>
       <c r="D383" s="0" t="s">
         <v>16</v>
       </c>
@@ -12480,13 +12551,16 @@
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="384">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="384">
       <c r="A384" s="0" t="s">
         <v>1085</v>
       </c>
       <c r="B384" s="0" t="s">
         <v>1086</v>
       </c>
+      <c r="C384" s="0" t="s">
+        <v>285</v>
+      </c>
       <c r="D384" s="0" t="s">
         <v>16</v>
       </c>
@@ -12503,13 +12577,16 @@
         <v>33</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="385">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="385">
       <c r="A385" s="0" t="s">
         <v>1088</v>
       </c>
       <c r="B385" s="0" t="s">
         <v>1089</v>
       </c>
+      <c r="C385" s="0" t="s">
+        <v>112</v>
+      </c>
       <c r="D385" s="0" t="s">
         <v>11</v>
       </c>
@@ -12520,13 +12597,16 @@
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="386">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="386">
       <c r="A386" s="0" t="s">
         <v>1090</v>
       </c>
       <c r="B386" s="0" t="s">
         <v>1091</v>
       </c>
+      <c r="C386" s="0" t="s">
+        <v>15</v>
+      </c>
       <c r="D386" s="0" t="s">
         <v>25</v>
       </c>
@@ -12540,13 +12620,16 @@
         <v>1092</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="387">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="387">
       <c r="A387" s="0" t="s">
         <v>1093</v>
       </c>
       <c r="B387" s="0" t="s">
         <v>1094</v>
       </c>
+      <c r="C387" s="0" t="s">
+        <v>15</v>
+      </c>
       <c r="D387" s="0" t="s">
         <v>11</v>
       </c>
@@ -12560,13 +12643,16 @@
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="388">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="388">
       <c r="A388" s="0" t="s">
         <v>1096</v>
       </c>
       <c r="B388" s="0" t="s">
         <v>1097</v>
       </c>
+      <c r="C388" s="0" t="s">
+        <v>15</v>
+      </c>
       <c r="D388" s="0" t="s">
         <v>30</v>
       </c>
@@ -12577,13 +12663,16 @@
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="389">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="389">
       <c r="A389" s="0" t="s">
         <v>1098</v>
       </c>
       <c r="B389" s="0" t="s">
         <v>1099</v>
       </c>
+      <c r="C389" s="0" t="s">
+        <v>15</v>
+      </c>
       <c r="D389" s="0" t="s">
         <v>758</v>
       </c>
@@ -12597,13 +12686,16 @@
         <v>1100</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="390">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="390">
       <c r="A390" s="0" t="s">
         <v>1101</v>
       </c>
       <c r="B390" s="0" t="s">
         <v>1102</v>
       </c>
+      <c r="C390" s="0" t="s">
+        <v>15</v>
+      </c>
       <c r="D390" s="0" t="s">
         <v>11</v>
       </c>
@@ -12617,13 +12709,16 @@
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="391">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="391">
       <c r="A391" s="0" t="s">
         <v>1104</v>
       </c>
       <c r="B391" s="0" t="s">
         <v>1105</v>
       </c>
+      <c r="C391" s="0" t="s">
+        <v>15</v>
+      </c>
       <c r="D391" s="0" t="s">
         <v>11</v>
       </c>
@@ -12634,13 +12729,16 @@
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="392">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="392">
       <c r="A392" s="0" t="s">
         <v>1106</v>
       </c>
       <c r="B392" s="0" t="s">
         <v>1107</v>
       </c>
+      <c r="C392" s="0" t="s">
+        <v>15</v>
+      </c>
       <c r="D392" s="0" t="s">
         <v>36</v>
       </c>
@@ -12654,13 +12752,16 @@
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="393">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="393">
       <c r="A393" s="0" t="s">
         <v>1109</v>
       </c>
       <c r="B393" s="0" t="s">
         <v>1110</v>
       </c>
+      <c r="C393" s="0" t="s">
+        <v>195</v>
+      </c>
       <c r="D393" s="0" t="s">
         <v>25</v>
       </c>
@@ -12674,13 +12775,16 @@
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="394">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="394">
       <c r="A394" s="0" t="s">
         <v>1112</v>
       </c>
       <c r="B394" s="0" t="s">
         <v>1113</v>
       </c>
+      <c r="C394" s="0" t="s">
+        <v>15</v>
+      </c>
       <c r="D394" s="0" t="s">
         <v>36</v>
       </c>
@@ -12697,13 +12801,16 @@
         <v>1115</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="395">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="395">
       <c r="A395" s="0" t="s">
         <v>1116</v>
       </c>
       <c r="B395" s="0" t="s">
         <v>1117</v>
       </c>
+      <c r="C395" s="0" t="s">
+        <v>15</v>
+      </c>
       <c r="D395" s="0" t="s">
         <v>25</v>
       </c>
@@ -12717,13 +12824,16 @@
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="396">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="396">
       <c r="A396" s="0" t="s">
         <v>1119</v>
       </c>
       <c r="B396" s="0" t="s">
         <v>1120</v>
       </c>
+      <c r="C396" s="0" t="s">
+        <v>15</v>
+      </c>
       <c r="D396" s="0" t="s">
         <v>11</v>
       </c>
@@ -12734,14 +12844,16 @@
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="397">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="397">
       <c r="A397" s="0" t="s">
         <v>1121</v>
       </c>
       <c r="B397" s="2" t="s">
         <v>1122</v>
       </c>
-      <c r="C397" s="2"/>
+      <c r="C397" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="D397" s="0" t="s">
         <v>30</v>
       </c>
@@ -12755,13 +12867,16 @@
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="398">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="398">
       <c r="A398" s="0" t="s">
         <v>1124</v>
       </c>
       <c r="B398" s="0" t="s">
         <v>1125</v>
       </c>
+      <c r="C398" s="0" t="s">
+        <v>15</v>
+      </c>
       <c r="D398" s="0" t="s">
         <v>11</v>
       </c>
@@ -12775,13 +12890,16 @@
         <v>1126</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="399">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="399">
       <c r="A399" s="0" t="s">
         <v>1127</v>
       </c>
       <c r="B399" s="0" t="s">
         <v>1128</v>
       </c>
+      <c r="C399" s="0" t="s">
+        <v>15</v>
+      </c>
       <c r="D399" s="0" t="s">
         <v>11</v>
       </c>
@@ -12792,13 +12910,16 @@
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="400">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="400">
       <c r="A400" s="0" t="s">
         <v>1129</v>
       </c>
       <c r="B400" s="0" t="s">
         <v>1130</v>
       </c>
+      <c r="C400" s="0" t="s">
+        <v>15</v>
+      </c>
       <c r="D400" s="0" t="s">
         <v>11</v>
       </c>
@@ -12813,13 +12934,16 @@
       </c>
       <c r="I400" s="2"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="401">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="401">
       <c r="A401" s="2" t="s">
         <v>1132</v>
       </c>
       <c r="B401" s="0" t="s">
         <v>1133</v>
       </c>
+      <c r="C401" s="0" t="s">
+        <v>15</v>
+      </c>
       <c r="D401" s="2" t="s">
         <v>11</v>
       </c>
@@ -12831,13 +12955,16 @@
       </c>
       <c r="H401" s="2"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="402">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="402">
       <c r="A402" s="0" t="s">
         <v>1134</v>
       </c>
       <c r="B402" s="0" t="s">
         <v>1135</v>
       </c>
+      <c r="C402" s="0" t="s">
+        <v>15</v>
+      </c>
       <c r="D402" s="0" t="s">
         <v>11</v>
       </c>
@@ -12848,13 +12975,16 @@
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="403">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="403">
       <c r="A403" s="0" t="s">
         <v>1136</v>
       </c>
       <c r="B403" s="0" t="s">
         <v>1137</v>
       </c>
+      <c r="C403" s="0" t="s">
+        <v>15</v>
+      </c>
       <c r="D403" s="0" t="s">
         <v>11</v>
       </c>
@@ -12865,13 +12995,16 @@
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="404">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="404">
       <c r="A404" s="0" t="s">
         <v>1138</v>
       </c>
       <c r="B404" s="0" t="s">
         <v>1139</v>
       </c>
+      <c r="C404" s="0" t="s">
+        <v>15</v>
+      </c>
       <c r="D404" s="0" t="s">
         <v>11</v>
       </c>
@@ -12882,13 +13015,16 @@
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="405">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="405">
       <c r="A405" s="0" t="s">
         <v>1140</v>
       </c>
       <c r="B405" s="0" t="s">
         <v>1141</v>
       </c>
+      <c r="C405" s="0" t="s">
+        <v>15</v>
+      </c>
       <c r="D405" s="0" t="s">
         <v>11</v>
       </c>
@@ -12899,13 +13035,16 @@
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="406">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="406">
       <c r="A406" s="0" t="s">
         <v>1142</v>
       </c>
       <c r="B406" s="0" t="s">
         <v>1143</v>
       </c>
+      <c r="C406" s="0" t="s">
+        <v>903</v>
+      </c>
       <c r="D406" s="0" t="s">
         <v>16</v>
       </c>
@@ -12919,13 +13058,16 @@
         <v>1144</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="407">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="407">
       <c r="A407" s="0" t="s">
         <v>1145</v>
       </c>
       <c r="B407" s="0" t="s">
         <v>1146</v>
       </c>
+      <c r="C407" s="0" t="s">
+        <v>15</v>
+      </c>
       <c r="D407" s="0" t="s">
         <v>11</v>
       </c>
@@ -12936,13 +13078,16 @@
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="408">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="408">
       <c r="A408" s="0" t="s">
         <v>1147</v>
       </c>
       <c r="B408" s="0" t="s">
         <v>1148</v>
       </c>
+      <c r="C408" s="0" t="s">
+        <v>15</v>
+      </c>
       <c r="D408" s="0" t="s">
         <v>11</v>
       </c>
@@ -12956,13 +13101,16 @@
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="409">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="409">
       <c r="A409" s="0" t="s">
         <v>1150</v>
       </c>
       <c r="B409" s="0" t="s">
         <v>1151</v>
       </c>
+      <c r="C409" s="0" t="s">
+        <v>15</v>
+      </c>
       <c r="D409" s="0" t="s">
         <v>25</v>
       </c>
@@ -12973,14 +13121,16 @@
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="410">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="410">
       <c r="A410" s="0" t="s">
         <v>1152</v>
       </c>
       <c r="B410" s="2" t="s">
         <v>1153</v>
       </c>
-      <c r="C410" s="2"/>
+      <c r="C410" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="D410" s="2" t="s">
         <v>30</v>
       </c>
@@ -12991,13 +13141,16 @@
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="411">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="411">
       <c r="A411" s="0" t="s">
         <v>1154</v>
       </c>
       <c r="B411" s="0" t="s">
         <v>1155</v>
       </c>
+      <c r="C411" s="0" t="s">
+        <v>15</v>
+      </c>
       <c r="D411" s="0" t="s">
         <v>25</v>
       </c>
@@ -13011,13 +13164,16 @@
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="412">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="412">
       <c r="A412" s="0" t="s">
         <v>1157</v>
       </c>
       <c r="B412" s="0" t="s">
         <v>1158</v>
       </c>
+      <c r="C412" s="0" t="s">
+        <v>15</v>
+      </c>
       <c r="D412" s="0" t="s">
         <v>25</v>
       </c>
@@ -13028,13 +13184,16 @@
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="413">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="413">
       <c r="A413" s="0" t="s">
         <v>1159</v>
       </c>
       <c r="B413" s="0" t="s">
         <v>1160</v>
       </c>
+      <c r="C413" s="0" t="s">
+        <v>15</v>
+      </c>
       <c r="D413" s="0" t="s">
         <v>30</v>
       </c>
@@ -13048,13 +13207,16 @@
         <v>1161</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="414">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="414">
       <c r="A414" s="0" t="s">
         <v>1162</v>
       </c>
       <c r="B414" s="0" t="s">
         <v>1163</v>
       </c>
+      <c r="C414" s="0" t="s">
+        <v>15</v>
+      </c>
       <c r="D414" s="0" t="s">
         <v>758</v>
       </c>
@@ -13068,13 +13230,16 @@
         <v>1164</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="415">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="415">
       <c r="A415" s="0" t="s">
         <v>1165</v>
       </c>
       <c r="B415" s="0" t="s">
         <v>1166</v>
       </c>
+      <c r="C415" s="0" t="s">
+        <v>285</v>
+      </c>
       <c r="D415" s="0" t="s">
         <v>11</v>
       </c>
@@ -13085,13 +13250,16 @@
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="416">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="416">
       <c r="A416" s="0" t="s">
         <v>1167</v>
       </c>
       <c r="B416" s="0" t="s">
         <v>1168</v>
       </c>
+      <c r="C416" s="0" t="s">
+        <v>15</v>
+      </c>
       <c r="D416" s="0" t="s">
         <v>11</v>
       </c>
@@ -13102,13 +13270,16 @@
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="417">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="417">
       <c r="A417" s="0" t="s">
         <v>1169</v>
       </c>
       <c r="B417" s="0" t="s">
         <v>1170</v>
       </c>
+      <c r="C417" s="0" t="s">
+        <v>15</v>
+      </c>
       <c r="D417" s="0" t="s">
         <v>36</v>
       </c>
@@ -13122,13 +13293,16 @@
         <v>1171</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="418">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="418">
       <c r="A418" s="0" t="s">
         <v>1172</v>
       </c>
       <c r="B418" s="0" t="s">
         <v>1173</v>
       </c>
+      <c r="C418" s="0" t="s">
+        <v>903</v>
+      </c>
       <c r="D418" s="2" t="s">
         <v>25</v>
       </c>
@@ -13142,13 +13316,16 @@
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="419">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="419">
       <c r="A419" s="0" t="s">
         <v>1175</v>
       </c>
       <c r="B419" s="0" t="s">
         <v>1176</v>
       </c>
+      <c r="C419" s="0" t="s">
+        <v>195</v>
+      </c>
       <c r="D419" s="2" t="s">
         <v>25</v>
       </c>
@@ -13159,13 +13336,16 @@
         <v>11</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="420">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="420">
       <c r="A420" s="0" t="s">
         <v>1177</v>
       </c>
       <c r="B420" s="0" t="s">
         <v>1178</v>
       </c>
+      <c r="C420" s="0" t="s">
+        <v>15</v>
+      </c>
       <c r="D420" s="0" t="s">
         <v>25</v>
       </c>
@@ -13176,13 +13356,16 @@
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="421">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="421">
       <c r="A421" s="0" t="s">
         <v>1179</v>
       </c>
       <c r="B421" s="0" t="s">
         <v>1180</v>
       </c>
+      <c r="C421" s="0" t="s">
+        <v>15</v>
+      </c>
       <c r="D421" s="0" t="s">
         <v>30</v>
       </c>
@@ -13196,13 +13379,16 @@
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="422">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="422">
       <c r="A422" s="0" t="s">
         <v>1182</v>
       </c>
       <c r="B422" s="0" t="s">
         <v>1183</v>
       </c>
+      <c r="C422" s="0" t="s">
+        <v>15</v>
+      </c>
       <c r="D422" s="0" t="s">
         <v>25</v>
       </c>
@@ -13216,13 +13402,16 @@
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="423">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="423">
       <c r="A423" s="0" t="s">
         <v>1185</v>
       </c>
       <c r="B423" s="0" t="s">
         <v>1186</v>
       </c>
+      <c r="C423" s="0" t="s">
+        <v>15</v>
+      </c>
       <c r="D423" s="0" t="s">
         <v>758</v>
       </c>
@@ -13236,14 +13425,16 @@
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="424">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="424">
       <c r="A424" s="0" t="s">
         <v>1188</v>
       </c>
       <c r="B424" s="2" t="s">
         <v>1189</v>
       </c>
-      <c r="C424" s="2"/>
+      <c r="C424" s="2" t="s">
+        <v>903</v>
+      </c>
       <c r="D424" s="0" t="s">
         <v>758</v>
       </c>
@@ -13257,13 +13448,16 @@
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="425">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="425">
       <c r="A425" s="0" t="s">
         <v>1191</v>
       </c>
       <c r="B425" s="0" t="s">
         <v>1192</v>
       </c>
+      <c r="C425" s="0" t="s">
+        <v>15</v>
+      </c>
       <c r="D425" s="0" t="s">
         <v>16</v>
       </c>
@@ -13280,13 +13474,16 @@
         <v>209</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="426">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="426">
       <c r="A426" s="0" t="s">
         <v>1194</v>
       </c>
       <c r="B426" s="0" t="s">
         <v>1195</v>
       </c>
+      <c r="C426" s="0" t="s">
+        <v>15</v>
+      </c>
       <c r="D426" s="0" t="s">
         <v>25</v>
       </c>
@@ -13297,13 +13494,16 @@
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="427">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="427">
       <c r="A427" s="0" t="s">
         <v>1196</v>
       </c>
       <c r="B427" s="0" t="s">
         <v>1197</v>
       </c>
+      <c r="C427" s="0" t="s">
+        <v>15</v>
+      </c>
       <c r="D427" s="0" t="s">
         <v>236</v>
       </c>
@@ -13314,13 +13514,16 @@
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="428">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="428">
       <c r="A428" s="0" t="s">
         <v>1198</v>
       </c>
       <c r="B428" s="0" t="s">
         <v>1199</v>
       </c>
+      <c r="C428" s="0" t="s">
+        <v>15</v>
+      </c>
       <c r="D428" s="0" t="s">
         <v>236</v>
       </c>
@@ -13334,14 +13537,16 @@
         <v>1200</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="429">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="429">
       <c r="A429" s="0" t="s">
         <v>1201</v>
       </c>
       <c r="B429" s="2" t="s">
         <v>1202</v>
       </c>
-      <c r="C429" s="2"/>
+      <c r="C429" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="D429" s="0" t="s">
         <v>236</v>
       </c>
@@ -13355,13 +13560,16 @@
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="430">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="430">
       <c r="A430" s="0" t="s">
         <v>1204</v>
       </c>
       <c r="B430" s="0" t="s">
         <v>1205</v>
       </c>
+      <c r="C430" s="0" t="s">
+        <v>15</v>
+      </c>
       <c r="D430" s="0" t="s">
         <v>236</v>
       </c>
@@ -13375,13 +13583,16 @@
         <v>1206</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="431">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="431">
       <c r="A431" s="0" t="s">
         <v>1207</v>
       </c>
       <c r="B431" s="0" t="s">
         <v>1208</v>
       </c>
+      <c r="C431" s="0" t="s">
+        <v>15</v>
+      </c>
       <c r="D431" s="0" t="s">
         <v>25</v>
       </c>
@@ -13395,13 +13606,16 @@
         <v>1209</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="432">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="432">
       <c r="A432" s="0" t="s">
         <v>1210</v>
       </c>
       <c r="B432" s="0" t="s">
         <v>1211</v>
       </c>
+      <c r="C432" s="0" t="s">
+        <v>15</v>
+      </c>
       <c r="D432" s="0" t="s">
         <v>30</v>
       </c>
@@ -13415,13 +13629,16 @@
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="433">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="433">
       <c r="A433" s="0" t="s">
         <v>1213</v>
       </c>
       <c r="B433" s="0" t="s">
         <v>1214</v>
       </c>
+      <c r="C433" s="0" t="s">
+        <v>15</v>
+      </c>
       <c r="D433" s="0" t="s">
         <v>11</v>
       </c>
@@ -13432,13 +13649,16 @@
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="434">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="434">
       <c r="A434" s="0" t="s">
         <v>1215</v>
       </c>
       <c r="B434" s="0" t="s">
         <v>1216</v>
       </c>
+      <c r="C434" s="0" t="s">
+        <v>15</v>
+      </c>
       <c r="D434" s="0" t="s">
         <v>25</v>
       </c>
@@ -13452,13 +13672,16 @@
         <v>1217</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="435">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="435">
       <c r="A435" s="0" t="s">
         <v>1218</v>
       </c>
       <c r="B435" s="0" t="s">
         <v>1219</v>
       </c>
+      <c r="C435" s="0" t="s">
+        <v>15</v>
+      </c>
       <c r="D435" s="2" t="s">
         <v>25</v>
       </c>
@@ -13472,13 +13695,16 @@
         <v>1217</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="436">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="436">
       <c r="A436" s="0" t="s">
         <v>1220</v>
       </c>
       <c r="B436" s="0" t="s">
         <v>1221</v>
       </c>
+      <c r="C436" s="0" t="s">
+        <v>15</v>
+      </c>
       <c r="D436" s="0" t="s">
         <v>11</v>
       </c>
@@ -13492,13 +13718,16 @@
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="437">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="437">
       <c r="A437" s="0" t="s">
         <v>1223</v>
       </c>
       <c r="B437" s="0" t="s">
         <v>1224</v>
       </c>
+      <c r="C437" s="0" t="s">
+        <v>15</v>
+      </c>
       <c r="D437" s="0" t="s">
         <v>11</v>
       </c>
@@ -13512,13 +13741,16 @@
         <v>1225</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="438">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="438">
       <c r="A438" s="0" t="s">
         <v>1226</v>
       </c>
       <c r="B438" s="0" t="s">
         <v>1227</v>
       </c>
+      <c r="C438" s="0" t="s">
+        <v>15</v>
+      </c>
       <c r="D438" s="0" t="s">
         <v>36</v>
       </c>
@@ -13532,13 +13764,16 @@
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="439">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="439">
       <c r="A439" s="0" t="s">
         <v>1229</v>
       </c>
       <c r="B439" s="0" t="s">
         <v>1230</v>
       </c>
+      <c r="C439" s="0" t="s">
+        <v>903</v>
+      </c>
       <c r="D439" s="0" t="s">
         <v>11</v>
       </c>
@@ -13552,13 +13787,16 @@
         <v>1231</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="440">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="440">
       <c r="A440" s="0" t="s">
         <v>1232</v>
       </c>
       <c r="B440" s="0" t="s">
         <v>1233</v>
       </c>
+      <c r="C440" s="0" t="s">
+        <v>903</v>
+      </c>
       <c r="D440" s="0" t="s">
         <v>25</v>
       </c>
@@ -13575,13 +13813,16 @@
         <v>1231</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="441">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="441">
       <c r="A441" s="0" t="s">
         <v>1235</v>
       </c>
       <c r="B441" s="0" t="s">
         <v>1236</v>
       </c>
+      <c r="C441" s="0" t="s">
+        <v>903</v>
+      </c>
       <c r="D441" s="0" t="s">
         <v>11</v>
       </c>
@@ -13598,13 +13839,16 @@
         <v>1231</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="442">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="442">
       <c r="A442" s="0" t="s">
         <v>1238</v>
       </c>
       <c r="B442" s="0" t="s">
         <v>1239</v>
       </c>
+      <c r="C442" s="0" t="s">
+        <v>15</v>
+      </c>
       <c r="D442" s="0" t="s">
         <v>11</v>
       </c>
@@ -13618,13 +13862,16 @@
         <v>1240</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="443">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="443">
       <c r="A443" s="0" t="s">
         <v>1241</v>
       </c>
       <c r="B443" s="0" t="s">
         <v>1242</v>
       </c>
+      <c r="C443" s="0" t="s">
+        <v>195</v>
+      </c>
       <c r="D443" s="0" t="s">
         <v>30</v>
       </c>
@@ -13641,12 +13888,15 @@
         <v>1244</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="444">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="444">
       <c r="A444" s="0" t="s">
         <v>1245</v>
       </c>
       <c r="B444" s="0" t="s">
         <v>1246</v>
+      </c>
+      <c r="C444" s="0" t="s">
+        <v>112</v>
       </c>
       <c r="D444" s="0" t="s">
         <v>11</v>
@@ -13701,9 +13951,6 @@
       <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <cols>
-    <col collapsed="false" hidden="false" max="257" min="1" style="0" width="8.92941176470588"/>
-  </cols>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -13726,9 +13973,6 @@
       <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <cols>
-    <col collapsed="false" hidden="false" max="257" min="1" style="0" width="8.92941176470588"/>
-  </cols>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
